--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8B66B2-39F0-424F-A0F7-B70DC11CC948}"/>
+  <xr:revisionPtr revIDLastSave="762" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71188563-9032-4BDB-B702-0DA4D30D69A7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11430" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
   <si>
     <t>date</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1095,19 +1095,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44757</v>
       </c>
@@ -1177,16 +1177,17 @@
         <v>500</v>
       </c>
       <c r="J2">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <f t="shared" ref="K2:K32" si="0">J2+49</f>
+        <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44757</v>
       </c>
@@ -1215,16 +1216,17 @@
         <v>500</v>
       </c>
       <c r="J3">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44757</v>
       </c>
@@ -1253,16 +1255,17 @@
         <v>500</v>
       </c>
       <c r="J4">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K4">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44757</v>
       </c>
@@ -1291,16 +1294,17 @@
         <v>500</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44757</v>
       </c>
@@ -1329,16 +1333,17 @@
         <v>500</v>
       </c>
       <c r="J6">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44757</v>
       </c>
@@ -1367,16 +1372,17 @@
         <v>500</v>
       </c>
       <c r="J7">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44757</v>
       </c>
@@ -1405,16 +1411,17 @@
         <v>500</v>
       </c>
       <c r="J8">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K8">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44757</v>
       </c>
@@ -1443,16 +1450,17 @@
         <v>500</v>
       </c>
       <c r="J9">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44757</v>
       </c>
@@ -1481,16 +1489,17 @@
         <v>500</v>
       </c>
       <c r="J10">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44757</v>
       </c>
@@ -1519,16 +1528,17 @@
         <v>500</v>
       </c>
       <c r="J11">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44757</v>
       </c>
@@ -1557,17 +1567,17 @@
         <v>500</v>
       </c>
       <c r="J12">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K70" si="0">J12+49</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>550</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44757</v>
       </c>
@@ -1596,17 +1606,17 @@
         <v>500</v>
       </c>
       <c r="J13">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44757</v>
       </c>
@@ -1635,17 +1645,17 @@
         <v>500</v>
       </c>
       <c r="J14">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44757</v>
       </c>
@@ -1674,17 +1684,17 @@
         <v>500</v>
       </c>
       <c r="J15">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44757</v>
       </c>
@@ -1713,17 +1723,17 @@
         <v>500</v>
       </c>
       <c r="J16">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44757</v>
       </c>
@@ -1752,17 +1762,17 @@
         <v>500</v>
       </c>
       <c r="J17">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44757</v>
       </c>
@@ -1791,17 +1801,17 @@
         <v>500</v>
       </c>
       <c r="J18">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44757</v>
       </c>
@@ -1830,17 +1840,17 @@
         <v>500</v>
       </c>
       <c r="J19">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44757</v>
       </c>
@@ -1869,17 +1879,17 @@
         <v>500</v>
       </c>
       <c r="J20">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44757</v>
       </c>
@@ -1908,17 +1918,17 @@
         <v>500</v>
       </c>
       <c r="J21">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44757</v>
       </c>
@@ -1947,17 +1957,17 @@
         <v>500</v>
       </c>
       <c r="J22">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44757</v>
       </c>
@@ -1986,17 +1996,17 @@
         <v>500</v>
       </c>
       <c r="J23">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44757</v>
       </c>
@@ -2025,17 +2035,17 @@
         <v>500</v>
       </c>
       <c r="J24">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44757</v>
       </c>
@@ -2064,17 +2074,17 @@
         <v>500</v>
       </c>
       <c r="J25">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44757</v>
       </c>
@@ -2103,17 +2113,17 @@
         <v>500</v>
       </c>
       <c r="J26">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44757</v>
       </c>
@@ -2142,17 +2152,17 @@
         <v>500</v>
       </c>
       <c r="J27">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44757</v>
       </c>
@@ -2181,17 +2191,17 @@
         <v>500</v>
       </c>
       <c r="J28">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44757</v>
       </c>
@@ -2220,17 +2230,17 @@
         <v>500</v>
       </c>
       <c r="J29">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44757</v>
       </c>
@@ -2259,17 +2269,17 @@
         <v>500</v>
       </c>
       <c r="J30">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
@@ -2298,17 +2308,17 @@
         <v>500</v>
       </c>
       <c r="J31">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44757</v>
       </c>
@@ -2337,17 +2347,17 @@
         <v>500</v>
       </c>
       <c r="J32">
-        <v>251</v>
+        <v>601</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44757</v>
       </c>
@@ -2376,17 +2386,18 @@
         <v>500</v>
       </c>
       <c r="J33">
-        <v>251</v>
+        <f>J32</f>
+        <v>601</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>K32</f>
+        <v>650</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44757</v>
       </c>
@@ -2415,17 +2426,18 @@
         <v>500</v>
       </c>
       <c r="J34">
-        <v>251</v>
+        <f t="shared" ref="J34:J61" si="1">J33</f>
+        <v>601</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" ref="K34:K41" si="2">K33</f>
+        <v>650</v>
       </c>
       <c r="M34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44757</v>
       </c>
@@ -2454,17 +2466,18 @@
         <v>500</v>
       </c>
       <c r="J35">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44757</v>
       </c>
@@ -2493,17 +2506,18 @@
         <v>500</v>
       </c>
       <c r="J36">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44757</v>
       </c>
@@ -2532,17 +2546,18 @@
         <v>500</v>
       </c>
       <c r="J37">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44757</v>
       </c>
@@ -2571,17 +2586,18 @@
         <v>500</v>
       </c>
       <c r="J38">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44757</v>
       </c>
@@ -2610,17 +2626,18 @@
         <v>500</v>
       </c>
       <c r="J39">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44757</v>
       </c>
@@ -2649,17 +2666,18 @@
         <v>500</v>
       </c>
       <c r="J40">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44757</v>
       </c>
@@ -2688,17 +2706,18 @@
         <v>500</v>
       </c>
       <c r="J41">
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="M41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44757</v>
       </c>
@@ -2727,17 +2746,17 @@
         <v>500</v>
       </c>
       <c r="J42">
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f>J42+49</f>
+        <v>700</v>
       </c>
       <c r="M42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44757</v>
       </c>
@@ -2766,18 +2785,18 @@
         <v>500</v>
       </c>
       <c r="J43">
-        <f>J42</f>
-        <v>301</v>
+        <f t="shared" si="1"/>
+        <v>651</v>
       </c>
       <c r="K43">
-        <f>K42</f>
-        <v>350</v>
+        <f t="shared" ref="K43:K61" si="3">J43+49</f>
+        <v>700</v>
       </c>
       <c r="M43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44757</v>
       </c>
@@ -2806,18 +2825,18 @@
         <v>500</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44:J71" si="1">J43</f>
-        <v>301</v>
+        <f t="shared" si="1"/>
+        <v>651</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K71" si="2">K43</f>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44757</v>
       </c>
@@ -2847,17 +2866,17 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44757</v>
       </c>
@@ -2887,17 +2906,17 @@
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44757</v>
       </c>
@@ -2927,17 +2946,17 @@
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44757</v>
       </c>
@@ -2967,17 +2986,17 @@
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44757</v>
       </c>
@@ -3007,17 +3026,17 @@
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44757</v>
       </c>
@@ -3047,17 +3066,17 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44757</v>
       </c>
@@ -3087,17 +3106,17 @@
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>651</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="M51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44757</v>
       </c>
@@ -3126,17 +3145,17 @@
         <v>500</v>
       </c>
       <c r="J52">
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K52">
-        <f>J52+49</f>
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>750</v>
       </c>
       <c r="M52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44757</v>
       </c>
@@ -3166,17 +3185,17 @@
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:K71" si="3">J53+49</f>
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>750</v>
       </c>
       <c r="M53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44757</v>
       </c>
@@ -3206,17 +3225,17 @@
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K54">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44757</v>
       </c>
@@ -3246,17 +3265,17 @@
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K55">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44757</v>
       </c>
@@ -3286,17 +3305,17 @@
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K56">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44757</v>
       </c>
@@ -3326,17 +3345,17 @@
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K57">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44757</v>
       </c>
@@ -3366,17 +3385,17 @@
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K58">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M58" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44757</v>
       </c>
@@ -3406,17 +3425,17 @@
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K59">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44757</v>
       </c>
@@ -3446,17 +3465,17 @@
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K60">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44757</v>
       </c>
@@ -3486,22 +3505,22 @@
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="K61">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44757</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3513,7 +3532,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F62">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0.09</v>
@@ -3525,22 +3544,22 @@
         <v>500</v>
       </c>
       <c r="J62">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J62+9</f>
+        <v>160</v>
       </c>
       <c r="M62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44757</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3552,7 +3571,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F63">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0.09</v>
@@ -3564,23 +3583,23 @@
         <v>500</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f>J62+10</f>
+        <v>161</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J63+9</f>
+        <v>170</v>
       </c>
       <c r="M63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44757</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3592,7 +3611,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F64">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0.09</v>
@@ -3604,23 +3623,23 @@
         <v>500</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" ref="J64:J71" si="4">J63+10</f>
+        <v>171</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J64+9</f>
+        <v>180</v>
       </c>
       <c r="M64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44757</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3632,7 +3651,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F65">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0.09</v>
@@ -3644,23 +3663,23 @@
         <v>500</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>181</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J65+9</f>
+        <v>190</v>
       </c>
       <c r="M65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44757</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3672,7 +3691,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0.09</v>
@@ -3684,23 +3703,23 @@
         <v>500</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>191</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J66+9</f>
+        <v>200</v>
       </c>
       <c r="M66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44757</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3712,7 +3731,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F67">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0.09</v>
@@ -3724,23 +3743,23 @@
         <v>500</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>201</v>
       </c>
       <c r="K67">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J67+9</f>
+        <v>210</v>
       </c>
       <c r="M67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44757</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3752,7 +3771,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F68">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0.09</v>
@@ -3764,23 +3783,23 @@
         <v>500</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>211</v>
       </c>
       <c r="K68">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J68+9</f>
+        <v>220</v>
       </c>
       <c r="M68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44757</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3792,7 +3811,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F69">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0.09</v>
@@ -3804,23 +3823,23 @@
         <v>500</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>221</v>
       </c>
       <c r="K69">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J69+9</f>
+        <v>230</v>
       </c>
       <c r="M69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44757</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3832,7 +3851,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F70">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0.09</v>
@@ -3844,23 +3863,23 @@
         <v>500</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>231</v>
       </c>
       <c r="K70">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J70+9</f>
+        <v>240</v>
       </c>
       <c r="M70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44757</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3872,7 +3891,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0.09</v>
@@ -3884,87 +3903,61 @@
         <v>500</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="4"/>
+        <v>241</v>
       </c>
       <c r="K71">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f>J71+9</f>
+        <v>250</v>
       </c>
       <c r="M71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>44757</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0.09</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>500</v>
-      </c>
-      <c r="J72">
-        <v>120</v>
-      </c>
-      <c r="K72">
-        <v>150</v>
-      </c>
-      <c r="M72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="762" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71188563-9032-4BDB-B702-0DA4D30D69A7}"/>
+  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6242EA36-1705-4E72-9F24-562C64EEE237}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,7 +1099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1177,11 +1177,11 @@
         <v>500</v>
       </c>
       <c r="J2">
-        <v>451</v>
+        <v>751</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K32" si="0">J2+49</f>
-        <v>500</v>
+        <f t="shared" ref="K2:K51" si="0">J2+49</f>
+        <v>800</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -1216,11 +1216,12 @@
         <v>500</v>
       </c>
       <c r="J3">
-        <v>451</v>
+        <f t="shared" ref="J3:J51" si="1">J2</f>
+        <v>751</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -1255,11 +1256,12 @@
         <v>500</v>
       </c>
       <c r="J4">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -1294,11 +1296,12 @@
         <v>500</v>
       </c>
       <c r="J5">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -1333,11 +1336,12 @@
         <v>500</v>
       </c>
       <c r="J6">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -1372,11 +1376,12 @@
         <v>500</v>
       </c>
       <c r="J7">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -1411,11 +1416,12 @@
         <v>500</v>
       </c>
       <c r="J8">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -1450,11 +1456,12 @@
         <v>500</v>
       </c>
       <c r="J9">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
@@ -1489,11 +1496,12 @@
         <v>500</v>
       </c>
       <c r="J10">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
@@ -1528,11 +1536,12 @@
         <v>500</v>
       </c>
       <c r="J11">
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>751</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -1567,11 +1576,11 @@
         <v>500</v>
       </c>
       <c r="J12">
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1606,11 +1615,12 @@
         <v>500</v>
       </c>
       <c r="J13">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1645,11 +1655,12 @@
         <v>500</v>
       </c>
       <c r="J14">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
@@ -1684,11 +1695,12 @@
         <v>500</v>
       </c>
       <c r="J15">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1723,11 +1735,12 @@
         <v>500</v>
       </c>
       <c r="J16">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
@@ -1762,11 +1775,12 @@
         <v>500</v>
       </c>
       <c r="J17">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
@@ -1801,11 +1815,12 @@
         <v>500</v>
       </c>
       <c r="J18">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
@@ -1840,11 +1855,12 @@
         <v>500</v>
       </c>
       <c r="J19">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
@@ -1879,11 +1895,12 @@
         <v>500</v>
       </c>
       <c r="J20">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
@@ -1918,11 +1935,12 @@
         <v>500</v>
       </c>
       <c r="J21">
-        <v>501</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -1957,11 +1975,11 @@
         <v>500</v>
       </c>
       <c r="J22">
-        <v>551</v>
+        <v>851</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -1996,11 +2014,12 @@
         <v>500</v>
       </c>
       <c r="J23">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
@@ -2035,11 +2054,12 @@
         <v>500</v>
       </c>
       <c r="J24">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -2074,11 +2094,12 @@
         <v>500</v>
       </c>
       <c r="J25">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -2113,11 +2134,12 @@
         <v>500</v>
       </c>
       <c r="J26">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -2152,11 +2174,12 @@
         <v>500</v>
       </c>
       <c r="J27">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -2191,11 +2214,12 @@
         <v>500</v>
       </c>
       <c r="J28">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -2230,11 +2254,12 @@
         <v>500</v>
       </c>
       <c r="J29">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -2269,11 +2294,12 @@
         <v>500</v>
       </c>
       <c r="J30">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -2308,11 +2334,12 @@
         <v>500</v>
       </c>
       <c r="J31">
-        <v>551</v>
+        <f t="shared" si="1"/>
+        <v>851</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -2347,11 +2374,11 @@
         <v>500</v>
       </c>
       <c r="J32">
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M32" t="s">
         <v>27</v>
@@ -2386,12 +2413,12 @@
         <v>500</v>
       </c>
       <c r="J33">
-        <f>J32</f>
-        <v>601</v>
+        <f t="shared" si="1"/>
+        <v>901</v>
       </c>
       <c r="K33">
-        <f>K32</f>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M33" t="s">
         <v>27</v>
@@ -2426,12 +2453,12 @@
         <v>500</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J61" si="1">J33</f>
-        <v>601</v>
+        <f t="shared" si="1"/>
+        <v>901</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K41" si="2">K33</f>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M34" t="s">
         <v>27</v>
@@ -2467,11 +2494,11 @@
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M35" t="s">
         <v>27</v>
@@ -2507,11 +2534,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M36" t="s">
         <v>27</v>
@@ -2547,11 +2574,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M37" t="s">
         <v>27</v>
@@ -2587,11 +2614,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M38" t="s">
         <v>27</v>
@@ -2627,11 +2654,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M39" t="s">
         <v>27</v>
@@ -2667,11 +2694,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M40" t="s">
         <v>27</v>
@@ -2707,11 +2734,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>601</v>
+        <v>901</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="M41" t="s">
         <v>27</v>
@@ -2746,11 +2773,11 @@
         <v>500</v>
       </c>
       <c r="J42">
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K42">
-        <f>J42+49</f>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M42" t="s">
         <v>27</v>
@@ -2786,11 +2813,11 @@
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:K61" si="3">J43+49</f>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M43" t="s">
         <v>27</v>
@@ -2826,11 +2853,11 @@
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M44" t="s">
         <v>27</v>
@@ -2866,11 +2893,11 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M45" t="s">
         <v>27</v>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M46" t="s">
         <v>27</v>
@@ -2946,11 +2973,11 @@
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M47" t="s">
         <v>27</v>
@@ -2986,11 +3013,11 @@
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M48" t="s">
         <v>27</v>
@@ -3026,11 +3053,11 @@
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M49" t="s">
         <v>27</v>
@@ -3066,11 +3093,11 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M50" t="s">
         <v>27</v>
@@ -3106,11 +3133,11 @@
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>951</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="M51" t="s">
         <v>27</v>
@@ -3145,11 +3172,11 @@
         <v>500</v>
       </c>
       <c r="J52">
-        <v>701</v>
+        <v>1001</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" ref="K43:K61" si="2">J52+49</f>
+        <v>1050</v>
       </c>
       <c r="M52" t="s">
         <v>27</v>
@@ -3184,12 +3211,12 @@
         <v>500</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" ref="J34:J61" si="3">J52</f>
+        <v>1001</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M53" t="s">
         <v>27</v>
@@ -3224,12 +3251,12 @@
         <v>500</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M54" t="s">
         <v>27</v>
@@ -3264,12 +3291,12 @@
         <v>500</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M55" t="s">
         <v>27</v>
@@ -3304,12 +3331,12 @@
         <v>500</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M56" t="s">
         <v>27</v>
@@ -3344,12 +3371,12 @@
         <v>500</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M57" t="s">
         <v>27</v>
@@ -3384,12 +3411,12 @@
         <v>500</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M58" t="s">
         <v>27</v>
@@ -3424,12 +3451,12 @@
         <v>500</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M59" t="s">
         <v>27</v>
@@ -3464,12 +3491,12 @@
         <v>500</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M60" t="s">
         <v>27</v>
@@ -3504,12 +3531,12 @@
         <v>500</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>701</v>
+        <f t="shared" si="3"/>
+        <v>1001</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="M61" t="s">
         <v>27</v>
@@ -3544,11 +3571,11 @@
         <v>500</v>
       </c>
       <c r="J62">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="K62">
-        <f>J62+9</f>
-        <v>160</v>
+        <f t="shared" ref="K62:K71" si="4">J62+9</f>
+        <v>260</v>
       </c>
       <c r="M62" t="s">
         <v>25</v>
@@ -3584,11 +3611,11 @@
       </c>
       <c r="J63">
         <f>J62+10</f>
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="K63">
-        <f>J63+9</f>
-        <v>170</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="M63" t="s">
         <v>25</v>
@@ -3623,12 +3650,12 @@
         <v>500</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64:J71" si="4">J63+10</f>
-        <v>171</v>
+        <f t="shared" ref="J64:J71" si="5">J63+10</f>
+        <v>271</v>
       </c>
       <c r="K64">
-        <f>J64+9</f>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>280</v>
       </c>
       <c r="M64" t="s">
         <v>25</v>
@@ -3663,12 +3690,12 @@
         <v>500</v>
       </c>
       <c r="J65">
+        <f t="shared" si="5"/>
+        <v>281</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K65">
-        <f>J65+9</f>
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="M65" t="s">
         <v>25</v>
@@ -3703,12 +3730,12 @@
         <v>500</v>
       </c>
       <c r="J66">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="4"/>
-        <v>191</v>
-      </c>
-      <c r="K66">
-        <f>J66+9</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" t="s">
         <v>25</v>
@@ -3743,12 +3770,12 @@
         <v>500</v>
       </c>
       <c r="J67">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="4"/>
-        <v>201</v>
-      </c>
-      <c r="K67">
-        <f>J67+9</f>
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="M67" t="s">
         <v>25</v>
@@ -3783,12 +3810,12 @@
         <v>500</v>
       </c>
       <c r="J68">
+        <f t="shared" si="5"/>
+        <v>311</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="4"/>
-        <v>211</v>
-      </c>
-      <c r="K68">
-        <f>J68+9</f>
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="M68" t="s">
         <v>25</v>
@@ -3823,12 +3850,12 @@
         <v>500</v>
       </c>
       <c r="J69">
+        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="4"/>
-        <v>221</v>
-      </c>
-      <c r="K69">
-        <f>J69+9</f>
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M69" t="s">
         <v>25</v>
@@ -3863,12 +3890,12 @@
         <v>500</v>
       </c>
       <c r="J70">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="4"/>
-        <v>231</v>
-      </c>
-      <c r="K70">
-        <f>J70+9</f>
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="M70" t="s">
         <v>25</v>
@@ -3903,12 +3930,12 @@
         <v>500</v>
       </c>
       <c r="J71">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="K71">
-        <f>J71+9</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s">
         <v>25</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6242EA36-1705-4E72-9F24-562C64EEE237}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{388DFEE0-D5D9-46D0-B145-22730CA0EE28}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1098,16 +1098,16 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44757</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44757</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44757</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44757</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44757</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44757</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44757</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44757</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44757</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44757</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44757</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44757</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44757</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44757</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44757</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44757</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44757</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44757</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44757</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44757</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44757</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44757</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44757</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44757</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44757</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44757</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44757</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44757</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44757</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44757</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44757</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44757</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44757</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44757</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44757</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44757</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44757</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44757</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44757</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44757</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44757</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44757</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44757</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44757</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44757</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44757</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44757</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44757</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44757</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44757</v>
       </c>
@@ -3175,14 +3175,14 @@
         <v>1001</v>
       </c>
       <c r="K52">
-        <f t="shared" ref="K43:K61" si="2">J52+49</f>
+        <f t="shared" ref="K52:K61" si="2">J52+49</f>
         <v>1050</v>
       </c>
       <c r="M52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44757</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>500</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J34:J61" si="3">J52</f>
+        <f t="shared" ref="J53:J61" si="3">J52</f>
         <v>1001</v>
       </c>
       <c r="K53">
@@ -3222,7 +3222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44757</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44757</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44757</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44757</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44757</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44757</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44757</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44757</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44757</v>
       </c>
@@ -3571,17 +3571,17 @@
         <v>500</v>
       </c>
       <c r="J62">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="K62">
         <f t="shared" ref="K62:K71" si="4">J62+9</f>
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44757</v>
       </c>
@@ -3611,17 +3611,17 @@
       </c>
       <c r="J63">
         <f>J62+10</f>
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44757</v>
       </c>
@@ -3651,17 +3651,17 @@
       </c>
       <c r="J64">
         <f t="shared" ref="J64:J71" si="5">J63+10</f>
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="M64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44757</v>
       </c>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="J65">
         <f t="shared" si="5"/>
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44757</v>
       </c>
@@ -3731,17 +3731,17 @@
       </c>
       <c r="J66">
         <f t="shared" si="5"/>
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44757</v>
       </c>
@@ -3771,17 +3771,17 @@
       </c>
       <c r="J67">
         <f t="shared" si="5"/>
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44757</v>
       </c>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="J68">
         <f t="shared" si="5"/>
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44757</v>
       </c>
@@ -3851,17 +3851,17 @@
       </c>
       <c r="J69">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="M69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44757</v>
       </c>
@@ -3891,17 +3891,17 @@
       </c>
       <c r="J70">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="M70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44757</v>
       </c>
@@ -3931,59 +3931,59 @@
       </c>
       <c r="J71">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="806" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3063B0-9551-4A9F-B8DF-9E84E8C134E4}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F96708-2BEB-4CFB-9D42-308D953861F3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11430" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1125,15 +1125,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32:E61"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1182,11 +1182,11 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E2">
         <f>D2+99</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1221,12 +1221,12 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="0">D2</f>
-        <v>1</v>
+        <f t="shared" ref="D3:D41" si="0">D2</f>
+        <v>301</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3+99</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1462,11 +1462,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="D12">
         <f>D2+100</f>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E12">
         <f>D12+99</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D31" si="2">D3+100</f>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E31" si="3">D13+99</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1702,11 +1702,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1782,11 +1782,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -2102,11 +2102,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -2182,11 +2182,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2262,11 +2262,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2342,11 +2342,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2381,11 +2381,11 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E32">
         <f>D32+99</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E41" si="4">D33+99</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2461,11 +2461,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2581,11 +2581,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2621,11 +2621,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2661,11 +2661,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2701,11 +2701,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2781,11 +2781,11 @@
       </c>
       <c r="D42">
         <f>D32+100</f>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E42">
         <f>D42+99</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2821,11 +2821,11 @@
       </c>
       <c r="D43">
         <f t="shared" ref="D43:D61" si="5">D33+100</f>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:E61" si="6">D43+99</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E44">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E45">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2941,11 +2941,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E46">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E47">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E48">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -3061,11 +3061,11 @@
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E49">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E50">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -3141,11 +3141,11 @@
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -3181,11 +3181,11 @@
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E53">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -3261,11 +3261,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E54">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E55">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="D56">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E56">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -3381,11 +3381,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E57">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="D58">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E58">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E59">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3501,11 +3501,11 @@
       </c>
       <c r="D60">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E60">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3541,11 +3541,11 @@
       </c>
       <c r="D61">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E61">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3580,11 +3580,11 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E71" si="7">D62+9</f>
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="D63">
         <f>D62+10</f>
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="D64">
         <f t="shared" ref="D64:D81" si="8">D63+10</f>
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3700,11 +3700,11 @@
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="D66">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="D67">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="8"/>
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
@@ -3860,11 +3860,11 @@
       </c>
       <c r="D69">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3928,7 +3928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:E81" si="9">D72+9</f>
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
@@ -4020,11 +4020,11 @@
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="E73">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
@@ -4060,11 +4060,11 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="E74">
         <f t="shared" si="9"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="E75">
         <f t="shared" si="9"/>
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
@@ -4140,11 +4140,11 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="E76">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="E77">
         <f t="shared" si="9"/>
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="E78">
         <f t="shared" si="9"/>
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="E79">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="E80">
         <f t="shared" si="9"/>
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="E81">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4368,19 +4368,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A86" s="1"/>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F96708-2BEB-4CFB-9D42-308D953861F3}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17692CAF-199C-4BF7-A36E-DA15371882A6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,8 +1124,8 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2381,11 +2381,11 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E32">
         <f>D32+99</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E41" si="4">D33+99</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2461,11 +2461,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2581,11 +2581,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2621,11 +2621,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2661,11 +2661,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2701,11 +2701,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2781,11 +2781,11 @@
       </c>
       <c r="D42">
         <f>D32+100</f>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E42">
         <f>D42+99</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2821,11 +2821,11 @@
       </c>
       <c r="D43">
         <f t="shared" ref="D43:D61" si="5">D33+100</f>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:E61" si="6">D43+99</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E44">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E45">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2941,11 +2941,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E46">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E47">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E48">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3061,11 +3061,11 @@
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E49">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E50">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3141,11 +3141,11 @@
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3181,11 +3181,11 @@
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E53">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3261,11 +3261,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E54">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E55">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="D56">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E56">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3381,11 +3381,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E57">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="D58">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E58">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E59">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3501,11 +3501,11 @@
       </c>
       <c r="D60">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E60">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3541,11 +3541,11 @@
       </c>
       <c r="D61">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E61">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3580,11 +3580,11 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E71" si="7">D62+9</f>
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="D63">
         <f>D62+10</f>
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="D64">
         <f t="shared" ref="D64:D81" si="8">D63+10</f>
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3700,11 +3700,11 @@
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="D66">
         <f t="shared" si="8"/>
-        <v>241</v>
+        <v>441</v>
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="D67">
         <f t="shared" si="8"/>
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="8"/>
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3860,11 +3860,11 @@
       </c>
       <c r="D69">
         <f t="shared" si="8"/>
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>281</v>
+        <v>481</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>291</v>
+        <v>491</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:E81" si="9">D72+9</f>
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4020,11 +4020,11 @@
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="E73">
         <f t="shared" si="9"/>
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4060,11 +4060,11 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="E74">
         <f t="shared" si="9"/>
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>331</v>
+        <v>531</v>
       </c>
       <c r="E75">
         <f t="shared" si="9"/>
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4140,11 +4140,11 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>341</v>
+        <v>541</v>
       </c>
       <c r="E76">
         <f t="shared" si="9"/>
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>351</v>
+        <v>551</v>
       </c>
       <c r="E77">
         <f t="shared" si="9"/>
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>361</v>
+        <v>561</v>
       </c>
       <c r="E78">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>371</v>
+        <v>571</v>
       </c>
       <c r="E79">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>381</v>
+        <v>581</v>
       </c>
       <c r="E80">
         <f t="shared" si="9"/>
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>391</v>
+        <v>591</v>
       </c>
       <c r="E81">
         <f t="shared" si="9"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F81">
         <v>0</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17692CAF-199C-4BF7-A36E-DA15371882A6}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38351F2A-1A0A-4649-AE49-B6AEA2CFB71F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,8 +1124,8 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1182,11 +1182,11 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E2">
         <f>D2+99</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D41" si="0">D2</f>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3+99</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1462,11 +1462,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="D12">
         <f>D2+100</f>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E12">
         <f>D12+99</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D31" si="2">D3+100</f>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E31" si="3">D13+99</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1702,11 +1702,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1782,11 +1782,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>701</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2102,11 +2102,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2182,11 +2182,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2262,11 +2262,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2342,11 +2342,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F31">
         <v>0</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="854" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE5467E-1286-4F13-9FFB-4B643C461AC9}"/>
+  <xr:revisionPtr revIDLastSave="856" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD04D844-19AE-43A6-AA5C-52FB5E5A2502}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11430" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1304,16 +1304,16 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1362,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1400,11 +1400,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="0">D2</f>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1428,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1439,11 +1438,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1467,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1478,11 +1476,10 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1506,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1517,11 +1514,10 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1545,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1556,11 +1552,10 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1584,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1595,11 +1590,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1623,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1634,11 +1628,10 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1662,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1673,11 +1666,10 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1701,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1712,11 +1704,10 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1740,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1751,10 +1742,10 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1778,7 +1769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1789,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1816,7 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1827,10 +1818,10 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E14">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1854,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1865,10 +1856,10 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1892,7 +1883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1903,10 +1894,10 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1930,7 +1921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1941,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E17">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1968,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1979,10 +1970,10 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2006,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -2017,10 +2008,10 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2044,7 +2035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -2055,10 +2046,10 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E20">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2082,7 +2073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -2093,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E21">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2120,7 +2111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -2131,10 +2122,10 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2158,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -2169,10 +2160,10 @@
         <v>70</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E23">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2196,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -2207,10 +2198,10 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2234,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -2245,10 +2236,10 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E25">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2272,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -2283,10 +2274,10 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2310,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -2321,10 +2312,10 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2348,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -2359,10 +2350,10 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2386,7 +2377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2397,10 +2388,10 @@
         <v>70</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2424,7 +2415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2435,10 +2426,10 @@
         <v>70</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E30">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2462,7 +2453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2473,10 +2464,10 @@
         <v>70</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E31">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2500,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2511,10 +2502,10 @@
         <v>90</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E32">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2538,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2549,10 +2540,10 @@
         <v>90</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E33">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2576,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2587,10 +2578,10 @@
         <v>90</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2614,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2625,10 +2616,10 @@
         <v>90</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E35">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2652,7 +2643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2663,10 +2654,10 @@
         <v>90</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2690,7 +2681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2701,10 +2692,10 @@
         <v>90</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2728,7 +2719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2739,10 +2730,10 @@
         <v>90</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2766,7 +2757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2777,10 +2768,10 @@
         <v>90</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2804,7 +2795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2815,10 +2806,10 @@
         <v>90</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E40">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2842,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2853,10 +2844,10 @@
         <v>90</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2880,7 +2871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2891,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2918,7 +2909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2929,10 +2920,10 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2956,7 +2947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2967,10 +2958,10 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2994,7 +2985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -3005,10 +2996,10 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3032,7 +3023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -3043,10 +3034,10 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3070,7 +3061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -3081,10 +3072,10 @@
         <v>20</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E47">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3108,7 +3099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -3119,10 +3110,10 @@
         <v>20</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E48">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3146,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -3157,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3184,7 +3175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -3195,10 +3186,10 @@
         <v>20</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E50">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3222,7 +3213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -3233,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E51">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3260,7 +3251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -3271,10 +3262,10 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3298,7 +3289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -3309,10 +3300,10 @@
         <v>40</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3336,7 +3327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -3347,10 +3338,10 @@
         <v>40</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3374,7 +3365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -3385,10 +3376,10 @@
         <v>40</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3412,7 +3403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -3423,10 +3414,10 @@
         <v>40</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3450,7 +3441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -3461,10 +3452,10 @@
         <v>40</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3488,7 +3479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3499,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E58">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3526,7 +3517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3537,10 +3528,10 @@
         <v>40</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E59">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3564,7 +3555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3575,10 +3566,10 @@
         <v>40</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E60">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3602,7 +3593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3613,10 +3604,10 @@
         <v>40</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E61">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3640,7 +3631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3651,10 +3642,10 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E62">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3678,7 +3669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3689,10 +3680,10 @@
         <v>60</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3716,7 +3707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3727,10 +3718,10 @@
         <v>60</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3754,7 +3745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3765,10 +3756,10 @@
         <v>60</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E65">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3792,7 +3783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
@@ -3803,10 +3794,10 @@
         <v>60</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E66">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3830,7 +3821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
@@ -3841,10 +3832,10 @@
         <v>60</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E67">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3868,7 +3859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
@@ -3879,10 +3870,10 @@
         <v>60</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E68">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3906,7 +3897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
@@ -3917,10 +3908,10 @@
         <v>60</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3944,7 +3935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
@@ -3955,10 +3946,10 @@
         <v>60</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3982,7 +3973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
@@ -3993,10 +3984,10 @@
         <v>60</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4020,7 +4011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
@@ -4031,10 +4022,10 @@
         <v>80</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4058,7 +4049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
@@ -4069,10 +4060,10 @@
         <v>80</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E73">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4096,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
@@ -4107,10 +4098,10 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E74">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4134,7 +4125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
@@ -4145,10 +4136,10 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4172,7 +4163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
@@ -4183,10 +4174,10 @@
         <v>80</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E76">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4210,7 +4201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
@@ -4221,10 +4212,10 @@
         <v>80</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4248,7 +4239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
@@ -4259,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E78">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4286,7 +4277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
@@ -4297,10 +4288,10 @@
         <v>80</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4324,7 +4315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
@@ -4335,10 +4326,10 @@
         <v>80</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4362,7 +4353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
@@ -4373,10 +4364,10 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4400,7 +4391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
@@ -4414,7 +4405,7 @@
         <v>601</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E91" si="1">D82+9</f>
+        <f t="shared" ref="E82:E91" si="0">D82+9</f>
         <v>610</v>
       </c>
       <c r="F82">
@@ -4439,7 +4430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
@@ -4454,7 +4445,7 @@
         <v>611</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="F83">
@@ -4479,7 +4470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
@@ -4490,11 +4481,11 @@
         <v>50</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84:D101" si="2">D83+10</f>
+        <f t="shared" ref="D84:D101" si="1">D83+10</f>
         <v>621</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="F84">
@@ -4519,7 +4510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
@@ -4530,11 +4521,11 @@
         <v>50</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="F85">
@@ -4559,7 +4550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
@@ -4570,11 +4561,11 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="F86">
@@ -4599,7 +4590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
@@ -4610,11 +4601,11 @@
         <v>50</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="F87">
@@ -4639,7 +4630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
@@ -4650,11 +4641,11 @@
         <v>50</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>661</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="F88">
@@ -4679,7 +4670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
@@ -4690,11 +4681,11 @@
         <v>50</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>671</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>680</v>
       </c>
       <c r="F89">
@@ -4719,7 +4710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
@@ -4730,11 +4721,11 @@
         <v>50</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>681</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>690</v>
       </c>
       <c r="F90">
@@ -4759,7 +4750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
@@ -4770,11 +4761,11 @@
         <v>50</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>691</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="F91">
@@ -4799,7 +4790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
@@ -4810,11 +4801,11 @@
         <v>50</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>701</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92:E101" si="3">D92+9</f>
+        <f t="shared" ref="E92:E101" si="2">D92+9</f>
         <v>710</v>
       </c>
       <c r="F92">
@@ -4839,7 +4830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
@@ -4850,11 +4841,11 @@
         <v>50</v>
       </c>
       <c r="D93">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="2"/>
-        <v>711</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="F93">
@@ -4879,7 +4870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
@@ -4890,11 +4881,11 @@
         <v>50</v>
       </c>
       <c r="D94">
+        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="2"/>
-        <v>721</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="3"/>
         <v>730</v>
       </c>
       <c r="F94">
@@ -4919,7 +4910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
@@ -4930,11 +4921,11 @@
         <v>50</v>
       </c>
       <c r="D95">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="2"/>
-        <v>731</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="3"/>
         <v>740</v>
       </c>
       <c r="F95">
@@ -4959,7 +4950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
@@ -4970,11 +4961,11 @@
         <v>50</v>
       </c>
       <c r="D96">
+        <f t="shared" si="1"/>
+        <v>741</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="2"/>
-        <v>741</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="F96">
@@ -4999,7 +4990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
@@ -5010,11 +5001,11 @@
         <v>50</v>
       </c>
       <c r="D97">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="2"/>
-        <v>751</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
         <v>760</v>
       </c>
       <c r="F97">
@@ -5039,7 +5030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
@@ -5050,11 +5041,11 @@
         <v>50</v>
       </c>
       <c r="D98">
+        <f t="shared" si="1"/>
+        <v>761</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="2"/>
-        <v>761</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="F98">
@@ -5079,7 +5070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
@@ -5090,11 +5081,11 @@
         <v>50</v>
       </c>
       <c r="D99">
+        <f t="shared" si="1"/>
+        <v>771</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="2"/>
-        <v>771</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
         <v>780</v>
       </c>
       <c r="F99">
@@ -5119,7 +5110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
@@ -5130,11 +5121,11 @@
         <v>50</v>
       </c>
       <c r="D100">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="2"/>
-        <v>781</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
         <v>790</v>
       </c>
       <c r="F100">
@@ -5159,7 +5150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
@@ -5170,11 +5161,11 @@
         <v>50</v>
       </c>
       <c r="D101">
+        <f t="shared" si="1"/>
+        <v>791</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="2"/>
-        <v>791</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="F101">
@@ -5199,19 +5190,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A106" s="1"/>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="856" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD04D844-19AE-43A6-AA5C-52FB5E5A2502}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A99D54-408E-4F5A-B5B6-CC6D36900B68}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1304,8 +1304,8 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2882,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E43">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E44">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2996,10 +2996,10 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E45">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E46">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>20</v>
       </c>
       <c r="D47">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E47">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>20</v>
       </c>
       <c r="D48">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E48">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3148,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E49">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>20</v>
       </c>
       <c r="D50">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E50">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3224,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E51">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E52">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3300,10 +3300,10 @@
         <v>40</v>
       </c>
       <c r="D53">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E53">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>40</v>
       </c>
       <c r="D54">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E54">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>40</v>
       </c>
       <c r="D55">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E55">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3414,10 +3414,10 @@
         <v>40</v>
       </c>
       <c r="D56">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E56">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3452,10 +3452,10 @@
         <v>40</v>
       </c>
       <c r="D57">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E57">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="D58">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E58">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3528,10 +3528,10 @@
         <v>40</v>
       </c>
       <c r="D59">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E59">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>40</v>
       </c>
       <c r="D60">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E60">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>40</v>
       </c>
       <c r="D61">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E61">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E62">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3680,10 +3680,10 @@
         <v>60</v>
       </c>
       <c r="D63">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E63">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>60</v>
       </c>
       <c r="D64">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E64">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3756,10 +3756,10 @@
         <v>60</v>
       </c>
       <c r="D65">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E65">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>60</v>
       </c>
       <c r="D66">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E66">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>60</v>
       </c>
       <c r="D67">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E67">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>60</v>
       </c>
       <c r="D68">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E68">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>60</v>
       </c>
       <c r="D69">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E69">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>60</v>
       </c>
       <c r="D70">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E70">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>60</v>
       </c>
       <c r="D71">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E71">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>80</v>
       </c>
       <c r="D72">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E72">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4060,10 +4060,10 @@
         <v>80</v>
       </c>
       <c r="D73">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E73">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E74">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E75">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>80</v>
       </c>
       <c r="D76">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E76">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4212,10 +4212,10 @@
         <v>80</v>
       </c>
       <c r="D77">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E77">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4250,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="D78">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E78">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4288,10 +4288,10 @@
         <v>80</v>
       </c>
       <c r="D79">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E79">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>80</v>
       </c>
       <c r="D80">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E80">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="E81">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F81">
         <v>0</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="978" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4FBD03-9FC6-4493-A177-3C52C14C7FFC}"/>
+  <xr:revisionPtr revIDLastSave="982" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719B4396-91A7-426A-9428-7C67E2D8B3B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H219" sqref="H219"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,10 +1110,10 @@
         <v>MM010010</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1143,10 +1143,10 @@
         <v>MM020010</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1176,10 +1176,10 @@
         <v>MM030010</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1209,10 +1209,10 @@
         <v>MM040010</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1242,10 +1242,10 @@
         <v>MM050010</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1275,10 +1275,10 @@
         <v>MM060010</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1308,10 +1308,10 @@
         <v>MM070010</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1341,10 +1341,10 @@
         <v>MM080010</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1374,10 +1374,10 @@
         <v>MM090010</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1407,10 +1407,10 @@
         <v>MM100010</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1440,10 +1440,10 @@
         <v>MM010020</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1474,10 +1474,10 @@
         <v>MM020020</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1508,10 +1508,10 @@
         <v>MM030020</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1542,10 +1542,10 @@
         <v>MM040020</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1576,10 +1576,10 @@
         <v>MM050020</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1610,10 +1610,10 @@
         <v>MM060020</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1644,10 +1644,10 @@
         <v>MM070020</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1678,10 +1678,10 @@
         <v>MM080020</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1712,10 +1712,10 @@
         <v>MM090020</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1746,10 +1746,10 @@
         <v>MM100020</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1780,10 +1780,10 @@
         <v>MM010030</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1814,10 +1814,10 @@
         <v>MM020030</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1848,10 +1848,10 @@
         <v>MM030030</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1882,10 +1882,10 @@
         <v>MM040030</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1916,10 +1916,10 @@
         <v>MM050030</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1950,10 +1950,10 @@
         <v>MM060030</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1984,10 +1984,10 @@
         <v>MM070030</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2018,10 +2018,10 @@
         <v>MM080030</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2052,10 +2052,10 @@
         <v>MM090030</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2086,10 +2086,10 @@
         <v>MM100030</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2120,10 +2120,10 @@
         <v>MM010040</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2154,10 +2154,10 @@
         <v>MM020040</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2188,10 +2188,10 @@
         <v>MM030040</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2222,10 +2222,10 @@
         <v>MM040040</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2256,10 +2256,10 @@
         <v>MM050040</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2290,10 +2290,10 @@
         <v>MM060040</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2324,10 +2324,10 @@
         <v>MM070040</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2358,10 +2358,10 @@
         <v>MM080040</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2392,10 +2392,10 @@
         <v>MM090040</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2426,10 +2426,10 @@
         <v>MM100040</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2460,10 +2460,10 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2494,10 +2494,10 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2528,10 +2528,10 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2562,10 +2562,10 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2596,10 +2596,10 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2630,10 +2630,10 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2664,10 +2664,10 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2698,10 +2698,10 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2732,10 +2732,10 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2766,10 +2766,10 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2800,10 +2800,10 @@
         <v>MM010060</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2834,10 +2834,10 @@
         <v>MM020060</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2868,10 +2868,10 @@
         <v>MM030060</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2902,10 +2902,10 @@
         <v>MM040060</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2936,10 +2936,10 @@
         <v>MM050060</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -2970,10 +2970,10 @@
         <v>MM060060</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3004,10 +3004,10 @@
         <v>MM070060</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3038,10 +3038,10 @@
         <v>MM080060</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3072,10 +3072,10 @@
         <v>MM090060</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3106,10 +3106,10 @@
         <v>MM100060</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3140,10 +3140,10 @@
         <v>MM010070</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3174,10 +3174,10 @@
         <v>MM020070</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3208,10 +3208,10 @@
         <v>MM030070</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3242,10 +3242,10 @@
         <v>MM040070</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3276,10 +3276,10 @@
         <v>MM050070</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3310,10 +3310,10 @@
         <v>MM060070</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3344,10 +3344,10 @@
         <v>MM070070</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3378,10 +3378,10 @@
         <v>MM080070</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3412,10 +3412,10 @@
         <v>MM090070</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3446,10 +3446,10 @@
         <v>MM100070</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3480,10 +3480,10 @@
         <v>MM010080</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3514,10 +3514,10 @@
         <v>MM020080</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3548,10 +3548,10 @@
         <v>MM030080</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3582,10 +3582,10 @@
         <v>MM040080</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3616,10 +3616,10 @@
         <v>MM050080</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3650,10 +3650,10 @@
         <v>MM060080</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3684,10 +3684,10 @@
         <v>MM070080</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3718,10 +3718,10 @@
         <v>MM080080</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3752,10 +3752,10 @@
         <v>MM090080</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3786,10 +3786,10 @@
         <v>MM100080</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3820,10 +3820,10 @@
         <v>MM010090</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3854,10 +3854,10 @@
         <v>MM020090</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3888,10 +3888,10 @@
         <v>MM030090</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3922,10 +3922,10 @@
         <v>MM040090</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -3956,10 +3956,10 @@
         <v>MM050090</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -3990,10 +3990,10 @@
         <v>MM060090</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4024,10 +4024,10 @@
         <v>MM070090</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4058,10 +4058,10 @@
         <v>MM080090</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4092,10 +4092,10 @@
         <v>MM090090</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4126,10 +4126,10 @@
         <v>MM100090</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4160,10 +4160,10 @@
         <v>MM010100</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4194,10 +4194,10 @@
         <v>MM020100</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4228,10 +4228,10 @@
         <v>MM030100</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4262,10 +4262,10 @@
         <v>MM040100</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4296,10 +4296,10 @@
         <v>MM050100</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4330,10 +4330,10 @@
         <v>MM060100</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4364,10 +4364,10 @@
         <v>MM070100</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4398,10 +4398,10 @@
         <v>MM080100</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4432,10 +4432,10 @@
         <v>MM090100</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4466,10 +4466,10 @@
         <v>MM100100</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D102">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D103">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D104">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D105">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D106">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D107">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D108">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D109">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D110">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D111">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D112">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D113">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D114">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D115">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D116">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D117">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D118">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D119">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D120">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D121">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D122">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D124">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D125">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D126">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D127">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D128">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D129">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D130">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D131">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D132">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D133">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D134">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D135">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D136">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D137">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D138">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D139">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D140">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D141">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D142">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D143">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D144">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D145">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D146">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D147">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D148">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D149">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D150">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D151">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D152">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D153">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D154">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D155">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D156">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D157">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D158">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D159">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D160">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D161">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D162">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D163">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D164">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D165">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D166">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D167">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D168">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D169">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D170">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D171">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D172">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D173">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D174">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D175">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D176">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D177">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D178">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D179">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D180">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D181">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D182">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D183">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D184">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D185">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D186">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D187">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D188">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D189">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D190">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D191">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D192">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D193">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D194">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D195">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D196">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D197">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D198">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D199">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D200">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D201">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -8241,7 +8241,7 @@
         <v>44768</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B222" si="10">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
+        <f t="shared" ref="B212:B221" si="10">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
         <v>MM000000</v>
       </c>
       <c r="C212">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="982" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719B4396-91A7-426A-9428-7C67E2D8B3B0}"/>
+  <xr:revisionPtr revIDLastSave="995" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6EAF68-8468-4D21-9206-810E6E3EC818}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,9 +1056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,10 +1110,10 @@
         <v>MM010010</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1143,10 +1143,10 @@
         <v>MM020010</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1158,7 +1158,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -1176,10 +1176,10 @@
         <v>MM030010</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1191,7 +1191,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -1209,10 +1209,10 @@
         <v>MM040010</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1224,7 +1224,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1242,10 +1242,10 @@
         <v>MM050010</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1257,7 +1257,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -1275,10 +1275,10 @@
         <v>MM060010</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1290,7 +1290,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1308,10 +1308,10 @@
         <v>MM070010</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1323,7 +1323,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -1341,10 +1341,10 @@
         <v>MM080010</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1356,7 +1356,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1374,10 +1374,10 @@
         <v>MM090010</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1389,7 +1389,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1407,10 +1407,10 @@
         <v>MM100010</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1422,7 +1422,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1440,10 +1440,10 @@
         <v>MM010020</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1474,10 +1474,10 @@
         <v>MM020020</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1490,7 +1490,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1508,10 +1508,10 @@
         <v>MM030020</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1524,7 +1524,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1542,10 +1542,10 @@
         <v>MM040020</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1576,10 +1576,10 @@
         <v>MM050020</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1592,7 +1592,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1610,10 +1610,10 @@
         <v>MM060020</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1626,7 +1626,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1644,10 +1644,10 @@
         <v>MM070020</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1660,7 +1660,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -1678,10 +1678,10 @@
         <v>MM080020</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1694,7 +1694,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1712,10 +1712,10 @@
         <v>MM090020</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1728,7 +1728,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1746,10 +1746,10 @@
         <v>MM100020</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1762,7 +1762,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
@@ -1780,10 +1780,10 @@
         <v>MM010030</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1796,7 +1796,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -1814,10 +1814,10 @@
         <v>MM020030</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1830,7 +1830,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -1848,10 +1848,10 @@
         <v>MM030030</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1864,7 +1864,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
@@ -1882,10 +1882,10 @@
         <v>MM040030</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1898,7 +1898,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
@@ -1916,10 +1916,10 @@
         <v>MM050030</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1932,7 +1932,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
@@ -1950,10 +1950,10 @@
         <v>MM060030</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1966,7 +1966,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
@@ -1984,10 +1984,10 @@
         <v>MM070030</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2000,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
@@ -2018,10 +2018,10 @@
         <v>MM080030</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2034,7 +2034,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -2052,10 +2052,10 @@
         <v>MM090030</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2068,7 +2068,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -2086,10 +2086,10 @@
         <v>MM100030</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2102,7 +2102,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -2120,10 +2120,10 @@
         <v>MM010040</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2136,7 +2136,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
@@ -2154,10 +2154,10 @@
         <v>MM020040</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2170,7 +2170,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
@@ -2188,10 +2188,10 @@
         <v>MM030040</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2204,7 +2204,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -2222,10 +2222,10 @@
         <v>MM040040</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2238,7 +2238,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I35" t="s">
         <v>14</v>
@@ -2256,10 +2256,10 @@
         <v>MM050040</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2272,7 +2272,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
@@ -2290,10 +2290,10 @@
         <v>MM060040</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2306,7 +2306,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -2324,10 +2324,10 @@
         <v>MM070040</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2340,7 +2340,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
@@ -2358,10 +2358,10 @@
         <v>MM080040</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2374,7 +2374,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
@@ -2392,10 +2392,10 @@
         <v>MM090040</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2408,7 +2408,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I40" t="s">
         <v>14</v>
@@ -2426,10 +2426,10 @@
         <v>MM100040</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2442,7 +2442,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I41" t="s">
         <v>14</v>
@@ -2460,10 +2460,10 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2476,7 +2476,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2494,10 +2494,10 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2510,7 +2510,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
@@ -2528,10 +2528,10 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2544,7 +2544,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I44" t="s">
         <v>14</v>
@@ -2562,10 +2562,10 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2578,7 +2578,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I45" t="s">
         <v>14</v>
@@ -2596,10 +2596,10 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2612,7 +2612,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I46" t="s">
         <v>14</v>
@@ -2630,10 +2630,10 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2646,7 +2646,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I47" t="s">
         <v>14</v>
@@ -2664,10 +2664,10 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2680,7 +2680,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I48" t="s">
         <v>14</v>
@@ -2698,10 +2698,10 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2714,7 +2714,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I49" t="s">
         <v>14</v>
@@ -2732,10 +2732,10 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -2766,10 +2766,10 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2782,7 +2782,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
@@ -2800,10 +2800,10 @@
         <v>MM010060</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2816,7 +2816,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
@@ -2834,10 +2834,10 @@
         <v>MM020060</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
@@ -2868,10 +2868,10 @@
         <v>MM030060</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2884,7 +2884,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
@@ -2902,10 +2902,10 @@
         <v>MM040060</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2918,7 +2918,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -2936,10 +2936,10 @@
         <v>MM050060</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -2952,7 +2952,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -2970,10 +2970,10 @@
         <v>MM060060</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -2986,7 +2986,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -3004,10 +3004,10 @@
         <v>MM070060</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3020,7 +3020,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
@@ -3038,10 +3038,10 @@
         <v>MM080060</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3054,7 +3054,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
@@ -3072,10 +3072,10 @@
         <v>MM090060</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3088,7 +3088,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I60" t="s">
         <v>14</v>
@@ -3106,10 +3106,10 @@
         <v>MM100060</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3122,7 +3122,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I61" t="s">
         <v>14</v>
@@ -3140,10 +3140,10 @@
         <v>MM010070</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3156,7 +3156,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I62" t="s">
         <v>14</v>
@@ -3174,10 +3174,10 @@
         <v>MM020070</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3190,7 +3190,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>
@@ -3208,10 +3208,10 @@
         <v>MM030070</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3224,7 +3224,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
@@ -3242,10 +3242,10 @@
         <v>MM040070</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3258,7 +3258,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I65" t="s">
         <v>14</v>
@@ -3276,10 +3276,10 @@
         <v>MM050070</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3292,7 +3292,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
@@ -3310,10 +3310,10 @@
         <v>MM060070</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3326,7 +3326,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
@@ -3344,10 +3344,10 @@
         <v>MM070070</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3360,7 +3360,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I68" t="s">
         <v>14</v>
@@ -3378,10 +3378,10 @@
         <v>MM080070</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3394,7 +3394,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
@@ -3412,10 +3412,10 @@
         <v>MM090070</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3428,7 +3428,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
@@ -3446,10 +3446,10 @@
         <v>MM100070</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3462,7 +3462,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I71" t="s">
         <v>14</v>
@@ -3480,10 +3480,10 @@
         <v>MM010080</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3496,7 +3496,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I72" t="s">
         <v>14</v>
@@ -3514,10 +3514,10 @@
         <v>MM020080</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3530,7 +3530,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
@@ -3548,10 +3548,10 @@
         <v>MM030080</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3564,7 +3564,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
@@ -3582,10 +3582,10 @@
         <v>MM040080</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3598,7 +3598,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
@@ -3616,10 +3616,10 @@
         <v>MM050080</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3632,7 +3632,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I76" t="s">
         <v>14</v>
@@ -3650,10 +3650,10 @@
         <v>MM060080</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3666,7 +3666,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I77" t="s">
         <v>14</v>
@@ -3684,10 +3684,10 @@
         <v>MM070080</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3700,7 +3700,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
@@ -3718,10 +3718,10 @@
         <v>MM080080</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3734,7 +3734,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
@@ -3752,10 +3752,10 @@
         <v>MM090080</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3768,7 +3768,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
@@ -3786,10 +3786,10 @@
         <v>MM100080</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3802,7 +3802,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
@@ -3820,10 +3820,10 @@
         <v>MM010090</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
@@ -3854,10 +3854,10 @@
         <v>MM020090</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3870,7 +3870,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
@@ -3888,10 +3888,10 @@
         <v>MM030090</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3904,7 +3904,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
@@ -3922,10 +3922,10 @@
         <v>MM040090</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -3956,10 +3956,10 @@
         <v>MM050090</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -3972,7 +3972,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
@@ -3990,10 +3990,10 @@
         <v>MM060090</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4006,7 +4006,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -4024,10 +4024,10 @@
         <v>MM070090</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4040,7 +4040,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
@@ -4058,10 +4058,10 @@
         <v>MM080090</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4074,7 +4074,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
@@ -4092,10 +4092,10 @@
         <v>MM090090</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4108,7 +4108,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -4126,10 +4126,10 @@
         <v>MM100090</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4142,7 +4142,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I91" t="s">
         <v>14</v>
@@ -4160,10 +4160,10 @@
         <v>MM010100</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4176,7 +4176,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
@@ -4194,10 +4194,10 @@
         <v>MM020100</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4210,7 +4210,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
@@ -4228,10 +4228,10 @@
         <v>MM030100</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4244,7 +4244,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
@@ -4262,10 +4262,10 @@
         <v>MM040100</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4278,7 +4278,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
@@ -4296,10 +4296,10 @@
         <v>MM050100</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4312,7 +4312,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -4330,10 +4330,10 @@
         <v>MM060100</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4346,7 +4346,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -4364,10 +4364,10 @@
         <v>MM070100</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4380,7 +4380,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -4398,10 +4398,10 @@
         <v>MM080100</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4414,7 +4414,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
@@ -4432,10 +4432,10 @@
         <v>MM090100</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4448,7 +4448,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -4466,10 +4466,10 @@
         <v>MM100100</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4482,7 +4482,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4551,7 +4551,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4584,7 +4584,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4617,7 +4617,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I105" t="s">
         <v>14</v>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4650,7 +4650,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4683,7 +4683,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4716,7 +4716,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4749,7 +4749,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4782,7 +4782,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4815,7 +4815,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4849,7 +4849,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4883,7 +4883,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I113" t="s">
         <v>14</v>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4917,7 +4917,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I114" t="s">
         <v>14</v>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4951,7 +4951,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I115" t="s">
         <v>14</v>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -4985,7 +4985,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5019,7 +5019,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5053,7 +5053,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I118" t="s">
         <v>14</v>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5087,7 +5087,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I119" t="s">
         <v>14</v>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5121,7 +5121,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I120" t="s">
         <v>14</v>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5155,7 +5155,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5189,7 +5189,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I122" t="s">
         <v>14</v>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5223,7 +5223,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I123" t="s">
         <v>14</v>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5257,7 +5257,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I124" t="s">
         <v>14</v>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5291,7 +5291,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I125" t="s">
         <v>14</v>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5325,7 +5325,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I126" t="s">
         <v>14</v>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5359,7 +5359,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I127" t="s">
         <v>14</v>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5393,7 +5393,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5427,7 +5427,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5461,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5495,7 +5495,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5529,7 +5529,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5563,7 +5563,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5597,7 +5597,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5631,7 +5631,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I135" t="s">
         <v>14</v>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5665,7 +5665,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I136" t="s">
         <v>14</v>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5699,7 +5699,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I137" t="s">
         <v>14</v>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5733,7 +5733,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I138" t="s">
         <v>14</v>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5767,7 +5767,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I139" t="s">
         <v>14</v>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5801,7 +5801,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I140" t="s">
         <v>14</v>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5835,7 +5835,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5869,7 +5869,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I142" t="s">
         <v>14</v>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5903,7 +5903,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I143" t="s">
         <v>14</v>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5937,7 +5937,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5971,7 +5971,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I145" t="s">
         <v>14</v>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6005,7 +6005,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6039,7 +6039,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D148">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6073,7 +6073,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I148" t="s">
         <v>14</v>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6107,7 +6107,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6141,7 +6141,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6175,7 +6175,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6209,7 +6209,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D153">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6243,7 +6243,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I153" t="s">
         <v>14</v>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6277,7 +6277,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I154" t="s">
         <v>14</v>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6311,7 +6311,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6345,7 +6345,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I156" t="s">
         <v>14</v>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D157">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6379,7 +6379,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I157" t="s">
         <v>14</v>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6413,7 +6413,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I158" t="s">
         <v>14</v>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6447,7 +6447,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I159" t="s">
         <v>14</v>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6481,7 +6481,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I160" t="s">
         <v>14</v>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6515,7 +6515,7 @@
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I161" t="s">
         <v>14</v>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6549,7 +6549,7 @@
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I162" t="s">
         <v>14</v>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6583,7 +6583,7 @@
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I163" t="s">
         <v>14</v>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6617,7 +6617,7 @@
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I164" t="s">
         <v>14</v>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6651,7 +6651,7 @@
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I165" t="s">
         <v>14</v>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6685,7 +6685,7 @@
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6719,7 +6719,7 @@
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I167" t="s">
         <v>14</v>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D168">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6753,7 +6753,7 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I168" t="s">
         <v>14</v>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6787,7 +6787,7 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I169" t="s">
         <v>14</v>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6821,7 +6821,7 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I170" t="s">
         <v>14</v>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6855,7 +6855,7 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I171" t="s">
         <v>14</v>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6889,7 +6889,7 @@
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I172" t="s">
         <v>14</v>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6923,7 +6923,7 @@
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I173" t="s">
         <v>14</v>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I174" t="s">
         <v>14</v>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D175">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -6991,7 +6991,7 @@
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I175" t="s">
         <v>14</v>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D176">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7025,7 +7025,7 @@
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I176" t="s">
         <v>14</v>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7059,7 +7059,7 @@
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I177" t="s">
         <v>14</v>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7093,7 +7093,7 @@
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I178" t="s">
         <v>14</v>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7127,7 +7127,7 @@
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I179" t="s">
         <v>14</v>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7161,7 +7161,7 @@
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I180" t="s">
         <v>14</v>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7195,7 +7195,7 @@
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I181" t="s">
         <v>14</v>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7229,7 +7229,7 @@
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I182" t="s">
         <v>14</v>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7263,7 +7263,7 @@
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I183" t="s">
         <v>14</v>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7297,7 +7297,7 @@
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I184" t="s">
         <v>14</v>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7331,7 +7331,7 @@
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I185" t="s">
         <v>14</v>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7365,7 +7365,7 @@
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I186" t="s">
         <v>14</v>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7399,7 +7399,7 @@
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I187" t="s">
         <v>14</v>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7433,7 +7433,7 @@
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I188" t="s">
         <v>14</v>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D189">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7467,7 +7467,7 @@
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I189" t="s">
         <v>14</v>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7501,7 +7501,7 @@
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I190" t="s">
         <v>14</v>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7535,7 +7535,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I191" t="s">
         <v>14</v>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7569,7 +7569,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I192" t="s">
         <v>14</v>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D193">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7603,7 +7603,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I193" t="s">
         <v>14</v>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7637,7 +7637,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I194" t="s">
         <v>14</v>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7671,7 +7671,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I195" t="s">
         <v>14</v>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7705,7 +7705,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I196" t="s">
         <v>14</v>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7739,7 +7739,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I197" t="s">
         <v>14</v>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7773,7 +7773,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I198" t="s">
         <v>14</v>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7807,7 +7807,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I199" t="s">
         <v>14</v>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7841,7 +7841,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I200" t="s">
         <v>14</v>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -7875,7 +7875,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I201" t="s">
         <v>14</v>
@@ -7912,7 +7912,7 @@
         <v>0.02</v>
       </c>
       <c r="H202">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I202" t="s">
         <v>14</v>
@@ -7930,7 +7930,7 @@
         <v>MM000000</v>
       </c>
       <c r="C203">
-        <f t="shared" ref="C203:C221" si="9">C202+10</f>
+        <f>C202+10</f>
         <v>11</v>
       </c>
       <c r="D203">
@@ -7947,7 +7947,7 @@
         <v>0.02</v>
       </c>
       <c r="H203">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I203" t="s">
         <v>14</v>
@@ -7965,7 +7965,7 @@
         <v>MM000000</v>
       </c>
       <c r="C204">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C204:C221" si="9">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
@@ -7982,7 +7982,7 @@
         <v>0.02</v>
       </c>
       <c r="H204">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I204" t="s">
         <v>14</v>
@@ -8017,7 +8017,7 @@
         <v>0.02</v>
       </c>
       <c r="H205">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I205" t="s">
         <v>14</v>
@@ -8052,7 +8052,7 @@
         <v>0.02</v>
       </c>
       <c r="H206">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I206" t="s">
         <v>14</v>
@@ -8087,7 +8087,7 @@
         <v>0.02</v>
       </c>
       <c r="H207">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I207" t="s">
         <v>14</v>
@@ -8122,7 +8122,7 @@
         <v>0.02</v>
       </c>
       <c r="H208">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I208" t="s">
         <v>14</v>
@@ -8157,7 +8157,7 @@
         <v>0.02</v>
       </c>
       <c r="H209">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I209" t="s">
         <v>14</v>
@@ -8192,7 +8192,7 @@
         <v>0.02</v>
       </c>
       <c r="H210">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -8227,7 +8227,7 @@
         <v>0.02</v>
       </c>
       <c r="H211">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I211" t="s">
         <v>14</v>
@@ -8262,7 +8262,7 @@
         <v>0.02</v>
       </c>
       <c r="H212">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I212" t="s">
         <v>14</v>
@@ -8297,7 +8297,7 @@
         <v>0.02</v>
       </c>
       <c r="H213">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I213" t="s">
         <v>14</v>
@@ -8332,7 +8332,7 @@
         <v>0.02</v>
       </c>
       <c r="H214">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I214" t="s">
         <v>14</v>
@@ -8367,7 +8367,7 @@
         <v>0.02</v>
       </c>
       <c r="H215">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I215" t="s">
         <v>14</v>
@@ -8402,7 +8402,7 @@
         <v>0.02</v>
       </c>
       <c r="H216">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I216" t="s">
         <v>14</v>
@@ -8437,7 +8437,7 @@
         <v>0.02</v>
       </c>
       <c r="H217">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I217" t="s">
         <v>14</v>
@@ -8472,7 +8472,7 @@
         <v>0.02</v>
       </c>
       <c r="H218">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I218" t="s">
         <v>14</v>
@@ -8507,7 +8507,7 @@
         <v>0.02</v>
       </c>
       <c r="H219">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I219" t="s">
         <v>14</v>
@@ -8542,7 +8542,7 @@
         <v>0.02</v>
       </c>
       <c r="H220">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I220" t="s">
         <v>14</v>
@@ -8577,7 +8577,7 @@
         <v>0.02</v>
       </c>
       <c r="H221">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I221" t="s">
         <v>14</v>
@@ -8612,7 +8612,7 @@
         <v>0.02</v>
       </c>
       <c r="H222">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I222" t="s">
         <v>14</v>
@@ -8644,7 +8644,7 @@
         <v>0.02</v>
       </c>
       <c r="H223">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I223" t="s">
         <v>14</v>
@@ -8676,7 +8676,7 @@
         <v>0.02</v>
       </c>
       <c r="H224">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I224" t="s">
         <v>14</v>
@@ -8708,7 +8708,7 @@
         <v>0.02</v>
       </c>
       <c r="H225">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I225" t="s">
         <v>14</v>
@@ -8740,7 +8740,7 @@
         <v>0.02</v>
       </c>
       <c r="H226">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I226" t="s">
         <v>14</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="995" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6EAF68-8468-4D21-9206-810E6E3EC818}"/>
+  <xr:revisionPtr revIDLastSave="998" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9F8B40-8650-4FEA-AB0C-C09054AC0B1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1057,16 +1057,16 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I35" t="s">
         <v>14</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I40" t="s">
         <v>14</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I41" t="s">
         <v>14</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I44" t="s">
         <v>14</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I45" t="s">
         <v>14</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I46" t="s">
         <v>14</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I47" t="s">
         <v>14</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I48" t="s">
         <v>14</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I49" t="s">
         <v>14</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I60" t="s">
         <v>14</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I61" t="s">
         <v>14</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I62" t="s">
         <v>14</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I65" t="s">
         <v>14</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I68" t="s">
         <v>14</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I71" t="s">
         <v>14</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I72" t="s">
         <v>14</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I76" t="s">
         <v>14</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I77" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I91" t="s">
         <v>14</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -4494,7 +4494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4551,7 +4551,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4584,7 +4584,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4617,7 +4617,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I105" t="s">
         <v>14</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4650,7 +4650,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4683,7 +4683,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4716,7 +4716,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4749,7 +4749,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4782,7 +4782,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4815,7 +4815,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4849,7 +4849,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4883,7 +4883,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I113" t="s">
         <v>14</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4917,7 +4917,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I114" t="s">
         <v>14</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4951,7 +4951,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I115" t="s">
         <v>14</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -4985,7 +4985,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5019,7 +5019,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5053,7 +5053,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I118" t="s">
         <v>14</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5087,7 +5087,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I119" t="s">
         <v>14</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5121,7 +5121,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I120" t="s">
         <v>14</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5155,7 +5155,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5189,7 +5189,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I122" t="s">
         <v>14</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5223,7 +5223,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I123" t="s">
         <v>14</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5257,7 +5257,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I124" t="s">
         <v>14</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5291,7 +5291,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I125" t="s">
         <v>14</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5325,7 +5325,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I126" t="s">
         <v>14</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5359,7 +5359,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I127" t="s">
         <v>14</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5393,7 +5393,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5427,7 +5427,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5461,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5495,7 +5495,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5529,7 +5529,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5563,7 +5563,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5597,7 +5597,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5631,7 +5631,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I135" t="s">
         <v>14</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5665,7 +5665,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I136" t="s">
         <v>14</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5699,7 +5699,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I137" t="s">
         <v>14</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5733,7 +5733,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I138" t="s">
         <v>14</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5767,7 +5767,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I139" t="s">
         <v>14</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5801,7 +5801,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I140" t="s">
         <v>14</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5835,7 +5835,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5869,7 +5869,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I142" t="s">
         <v>14</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5903,7 +5903,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I143" t="s">
         <v>14</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5937,7 +5937,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5971,7 +5971,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I145" t="s">
         <v>14</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6005,7 +6005,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6039,7 +6039,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6073,7 +6073,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I148" t="s">
         <v>14</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6107,7 +6107,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6141,7 +6141,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6175,7 +6175,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6209,7 +6209,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6243,7 +6243,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I153" t="s">
         <v>14</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6277,7 +6277,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I154" t="s">
         <v>14</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6311,7 +6311,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6345,7 +6345,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I156" t="s">
         <v>14</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6379,7 +6379,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I157" t="s">
         <v>14</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6413,7 +6413,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I158" t="s">
         <v>14</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6447,7 +6447,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I159" t="s">
         <v>14</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6481,7 +6481,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I160" t="s">
         <v>14</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6515,7 +6515,7 @@
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I161" t="s">
         <v>14</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6549,7 +6549,7 @@
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I162" t="s">
         <v>14</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6583,7 +6583,7 @@
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I163" t="s">
         <v>14</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6617,7 +6617,7 @@
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I164" t="s">
         <v>14</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6651,7 +6651,7 @@
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I165" t="s">
         <v>14</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6685,7 +6685,7 @@
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6719,7 +6719,7 @@
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I167" t="s">
         <v>14</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6753,7 +6753,7 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I168" t="s">
         <v>14</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6787,7 +6787,7 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I169" t="s">
         <v>14</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6821,7 +6821,7 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I170" t="s">
         <v>14</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6855,7 +6855,7 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I171" t="s">
         <v>14</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6889,7 +6889,7 @@
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I172" t="s">
         <v>14</v>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6923,7 +6923,7 @@
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I173" t="s">
         <v>14</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I174" t="s">
         <v>14</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -6991,7 +6991,7 @@
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I175" t="s">
         <v>14</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7025,7 +7025,7 @@
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I176" t="s">
         <v>14</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7059,7 +7059,7 @@
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I177" t="s">
         <v>14</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7093,7 +7093,7 @@
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I178" t="s">
         <v>14</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7127,7 +7127,7 @@
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I179" t="s">
         <v>14</v>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7161,7 +7161,7 @@
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I180" t="s">
         <v>14</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7195,7 +7195,7 @@
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I181" t="s">
         <v>14</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7229,7 +7229,7 @@
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I182" t="s">
         <v>14</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7263,7 +7263,7 @@
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I183" t="s">
         <v>14</v>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7297,7 +7297,7 @@
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I184" t="s">
         <v>14</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7331,7 +7331,7 @@
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I185" t="s">
         <v>14</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7365,7 +7365,7 @@
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I186" t="s">
         <v>14</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7399,7 +7399,7 @@
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I187" t="s">
         <v>14</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7433,7 +7433,7 @@
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I188" t="s">
         <v>14</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7467,7 +7467,7 @@
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I189" t="s">
         <v>14</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7501,7 +7501,7 @@
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I190" t="s">
         <v>14</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7535,7 +7535,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I191" t="s">
         <v>14</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7569,7 +7569,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I192" t="s">
         <v>14</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7603,7 +7603,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I193" t="s">
         <v>14</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7637,7 +7637,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I194" t="s">
         <v>14</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7671,7 +7671,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I195" t="s">
         <v>14</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7705,7 +7705,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I196" t="s">
         <v>14</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7739,7 +7739,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I197" t="s">
         <v>14</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7773,7 +7773,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I198" t="s">
         <v>14</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7807,7 +7807,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I199" t="s">
         <v>14</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7841,7 +7841,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I200" t="s">
         <v>14</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -7875,7 +7875,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I201" t="s">
         <v>14</v>
@@ -7887,7 +7887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0.02</v>
       </c>
       <c r="H202">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I202" t="s">
         <v>14</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0.02</v>
       </c>
       <c r="H203">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I203" t="s">
         <v>14</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>0.02</v>
       </c>
       <c r="H204">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I204" t="s">
         <v>14</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0.02</v>
       </c>
       <c r="H205">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I205" t="s">
         <v>14</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A206" s="1">
         <v>44768</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0.02</v>
       </c>
       <c r="H206">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I206" t="s">
         <v>14</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A207" s="1">
         <v>44768</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.02</v>
       </c>
       <c r="H207">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I207" t="s">
         <v>14</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.02</v>
       </c>
       <c r="H208">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I208" t="s">
         <v>14</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A209" s="1">
         <v>44768</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0.02</v>
       </c>
       <c r="H209">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I209" t="s">
         <v>14</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A210" s="1">
         <v>44768</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>0.02</v>
       </c>
       <c r="H210">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A211" s="1">
         <v>44768</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0.02</v>
       </c>
       <c r="H211">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I211" t="s">
         <v>14</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A212" s="1">
         <v>44768</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>0.02</v>
       </c>
       <c r="H212">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I212" t="s">
         <v>14</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A213" s="1">
         <v>44768</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>0.02</v>
       </c>
       <c r="H213">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I213" t="s">
         <v>14</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A214" s="1">
         <v>44768</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>0.02</v>
       </c>
       <c r="H214">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I214" t="s">
         <v>14</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A215" s="1">
         <v>44768</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>0.02</v>
       </c>
       <c r="H215">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I215" t="s">
         <v>14</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A216" s="1">
         <v>44768</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0.02</v>
       </c>
       <c r="H216">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I216" t="s">
         <v>14</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A217" s="1">
         <v>44768</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>0.02</v>
       </c>
       <c r="H217">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I217" t="s">
         <v>14</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A218" s="1">
         <v>44768</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>0.02</v>
       </c>
       <c r="H218">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I218" t="s">
         <v>14</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A219" s="1">
         <v>44768</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0.02</v>
       </c>
       <c r="H219">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I219" t="s">
         <v>14</v>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A220" s="1">
         <v>44768</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.02</v>
       </c>
       <c r="H220">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I220" t="s">
         <v>14</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A221" s="1">
         <v>44768</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>0.02</v>
       </c>
       <c r="H221">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I221" t="s">
         <v>14</v>
@@ -8589,7 +8589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A222" s="1">
         <v>44768</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0.02</v>
       </c>
       <c r="H222">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I222" t="s">
         <v>14</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A223" s="1">
         <v>44768</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>0.02</v>
       </c>
       <c r="H223">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I223" t="s">
         <v>14</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A224" s="1">
         <v>44768</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0.02</v>
       </c>
       <c r="H224">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I224" t="s">
         <v>14</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A225" s="1">
         <v>44768</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0.02</v>
       </c>
       <c r="H225">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I225" t="s">
         <v>14</v>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A226" s="1">
         <v>44768</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>0.02</v>
       </c>
       <c r="H226">
-        <v>9.4E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I226" t="s">
         <v>14</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9F8B40-8650-4FEA-AB0C-C09054AC0B1E}"/>
+  <xr:revisionPtr revIDLastSave="1003" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{388A365E-6EC9-4FE7-9349-E7A8C6634018}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1003" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{388A365E-6EC9-4FE7-9349-E7A8C6634018}"/>
+  <xr:revisionPtr revIDLastSave="1008" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7D6D1F-9DD0-436B-8E0C-FA43B9DA34DB}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1057,16 +1057,16 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I206" sqref="I206"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,13 +1101,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">I2&amp;TEXT(E2,"000")&amp;TEXT(F2,"000")</f>
-        <v>MM010010</v>
+        <v>MM010050</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -1134,13 +1134,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>MM020010</v>
+        <v>MM020050</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>0.02</v>
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>MM030010</v>
+        <v>MM030050</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>0.02</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>MM040010</v>
+        <v>MM040050</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>0.02</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>MM050010</v>
+        <v>MM050050</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>0.02</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>MM060010</v>
+        <v>MM060050</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>MM070010</v>
+        <v>MM070050</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>MM080010</v>
+        <v>MM080050</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0.02</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>MM090010</v>
+        <v>MM090050</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0.02</v>
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>MM100010</v>
+        <v>MM100050</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>0.02</v>
@@ -1431,26 +1431,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>MM010020</v>
+        <v>MM010050</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <f>C2+10</f>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <f>D2+10</f>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <f>F2+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>0.02</v>
@@ -1465,26 +1466,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>MM020020</v>
+        <v>MM020050</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <f t="shared" ref="C13:D13" si="1">C3+10</f>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F76" si="1">F3+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>0.02</v>
@@ -1499,26 +1501,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>MM030020</v>
+        <v>MM030050</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <f t="shared" ref="C14:D14" si="2">C4+10</f>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1533,26 +1536,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>MM040020</v>
+        <v>MM040050</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <f t="shared" ref="C15:D15" si="3">C5+10</f>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>0.02</v>
@@ -1567,26 +1571,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>MM050020</v>
+        <v>MM050050</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <f t="shared" ref="C16:D16" si="4">C6+10</f>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>0.02</v>
@@ -1601,26 +1606,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>MM060020</v>
+        <v>MM060050</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <f t="shared" ref="C17:D17" si="5">C7+10</f>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>0.02</v>
@@ -1635,26 +1641,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>MM070020</v>
+        <v>MM070050</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f t="shared" ref="C18:D18" si="6">C8+10</f>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>70</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1669,26 +1676,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>MM080020</v>
+        <v>MM080050</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <f t="shared" ref="C19:D19" si="7">C9+10</f>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>0.02</v>
@@ -1703,26 +1711,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>MM090020</v>
+        <v>MM090050</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <f t="shared" ref="C20:D20" si="8">C10+10</f>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>90</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>0.02</v>
@@ -1737,26 +1746,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>MM100020</v>
+        <v>MM100050</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <f t="shared" ref="C21:D21" si="9">C11+10</f>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>0.02</v>
@@ -1771,26 +1781,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>MM010030</v>
+        <v>MM010050</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <f t="shared" ref="C22:D22" si="10">C12+10</f>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1805,26 +1816,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>MM020030</v>
+        <v>MM020050</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <f t="shared" ref="C23:D23" si="11">C13+10</f>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>0.02</v>
@@ -1839,26 +1851,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>MM030030</v>
+        <v>MM030050</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <f t="shared" ref="C24:D24" si="12">C14+10</f>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>30</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>0.02</v>
@@ -1873,26 +1886,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>MM040030</v>
+        <v>MM040050</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <f t="shared" ref="C25:D25" si="13">C15+10</f>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0.02</v>
@@ -1907,26 +1921,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>MM050030</v>
+        <v>MM050050</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <f t="shared" ref="C26:D26" si="14">C16+10</f>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>0.02</v>
@@ -1941,26 +1956,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>MM060030</v>
+        <v>MM060050</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <f t="shared" ref="C27:D27" si="15">C17+10</f>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>60</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>0.02</v>
@@ -1975,26 +1991,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>MM070030</v>
+        <v>MM070050</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <f t="shared" ref="C28:D28" si="16">C18+10</f>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2009,26 +2026,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>MM080030</v>
+        <v>MM080050</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <f t="shared" ref="C29:D29" si="17">C19+10</f>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>80</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>0.02</v>
@@ -2043,26 +2061,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>MM090030</v>
+        <v>MM090050</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <f t="shared" ref="C30:D30" si="18">C20+10</f>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>90</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>0.02</v>
@@ -2077,26 +2096,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>MM100030</v>
+        <v>MM100050</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <f t="shared" ref="C31:D31" si="19">C21+10</f>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>0.02</v>
@@ -2111,26 +2131,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>MM010040</v>
+        <v>MM010050</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <f t="shared" ref="C32:D32" si="20">C22+10</f>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>0.02</v>
@@ -2145,26 +2166,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>MM020040</v>
+        <v>MM020050</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f t="shared" ref="C33:D33" si="21">C23+10</f>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>0.02</v>
@@ -2179,26 +2201,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>MM030040</v>
+        <v>MM030050</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <f t="shared" ref="C34:D34" si="22">C24+10</f>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>0.02</v>
@@ -2213,26 +2236,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>MM040040</v>
+        <v>MM040050</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <f t="shared" ref="C35:D35" si="23">C25+10</f>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>40</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>0.02</v>
@@ -2247,26 +2271,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>MM050040</v>
+        <v>MM050050</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <f t="shared" ref="C36:D36" si="24">C26+10</f>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <f t="shared" si="24"/>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>0.02</v>
@@ -2281,26 +2306,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>MM060040</v>
+        <v>MM060050</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <f t="shared" ref="C37:D37" si="25">C27+10</f>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <f t="shared" si="25"/>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>60</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>0.02</v>
@@ -2315,26 +2341,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>MM070040</v>
+        <v>MM070050</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <f t="shared" ref="C38:D38" si="26">C28+10</f>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>70</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2349,26 +2376,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>MM080040</v>
+        <v>MM080050</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <f t="shared" ref="C39:D39" si="27">C29+10</f>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>80</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>0.02</v>
@@ -2383,26 +2411,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>MM090040</v>
+        <v>MM090050</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <f t="shared" ref="C40:D40" si="28">C30+10</f>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <f t="shared" si="28"/>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>90</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>0.02</v>
@@ -2417,26 +2446,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>MM100040</v>
+        <v>MM100050</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <f t="shared" ref="C41:D41" si="29">C31+10</f>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>0.02</v>
@@ -2451,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2460,16 +2490,17 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <f t="shared" ref="C42:D42" si="30">C32+10</f>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G42">
@@ -2485,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2494,16 +2525,17 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <f t="shared" ref="C43:D43" si="31">C33+10</f>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <f t="shared" si="31"/>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>20</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G43">
@@ -2519,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2528,16 +2560,17 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <f t="shared" ref="C44:D44" si="32">C34+10</f>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <f t="shared" si="32"/>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>30</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G44">
@@ -2553,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2562,16 +2595,17 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <f t="shared" ref="C45:D45" si="33">C35+10</f>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <f t="shared" si="33"/>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G45">
@@ -2587,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2596,16 +2630,17 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <f t="shared" ref="C46:D46" si="34">C36+10</f>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>50</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G46">
@@ -2621,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2630,16 +2665,17 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <f t="shared" ref="C47:D47" si="35">C37+10</f>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <f t="shared" si="35"/>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>60</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G47">
@@ -2655,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2664,16 +2700,17 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <f t="shared" ref="C48:D48" si="36">C38+10</f>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>70</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G48">
@@ -2689,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2698,16 +2735,17 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f t="shared" ref="C49:D49" si="37">C39+10</f>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <f t="shared" si="37"/>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>80</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G49">
@@ -2723,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2732,16 +2770,17 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f t="shared" ref="C50:D50" si="38">C40+10</f>
+        <v>41</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <f t="shared" si="38"/>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>90</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G50">
@@ -2757,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2766,16 +2805,17 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <f t="shared" ref="C51:D51" si="39">C41+10</f>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <f t="shared" si="39"/>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G51">
@@ -2791,26 +2831,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>MM010060</v>
+        <v>MM010050</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <f t="shared" ref="C52:D52" si="40">C42+10</f>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <f t="shared" si="40"/>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>0.02</v>
@@ -2825,26 +2866,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>MM020060</v>
+        <v>MM020050</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <f t="shared" ref="C53:D53" si="41">C43+10</f>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <f t="shared" si="41"/>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>20</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>0.02</v>
@@ -2859,26 +2901,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>MM030060</v>
+        <v>MM030050</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <f t="shared" ref="C54:D54" si="42">C44+10</f>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>30</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G54">
         <v>0.02</v>
@@ -2893,26 +2936,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>MM040060</v>
+        <v>MM040050</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <f t="shared" ref="C55:D55" si="43">C45+10</f>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <f t="shared" si="43"/>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>40</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G55">
         <v>0.02</v>
@@ -2927,26 +2971,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>MM050060</v>
+        <v>MM050050</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <f t="shared" ref="C56:D56" si="44">C46+10</f>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G56">
         <v>0.02</v>
@@ -2961,26 +3006,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>MM060060</v>
+        <v>MM060050</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <f t="shared" ref="C57:D57" si="45">C47+10</f>
+        <v>51</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <f t="shared" si="45"/>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>60</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>0.02</v>
@@ -2995,26 +3041,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>MM070060</v>
+        <v>MM070050</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <f t="shared" ref="C58:D58" si="46">C48+10</f>
+        <v>51</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>60</v>
       </c>
       <c r="E58">
         <v>70</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>0.02</v>
@@ -3029,26 +3076,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>MM080060</v>
+        <v>MM080050</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <f t="shared" ref="C59:D59" si="47">C49+10</f>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>80</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>0.02</v>
@@ -3063,26 +3111,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>MM090060</v>
+        <v>MM090050</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <f t="shared" ref="C60:D60" si="48">C50+10</f>
+        <v>51</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>90</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G60">
         <v>0.02</v>
@@ -3097,26 +3146,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>MM100060</v>
+        <v>MM100050</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <f t="shared" ref="C61:D61" si="49">C51+10</f>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <f t="shared" si="49"/>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3131,26 +3181,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>MM010070</v>
+        <v>MM010050</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <f t="shared" ref="C62:D62" si="50">C52+10</f>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <f t="shared" si="50"/>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <v>0.02</v>
@@ -3165,26 +3216,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>MM020070</v>
+        <v>MM020050</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <f t="shared" ref="C63:D63" si="51">C53+10</f>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>20</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>0.02</v>
@@ -3199,26 +3251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>MM030070</v>
+        <v>MM030050</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <f t="shared" ref="C64:D64" si="52">C54+10</f>
+        <v>61</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <f t="shared" si="52"/>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>0.02</v>
@@ -3233,230 +3286,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>MM040070</v>
+        <v>MM040050</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <f t="shared" ref="C65:D65" si="53">C55+10</f>
+        <v>61</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>40</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>0.02</v>
+      </c>
+      <c r="H65">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="54">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
+        <v>MM050050</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:D66" si="55">C56+10</f>
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
-      <c r="G65">
-        <v>0.02</v>
-      </c>
-      <c r="H65">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A66" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="2">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
-        <v>MM050070</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
       <c r="E66">
         <v>50</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>0.02</v>
+      </c>
+      <c r="H66">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:D67" si="56">C57+10</f>
+        <v>61</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="56"/>
         <v>70</v>
-      </c>
-      <c r="G66">
-        <v>0.02</v>
-      </c>
-      <c r="H66">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A67" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060070</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
       </c>
       <c r="E67">
         <v>60</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>0.02</v>
+      </c>
+      <c r="H67">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:D68" si="57">C58+10</f>
+        <v>61</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="57"/>
         <v>70</v>
-      </c>
-      <c r="G67">
-        <v>0.02</v>
-      </c>
-      <c r="H67">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A68" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070070</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
       </c>
       <c r="E68">
         <v>70</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>0.02</v>
+      </c>
+      <c r="H68">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:D69" si="58">C59+10</f>
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="58"/>
         <v>70</v>
-      </c>
-      <c r="G68">
-        <v>0.02</v>
-      </c>
-      <c r="H68">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A69" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080070</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>10</v>
       </c>
       <c r="E69">
         <v>80</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>0.02</v>
+      </c>
+      <c r="H69">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:D70" si="59">C60+10</f>
+        <v>61</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="59"/>
         <v>70</v>
-      </c>
-      <c r="G69">
-        <v>0.02</v>
-      </c>
-      <c r="H69">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A70" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090070</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
       </c>
       <c r="E70">
         <v>90</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>0.02</v>
+      </c>
+      <c r="H70">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:D71" si="60">C61+10</f>
+        <v>61</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="60"/>
         <v>70</v>
-      </c>
-      <c r="G70">
-        <v>0.02</v>
-      </c>
-      <c r="H70">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A71" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100070</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G71">
         <v>0.02</v>
@@ -3471,332 +3531,342 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010080</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <f t="shared" ref="C72:D72" si="61">C62+10</f>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <f t="shared" si="61"/>
+        <v>80</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>0.02</v>
+      </c>
+      <c r="H72">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:D73" si="62">C63+10</f>
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="62"/>
         <v>80</v>
-      </c>
-      <c r="G72">
-        <v>0.02</v>
-      </c>
-      <c r="H72">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A73" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020080</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
       </c>
       <c r="E73">
         <v>20</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>0.02</v>
+      </c>
+      <c r="H73">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:D74" si="63">C64+10</f>
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="63"/>
         <v>80</v>
-      </c>
-      <c r="G73">
-        <v>0.02</v>
-      </c>
-      <c r="H73">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A74" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030080</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
       </c>
       <c r="E74">
         <v>30</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>0.02</v>
+      </c>
+      <c r="H74">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:D75" si="64">C65+10</f>
+        <v>71</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="64"/>
         <v>80</v>
-      </c>
-      <c r="G74">
-        <v>0.02</v>
-      </c>
-      <c r="H74">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A75" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040080</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
       </c>
       <c r="E75">
         <v>40</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>0.02</v>
+      </c>
+      <c r="H75">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:D76" si="65">C66+10</f>
+        <v>71</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
-      <c r="G75">
-        <v>0.02</v>
-      </c>
-      <c r="H75">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A76" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050080</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
       <c r="E76">
         <v>50</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>0.02</v>
+      </c>
+      <c r="H76">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:D77" si="66">C67+10</f>
+        <v>71</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="66"/>
         <v>80</v>
-      </c>
-      <c r="G76">
-        <v>0.02</v>
-      </c>
-      <c r="H76">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A77" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060080</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F101" si="3">F67+10</f>
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>0.02</v>
+      </c>
+      <c r="H77">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:D78" si="67">C68+10</f>
+        <v>71</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="67"/>
         <v>80</v>
-      </c>
-      <c r="G77">
-        <v>0.02</v>
-      </c>
-      <c r="H77">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A78" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070080</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
       </c>
       <c r="E78">
         <v>70</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>0.02</v>
+      </c>
+      <c r="H78">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:D79" si="68">C69+10</f>
+        <v>71</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="68"/>
         <v>80</v>
-      </c>
-      <c r="G78">
-        <v>0.02</v>
-      </c>
-      <c r="H78">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A79" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080080</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>10</v>
       </c>
       <c r="E79">
         <v>80</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>0.02</v>
+      </c>
+      <c r="H79">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:D80" si="69">C70+10</f>
+        <v>71</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="69"/>
         <v>80</v>
-      </c>
-      <c r="G79">
-        <v>0.02</v>
-      </c>
-      <c r="H79">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A80" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090080</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>10</v>
       </c>
       <c r="E80">
         <v>90</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>0.02</v>
+      </c>
+      <c r="H80">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:D81" si="70">C71+10</f>
+        <v>71</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="70"/>
         <v>80</v>
-      </c>
-      <c r="G80">
-        <v>0.02</v>
-      </c>
-      <c r="H80">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A81" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100080</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
       </c>
       <c r="E81">
         <v>100</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>0.02</v>
@@ -3811,332 +3881,342 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010090</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <f t="shared" ref="C82:D82" si="71">C72+10</f>
+        <v>81</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <f t="shared" si="71"/>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>0.02</v>
+      </c>
+      <c r="H82">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:D83" si="72">C73+10</f>
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="72"/>
         <v>90</v>
-      </c>
-      <c r="G82">
-        <v>0.02</v>
-      </c>
-      <c r="H82">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A83" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020090</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
       </c>
       <c r="E83">
         <v>20</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>0.02</v>
+      </c>
+      <c r="H83">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:D84" si="73">C74+10</f>
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="73"/>
         <v>90</v>
-      </c>
-      <c r="G83">
-        <v>0.02</v>
-      </c>
-      <c r="H83">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A84" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030090</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
       </c>
       <c r="E84">
         <v>30</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G84">
+        <v>0.02</v>
+      </c>
+      <c r="H84">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:D85" si="74">C75+10</f>
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="74"/>
         <v>90</v>
-      </c>
-      <c r="G84">
-        <v>0.02</v>
-      </c>
-      <c r="H84">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A85" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040090</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
       </c>
       <c r="E85">
         <v>40</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>0.02</v>
+      </c>
+      <c r="H85">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:D86" si="75">C76+10</f>
+        <v>81</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="75"/>
         <v>90</v>
       </c>
-      <c r="G85">
-        <v>0.02</v>
-      </c>
-      <c r="H85">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A86" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050090</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>10</v>
-      </c>
       <c r="E86">
         <v>50</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>0.02</v>
+      </c>
+      <c r="H86">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87:D87" si="76">C77+10</f>
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="76"/>
         <v>90</v>
-      </c>
-      <c r="G86">
-        <v>0.02</v>
-      </c>
-      <c r="H86">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A87" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060090</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
       </c>
       <c r="E87">
         <v>60</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G87">
+        <v>0.02</v>
+      </c>
+      <c r="H87">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:D88" si="77">C78+10</f>
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="77"/>
         <v>90</v>
-      </c>
-      <c r="G87">
-        <v>0.02</v>
-      </c>
-      <c r="H87">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A88" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070090</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
       </c>
       <c r="E88">
         <v>70</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G88">
+        <v>0.02</v>
+      </c>
+      <c r="H88">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89:D89" si="78">C79+10</f>
+        <v>81</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="78"/>
         <v>90</v>
-      </c>
-      <c r="G88">
-        <v>0.02</v>
-      </c>
-      <c r="H88">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A89" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080090</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>10</v>
       </c>
       <c r="E89">
         <v>80</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>0.02</v>
+      </c>
+      <c r="H89">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ref="C90:D90" si="79">C80+10</f>
+        <v>81</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="79"/>
         <v>90</v>
-      </c>
-      <c r="G89">
-        <v>0.02</v>
-      </c>
-      <c r="H89">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A90" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090090</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
       </c>
       <c r="E90">
         <v>90</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>0.02</v>
+      </c>
+      <c r="H90">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:D91" si="80">C81+10</f>
+        <v>81</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="80"/>
         <v>90</v>
-      </c>
-      <c r="G90">
-        <v>0.02</v>
-      </c>
-      <c r="H90">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A91" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100090</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
       </c>
       <c r="E91">
         <v>100</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>0.02</v>
@@ -4151,332 +4231,342 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010100</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <f t="shared" ref="C92:D92" si="81">C82+10</f>
+        <v>91</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <f t="shared" si="81"/>
+        <v>100</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G92">
+        <v>0.02</v>
+      </c>
+      <c r="H92">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:D93" si="82">C83+10</f>
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="82"/>
         <v>100</v>
-      </c>
-      <c r="G92">
-        <v>0.02</v>
-      </c>
-      <c r="H92">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A93" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020100</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>10</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G93">
+        <v>0.02</v>
+      </c>
+      <c r="H93">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:D94" si="83">C84+10</f>
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="83"/>
         <v>100</v>
-      </c>
-      <c r="G93">
-        <v>0.02</v>
-      </c>
-      <c r="H93">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A94" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030100</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>10</v>
       </c>
       <c r="E94">
         <v>30</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>0.02</v>
+      </c>
+      <c r="H94">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:D95" si="84">C85+10</f>
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="84"/>
         <v>100</v>
-      </c>
-      <c r="G94">
-        <v>0.02</v>
-      </c>
-      <c r="H94">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A95" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040100</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>10</v>
       </c>
       <c r="E95">
         <v>40</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G95">
+        <v>0.02</v>
+      </c>
+      <c r="H95">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:D96" si="85">C86+10</f>
+        <v>91</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="85"/>
         <v>100</v>
       </c>
-      <c r="G95">
-        <v>0.02</v>
-      </c>
-      <c r="H95">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A96" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050100</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
       <c r="E96">
         <v>50</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G96">
+        <v>0.02</v>
+      </c>
+      <c r="H96">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:D97" si="86">C87+10</f>
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="86"/>
         <v>100</v>
-      </c>
-      <c r="G96">
-        <v>0.02</v>
-      </c>
-      <c r="H96">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A97" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060100</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
       </c>
       <c r="E97">
         <v>60</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>0.02</v>
+      </c>
+      <c r="H97">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:D98" si="87">C88+10</f>
+        <v>91</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="87"/>
         <v>100</v>
-      </c>
-      <c r="G97">
-        <v>0.02</v>
-      </c>
-      <c r="H97">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A98" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070100</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>10</v>
       </c>
       <c r="E98">
         <v>70</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>0.02</v>
+      </c>
+      <c r="H98">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:D99" si="88">C89+10</f>
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="88"/>
         <v>100</v>
-      </c>
-      <c r="G98">
-        <v>0.02</v>
-      </c>
-      <c r="H98">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A99" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080100</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
       </c>
       <c r="E99">
         <v>80</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G99">
+        <v>0.02</v>
+      </c>
+      <c r="H99">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:D100" si="89">C90+10</f>
+        <v>91</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="89"/>
         <v>100</v>
-      </c>
-      <c r="G99">
-        <v>0.02</v>
-      </c>
-      <c r="H99">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A100" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090100</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>10</v>
       </c>
       <c r="E100">
         <v>90</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G100">
+        <v>0.02</v>
+      </c>
+      <c r="H100">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:D101" si="90">C91+10</f>
+        <v>91</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="90"/>
         <v>100</v>
-      </c>
-      <c r="G100">
-        <v>0.02</v>
-      </c>
-      <c r="H100">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A101" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100100</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>0.02</v>
@@ -4494,25 +4584,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010010</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <f t="shared" ref="C102:D102" si="91">C92+10</f>
+        <v>101</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <f t="shared" si="91"/>
+        <v>110</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G102">
         <v>0.02</v>
@@ -4527,25 +4619,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020010</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <f t="shared" ref="C103:D103" si="92">C93+10</f>
+        <v>101</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <f t="shared" si="92"/>
+        <v>110</v>
       </c>
       <c r="E103">
         <v>20</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4560,25 +4654,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030010</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <f t="shared" ref="C104:D104" si="93">C94+10</f>
+        <v>101</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <f t="shared" si="93"/>
+        <v>110</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4593,25 +4689,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040010</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <f t="shared" ref="C105:D105" si="94">C95+10</f>
+        <v>101</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <f t="shared" si="94"/>
+        <v>110</v>
       </c>
       <c r="E105">
         <v>40</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0.02</v>
@@ -4626,25 +4724,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050010</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <f t="shared" ref="C106:D106" si="95">C96+10</f>
+        <v>101</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <f t="shared" si="95"/>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>50</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G106">
         <v>0.02</v>
@@ -4659,25 +4759,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060010</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <f t="shared" ref="C107:D107" si="96">C97+10</f>
+        <v>101</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <f t="shared" si="96"/>
+        <v>110</v>
       </c>
       <c r="E107">
         <v>60</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>0.02</v>
@@ -4692,25 +4794,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070010</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <f t="shared" ref="C108:D108" si="97">C98+10</f>
+        <v>101</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <f t="shared" si="97"/>
+        <v>110</v>
       </c>
       <c r="E108">
         <v>70</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G108">
         <v>0.02</v>
@@ -4725,25 +4829,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080010</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <f t="shared" ref="C109:D109" si="98">C99+10</f>
+        <v>101</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <f t="shared" si="98"/>
+        <v>110</v>
       </c>
       <c r="E109">
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G109">
         <v>0.02</v>
@@ -4758,25 +4864,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090010</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <f t="shared" ref="C110:D110" si="99">C100+10</f>
+        <v>101</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <f t="shared" si="99"/>
+        <v>110</v>
       </c>
       <c r="E110">
         <v>90</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -4791,25 +4899,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100010</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <f t="shared" ref="C111:D111" si="100">C101+10</f>
+        <v>101</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <f t="shared" si="100"/>
+        <v>110</v>
       </c>
       <c r="E111">
         <v>100</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>0.02</v>
@@ -4824,26 +4934,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010020</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <f t="shared" ref="C112:D112" si="101">C102+10</f>
+        <v>111</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <f t="shared" si="101"/>
+        <v>120</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112">
-        <f>F102+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>0.02</v>
@@ -4858,26 +4969,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020020</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <f t="shared" ref="C113:D113" si="102">C103+10</f>
+        <v>111</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <f t="shared" si="102"/>
+        <v>120</v>
       </c>
       <c r="E113">
         <v>20</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113:F176" si="4">F103+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>0.02</v>
@@ -4892,26 +5004,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030020</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <f t="shared" ref="C114:D114" si="103">C104+10</f>
+        <v>111</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <f t="shared" si="103"/>
+        <v>120</v>
       </c>
       <c r="E114">
         <v>30</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G114">
         <v>0.02</v>
@@ -4926,26 +5039,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040020</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <f t="shared" ref="C115:D115" si="104">C105+10</f>
+        <v>111</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <f t="shared" si="104"/>
+        <v>120</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G115">
         <v>0.02</v>
@@ -4960,26 +5074,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050020</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <f t="shared" ref="C116:D116" si="105">C106+10</f>
+        <v>111</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <f t="shared" si="105"/>
+        <v>120</v>
       </c>
       <c r="E116">
         <v>50</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>0.02</v>
@@ -4994,26 +5109,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060020</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <f t="shared" ref="C117:D117" si="106">C107+10</f>
+        <v>111</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <f t="shared" si="106"/>
+        <v>120</v>
       </c>
       <c r="E117">
         <v>60</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G117">
         <v>0.02</v>
@@ -5028,26 +5144,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070020</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <f t="shared" ref="C118:D118" si="107">C108+10</f>
+        <v>111</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <f t="shared" si="107"/>
+        <v>120</v>
       </c>
       <c r="E118">
         <v>70</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>0.02</v>
@@ -5062,26 +5179,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080020</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <f t="shared" ref="C119:D119" si="108">C109+10</f>
+        <v>111</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <f t="shared" si="108"/>
+        <v>120</v>
       </c>
       <c r="E119">
         <v>80</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>0.02</v>
@@ -5096,26 +5214,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090020</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <f t="shared" ref="C120:D120" si="109">C110+10</f>
+        <v>111</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <f t="shared" si="109"/>
+        <v>120</v>
       </c>
       <c r="E120">
         <v>90</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G120">
         <v>0.02</v>
@@ -5130,26 +5249,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100020</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <f t="shared" ref="C121:D121" si="110">C111+10</f>
+        <v>111</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <f t="shared" si="110"/>
+        <v>120</v>
       </c>
       <c r="E121">
         <v>100</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5164,26 +5284,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010030</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <f t="shared" ref="C122:D122" si="111">C112+10</f>
+        <v>121</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <f t="shared" si="111"/>
+        <v>130</v>
       </c>
       <c r="E122">
         <v>10</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G122">
         <v>0.02</v>
@@ -5198,26 +5319,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020030</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <f t="shared" ref="C123:D123" si="112">C113+10</f>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <f t="shared" si="112"/>
+        <v>130</v>
       </c>
       <c r="E123">
         <v>20</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G123">
         <v>0.02</v>
@@ -5232,26 +5354,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030030</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <f t="shared" ref="C124:D124" si="113">C114+10</f>
+        <v>121</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <f t="shared" si="113"/>
+        <v>130</v>
       </c>
       <c r="E124">
         <v>30</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G124">
         <v>0.02</v>
@@ -5266,26 +5389,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040030</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <f t="shared" ref="C125:D125" si="114">C115+10</f>
+        <v>121</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <f t="shared" si="114"/>
+        <v>130</v>
       </c>
       <c r="E125">
         <v>40</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G125">
         <v>0.02</v>
@@ -5300,26 +5424,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050030</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <f t="shared" ref="C126:D126" si="115">C116+10</f>
+        <v>121</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <f t="shared" si="115"/>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>50</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G126">
         <v>0.02</v>
@@ -5334,26 +5459,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060030</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <f t="shared" ref="C127:D127" si="116">C117+10</f>
+        <v>121</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <f t="shared" si="116"/>
+        <v>130</v>
       </c>
       <c r="E127">
         <v>60</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G127">
         <v>0.02</v>
@@ -5368,26 +5494,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070030</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <f t="shared" ref="C128:D128" si="117">C118+10</f>
+        <v>121</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <f t="shared" si="117"/>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>70</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5402,26 +5529,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080030</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <f t="shared" ref="C129:D129" si="118">C119+10</f>
+        <v>121</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <f t="shared" si="118"/>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>80</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G129">
         <v>0.02</v>
@@ -5436,26 +5564,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="5">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
-        <v>MM090030</v>
+        <f t="shared" ref="B130:B193" si="119">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
+        <v>MM090050</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <f t="shared" ref="C130:D130" si="120">C120+10</f>
+        <v>121</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <f t="shared" si="120"/>
+        <v>130</v>
       </c>
       <c r="E130">
         <v>90</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G130">
         <v>0.02</v>
@@ -5470,26 +5599,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100030</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <f t="shared" ref="C131:D131" si="121">C121+10</f>
+        <v>121</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <f t="shared" si="121"/>
+        <v>130</v>
       </c>
       <c r="E131">
         <v>100</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <v>0.02</v>
@@ -5504,26 +5634,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010040</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <f t="shared" ref="C132:D132" si="122">C122+10</f>
+        <v>131</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <f t="shared" si="122"/>
+        <v>140</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>0.02</v>
@@ -5538,26 +5669,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020040</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <f t="shared" ref="C133:D133" si="123">C123+10</f>
+        <v>131</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <f t="shared" si="123"/>
+        <v>140</v>
       </c>
       <c r="E133">
         <v>20</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>0.02</v>
@@ -5572,26 +5704,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030040</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <f t="shared" ref="C134:D134" si="124">C124+10</f>
+        <v>131</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <f t="shared" si="124"/>
+        <v>140</v>
       </c>
       <c r="E134">
         <v>30</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>0.02</v>
@@ -5606,26 +5739,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040040</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <f t="shared" ref="C135:D135" si="125">C125+10</f>
+        <v>131</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <f t="shared" si="125"/>
+        <v>140</v>
       </c>
       <c r="E135">
         <v>40</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G135">
         <v>0.02</v>
@@ -5640,26 +5774,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050040</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <f t="shared" ref="C136:D136" si="126">C126+10</f>
+        <v>131</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <f t="shared" si="126"/>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>0.02</v>
@@ -5674,26 +5809,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060040</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <f t="shared" ref="C137:D137" si="127">C127+10</f>
+        <v>131</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <f t="shared" si="127"/>
+        <v>140</v>
       </c>
       <c r="E137">
         <v>60</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G137">
         <v>0.02</v>
@@ -5708,26 +5844,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070040</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <f t="shared" ref="C138:D138" si="128">C128+10</f>
+        <v>131</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <f t="shared" si="128"/>
+        <v>140</v>
       </c>
       <c r="E138">
         <v>70</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G138">
         <v>0.02</v>
@@ -5742,26 +5879,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080040</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <f t="shared" ref="C139:D139" si="129">C129+10</f>
+        <v>131</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <f t="shared" si="129"/>
+        <v>140</v>
       </c>
       <c r="E139">
         <v>80</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G139">
         <v>0.02</v>
@@ -5776,26 +5914,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090040</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <f t="shared" ref="C140:D140" si="130">C130+10</f>
+        <v>131</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <f t="shared" si="130"/>
+        <v>140</v>
       </c>
       <c r="E140">
         <v>90</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G140">
         <v>0.02</v>
@@ -5810,26 +5949,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100040</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <f t="shared" ref="C141:D141" si="131">C131+10</f>
+        <v>131</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <f t="shared" si="131"/>
+        <v>140</v>
       </c>
       <c r="E141">
         <v>100</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G141">
         <v>0.02</v>
@@ -5844,25 +5984,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <f t="shared" ref="C142:D142" si="132">C132+10</f>
+        <v>141</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <f t="shared" si="132"/>
+        <v>150</v>
       </c>
       <c r="E142">
         <v>10</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G142">
@@ -5878,25 +6019,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <f t="shared" ref="C143:D143" si="133">C133+10</f>
+        <v>141</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <f t="shared" si="133"/>
+        <v>150</v>
       </c>
       <c r="E143">
         <v>20</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G143">
@@ -5912,25 +6054,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <f t="shared" ref="C144:D144" si="134">C134+10</f>
+        <v>141</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <f t="shared" si="134"/>
+        <v>150</v>
       </c>
       <c r="E144">
         <v>30</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G144">
@@ -5946,25 +6089,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <f t="shared" ref="C145:D145" si="135">C135+10</f>
+        <v>141</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <f t="shared" si="135"/>
+        <v>150</v>
       </c>
       <c r="E145">
         <v>40</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G145">
@@ -5980,25 +6124,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <f t="shared" ref="C146:D146" si="136">C136+10</f>
+        <v>141</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <f t="shared" si="136"/>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>50</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G146">
@@ -6014,25 +6159,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <f t="shared" ref="C147:D147" si="137">C137+10</f>
+        <v>141</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <f t="shared" si="137"/>
+        <v>150</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G147">
@@ -6048,25 +6194,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <f t="shared" ref="C148:D148" si="138">C138+10</f>
+        <v>141</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <f t="shared" si="138"/>
+        <v>150</v>
       </c>
       <c r="E148">
         <v>70</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G148">
@@ -6082,25 +6229,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <f t="shared" ref="C149:D149" si="139">C139+10</f>
+        <v>141</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <f t="shared" si="139"/>
+        <v>150</v>
       </c>
       <c r="E149">
         <v>80</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G149">
@@ -6116,25 +6264,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <f t="shared" ref="C150:D150" si="140">C140+10</f>
+        <v>141</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <f t="shared" si="140"/>
+        <v>150</v>
       </c>
       <c r="E150">
         <v>90</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G150">
@@ -6150,25 +6299,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <f t="shared" ref="C151:D151" si="141">C141+10</f>
+        <v>141</v>
       </c>
       <c r="D151">
-        <v>20</v>
+        <f t="shared" si="141"/>
+        <v>150</v>
       </c>
       <c r="E151">
         <v>100</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G151">
@@ -6184,26 +6334,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010060</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <f t="shared" ref="C152:D152" si="142">C142+10</f>
+        <v>151</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <f t="shared" si="142"/>
+        <v>160</v>
       </c>
       <c r="E152">
         <v>10</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>0.02</v>
@@ -6218,26 +6369,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020060</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <f t="shared" ref="C153:D153" si="143">C143+10</f>
+        <v>151</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <f t="shared" si="143"/>
+        <v>160</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G153">
         <v>0.02</v>
@@ -6252,26 +6404,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030060</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <f t="shared" ref="C154:D154" si="144">C144+10</f>
+        <v>151</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <f t="shared" si="144"/>
+        <v>160</v>
       </c>
       <c r="E154">
         <v>30</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G154">
         <v>0.02</v>
@@ -6286,26 +6439,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040060</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <f t="shared" ref="C155:D155" si="145">C145+10</f>
+        <v>151</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <f t="shared" si="145"/>
+        <v>160</v>
       </c>
       <c r="E155">
         <v>40</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>0.02</v>
@@ -6320,26 +6474,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050060</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <f t="shared" ref="C156:D156" si="146">C146+10</f>
+        <v>151</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <f t="shared" si="146"/>
+        <v>160</v>
       </c>
       <c r="E156">
         <v>50</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G156">
         <v>0.02</v>
@@ -6354,26 +6509,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060060</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <f t="shared" ref="C157:D157" si="147">C147+10</f>
+        <v>151</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <f t="shared" si="147"/>
+        <v>160</v>
       </c>
       <c r="E157">
         <v>60</v>
       </c>
       <c r="F157">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G157">
         <v>0.02</v>
@@ -6388,26 +6544,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070060</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <f t="shared" ref="C158:D158" si="148">C148+10</f>
+        <v>151</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <f t="shared" si="148"/>
+        <v>160</v>
       </c>
       <c r="E158">
         <v>70</v>
       </c>
       <c r="F158">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G158">
         <v>0.02</v>
@@ -6422,26 +6579,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080060</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <f t="shared" ref="C159:D159" si="149">C149+10</f>
+        <v>151</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <f t="shared" si="149"/>
+        <v>160</v>
       </c>
       <c r="E159">
         <v>80</v>
       </c>
       <c r="F159">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>0.02</v>
@@ -6456,26 +6614,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090060</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <f t="shared" ref="C160:D160" si="150">C150+10</f>
+        <v>151</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <f t="shared" si="150"/>
+        <v>160</v>
       </c>
       <c r="E160">
         <v>90</v>
       </c>
       <c r="F160">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>0.02</v>
@@ -6490,26 +6649,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100060</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <f t="shared" ref="C161:D161" si="151">C151+10</f>
+        <v>151</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <f t="shared" si="151"/>
+        <v>160</v>
       </c>
       <c r="E161">
         <v>100</v>
       </c>
       <c r="F161">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G161">
         <v>0.02</v>
@@ -6524,26 +6684,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010070</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <f t="shared" ref="C162:D162" si="152">C152+10</f>
+        <v>161</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <f t="shared" si="152"/>
+        <v>170</v>
       </c>
       <c r="E162">
         <v>10</v>
       </c>
       <c r="F162">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>0.02</v>
@@ -6558,26 +6719,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020070</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <f t="shared" ref="C163:D163" si="153">C153+10</f>
+        <v>161</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <f t="shared" si="153"/>
+        <v>170</v>
       </c>
       <c r="E163">
         <v>20</v>
       </c>
       <c r="F163">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>0.02</v>
@@ -6592,26 +6754,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030070</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <f t="shared" ref="C164:D164" si="154">C154+10</f>
+        <v>161</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <f t="shared" si="154"/>
+        <v>170</v>
       </c>
       <c r="E164">
         <v>30</v>
       </c>
       <c r="F164">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>0.02</v>
@@ -6626,26 +6789,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040070</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <f t="shared" ref="C165:D165" si="155">C155+10</f>
+        <v>161</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <f t="shared" si="155"/>
+        <v>170</v>
       </c>
       <c r="E165">
         <v>40</v>
       </c>
       <c r="F165">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>0.02</v>
@@ -6660,26 +6824,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050070</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <f t="shared" ref="C166:D166" si="156">C156+10</f>
+        <v>161</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <f t="shared" si="156"/>
+        <v>170</v>
       </c>
       <c r="E166">
         <v>50</v>
       </c>
       <c r="F166">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G166">
         <v>0.02</v>
@@ -6694,26 +6859,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060070</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <f t="shared" ref="C167:D167" si="157">C157+10</f>
+        <v>161</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <f t="shared" si="157"/>
+        <v>170</v>
       </c>
       <c r="E167">
         <v>60</v>
       </c>
       <c r="F167">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>0.02</v>
@@ -6728,26 +6894,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070070</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <f t="shared" ref="C168:D168" si="158">C158+10</f>
+        <v>161</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <f t="shared" si="158"/>
+        <v>170</v>
       </c>
       <c r="E168">
         <v>70</v>
       </c>
       <c r="F168">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G168">
         <v>0.02</v>
@@ -6762,26 +6929,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080070</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <f t="shared" ref="C169:D169" si="159">C159+10</f>
+        <v>161</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <f t="shared" si="159"/>
+        <v>170</v>
       </c>
       <c r="E169">
         <v>80</v>
       </c>
       <c r="F169">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>0.02</v>
@@ -6796,26 +6964,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090070</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <f t="shared" ref="C170:D170" si="160">C160+10</f>
+        <v>161</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <f t="shared" si="160"/>
+        <v>170</v>
       </c>
       <c r="E170">
         <v>90</v>
       </c>
       <c r="F170">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G170">
         <v>0.02</v>
@@ -6830,26 +6999,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100070</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <f t="shared" ref="C171:D171" si="161">C161+10</f>
+        <v>161</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <f t="shared" si="161"/>
+        <v>170</v>
       </c>
       <c r="E171">
         <v>100</v>
       </c>
       <c r="F171">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G171">
         <v>0.02</v>
@@ -6864,26 +7034,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010080</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <f t="shared" ref="C172:D172" si="162">C162+10</f>
+        <v>171</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <f t="shared" si="162"/>
+        <v>180</v>
       </c>
       <c r="E172">
         <v>10</v>
       </c>
       <c r="F172">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>0.02</v>
@@ -6898,26 +7069,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020080</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <f t="shared" ref="C173:D173" si="163">C163+10</f>
+        <v>171</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <f t="shared" si="163"/>
+        <v>180</v>
       </c>
       <c r="E173">
         <v>20</v>
       </c>
       <c r="F173">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>0.02</v>
@@ -6932,26 +7104,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030080</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <f t="shared" ref="C174:D174" si="164">C164+10</f>
+        <v>171</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <f t="shared" si="164"/>
+        <v>180</v>
       </c>
       <c r="E174">
         <v>30</v>
       </c>
       <c r="F174">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>0.02</v>
@@ -6966,26 +7139,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040080</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <f t="shared" ref="C175:D175" si="165">C165+10</f>
+        <v>171</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <f t="shared" si="165"/>
+        <v>180</v>
       </c>
       <c r="E175">
         <v>40</v>
       </c>
       <c r="F175">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G175">
         <v>0.02</v>
@@ -7000,26 +7174,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050080</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <f t="shared" ref="C176:D176" si="166">C166+10</f>
+        <v>171</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <f t="shared" si="166"/>
+        <v>180</v>
       </c>
       <c r="E176">
         <v>50</v>
       </c>
       <c r="F176">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G176">
         <v>0.02</v>
@@ -7034,26 +7209,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060080</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <f t="shared" ref="C177:D177" si="167">C167+10</f>
+        <v>171</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <f t="shared" si="167"/>
+        <v>180</v>
       </c>
       <c r="E177">
         <v>60</v>
       </c>
       <c r="F177">
-        <f t="shared" ref="F177:F201" si="6">F167+10</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G177">
         <v>0.02</v>
@@ -7068,26 +7244,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070080</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <f t="shared" ref="C178:D178" si="168">C168+10</f>
+        <v>171</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <f t="shared" si="168"/>
+        <v>180</v>
       </c>
       <c r="E178">
         <v>70</v>
       </c>
       <c r="F178">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G178">
         <v>0.02</v>
@@ -7102,26 +7279,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080080</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <f t="shared" ref="C179:D179" si="169">C169+10</f>
+        <v>171</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <f t="shared" si="169"/>
+        <v>180</v>
       </c>
       <c r="E179">
         <v>80</v>
       </c>
       <c r="F179">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>0.02</v>
@@ -7136,26 +7314,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090080</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <f t="shared" ref="C180:D180" si="170">C170+10</f>
+        <v>171</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <f t="shared" si="170"/>
+        <v>180</v>
       </c>
       <c r="E180">
         <v>90</v>
       </c>
       <c r="F180">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G180">
         <v>0.02</v>
@@ -7170,26 +7349,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100080</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <f t="shared" ref="C181:D181" si="171">C171+10</f>
+        <v>171</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <f t="shared" si="171"/>
+        <v>180</v>
       </c>
       <c r="E181">
         <v>100</v>
       </c>
       <c r="F181">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G181">
         <v>0.02</v>
@@ -7204,26 +7384,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010090</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <f t="shared" ref="C182:D182" si="172">C172+10</f>
+        <v>181</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <f t="shared" si="172"/>
+        <v>190</v>
       </c>
       <c r="E182">
         <v>10</v>
       </c>
       <c r="F182">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G182">
         <v>0.02</v>
@@ -7238,26 +7419,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020090</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <f t="shared" ref="C183:D183" si="173">C173+10</f>
+        <v>181</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <f t="shared" si="173"/>
+        <v>190</v>
       </c>
       <c r="E183">
         <v>20</v>
       </c>
       <c r="F183">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G183">
         <v>0.02</v>
@@ -7272,26 +7454,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030090</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <f t="shared" ref="C184:D184" si="174">C174+10</f>
+        <v>181</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <f t="shared" si="174"/>
+        <v>190</v>
       </c>
       <c r="E184">
         <v>30</v>
       </c>
       <c r="F184">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G184">
         <v>0.02</v>
@@ -7306,26 +7489,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040090</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <f t="shared" ref="C185:D185" si="175">C175+10</f>
+        <v>181</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <f t="shared" si="175"/>
+        <v>190</v>
       </c>
       <c r="E185">
         <v>40</v>
       </c>
       <c r="F185">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G185">
         <v>0.02</v>
@@ -7340,26 +7524,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050090</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <f t="shared" ref="C186:D186" si="176">C176+10</f>
+        <v>181</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <f t="shared" si="176"/>
+        <v>190</v>
       </c>
       <c r="E186">
         <v>50</v>
       </c>
       <c r="F186">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G186">
         <v>0.02</v>
@@ -7374,26 +7559,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060090</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <f t="shared" ref="C187:D187" si="177">C177+10</f>
+        <v>181</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <f t="shared" si="177"/>
+        <v>190</v>
       </c>
       <c r="E187">
         <v>60</v>
       </c>
       <c r="F187">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G187">
         <v>0.02</v>
@@ -7408,26 +7594,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070090</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <f t="shared" ref="C188:D188" si="178">C178+10</f>
+        <v>181</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <f t="shared" si="178"/>
+        <v>190</v>
       </c>
       <c r="E188">
         <v>70</v>
       </c>
       <c r="F188">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G188">
         <v>0.02</v>
@@ -7442,26 +7629,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080090</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <f t="shared" ref="C189:D189" si="179">C179+10</f>
+        <v>181</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <f t="shared" si="179"/>
+        <v>190</v>
       </c>
       <c r="E189">
         <v>80</v>
       </c>
       <c r="F189">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>0.02</v>
@@ -7476,26 +7664,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090090</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <f t="shared" ref="C190:D190" si="180">C180+10</f>
+        <v>181</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <f t="shared" si="180"/>
+        <v>190</v>
       </c>
       <c r="E190">
         <v>90</v>
       </c>
       <c r="F190">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G190">
         <v>0.02</v>
@@ -7510,26 +7699,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100090</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <f t="shared" ref="C191:D191" si="181">C181+10</f>
+        <v>181</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <f t="shared" si="181"/>
+        <v>190</v>
       </c>
       <c r="E191">
         <v>100</v>
       </c>
       <c r="F191">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7544,26 +7734,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010100</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <f t="shared" ref="C192:D192" si="182">C182+10</f>
+        <v>191</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <f t="shared" si="182"/>
+        <v>200</v>
       </c>
       <c r="E192">
         <v>10</v>
       </c>
       <c r="F192">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7578,26 +7769,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020100</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <f t="shared" ref="C193:D193" si="183">C183+10</f>
+        <v>191</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <f t="shared" si="183"/>
+        <v>200</v>
       </c>
       <c r="E193">
         <v>20</v>
       </c>
       <c r="F193">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7612,26 +7804,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B211" si="7">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
-        <v>MM030100</v>
+        <f t="shared" ref="B194:B211" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <v>MM030050</v>
       </c>
       <c r="C194">
-        <v>11</v>
+        <f t="shared" ref="C194:D194" si="185">C184+10</f>
+        <v>191</v>
       </c>
       <c r="D194">
-        <v>20</v>
+        <f t="shared" si="185"/>
+        <v>200</v>
       </c>
       <c r="E194">
         <v>30</v>
       </c>
       <c r="F194">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G194">
         <v>0.02</v>
@@ -7646,26 +7839,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="7"/>
-        <v>MM040100</v>
+        <f t="shared" si="184"/>
+        <v>MM040050</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <f t="shared" ref="C195:D195" si="186">C185+10</f>
+        <v>191</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <f t="shared" si="186"/>
+        <v>200</v>
       </c>
       <c r="E195">
         <v>40</v>
       </c>
       <c r="F195">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G195">
         <v>0.02</v>
@@ -7680,26 +7874,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="7"/>
-        <v>MM050100</v>
+        <f t="shared" si="184"/>
+        <v>MM050050</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <f t="shared" ref="C196:D196" si="187">C186+10</f>
+        <v>191</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <f t="shared" si="187"/>
+        <v>200</v>
       </c>
       <c r="E196">
         <v>50</v>
       </c>
       <c r="F196">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>0.02</v>
@@ -7714,26 +7909,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="7"/>
-        <v>MM060100</v>
+        <f t="shared" si="184"/>
+        <v>MM060050</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <f t="shared" ref="C197:D197" si="188">C187+10</f>
+        <v>191</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <f t="shared" si="188"/>
+        <v>200</v>
       </c>
       <c r="E197">
         <v>60</v>
       </c>
       <c r="F197">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G197">
         <v>0.02</v>
@@ -7748,26 +7944,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="7"/>
-        <v>MM070100</v>
+        <f t="shared" si="184"/>
+        <v>MM070050</v>
       </c>
       <c r="C198">
-        <v>11</v>
+        <f t="shared" ref="C198:D198" si="189">C188+10</f>
+        <v>191</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <f t="shared" si="189"/>
+        <v>200</v>
       </c>
       <c r="E198">
         <v>70</v>
       </c>
       <c r="F198">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G198">
         <v>0.02</v>
@@ -7782,26 +7979,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="7"/>
-        <v>MM080100</v>
+        <f t="shared" si="184"/>
+        <v>MM080050</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <f t="shared" ref="C199:D199" si="190">C189+10</f>
+        <v>191</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <f t="shared" si="190"/>
+        <v>200</v>
       </c>
       <c r="E199">
         <v>80</v>
       </c>
       <c r="F199">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G199">
         <v>0.02</v>
@@ -7816,26 +8014,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="7"/>
-        <v>MM090100</v>
+        <f t="shared" si="184"/>
+        <v>MM090050</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <f t="shared" ref="C200:D200" si="191">C190+10</f>
+        <v>191</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <f t="shared" si="191"/>
+        <v>200</v>
       </c>
       <c r="E200">
         <v>90</v>
       </c>
       <c r="F200">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G200">
         <v>0.02</v>
@@ -7850,26 +8049,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="7"/>
-        <v>MM100100</v>
+        <f t="shared" si="184"/>
+        <v>MM100050</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <f t="shared" ref="C201:D201" si="192">C191+10</f>
+        <v>191</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>200</v>
       </c>
       <c r="E201">
         <v>100</v>
       </c>
       <c r="F201">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G201">
         <v>0.02</v>
@@ -7887,19 +8087,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D221" si="8">C202+9</f>
+        <f t="shared" ref="D202:D221" si="193">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -7921,12 +8121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C203">
@@ -7934,7 +8134,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>20</v>
       </c>
       <c r="E203">
@@ -7956,20 +8156,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C221" si="9">C203+10</f>
+        <f t="shared" ref="C204:C221" si="194">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>30</v>
       </c>
       <c r="E204">
@@ -7991,20 +8191,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>31</v>
       </c>
       <c r="D205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>40</v>
       </c>
       <c r="E205">
@@ -8026,20 +8226,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44768</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>41</v>
       </c>
       <c r="D206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>50</v>
       </c>
       <c r="E206">
@@ -8061,20 +8261,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44768</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>51</v>
       </c>
       <c r="D207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>60</v>
       </c>
       <c r="E207">
@@ -8096,20 +8296,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>61</v>
       </c>
       <c r="D208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>70</v>
       </c>
       <c r="E208">
@@ -8131,20 +8331,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44768</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>71</v>
       </c>
       <c r="D209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>80</v>
       </c>
       <c r="E209">
@@ -8166,20 +8366,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44768</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>81</v>
       </c>
       <c r="D210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>90</v>
       </c>
       <c r="E210">
@@ -8201,20 +8401,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44768</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="184"/>
         <v>MM000000</v>
       </c>
       <c r="C211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>91</v>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>100</v>
       </c>
       <c r="E211">
@@ -8236,20 +8436,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44768</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B221" si="10">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
+        <f t="shared" ref="B212:B221" si="195">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
         <v>MM000000</v>
       </c>
       <c r="C212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>101</v>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>110</v>
       </c>
       <c r="E212">
@@ -8271,20 +8471,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44768</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>111</v>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>120</v>
       </c>
       <c r="E213">
@@ -8306,20 +8506,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44768</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>121</v>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>130</v>
       </c>
       <c r="E214">
@@ -8341,20 +8541,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44768</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>131</v>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>140</v>
       </c>
       <c r="E215">
@@ -8376,20 +8576,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44768</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>141</v>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>150</v>
       </c>
       <c r="E216">
@@ -8411,20 +8611,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44768</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>151</v>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>160</v>
       </c>
       <c r="E217">
@@ -8446,20 +8646,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44768</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>161</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>170</v>
       </c>
       <c r="E218">
@@ -8481,20 +8681,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44768</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>171</v>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>180</v>
       </c>
       <c r="E219">
@@ -8516,20 +8716,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44768</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>181</v>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>190</v>
       </c>
       <c r="E220">
@@ -8551,20 +8751,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44768</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="195"/>
         <v>MM000000</v>
       </c>
       <c r="C221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="194"/>
         <v>191</v>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="193"/>
         <v>200</v>
       </c>
       <c r="E221">
@@ -8589,7 +8789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44768</v>
       </c>
@@ -8621,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44768</v>
       </c>
@@ -8653,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44768</v>
       </c>
@@ -8685,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44768</v>
       </c>
@@ -8717,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44768</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1008" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7D6D1F-9DD0-436B-8E0C-FA43B9DA34DB}"/>
+  <xr:revisionPtr revIDLastSave="1010" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E49A54-B606-4806-B13C-EBDE44318F39}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>sickright</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -89,6 +85,10 @@
   </si>
   <si>
     <t>MM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1057,16 +1057,16 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1101,13 +1101,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">I2&amp;TEXT(E2,"000")&amp;TEXT(F2,"000")</f>
-        <v>MM010050</v>
+        <v>MM010010</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -1128,19 +1128,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020010</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0.02</v>
@@ -1161,19 +1161,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030010</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0.02</v>
@@ -1194,19 +1194,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040010</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.02</v>
@@ -1227,19 +1227,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>MM050050</v>
+        <v>MM050010</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0.02</v>
@@ -1260,19 +1260,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>MM060050</v>
+        <v>MM060010</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1293,19 +1293,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>MM070050</v>
+        <v>MM070010</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -1326,19 +1326,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>MM080050</v>
+        <v>MM080010</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0.02</v>
@@ -1359,19 +1359,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>MM090050</v>
+        <v>MM090010</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0.02</v>
@@ -1392,19 +1392,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>MM100050</v>
+        <v>MM100010</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0.02</v>
@@ -1425,33 +1425,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>MM010050</v>
+        <v>MM010020</v>
       </c>
       <c r="C12">
-        <f>C2+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f>D2+10</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <f>F2+10</f>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0.02</v>
@@ -1460,33 +1459,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020020</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="1">C3+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <f t="shared" ref="F13:F76" si="1">F3+10</f>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>0.02</v>
@@ -1495,33 +1493,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030020</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="2">C4+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1530,33 +1527,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040020</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D15" si="3">C5+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>0.02</v>
@@ -1565,33 +1561,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>MM050050</v>
+        <v>MM050020</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:D16" si="4">C6+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>0.02</v>
@@ -1600,33 +1595,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>MM060050</v>
+        <v>MM060020</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D17" si="5">C7+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>0.02</v>
@@ -1635,33 +1629,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>MM070050</v>
+        <v>MM070020</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="6">C8+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>70</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1670,33 +1663,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>MM080050</v>
+        <v>MM080020</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="7">C9+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0.02</v>
@@ -1705,33 +1697,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>MM090050</v>
+        <v>MM090020</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="8">C10+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>90</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>0.02</v>
@@ -1740,33 +1731,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>MM100050</v>
+        <v>MM100020</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="9">C11+10</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>0.02</v>
@@ -1775,34 +1765,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>MM010050</v>
+        <v>MM010030</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:D22" si="10">C12+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
       <c r="G22">
         <v>0.02</v>
       </c>
@@ -1810,34 +1799,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020030</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="11">C13+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
       <c r="G23">
         <v>0.02</v>
       </c>
@@ -1845,33 +1833,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030030</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="12">C14+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>30</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>0.02</v>
@@ -1880,33 +1867,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040030</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="13">C15+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="13"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>0.02</v>
@@ -1915,33 +1901,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>MM050050</v>
+        <v>MM050030</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:D26" si="14">C16+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>0.02</v>
@@ -1950,33 +1935,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>MM060050</v>
+        <v>MM060030</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="15">C17+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>60</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>0.02</v>
@@ -1985,33 +1969,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>MM070050</v>
+        <v>MM070030</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="16">C18+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2020,33 +2003,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>MM080050</v>
+        <v>MM080030</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="17">C19+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="17"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>80</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>0.02</v>
@@ -2055,33 +2037,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>MM090050</v>
+        <v>MM090030</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="18">C20+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>90</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>0.02</v>
@@ -2090,33 +2071,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>MM100050</v>
+        <v>MM100030</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="19">C21+10</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>0.02</v>
@@ -2125,34 +2105,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>MM010050</v>
+        <v>MM010040</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="20">C22+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
       <c r="G32">
         <v>0.02</v>
       </c>
@@ -2160,34 +2139,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020040</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="21">C23+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
       <c r="G33">
         <v>0.02</v>
       </c>
@@ -2195,33 +2173,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030040</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="22">C24+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="22"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0.02</v>
@@ -2230,33 +2207,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040040</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="23">C25+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>0.02</v>
@@ -2265,33 +2241,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>MM050050</v>
+        <v>MM050040</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="24">C26+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="24"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>0.02</v>
@@ -2300,33 +2275,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>MM060050</v>
+        <v>MM060040</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="25">C27+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="25"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>60</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>0.02</v>
@@ -2335,33 +2309,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>MM070050</v>
+        <v>MM070040</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="26">C28+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="26"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>70</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2370,33 +2343,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>MM080050</v>
+        <v>MM080040</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="27">C29+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="27"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>80</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>0.02</v>
@@ -2405,33 +2377,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>MM090050</v>
+        <v>MM090040</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="28">C30+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="28"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>90</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>0.02</v>
@@ -2440,33 +2411,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>MM100050</v>
+        <v>MM100040</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="29">C31+10</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="29"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>0.02</v>
@@ -2475,13 +2445,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2490,19 +2460,18 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="30">C32+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
       <c r="G42">
         <v>0.02</v>
       </c>
@@ -2510,13 +2479,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2525,19 +2494,18 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:D43" si="31">C33+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>50</v>
-      </c>
       <c r="G43">
         <v>0.02</v>
       </c>
@@ -2545,13 +2513,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2560,17 +2528,16 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="32">C34+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="32"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>30</v>
       </c>
       <c r="F44">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G44">
@@ -2580,13 +2547,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2595,17 +2562,16 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="33">C35+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="33"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G45">
@@ -2615,13 +2581,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2630,17 +2596,16 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="34">C36+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="34"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>50</v>
       </c>
       <c r="F46">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G46">
@@ -2650,13 +2615,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2665,17 +2630,16 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="35">C37+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="35"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>60</v>
       </c>
       <c r="F47">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G47">
@@ -2685,13 +2649,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2700,17 +2664,16 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="36">C38+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="36"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>70</v>
       </c>
       <c r="F48">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G48">
@@ -2720,13 +2683,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2735,17 +2698,16 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="37">C39+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="37"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>80</v>
       </c>
       <c r="F49">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G49">
@@ -2755,13 +2717,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2770,17 +2732,16 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:D50" si="38">C40+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="38"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>90</v>
       </c>
       <c r="F50">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G50">
@@ -2790,13 +2751,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2805,17 +2766,16 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:D51" si="39">C41+10</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="39"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G51">
@@ -2825,34 +2785,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>MM010050</v>
+        <v>MM010060</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="40">C42+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
       <c r="G52">
         <v>0.02</v>
       </c>
@@ -2860,34 +2819,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020060</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="41">C43+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E53">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>50</v>
-      </c>
       <c r="G53">
         <v>0.02</v>
       </c>
@@ -2895,33 +2853,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030060</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="42">C44+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <f t="shared" si="42"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>30</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G54">
         <v>0.02</v>
@@ -2930,33 +2887,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040060</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:D55" si="43">C45+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <f t="shared" si="43"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>40</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G55">
         <v>0.02</v>
@@ -2965,33 +2921,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>MM050050</v>
+        <v>MM050060</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:D56" si="44">C46+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="44"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G56">
         <v>0.02</v>
@@ -3000,33 +2955,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>MM060050</v>
+        <v>MM060060</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:D57" si="45">C47+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <f t="shared" si="45"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>60</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G57">
         <v>0.02</v>
@@ -3035,33 +2989,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>MM070050</v>
+        <v>MM070060</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:D58" si="46">C48+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="46"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>70</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G58">
         <v>0.02</v>
@@ -3070,33 +3023,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>MM080050</v>
+        <v>MM080060</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:D59" si="47">C49+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="47"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>80</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G59">
         <v>0.02</v>
@@ -3105,33 +3057,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>MM090050</v>
+        <v>MM090060</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:D60" si="48">C50+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="48"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>90</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G60">
         <v>0.02</v>
@@ -3140,33 +3091,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>MM100050</v>
+        <v>MM100060</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:D61" si="49">C51+10</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" si="49"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3175,34 +3125,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>MM010050</v>
+        <v>MM010070</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:D62" si="50">C52+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="50"/>
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>50</v>
-      </c>
       <c r="G62">
         <v>0.02</v>
       </c>
@@ -3210,34 +3159,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>MM020050</v>
+        <v>MM020070</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:D63" si="51">C53+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="E63">
-        <v>20</v>
-      </c>
-      <c r="F63">
-        <v>50</v>
-      </c>
       <c r="G63">
         <v>0.02</v>
       </c>
@@ -3245,33 +3193,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>MM030050</v>
+        <v>MM030070</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:D64" si="52">C54+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <f t="shared" si="52"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G64">
         <v>0.02</v>
@@ -3280,33 +3227,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>MM040050</v>
+        <v>MM040070</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:D65" si="53">C55+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="53"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>40</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G65">
         <v>0.02</v>
@@ -3315,33 +3261,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="54">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
-        <v>MM050050</v>
+        <f t="shared" ref="B66:B129" si="2">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
+        <v>MM050070</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:D66" si="55">C56+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <f t="shared" si="55"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>50</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G66">
         <v>0.02</v>
@@ -3350,33 +3295,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060070</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D67" si="56">C57+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" si="56"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>60</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G67">
         <v>0.02</v>
@@ -3385,33 +3329,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070070</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:D68" si="57">C58+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <f t="shared" si="57"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>70</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G68">
         <v>0.02</v>
@@ -3420,33 +3363,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080070</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:D69" si="58">C59+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" si="58"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>80</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3455,33 +3397,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090070</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:D70" si="59">C60+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="59"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>90</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G70">
         <v>0.02</v>
@@ -3490,33 +3431,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100070</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:D71" si="60">C61+10</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <f t="shared" si="60"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
       <c r="F71">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="G71">
         <v>0.02</v>
@@ -3525,34 +3465,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010080</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:D72" si="61">C62+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="61"/>
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>50</v>
-      </c>
       <c r="G72">
         <v>0.02</v>
       </c>
@@ -3560,34 +3499,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020080</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:D73" si="62">C63+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E73">
-        <v>20</v>
-      </c>
-      <c r="F73">
-        <v>50</v>
-      </c>
       <c r="G73">
         <v>0.02</v>
       </c>
@@ -3595,33 +3533,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030080</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:D74" si="63">C64+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="63"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>30</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="G74">
         <v>0.02</v>
@@ -3630,33 +3567,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040080</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:D75" si="64">C65+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <f t="shared" si="64"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>40</v>
       </c>
       <c r="F75">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="G75">
         <v>0.02</v>
@@ -3665,33 +3601,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050080</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:D76" si="65">C66+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="65"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>50</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="G76">
         <v>0.02</v>
@@ -3700,33 +3635,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060080</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:D77" si="66">C67+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="66"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <f t="shared" ref="F77:F101" si="3">F67+10</f>
+        <v>80</v>
       </c>
       <c r="G77">
         <v>0.02</v>
@@ -3735,33 +3669,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070080</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:D78" si="67">C68+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="67"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>70</v>
       </c>
       <c r="F78">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3770,33 +3703,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080080</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:D79" si="68">C69+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="68"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>80</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G79">
         <v>0.02</v>
@@ -3805,33 +3737,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090080</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:D80" si="69">C70+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="69"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>90</v>
       </c>
       <c r="F80">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3840,33 +3771,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100080</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:D81" si="70">C71+10</f>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <f t="shared" si="70"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>100</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G81">
         <v>0.02</v>
@@ -3875,34 +3805,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010090</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:D82" si="71">C72+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="71"/>
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>50</v>
-      </c>
       <c r="G82">
         <v>0.02</v>
       </c>
@@ -3910,34 +3839,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020090</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:D83" si="72">C73+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="E83">
-        <v>20</v>
-      </c>
-      <c r="F83">
-        <v>50</v>
-      </c>
       <c r="G83">
         <v>0.02</v>
       </c>
@@ -3945,33 +3873,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030090</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:D84" si="73">C74+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="73"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>30</v>
       </c>
       <c r="F84">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G84">
         <v>0.02</v>
@@ -3980,33 +3907,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040090</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:D85" si="74">C75+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="74"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>40</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G85">
         <v>0.02</v>
@@ -4015,33 +3941,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050090</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:D86" si="75">C76+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="75"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>50</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -4050,33 +3975,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060090</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:D87" si="76">C77+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="76"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>60</v>
       </c>
       <c r="F87">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G87">
         <v>0.02</v>
@@ -4085,33 +4009,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070090</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:D88" si="77">C78+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" si="77"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>70</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G88">
         <v>0.02</v>
@@ -4120,33 +4043,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080090</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89:D89" si="78">C79+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <f t="shared" si="78"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>80</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G89">
         <v>0.02</v>
@@ -4155,33 +4077,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090090</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:D90" si="79">C80+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="79"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>90</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G90">
         <v>0.02</v>
@@ -4190,33 +4111,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100090</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:D91" si="80">C81+10</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <f t="shared" si="80"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>100</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="G91">
         <v>0.02</v>
@@ -4225,34 +4145,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010100</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:D92" si="81">C82+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E92">
-        <v>10</v>
-      </c>
-      <c r="F92">
-        <v>50</v>
-      </c>
       <c r="G92">
         <v>0.02</v>
       </c>
@@ -4260,34 +4179,33 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020100</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:D93" si="82">C83+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E93">
-        <v>20</v>
-      </c>
-      <c r="F93">
-        <v>50</v>
-      </c>
       <c r="G93">
         <v>0.02</v>
       </c>
@@ -4295,33 +4213,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030100</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:D94" si="83">C84+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <f t="shared" si="83"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>30</v>
       </c>
       <c r="F94">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G94">
         <v>0.02</v>
@@ -4330,33 +4247,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040100</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:D95" si="84">C85+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <f t="shared" si="84"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>40</v>
       </c>
       <c r="F95">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G95">
         <v>0.02</v>
@@ -4365,33 +4281,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050100</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:D96" si="85">C86+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <f t="shared" si="85"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>50</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G96">
         <v>0.02</v>
@@ -4400,33 +4315,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060100</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:D97" si="86">C87+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" si="86"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>60</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4435,33 +4349,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070100</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:D98" si="87">C88+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="87"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>70</v>
       </c>
       <c r="F98">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G98">
         <v>0.02</v>
@@ -4470,33 +4383,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080100</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:D99" si="88">C89+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <f t="shared" si="88"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>80</v>
       </c>
       <c r="F99">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G99">
         <v>0.02</v>
@@ -4505,33 +4417,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090100</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:D100" si="89">C90+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="89"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>90</v>
       </c>
       <c r="F100">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G100">
         <v>0.02</v>
@@ -4540,33 +4451,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100100</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:D101" si="90">C91+10</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <f t="shared" si="90"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G101">
         <v>0.02</v>
@@ -4575,36 +4485,34 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010010</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:D102" si="91">C92+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <f t="shared" si="91"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>0.02</v>
@@ -4613,33 +4521,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020010</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:D103" si="92">C93+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <f t="shared" si="92"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>20</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4648,33 +4554,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030010</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:D104" si="93">C94+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <f t="shared" si="93"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4683,33 +4587,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040010</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:D105" si="94">C95+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <f t="shared" si="94"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>40</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>0.02</v>
@@ -4718,33 +4620,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050010</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:D106" si="95">C96+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <f t="shared" si="95"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>50</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <v>0.02</v>
@@ -4753,33 +4653,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060010</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:D107" si="96">C97+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <f t="shared" si="96"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>60</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>0.02</v>
@@ -4788,33 +4686,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070010</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:D108" si="97">C98+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <f t="shared" si="97"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>70</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>0.02</v>
@@ -4823,33 +4719,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080010</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:D109" si="98">C99+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <f t="shared" si="98"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>80</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G109">
         <v>0.02</v>
@@ -4858,33 +4752,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090010</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:D110" si="99">C100+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <f t="shared" si="99"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>90</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -4893,33 +4785,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100010</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:D111" si="100">C101+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <f t="shared" si="100"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>100</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>0.02</v>
@@ -4928,33 +4818,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010020</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:D112" si="101">C102+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <f t="shared" si="101"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <f>F102+10</f>
+        <v>20</v>
       </c>
       <c r="G112">
         <v>0.02</v>
@@ -4963,33 +4852,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020020</v>
       </c>
       <c r="C113">
-        <f t="shared" ref="C113:D113" si="102">C103+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <f t="shared" si="102"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>20</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <f t="shared" ref="F113:F176" si="4">F103+10</f>
+        <v>20</v>
       </c>
       <c r="G113">
         <v>0.02</v>
@@ -4998,33 +4886,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030020</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:D114" si="103">C104+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <f t="shared" si="103"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>30</v>
       </c>
       <c r="F114">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G114">
         <v>0.02</v>
@@ -5033,33 +4920,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040020</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:D115" si="104">C105+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <f t="shared" si="104"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G115">
         <v>0.02</v>
@@ -5068,33 +4954,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050020</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:D116" si="105">C106+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <f t="shared" si="105"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>50</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G116">
         <v>0.02</v>
@@ -5103,33 +4988,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060020</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:D117" si="106">C107+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <f t="shared" si="106"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>60</v>
       </c>
       <c r="F117">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G117">
         <v>0.02</v>
@@ -5138,33 +5022,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070020</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:D118" si="107">C108+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <f t="shared" si="107"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>70</v>
       </c>
       <c r="F118">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G118">
         <v>0.02</v>
@@ -5173,33 +5056,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080020</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:D119" si="108">C109+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <f t="shared" si="108"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>80</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G119">
         <v>0.02</v>
@@ -5208,33 +5090,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="54"/>
-        <v>MM090050</v>
+        <f t="shared" si="2"/>
+        <v>MM090020</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:D120" si="109">C110+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <f t="shared" si="109"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>90</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G120">
         <v>0.02</v>
@@ -5243,33 +5124,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="54"/>
-        <v>MM100050</v>
+        <f t="shared" si="2"/>
+        <v>MM100020</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:D121" si="110">C111+10</f>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <f t="shared" si="110"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>100</v>
       </c>
       <c r="F121">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5278,33 +5158,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="54"/>
-        <v>MM010050</v>
+        <f t="shared" si="2"/>
+        <v>MM010030</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:D122" si="111">C112+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <f t="shared" si="111"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>10</v>
       </c>
       <c r="F122">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0.02</v>
@@ -5313,33 +5192,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="54"/>
-        <v>MM020050</v>
+        <f t="shared" si="2"/>
+        <v>MM020030</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:D123" si="112">C113+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <f t="shared" si="112"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>20</v>
       </c>
       <c r="F123">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0.02</v>
@@ -5348,33 +5226,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="54"/>
-        <v>MM030050</v>
+        <f t="shared" si="2"/>
+        <v>MM030030</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:D124" si="113">C114+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <f t="shared" si="113"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>30</v>
       </c>
       <c r="F124">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>0.02</v>
@@ -5383,33 +5260,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="54"/>
-        <v>MM040050</v>
+        <f t="shared" si="2"/>
+        <v>MM040030</v>
       </c>
       <c r="C125">
-        <f t="shared" ref="C125:D125" si="114">C115+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <f t="shared" si="114"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>40</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>0.02</v>
@@ -5418,33 +5294,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="54"/>
-        <v>MM050050</v>
+        <f t="shared" si="2"/>
+        <v>MM050030</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:D126" si="115">C116+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <f t="shared" si="115"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>50</v>
       </c>
       <c r="F126">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G126">
         <v>0.02</v>
@@ -5453,33 +5328,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="54"/>
-        <v>MM060050</v>
+        <f t="shared" si="2"/>
+        <v>MM060030</v>
       </c>
       <c r="C127">
-        <f t="shared" ref="C127:D127" si="116">C117+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <f t="shared" si="116"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>60</v>
       </c>
       <c r="F127">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>0.02</v>
@@ -5488,33 +5362,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="54"/>
-        <v>MM070050</v>
+        <f t="shared" si="2"/>
+        <v>MM070030</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:D128" si="117">C118+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <f t="shared" si="117"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>70</v>
       </c>
       <c r="F128">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5523,33 +5396,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="54"/>
-        <v>MM080050</v>
+        <f t="shared" si="2"/>
+        <v>MM080030</v>
       </c>
       <c r="C129">
-        <f t="shared" ref="C129:D129" si="118">C119+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <f t="shared" si="118"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>80</v>
       </c>
       <c r="F129">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0.02</v>
@@ -5558,33 +5430,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="119">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
-        <v>MM090050</v>
+        <f t="shared" ref="B130:B193" si="5">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
+        <v>MM090030</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:D130" si="120">C120+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <f t="shared" si="120"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>90</v>
       </c>
       <c r="F130">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>0.02</v>
@@ -5593,33 +5464,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100030</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:D131" si="121">C121+10</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <f t="shared" si="121"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>100</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>0.02</v>
@@ -5628,33 +5498,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010040</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:D132" si="122">C122+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <f t="shared" si="122"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0.02</v>
@@ -5663,33 +5532,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020040</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:D133" si="123">C123+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <f t="shared" si="123"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>20</v>
       </c>
       <c r="F133">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>0.02</v>
@@ -5698,33 +5566,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
+        <f t="shared" si="5"/>
+        <v>MM030040</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:D134" si="124">C124+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <f t="shared" si="124"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>30</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>0.02</v>
@@ -5733,33 +5600,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
+        <f t="shared" si="5"/>
+        <v>MM040040</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:D135" si="125">C125+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <f t="shared" si="125"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>40</v>
       </c>
       <c r="F135">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>0.02</v>
@@ -5768,33 +5634,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
+        <f t="shared" si="5"/>
+        <v>MM050040</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:D136" si="126">C126+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <f t="shared" si="126"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0.02</v>
@@ -5803,33 +5668,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
+        <f t="shared" si="5"/>
+        <v>MM060040</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:D137" si="127">C127+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <f t="shared" si="127"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>60</v>
       </c>
       <c r="F137">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>0.02</v>
@@ -5838,33 +5702,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
+        <f t="shared" si="5"/>
+        <v>MM070040</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:D138" si="128">C128+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <f t="shared" si="128"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>70</v>
       </c>
       <c r="F138">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>0.02</v>
@@ -5873,33 +5736,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
+        <f t="shared" si="5"/>
+        <v>MM080040</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:D139" si="129">C129+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <f t="shared" si="129"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>80</v>
       </c>
       <c r="F139">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>0.02</v>
@@ -5908,33 +5770,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
+        <f t="shared" si="5"/>
+        <v>MM090040</v>
       </c>
       <c r="C140">
-        <f t="shared" ref="C140:D140" si="130">C130+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <f t="shared" si="130"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>90</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>0.02</v>
@@ -5943,104 +5804,101 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100040</v>
       </c>
       <c r="C141">
-        <f t="shared" ref="C141:D141" si="131">C131+10</f>
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <f t="shared" si="131"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>100</v>
       </c>
       <c r="F141">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G141">
+        <v>0.02</v>
+      </c>
+      <c r="H141">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A142" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="5"/>
+        <v>MM010050</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="G141">
-        <v>0.02</v>
-      </c>
-      <c r="H141">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B142" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
-      </c>
-      <c r="C142">
-        <f t="shared" ref="C142:D142" si="132">C132+10</f>
-        <v>141</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="132"/>
-        <v>150</v>
-      </c>
-      <c r="E142">
-        <v>10</v>
-      </c>
-      <c r="F142">
+      <c r="G142">
+        <v>0.02</v>
+      </c>
+      <c r="H142">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A143" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="5"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>20</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="G142">
-        <v>0.02</v>
-      </c>
-      <c r="H142">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B143" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
-      </c>
-      <c r="C143">
-        <f t="shared" ref="C143:D143" si="133">C133+10</f>
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="133"/>
-        <v>150</v>
-      </c>
-      <c r="E143">
-        <v>20</v>
-      </c>
-      <c r="F143">
-        <v>50</v>
-      </c>
       <c r="G143">
         <v>0.02</v>
       </c>
@@ -6048,32 +5906,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:D144" si="134">C134+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <f t="shared" si="134"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>30</v>
       </c>
       <c r="F144">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G144">
@@ -6083,32 +5940,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <f t="shared" ref="C145:D145" si="135">C135+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <f t="shared" si="135"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>40</v>
       </c>
       <c r="F145">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G145">
@@ -6118,32 +5974,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:D146" si="136">C136+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <f t="shared" si="136"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>50</v>
       </c>
       <c r="F146">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G146">
@@ -6153,32 +6008,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <f t="shared" ref="C147:D147" si="137">C137+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <f t="shared" si="137"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G147">
@@ -6188,32 +6042,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <f t="shared" ref="C148:D148" si="138">C138+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D148">
-        <f t="shared" si="138"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>70</v>
       </c>
       <c r="F148">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G148">
@@ -6223,32 +6076,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <f t="shared" ref="C149:D149" si="139">C139+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <f t="shared" si="139"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>80</v>
       </c>
       <c r="F149">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G149">
@@ -6258,32 +6110,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:D150" si="140">C140+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <f t="shared" si="140"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>90</v>
       </c>
       <c r="F150">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G150">
@@ -6293,32 +6144,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="5"/>
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <f t="shared" ref="C151:D151" si="141">C141+10</f>
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <f t="shared" si="141"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>100</v>
       </c>
       <c r="F151">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G151">
@@ -6328,33 +6178,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010060</v>
       </c>
       <c r="C152">
-        <f t="shared" ref="C152:D152" si="142">C142+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <f t="shared" si="142"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>10</v>
       </c>
       <c r="F152">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G152">
         <v>0.02</v>
@@ -6363,33 +6212,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020060</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C153:D153" si="143">C143+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D153">
-        <f t="shared" si="143"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
       <c r="F153">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G153">
         <v>0.02</v>
@@ -6398,33 +6246,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
+        <f t="shared" si="5"/>
+        <v>MM030060</v>
       </c>
       <c r="C154">
-        <f t="shared" ref="C154:D154" si="144">C144+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <f t="shared" si="144"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>30</v>
       </c>
       <c r="F154">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G154">
         <v>0.02</v>
@@ -6433,33 +6280,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
+        <f t="shared" si="5"/>
+        <v>MM040060</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155:D155" si="145">C145+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <f t="shared" si="145"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>40</v>
       </c>
       <c r="F155">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G155">
         <v>0.02</v>
@@ -6468,33 +6314,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
+        <f t="shared" si="5"/>
+        <v>MM050060</v>
       </c>
       <c r="C156">
-        <f t="shared" ref="C156:D156" si="146">C146+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <f t="shared" si="146"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>50</v>
       </c>
       <c r="F156">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G156">
         <v>0.02</v>
@@ -6503,33 +6348,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
+        <f t="shared" si="5"/>
+        <v>MM060060</v>
       </c>
       <c r="C157">
-        <f t="shared" ref="C157:D157" si="147">C147+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D157">
-        <f t="shared" si="147"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>60</v>
       </c>
       <c r="F157">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G157">
         <v>0.02</v>
@@ -6538,33 +6382,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
+        <f t="shared" si="5"/>
+        <v>MM070060</v>
       </c>
       <c r="C158">
-        <f t="shared" ref="C158:D158" si="148">C148+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <f t="shared" si="148"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>70</v>
       </c>
       <c r="F158">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G158">
         <v>0.02</v>
@@ -6573,33 +6416,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
+        <f t="shared" si="5"/>
+        <v>MM080060</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:D159" si="149">C149+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <f t="shared" si="149"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>80</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G159">
         <v>0.02</v>
@@ -6608,33 +6450,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
+        <f t="shared" si="5"/>
+        <v>MM090060</v>
       </c>
       <c r="C160">
-        <f t="shared" ref="C160:D160" si="150">C150+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <f t="shared" si="150"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>90</v>
       </c>
       <c r="F160">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G160">
         <v>0.02</v>
@@ -6643,33 +6484,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100060</v>
       </c>
       <c r="C161">
-        <f t="shared" ref="C161:D161" si="151">C151+10</f>
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <f t="shared" si="151"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>100</v>
       </c>
       <c r="F161">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G161">
         <v>0.02</v>
@@ -6678,33 +6518,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010070</v>
       </c>
       <c r="C162">
-        <f t="shared" ref="C162:D162" si="152">C152+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <f t="shared" si="152"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>10</v>
       </c>
       <c r="F162">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G162">
         <v>0.02</v>
@@ -6713,33 +6552,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020070</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:D163" si="153">C153+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <f t="shared" si="153"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>20</v>
       </c>
       <c r="F163">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G163">
         <v>0.02</v>
@@ -6748,33 +6586,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
+        <f t="shared" si="5"/>
+        <v>MM030070</v>
       </c>
       <c r="C164">
-        <f t="shared" ref="C164:D164" si="154">C154+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <f t="shared" si="154"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>30</v>
       </c>
       <c r="F164">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G164">
         <v>0.02</v>
@@ -6783,33 +6620,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
+        <f t="shared" si="5"/>
+        <v>MM040070</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:D165" si="155">C155+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <f t="shared" si="155"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>40</v>
       </c>
       <c r="F165">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G165">
         <v>0.02</v>
@@ -6818,33 +6654,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
+        <f t="shared" si="5"/>
+        <v>MM050070</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:D166" si="156">C156+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <f t="shared" si="156"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>50</v>
       </c>
       <c r="F166">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G166">
         <v>0.02</v>
@@ -6853,33 +6688,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
+        <f t="shared" si="5"/>
+        <v>MM060070</v>
       </c>
       <c r="C167">
-        <f t="shared" ref="C167:D167" si="157">C157+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <f t="shared" si="157"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E167">
         <v>60</v>
       </c>
       <c r="F167">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G167">
         <v>0.02</v>
@@ -6888,33 +6722,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
+        <f t="shared" si="5"/>
+        <v>MM070070</v>
       </c>
       <c r="C168">
-        <f t="shared" ref="C168:D168" si="158">C158+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D168">
-        <f t="shared" si="158"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>70</v>
       </c>
       <c r="F168">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G168">
         <v>0.02</v>
@@ -6923,33 +6756,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
+        <f t="shared" si="5"/>
+        <v>MM080070</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:D169" si="159">C159+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <f t="shared" si="159"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>80</v>
       </c>
       <c r="F169">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G169">
         <v>0.02</v>
@@ -6958,33 +6790,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
+        <f t="shared" si="5"/>
+        <v>MM090070</v>
       </c>
       <c r="C170">
-        <f t="shared" ref="C170:D170" si="160">C160+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <f t="shared" si="160"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>90</v>
       </c>
       <c r="F170">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G170">
         <v>0.02</v>
@@ -6993,33 +6824,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100070</v>
       </c>
       <c r="C171">
-        <f t="shared" ref="C171:D171" si="161">C161+10</f>
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <f t="shared" si="161"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E171">
         <v>100</v>
       </c>
       <c r="F171">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G171">
         <v>0.02</v>
@@ -7028,33 +6858,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010080</v>
       </c>
       <c r="C172">
-        <f t="shared" ref="C172:D172" si="162">C162+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <f t="shared" si="162"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <v>10</v>
       </c>
       <c r="F172">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G172">
         <v>0.02</v>
@@ -7063,33 +6892,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020080</v>
       </c>
       <c r="C173">
-        <f t="shared" ref="C173:D173" si="163">C163+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <f t="shared" si="163"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>20</v>
       </c>
       <c r="F173">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G173">
         <v>0.02</v>
@@ -7098,33 +6926,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
+        <f t="shared" si="5"/>
+        <v>MM030080</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:D174" si="164">C164+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <f t="shared" si="164"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E174">
         <v>30</v>
       </c>
       <c r="F174">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G174">
         <v>0.02</v>
@@ -7133,33 +6960,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
+        <f t="shared" si="5"/>
+        <v>MM040080</v>
       </c>
       <c r="C175">
-        <f t="shared" ref="C175:D175" si="165">C165+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D175">
-        <f t="shared" si="165"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>40</v>
       </c>
       <c r="F175">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G175">
         <v>0.02</v>
@@ -7168,33 +6994,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
+        <f t="shared" si="5"/>
+        <v>MM050080</v>
       </c>
       <c r="C176">
-        <f t="shared" ref="C176:D176" si="166">C166+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D176">
-        <f t="shared" si="166"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>50</v>
       </c>
       <c r="F176">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G176">
         <v>0.02</v>
@@ -7203,33 +7028,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
+        <f t="shared" si="5"/>
+        <v>MM060080</v>
       </c>
       <c r="C177">
-        <f t="shared" ref="C177:D177" si="167">C167+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <f t="shared" si="167"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E177">
         <v>60</v>
       </c>
       <c r="F177">
-        <v>50</v>
+        <f t="shared" ref="F177:F201" si="6">F167+10</f>
+        <v>80</v>
       </c>
       <c r="G177">
         <v>0.02</v>
@@ -7238,33 +7062,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
+        <f t="shared" si="5"/>
+        <v>MM070080</v>
       </c>
       <c r="C178">
-        <f t="shared" ref="C178:D178" si="168">C168+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <f t="shared" si="168"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <v>70</v>
       </c>
       <c r="F178">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="G178">
         <v>0.02</v>
@@ -7273,33 +7096,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
+        <f t="shared" si="5"/>
+        <v>MM080080</v>
       </c>
       <c r="C179">
-        <f t="shared" ref="C179:D179" si="169">C169+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <f t="shared" si="169"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E179">
         <v>80</v>
       </c>
       <c r="F179">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="G179">
         <v>0.02</v>
@@ -7308,33 +7130,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
+        <f t="shared" si="5"/>
+        <v>MM090080</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:D180" si="170">C170+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <f t="shared" si="170"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <v>90</v>
       </c>
       <c r="F180">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="G180">
         <v>0.02</v>
@@ -7343,33 +7164,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100080</v>
       </c>
       <c r="C181">
-        <f t="shared" ref="C181:D181" si="171">C171+10</f>
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <f t="shared" si="171"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <v>100</v>
       </c>
       <c r="F181">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="G181">
         <v>0.02</v>
@@ -7378,33 +7198,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010090</v>
       </c>
       <c r="C182">
-        <f t="shared" ref="C182:D182" si="172">C172+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <f t="shared" si="172"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>10</v>
       </c>
       <c r="F182">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G182">
         <v>0.02</v>
@@ -7413,33 +7232,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020090</v>
       </c>
       <c r="C183">
-        <f t="shared" ref="C183:D183" si="173">C173+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <f t="shared" si="173"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E183">
         <v>20</v>
       </c>
       <c r="F183">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G183">
         <v>0.02</v>
@@ -7448,33 +7266,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
+        <f t="shared" si="5"/>
+        <v>MM030090</v>
       </c>
       <c r="C184">
-        <f t="shared" ref="C184:D184" si="174">C174+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <f t="shared" si="174"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>30</v>
       </c>
       <c r="F184">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G184">
         <v>0.02</v>
@@ -7483,33 +7300,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
+        <f t="shared" si="5"/>
+        <v>MM040090</v>
       </c>
       <c r="C185">
-        <f t="shared" ref="C185:D185" si="175">C175+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <f t="shared" si="175"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>40</v>
       </c>
       <c r="F185">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G185">
         <v>0.02</v>
@@ -7518,33 +7334,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
+        <f t="shared" si="5"/>
+        <v>MM050090</v>
       </c>
       <c r="C186">
-        <f t="shared" ref="C186:D186" si="176">C176+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <f t="shared" si="176"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <v>50</v>
       </c>
       <c r="F186">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G186">
         <v>0.02</v>
@@ -7553,33 +7368,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
+        <f t="shared" si="5"/>
+        <v>MM060090</v>
       </c>
       <c r="C187">
-        <f t="shared" ref="C187:D187" si="177">C177+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <f t="shared" si="177"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E187">
         <v>60</v>
       </c>
       <c r="F187">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G187">
         <v>0.02</v>
@@ -7588,33 +7402,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
+        <f t="shared" si="5"/>
+        <v>MM070090</v>
       </c>
       <c r="C188">
-        <f t="shared" ref="C188:D188" si="178">C178+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <f t="shared" si="178"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>70</v>
       </c>
       <c r="F188">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G188">
         <v>0.02</v>
@@ -7623,33 +7436,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
+        <f t="shared" si="5"/>
+        <v>MM080090</v>
       </c>
       <c r="C189">
-        <f t="shared" ref="C189:D189" si="179">C179+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D189">
-        <f t="shared" si="179"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>80</v>
       </c>
       <c r="F189">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G189">
         <v>0.02</v>
@@ -7658,33 +7470,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
+        <f t="shared" si="5"/>
+        <v>MM090090</v>
       </c>
       <c r="C190">
-        <f t="shared" ref="C190:D190" si="180">C180+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <f t="shared" si="180"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E190">
         <v>90</v>
       </c>
       <c r="F190">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G190">
         <v>0.02</v>
@@ -7693,33 +7504,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
+        <f t="shared" si="5"/>
+        <v>MM100090</v>
       </c>
       <c r="C191">
-        <f t="shared" ref="C191:D191" si="181">C181+10</f>
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <f t="shared" si="181"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>100</v>
       </c>
       <c r="F191">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7728,33 +7538,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
+        <f t="shared" si="5"/>
+        <v>MM010100</v>
       </c>
       <c r="C192">
-        <f t="shared" ref="C192:D192" si="182">C182+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D192">
-        <f t="shared" si="182"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>10</v>
       </c>
       <c r="F192">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G192">
         <v>0.02</v>
@@ -7763,33 +7572,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
+        <f t="shared" si="5"/>
+        <v>MM020100</v>
       </c>
       <c r="C193">
-        <f t="shared" ref="C193:D193" si="183">C183+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D193">
-        <f t="shared" si="183"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E193">
         <v>20</v>
       </c>
       <c r="F193">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G193">
         <v>0.02</v>
@@ -7798,33 +7606,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B211" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
-        <v>MM030050</v>
+        <f t="shared" ref="B194:B211" si="7">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <v>MM030100</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:D194" si="185">C184+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <f t="shared" si="185"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E194">
         <v>30</v>
       </c>
       <c r="F194">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G194">
         <v>0.02</v>
@@ -7833,33 +7640,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="184"/>
-        <v>MM040050</v>
+        <f t="shared" si="7"/>
+        <v>MM040100</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:D195" si="186">C185+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <f t="shared" si="186"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>40</v>
       </c>
       <c r="F195">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G195">
         <v>0.02</v>
@@ -7868,33 +7674,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="184"/>
-        <v>MM050050</v>
+        <f t="shared" si="7"/>
+        <v>MM050100</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:D196" si="187">C186+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <f t="shared" si="187"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E196">
         <v>50</v>
       </c>
       <c r="F196">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G196">
         <v>0.02</v>
@@ -7903,33 +7708,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="184"/>
-        <v>MM060050</v>
+        <f t="shared" si="7"/>
+        <v>MM060100</v>
       </c>
       <c r="C197">
-        <f t="shared" ref="C197:D197" si="188">C187+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <f t="shared" si="188"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>60</v>
       </c>
       <c r="F197">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G197">
         <v>0.02</v>
@@ -7938,33 +7742,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="184"/>
-        <v>MM070050</v>
+        <f t="shared" si="7"/>
+        <v>MM070100</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:D198" si="189">C188+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <f t="shared" si="189"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E198">
         <v>70</v>
       </c>
       <c r="F198">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G198">
         <v>0.02</v>
@@ -7973,33 +7776,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="184"/>
-        <v>MM080050</v>
+        <f t="shared" si="7"/>
+        <v>MM080100</v>
       </c>
       <c r="C199">
-        <f t="shared" ref="C199:D199" si="190">C189+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <f t="shared" si="190"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E199">
         <v>80</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G199">
         <v>0.02</v>
@@ -8008,33 +7810,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="184"/>
-        <v>MM090050</v>
+        <f t="shared" si="7"/>
+        <v>MM090100</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:D200" si="191">C190+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <f t="shared" si="191"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E200">
         <v>90</v>
       </c>
       <c r="F200">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G200">
         <v>0.02</v>
@@ -8043,33 +7844,32 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="184"/>
-        <v>MM100050</v>
+        <f t="shared" si="7"/>
+        <v>MM100100</v>
       </c>
       <c r="C201">
-        <f t="shared" ref="C201:D201" si="192">C191+10</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <f t="shared" si="192"/>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>
       </c>
       <c r="F201">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="G201">
         <v>0.02</v>
@@ -8078,28 +7878,28 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D221" si="193">C202+9</f>
+        <f t="shared" ref="D202:D221" si="8">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -8115,18 +7915,18 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C203">
@@ -8134,7 +7934,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E203">
@@ -8150,26 +7950,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C221" si="194">C203+10</f>
+        <f t="shared" ref="C204:C221" si="9">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E204">
@@ -8185,26 +7985,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C205">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D205">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="E205">
@@ -8220,26 +8020,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A206" s="1">
         <v>44768</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C206">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="D206">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E206">
@@ -8255,26 +8055,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A207" s="1">
         <v>44768</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C207">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="D207">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="E207">
@@ -8290,26 +8090,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C208">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D208">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="E208">
@@ -8325,26 +8125,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A209" s="1">
         <v>44768</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C209">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="D209">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="E209">
@@ -8360,26 +8160,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A210" s="1">
         <v>44768</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C210">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="D210">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="E210">
@@ -8395,26 +8195,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A211" s="1">
         <v>44768</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="7"/>
         <v>MM000000</v>
       </c>
       <c r="C211">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="D211">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E211">
@@ -8430,26 +8230,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A212" s="1">
         <v>44768</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B221" si="195">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
+        <f t="shared" ref="B212:B221" si="10">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
         <v>MM000000</v>
       </c>
       <c r="C212">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="D212">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="E212">
@@ -8465,26 +8265,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A213" s="1">
         <v>44768</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C213">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="D213">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="E213">
@@ -8500,26 +8300,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A214" s="1">
         <v>44768</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C214">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="D214">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="E214">
@@ -8535,26 +8335,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A215" s="1">
         <v>44768</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C215">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="D215">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="E215">
@@ -8570,26 +8370,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A216" s="1">
         <v>44768</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C216">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>141</v>
       </c>
       <c r="D216">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E216">
@@ -8605,26 +8405,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A217" s="1">
         <v>44768</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C217">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="D217">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="E217">
@@ -8640,26 +8440,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A218" s="1">
         <v>44768</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C218">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="D218">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="E218">
@@ -8675,26 +8475,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A219" s="1">
         <v>44768</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C219">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="D219">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="E219">
@@ -8710,26 +8510,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A220" s="1">
         <v>44768</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C220">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="D220">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="E220">
@@ -8745,26 +8545,26 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A221" s="1">
         <v>44768</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="10"/>
         <v>MM000000</v>
       </c>
       <c r="C221">
-        <f t="shared" si="194"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="D221">
-        <f t="shared" si="193"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="E221">
@@ -8780,16 +8580,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A222" s="1">
         <v>44768</v>
       </c>
@@ -8815,13 +8615,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A223" s="1">
         <v>44768</v>
       </c>
@@ -8847,13 +8647,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A224" s="1">
         <v>44768</v>
       </c>
@@ -8879,13 +8679,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A225" s="1">
         <v>44768</v>
       </c>
@@ -8911,13 +8711,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A226" s="1">
         <v>44768</v>
       </c>
@@ -8943,7 +8743,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J226">
         <v>0</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1010" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E49A54-B606-4806-B13C-EBDE44318F39}"/>
+  <xr:revisionPtr revIDLastSave="1022" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E35C88E-8CEE-40B8-9094-FBB629CB72CC}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1110,10 +1110,10 @@
         <v>MM010010</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1143,10 +1143,10 @@
         <v>MM020010</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1176,10 +1176,10 @@
         <v>MM030010</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1209,10 +1209,10 @@
         <v>MM040010</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1242,10 +1242,10 @@
         <v>MM050010</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1275,10 +1275,10 @@
         <v>MM060010</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1308,10 +1308,10 @@
         <v>MM070010</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1341,10 +1341,10 @@
         <v>MM080010</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1374,10 +1374,10 @@
         <v>MM090010</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1407,10 +1407,10 @@
         <v>MM100010</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1440,10 +1440,10 @@
         <v>MM010020</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1474,10 +1474,10 @@
         <v>MM020020</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1508,10 +1508,10 @@
         <v>MM030020</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1542,10 +1542,10 @@
         <v>MM040020</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1576,10 +1576,10 @@
         <v>MM050020</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1610,10 +1610,10 @@
         <v>MM060020</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1644,10 +1644,10 @@
         <v>MM070020</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1678,10 +1678,10 @@
         <v>MM080020</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1712,10 +1712,10 @@
         <v>MM090020</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1746,10 +1746,10 @@
         <v>MM100020</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1780,10 +1780,10 @@
         <v>MM010030</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1814,10 +1814,10 @@
         <v>MM020030</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1848,10 +1848,10 @@
         <v>MM030030</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1882,10 +1882,10 @@
         <v>MM040030</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1916,10 +1916,10 @@
         <v>MM050030</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1950,10 +1950,10 @@
         <v>MM060030</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1984,10 +1984,10 @@
         <v>MM070030</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2018,10 +2018,10 @@
         <v>MM080030</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2052,10 +2052,10 @@
         <v>MM090030</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2086,10 +2086,10 @@
         <v>MM100030</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2120,10 +2120,10 @@
         <v>MM010040</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2154,10 +2154,10 @@
         <v>MM020040</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2188,10 +2188,10 @@
         <v>MM030040</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2222,10 +2222,10 @@
         <v>MM040040</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2256,10 +2256,10 @@
         <v>MM050040</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2290,10 +2290,10 @@
         <v>MM060040</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2324,10 +2324,10 @@
         <v>MM070040</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2358,10 +2358,10 @@
         <v>MM080040</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2392,10 +2392,10 @@
         <v>MM090040</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2426,10 +2426,10 @@
         <v>MM100040</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2460,10 +2460,10 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2494,10 +2494,10 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2528,10 +2528,10 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2562,10 +2562,10 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2596,10 +2596,10 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2630,10 +2630,10 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2664,10 +2664,10 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2698,10 +2698,10 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2732,10 +2732,10 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2766,10 +2766,10 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2800,10 +2800,10 @@
         <v>MM010060</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2834,10 +2834,10 @@
         <v>MM020060</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2868,10 +2868,10 @@
         <v>MM030060</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2902,10 +2902,10 @@
         <v>MM040060</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2936,10 +2936,10 @@
         <v>MM050060</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -2970,10 +2970,10 @@
         <v>MM060060</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3004,10 +3004,10 @@
         <v>MM070060</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3038,10 +3038,10 @@
         <v>MM080060</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3072,10 +3072,10 @@
         <v>MM090060</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3106,10 +3106,10 @@
         <v>MM100060</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3140,10 +3140,10 @@
         <v>MM010070</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3174,10 +3174,10 @@
         <v>MM020070</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3208,10 +3208,10 @@
         <v>MM030070</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3242,10 +3242,10 @@
         <v>MM040070</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3276,10 +3276,10 @@
         <v>MM050070</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3310,10 +3310,10 @@
         <v>MM060070</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3344,10 +3344,10 @@
         <v>MM070070</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3378,10 +3378,10 @@
         <v>MM080070</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3412,10 +3412,10 @@
         <v>MM090070</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3446,10 +3446,10 @@
         <v>MM100070</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3480,10 +3480,10 @@
         <v>MM010080</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3514,10 +3514,10 @@
         <v>MM020080</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3548,10 +3548,10 @@
         <v>MM030080</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3582,10 +3582,10 @@
         <v>MM040080</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3616,10 +3616,10 @@
         <v>MM050080</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3650,10 +3650,10 @@
         <v>MM060080</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3684,10 +3684,10 @@
         <v>MM070080</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3718,10 +3718,10 @@
         <v>MM080080</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3752,10 +3752,10 @@
         <v>MM090080</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3786,10 +3786,10 @@
         <v>MM100080</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3820,10 +3820,10 @@
         <v>MM010090</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3854,10 +3854,10 @@
         <v>MM020090</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3888,10 +3888,10 @@
         <v>MM030090</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3922,10 +3922,10 @@
         <v>MM040090</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -3956,10 +3956,10 @@
         <v>MM050090</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -3990,10 +3990,10 @@
         <v>MM060090</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4024,10 +4024,10 @@
         <v>MM070090</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4058,10 +4058,10 @@
         <v>MM080090</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4092,10 +4092,10 @@
         <v>MM090090</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4126,10 +4126,10 @@
         <v>MM100090</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4160,10 +4160,10 @@
         <v>MM010100</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4194,10 +4194,10 @@
         <v>MM020100</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4228,10 +4228,10 @@
         <v>MM030100</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4262,10 +4262,10 @@
         <v>MM040100</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4296,10 +4296,10 @@
         <v>MM050100</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4330,10 +4330,10 @@
         <v>MM060100</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4364,10 +4364,10 @@
         <v>MM070100</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4398,10 +4398,10 @@
         <v>MM080100</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4432,10 +4432,10 @@
         <v>MM090100</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4466,10 +4466,10 @@
         <v>MM100100</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D151">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D194">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E201">
         <v>100</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1022" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E35C88E-8CEE-40B8-9094-FBB629CB72CC}"/>
+  <xr:revisionPtr revIDLastSave="1033" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40897208-D899-402F-AB89-A8FABD60067B}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3360" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1110,10 +1110,10 @@
         <v>MM010010</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1143,10 +1143,10 @@
         <v>MM020010</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1176,10 +1176,10 @@
         <v>MM030010</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1209,10 +1209,10 @@
         <v>MM040010</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1242,10 +1242,10 @@
         <v>MM050010</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1275,10 +1275,10 @@
         <v>MM060010</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1308,10 +1308,10 @@
         <v>MM070010</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1341,10 +1341,10 @@
         <v>MM080010</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1374,10 +1374,10 @@
         <v>MM090010</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1407,10 +1407,10 @@
         <v>MM100010</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1440,10 +1440,10 @@
         <v>MM010020</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1474,10 +1474,10 @@
         <v>MM020020</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1508,10 +1508,10 @@
         <v>MM030020</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1542,10 +1542,10 @@
         <v>MM040020</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1576,10 +1576,10 @@
         <v>MM050020</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1610,10 +1610,10 @@
         <v>MM060020</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1644,10 +1644,10 @@
         <v>MM070020</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1678,10 +1678,10 @@
         <v>MM080020</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1712,10 +1712,10 @@
         <v>MM090020</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1746,10 +1746,10 @@
         <v>MM100020</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1780,10 +1780,10 @@
         <v>MM010030</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1814,10 +1814,10 @@
         <v>MM020030</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1848,10 +1848,10 @@
         <v>MM030030</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1882,10 +1882,10 @@
         <v>MM040030</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1916,10 +1916,10 @@
         <v>MM050030</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1950,10 +1950,10 @@
         <v>MM060030</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1984,10 +1984,10 @@
         <v>MM070030</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2018,10 +2018,10 @@
         <v>MM080030</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2052,10 +2052,10 @@
         <v>MM090030</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2086,10 +2086,10 @@
         <v>MM100030</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2120,10 +2120,10 @@
         <v>MM010040</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2154,10 +2154,10 @@
         <v>MM020040</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2188,10 +2188,10 @@
         <v>MM030040</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2222,10 +2222,10 @@
         <v>MM040040</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2256,10 +2256,10 @@
         <v>MM050040</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2290,10 +2290,10 @@
         <v>MM060040</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2324,10 +2324,10 @@
         <v>MM070040</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2358,10 +2358,10 @@
         <v>MM080040</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2392,10 +2392,10 @@
         <v>MM090040</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2426,10 +2426,10 @@
         <v>MM100040</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2460,10 +2460,10 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2494,10 +2494,10 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2528,10 +2528,10 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2562,10 +2562,10 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2596,10 +2596,10 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2630,10 +2630,10 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2664,10 +2664,10 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2698,10 +2698,10 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2732,10 +2732,10 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2766,10 +2766,10 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2800,10 +2800,10 @@
         <v>MM010060</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2834,10 +2834,10 @@
         <v>MM020060</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2868,10 +2868,10 @@
         <v>MM030060</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2902,10 +2902,10 @@
         <v>MM040060</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2936,10 +2936,10 @@
         <v>MM050060</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -2970,10 +2970,10 @@
         <v>MM060060</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3004,10 +3004,10 @@
         <v>MM070060</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3038,10 +3038,10 @@
         <v>MM080060</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3072,10 +3072,10 @@
         <v>MM090060</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3106,10 +3106,10 @@
         <v>MM100060</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3140,10 +3140,10 @@
         <v>MM010070</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3174,10 +3174,10 @@
         <v>MM020070</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3208,10 +3208,10 @@
         <v>MM030070</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3242,10 +3242,10 @@
         <v>MM040070</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3276,10 +3276,10 @@
         <v>MM050070</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3310,10 +3310,10 @@
         <v>MM060070</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3344,10 +3344,10 @@
         <v>MM070070</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3378,10 +3378,10 @@
         <v>MM080070</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3412,10 +3412,10 @@
         <v>MM090070</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3446,10 +3446,10 @@
         <v>MM100070</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3480,10 +3480,10 @@
         <v>MM010080</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3514,10 +3514,10 @@
         <v>MM020080</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3548,10 +3548,10 @@
         <v>MM030080</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3582,10 +3582,10 @@
         <v>MM040080</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3616,10 +3616,10 @@
         <v>MM050080</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3650,10 +3650,10 @@
         <v>MM060080</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3684,10 +3684,10 @@
         <v>MM070080</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3718,10 +3718,10 @@
         <v>MM080080</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3752,10 +3752,10 @@
         <v>MM090080</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3786,10 +3786,10 @@
         <v>MM100080</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3820,10 +3820,10 @@
         <v>MM010090</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3854,10 +3854,10 @@
         <v>MM020090</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3888,10 +3888,10 @@
         <v>MM030090</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3922,10 +3922,10 @@
         <v>MM040090</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -3956,10 +3956,10 @@
         <v>MM050090</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -3990,10 +3990,10 @@
         <v>MM060090</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4024,10 +4024,10 @@
         <v>MM070090</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4058,10 +4058,10 @@
         <v>MM080090</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4092,10 +4092,10 @@
         <v>MM090090</v>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4126,10 +4126,10 @@
         <v>MM100090</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4160,10 +4160,10 @@
         <v>MM010100</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4194,10 +4194,10 @@
         <v>MM020100</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4228,10 +4228,10 @@
         <v>MM030100</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4262,10 +4262,10 @@
         <v>MM040100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4296,10 +4296,10 @@
         <v>MM050100</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4330,10 +4330,10 @@
         <v>MM060100</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4364,10 +4364,10 @@
         <v>MM070100</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4398,10 +4398,10 @@
         <v>MM080100</v>
       </c>
       <c r="C99">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4432,10 +4432,10 @@
         <v>MM090100</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4466,10 +4466,10 @@
         <v>MM100100</v>
       </c>
       <c r="C101">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4503,10 +4503,10 @@
         <v>MM010010</v>
       </c>
       <c r="C102">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4536,10 +4536,10 @@
         <v>MM020010</v>
       </c>
       <c r="C103">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4569,10 +4569,10 @@
         <v>MM030010</v>
       </c>
       <c r="C104">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4602,10 +4602,10 @@
         <v>MM040010</v>
       </c>
       <c r="C105">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4635,10 +4635,10 @@
         <v>MM050010</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4668,10 +4668,10 @@
         <v>MM060010</v>
       </c>
       <c r="C107">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4701,10 +4701,10 @@
         <v>MM070010</v>
       </c>
       <c r="C108">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4734,10 +4734,10 @@
         <v>MM080010</v>
       </c>
       <c r="C109">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4767,10 +4767,10 @@
         <v>MM090010</v>
       </c>
       <c r="C110">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4800,10 +4800,10 @@
         <v>MM100010</v>
       </c>
       <c r="C111">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4833,10 +4833,10 @@
         <v>MM010020</v>
       </c>
       <c r="C112">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4867,10 +4867,10 @@
         <v>MM020020</v>
       </c>
       <c r="C113">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4901,10 +4901,10 @@
         <v>MM030020</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -4935,10 +4935,10 @@
         <v>MM040020</v>
       </c>
       <c r="C115">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -4969,10 +4969,10 @@
         <v>MM050020</v>
       </c>
       <c r="C116">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5003,10 +5003,10 @@
         <v>MM060020</v>
       </c>
       <c r="C117">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5037,10 +5037,10 @@
         <v>MM070020</v>
       </c>
       <c r="C118">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5071,10 +5071,10 @@
         <v>MM080020</v>
       </c>
       <c r="C119">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5105,10 +5105,10 @@
         <v>MM090020</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5139,10 +5139,10 @@
         <v>MM100020</v>
       </c>
       <c r="C121">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5173,10 +5173,10 @@
         <v>MM010030</v>
       </c>
       <c r="C122">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5207,10 +5207,10 @@
         <v>MM020030</v>
       </c>
       <c r="C123">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5241,10 +5241,10 @@
         <v>MM030030</v>
       </c>
       <c r="C124">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5275,10 +5275,10 @@
         <v>MM040030</v>
       </c>
       <c r="C125">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5309,10 +5309,10 @@
         <v>MM050030</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5343,10 +5343,10 @@
         <v>MM060030</v>
       </c>
       <c r="C127">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5377,10 +5377,10 @@
         <v>MM070030</v>
       </c>
       <c r="C128">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5411,10 +5411,10 @@
         <v>MM080030</v>
       </c>
       <c r="C129">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5445,10 +5445,10 @@
         <v>MM090030</v>
       </c>
       <c r="C130">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5479,10 +5479,10 @@
         <v>MM100030</v>
       </c>
       <c r="C131">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5513,10 +5513,10 @@
         <v>MM010040</v>
       </c>
       <c r="C132">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5547,10 +5547,10 @@
         <v>MM020040</v>
       </c>
       <c r="C133">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5581,10 +5581,10 @@
         <v>MM030040</v>
       </c>
       <c r="C134">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5615,10 +5615,10 @@
         <v>MM040040</v>
       </c>
       <c r="C135">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5649,10 +5649,10 @@
         <v>MM050040</v>
       </c>
       <c r="C136">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5683,10 +5683,10 @@
         <v>MM060040</v>
       </c>
       <c r="C137">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5717,10 +5717,10 @@
         <v>MM070040</v>
       </c>
       <c r="C138">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5751,10 +5751,10 @@
         <v>MM080040</v>
       </c>
       <c r="C139">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5785,10 +5785,10 @@
         <v>MM090040</v>
       </c>
       <c r="C140">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5819,10 +5819,10 @@
         <v>MM100040</v>
       </c>
       <c r="C141">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5853,10 +5853,10 @@
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5887,10 +5887,10 @@
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -5921,10 +5921,10 @@
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -5955,10 +5955,10 @@
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -5989,10 +5989,10 @@
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6023,10 +6023,10 @@
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6057,10 +6057,10 @@
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D148">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6091,10 +6091,10 @@
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6125,10 +6125,10 @@
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6159,10 +6159,10 @@
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6193,10 +6193,10 @@
         <v>MM010060</v>
       </c>
       <c r="C152">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6227,10 +6227,10 @@
         <v>MM020060</v>
       </c>
       <c r="C153">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D153">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6261,10 +6261,10 @@
         <v>MM030060</v>
       </c>
       <c r="C154">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6295,10 +6295,10 @@
         <v>MM040060</v>
       </c>
       <c r="C155">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6329,10 +6329,10 @@
         <v>MM050060</v>
       </c>
       <c r="C156">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6363,10 +6363,10 @@
         <v>MM060060</v>
       </c>
       <c r="C157">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6397,10 +6397,10 @@
         <v>MM070060</v>
       </c>
       <c r="C158">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6431,10 +6431,10 @@
         <v>MM080060</v>
       </c>
       <c r="C159">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6465,10 +6465,10 @@
         <v>MM090060</v>
       </c>
       <c r="C160">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6499,10 +6499,10 @@
         <v>MM100060</v>
       </c>
       <c r="C161">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6533,10 +6533,10 @@
         <v>MM010070</v>
       </c>
       <c r="C162">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6567,10 +6567,10 @@
         <v>MM020070</v>
       </c>
       <c r="C163">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6601,10 +6601,10 @@
         <v>MM030070</v>
       </c>
       <c r="C164">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6635,10 +6635,10 @@
         <v>MM040070</v>
       </c>
       <c r="C165">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6669,10 +6669,10 @@
         <v>MM050070</v>
       </c>
       <c r="C166">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6703,10 +6703,10 @@
         <v>MM060070</v>
       </c>
       <c r="C167">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6737,10 +6737,10 @@
         <v>MM070070</v>
       </c>
       <c r="C168">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D168">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6771,10 +6771,10 @@
         <v>MM080070</v>
       </c>
       <c r="C169">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6805,10 +6805,10 @@
         <v>MM090070</v>
       </c>
       <c r="C170">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6839,10 +6839,10 @@
         <v>MM100070</v>
       </c>
       <c r="C171">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -6873,10 +6873,10 @@
         <v>MM010080</v>
       </c>
       <c r="C172">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -6907,10 +6907,10 @@
         <v>MM020080</v>
       </c>
       <c r="C173">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -6941,10 +6941,10 @@
         <v>MM030080</v>
       </c>
       <c r="C174">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -6975,10 +6975,10 @@
         <v>MM040080</v>
       </c>
       <c r="C175">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D175">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7009,10 +7009,10 @@
         <v>MM050080</v>
       </c>
       <c r="C176">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D176">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7043,10 +7043,10 @@
         <v>MM060080</v>
       </c>
       <c r="C177">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7077,10 +7077,10 @@
         <v>MM070080</v>
       </c>
       <c r="C178">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7111,10 +7111,10 @@
         <v>MM080080</v>
       </c>
       <c r="C179">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7145,10 +7145,10 @@
         <v>MM090080</v>
       </c>
       <c r="C180">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7179,10 +7179,10 @@
         <v>MM100080</v>
       </c>
       <c r="C181">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7213,10 +7213,10 @@
         <v>MM010090</v>
       </c>
       <c r="C182">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7247,10 +7247,10 @@
         <v>MM020090</v>
       </c>
       <c r="C183">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7281,10 +7281,10 @@
         <v>MM030090</v>
       </c>
       <c r="C184">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7315,10 +7315,10 @@
         <v>MM040090</v>
       </c>
       <c r="C185">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7349,10 +7349,10 @@
         <v>MM050090</v>
       </c>
       <c r="C186">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7383,10 +7383,10 @@
         <v>MM060090</v>
       </c>
       <c r="C187">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7417,10 +7417,10 @@
         <v>MM070090</v>
       </c>
       <c r="C188">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7451,10 +7451,10 @@
         <v>MM080090</v>
       </c>
       <c r="C189">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D189">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7485,10 +7485,10 @@
         <v>MM090090</v>
       </c>
       <c r="C190">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7519,10 +7519,10 @@
         <v>MM100090</v>
       </c>
       <c r="C191">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7553,10 +7553,10 @@
         <v>MM010100</v>
       </c>
       <c r="C192">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7587,10 +7587,10 @@
         <v>MM020100</v>
       </c>
       <c r="C193">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D193">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7621,10 +7621,10 @@
         <v>MM030100</v>
       </c>
       <c r="C194">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7655,10 +7655,10 @@
         <v>MM040100</v>
       </c>
       <c r="C195">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7689,10 +7689,10 @@
         <v>MM050100</v>
       </c>
       <c r="C196">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7723,10 +7723,10 @@
         <v>MM060100</v>
       </c>
       <c r="C197">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7757,10 +7757,10 @@
         <v>MM070100</v>
       </c>
       <c r="C198">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7791,10 +7791,10 @@
         <v>MM080100</v>
       </c>
       <c r="C199">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7825,10 +7825,10 @@
         <v>MM090100</v>
       </c>
       <c r="C200">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -7859,10 +7859,10 @@
         <v>MM100100</v>
       </c>
       <c r="C201">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D221" si="8">C202+9</f>
+        <f t="shared" ref="D202:D222" si="8">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -8210,12 +8210,12 @@
         <v>MM000000</v>
       </c>
       <c r="C211">
-        <f t="shared" si="9"/>
-        <v>91</v>
+        <f>C10+10</f>
+        <v>11</v>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f>C210+9</f>
+        <v>90</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8245,12 +8245,12 @@
         <v>MM000000</v>
       </c>
       <c r="C212">
-        <f t="shared" si="9"/>
-        <v>101</v>
+        <f>C11+10</f>
+        <v>11</v>
       </c>
       <c r="D212">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8280,12 +8280,12 @@
         <v>MM000000</v>
       </c>
       <c r="C213">
-        <f t="shared" si="9"/>
-        <v>111</v>
+        <f>C12+10</f>
+        <v>11</v>
       </c>
       <c r="D213">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8315,12 +8315,12 @@
         <v>MM000000</v>
       </c>
       <c r="C214">
-        <f t="shared" si="9"/>
-        <v>121</v>
+        <f>C13+10</f>
+        <v>11</v>
       </c>
       <c r="D214">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -8350,12 +8350,12 @@
         <v>MM000000</v>
       </c>
       <c r="C215">
-        <f t="shared" si="9"/>
-        <v>131</v>
+        <f>C14+10</f>
+        <v>11</v>
       </c>
       <c r="D215">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8385,12 +8385,12 @@
         <v>MM000000</v>
       </c>
       <c r="C216">
-        <f t="shared" si="9"/>
-        <v>141</v>
+        <f>C15+10</f>
+        <v>11</v>
       </c>
       <c r="D216">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8420,12 +8420,12 @@
         <v>MM000000</v>
       </c>
       <c r="C217">
-        <f t="shared" si="9"/>
-        <v>151</v>
+        <f>C16+10</f>
+        <v>11</v>
       </c>
       <c r="D217">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -8455,12 +8455,12 @@
         <v>MM000000</v>
       </c>
       <c r="C218">
-        <f t="shared" si="9"/>
-        <v>161</v>
+        <f>C17+10</f>
+        <v>11</v>
       </c>
       <c r="D218">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8490,12 +8490,12 @@
         <v>MM000000</v>
       </c>
       <c r="C219">
-        <f t="shared" si="9"/>
-        <v>171</v>
+        <f>C18+10</f>
+        <v>11</v>
       </c>
       <c r="D219">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8525,12 +8525,12 @@
         <v>MM000000</v>
       </c>
       <c r="C220">
-        <f t="shared" si="9"/>
-        <v>181</v>
+        <f>C19+10</f>
+        <v>11</v>
       </c>
       <c r="D220">
         <f t="shared" si="8"/>
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8560,12 +8560,11 @@
         <v>MM000000</v>
       </c>
       <c r="C221">
-        <f t="shared" si="9"/>
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -8597,10 +8596,11 @@
         <v>0.09</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D222">
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="E222">
         <v>50</v>
@@ -8629,9 +8629,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D223">
+        <f t="shared" ref="D223:D226" si="11">C223+9</f>
         <v>30</v>
       </c>
       <c r="E223">
@@ -8661,10 +8662,11 @@
         <v>0.1</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D224">
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="E224">
         <v>50</v>
@@ -8693,10 +8695,11 @@
         <v>0.105</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D225">
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>50</v>
       </c>
       <c r="E225">
         <v>50</v>
@@ -8725,10 +8728,11 @@
         <v>0.11</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D226">
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="E226">
         <v>50</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1033" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40897208-D899-402F-AB89-A8FABD60067B}"/>
+  <xr:revisionPtr revIDLastSave="1046" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D44AA5-8C2F-4136-9E3C-0929056D5E6D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1057,16 +1057,16 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,25 +1101,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">I2&amp;TEXT(E2,"000")&amp;TEXT(F2,"000")</f>
-        <v>MM010010</v>
+        <v>MM010050</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -1134,25 +1134,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>MM020010</v>
+        <v>MM020050</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>0.02</v>
@@ -1167,25 +1167,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>MM030010</v>
+        <v>MM030050</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>0.02</v>
@@ -1200,25 +1200,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>MM040010</v>
+        <v>MM040050</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>0.02</v>
@@ -1233,25 +1233,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>MM050010</v>
+        <v>MM050050</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>0.02</v>
@@ -1266,25 +1266,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>MM060010</v>
+        <v>MM060050</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1299,25 +1299,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>MM070010</v>
+        <v>MM070050</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>70</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -1332,25 +1332,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>MM080010</v>
+        <v>MM080050</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>80</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0.02</v>
@@ -1365,25 +1365,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>MM090010</v>
+        <v>MM090050</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>90</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0.02</v>
@@ -1398,25 +1398,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>MM100010</v>
+        <v>MM100050</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>0.02</v>
@@ -1431,26 +1431,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>MM010020</v>
+        <v>MM010050</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <f>C2+5</f>
+        <v>6</v>
       </c>
       <c r="D12">
+        <f>D2+5</f>
         <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <f>F2+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>0.02</v>
@@ -1465,26 +1466,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>MM020020</v>
+        <v>MM020050</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <f t="shared" ref="C13:D13" si="1">C3+5</f>
+        <v>6</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F76" si="1">F3+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>0.02</v>
@@ -1499,26 +1501,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>MM030020</v>
+        <v>MM030050</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <f t="shared" ref="C14:D14" si="2">C4+5</f>
+        <v>6</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0.02</v>
@@ -1533,26 +1536,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>MM040020</v>
+        <v>MM040050</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <f t="shared" ref="C15:D15" si="3">C5+5</f>
+        <v>6</v>
       </c>
       <c r="D15">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>0.02</v>
@@ -1567,26 +1571,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>MM050020</v>
+        <v>MM050050</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <f t="shared" ref="C16:D16" si="4">C6+5</f>
+        <v>6</v>
       </c>
       <c r="D16">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>0.02</v>
@@ -1601,26 +1606,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>MM060020</v>
+        <v>MM060050</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <f t="shared" ref="C17:D17" si="5">C7+5</f>
+        <v>6</v>
       </c>
       <c r="D17">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>0.02</v>
@@ -1635,26 +1641,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>MM070020</v>
+        <v>MM070050</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f t="shared" ref="C18:D18" si="6">C8+5</f>
+        <v>6</v>
       </c>
       <c r="D18">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E18">
         <v>70</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>0.02</v>
@@ -1669,26 +1676,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>MM080020</v>
+        <v>MM080050</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <f t="shared" ref="C19:D19" si="7">C9+5</f>
+        <v>6</v>
       </c>
       <c r="D19">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>0.02</v>
@@ -1703,26 +1711,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>MM090020</v>
+        <v>MM090050</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <f t="shared" ref="C20:D20" si="8">C10+5</f>
+        <v>6</v>
       </c>
       <c r="D20">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E20">
         <v>90</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>0.02</v>
@@ -1737,26 +1746,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>MM100020</v>
+        <v>MM100050</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <f t="shared" ref="C21:D21" si="9">C11+5</f>
+        <v>6</v>
       </c>
       <c r="D21">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>0.02</v>
@@ -1771,26 +1781,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>MM010030</v>
+        <v>MM010050</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <f t="shared" ref="C22:D22" si="10">C12+5</f>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>0.02</v>
@@ -1805,26 +1816,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>MM020030</v>
+        <v>MM020050</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <f t="shared" ref="C23:D23" si="11">C13+5</f>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>0.02</v>
@@ -1839,26 +1851,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>MM030030</v>
+        <v>MM030050</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <f t="shared" ref="C24:D24" si="12">C14+5</f>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>30</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>0.02</v>
@@ -1873,26 +1886,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>MM040030</v>
+        <v>MM040050</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <f t="shared" ref="C25:D25" si="13">C15+5</f>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0.02</v>
@@ -1907,26 +1921,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>MM050030</v>
+        <v>MM050050</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <f t="shared" ref="C26:D26" si="14">C16+5</f>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>0.02</v>
@@ -1941,26 +1956,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>MM060030</v>
+        <v>MM060050</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <f t="shared" ref="C27:D27" si="15">C17+5</f>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>60</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>0.02</v>
@@ -1975,26 +1991,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>MM070030</v>
+        <v>MM070050</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <f t="shared" ref="C28:D28" si="16">C18+5</f>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>0.02</v>
@@ -2009,26 +2026,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>MM080030</v>
+        <v>MM080050</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <f t="shared" ref="C29:D29" si="17">C19+5</f>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>80</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>0.02</v>
@@ -2043,26 +2061,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>MM090030</v>
+        <v>MM090050</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <f t="shared" ref="C30:D30" si="18">C20+5</f>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>90</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>0.02</v>
@@ -2077,26 +2096,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>MM100030</v>
+        <v>MM100050</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <f t="shared" ref="C31:D31" si="19">C21+5</f>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>0.02</v>
@@ -2111,26 +2131,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>MM010040</v>
+        <v>MM010050</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <f t="shared" ref="C32:D32" si="20">C22+5</f>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>0.02</v>
@@ -2145,26 +2166,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>MM020040</v>
+        <v>MM020050</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f t="shared" ref="C33:D33" si="21">C23+5</f>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>0.02</v>
@@ -2179,26 +2201,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>MM030040</v>
+        <v>MM030050</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <f t="shared" ref="C34:D34" si="22">C24+5</f>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>0.02</v>
@@ -2213,26 +2236,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>MM040040</v>
+        <v>MM040050</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <f t="shared" ref="C35:D35" si="23">C25+5</f>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>40</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>0.02</v>
@@ -2247,26 +2271,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>MM050040</v>
+        <v>MM050050</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <f t="shared" ref="C36:D36" si="24">C26+5</f>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>0.02</v>
@@ -2281,26 +2306,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>MM060040</v>
+        <v>MM060050</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <f t="shared" ref="C37:D37" si="25">C27+5</f>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <f t="shared" si="25"/>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>60</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>0.02</v>
@@ -2315,26 +2341,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>MM070040</v>
+        <v>MM070050</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <f t="shared" ref="C38:D38" si="26">C28+5</f>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>70</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38">
         <v>0.02</v>
@@ -2349,26 +2376,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>MM080040</v>
+        <v>MM080050</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <f t="shared" ref="C39:D39" si="27">C29+5</f>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>80</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>0.02</v>
@@ -2383,26 +2411,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>MM090040</v>
+        <v>MM090050</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <f t="shared" ref="C40:D40" si="28">C30+5</f>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <f t="shared" si="28"/>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>90</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>0.02</v>
@@ -2417,26 +2446,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>MM100040</v>
+        <v>MM100050</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <f t="shared" ref="C41:D41" si="29">C31+5</f>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>0.02</v>
@@ -2451,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2460,16 +2490,17 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <f t="shared" ref="C42:D42" si="30">C32+5</f>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G42">
@@ -2485,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2494,16 +2525,17 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <f t="shared" ref="C43:D43" si="31">C33+5</f>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <f t="shared" si="31"/>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>20</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G43">
@@ -2519,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2528,16 +2560,17 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <f t="shared" ref="C44:D44" si="32">C34+5</f>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <f t="shared" si="32"/>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>30</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G44">
@@ -2553,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2562,16 +2595,17 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <f t="shared" ref="C45:D45" si="33">C35+5</f>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <f t="shared" si="33"/>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G45">
@@ -2587,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2596,16 +2630,17 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <f t="shared" ref="C46:D46" si="34">C36+5</f>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>50</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G46">
@@ -2621,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2630,16 +2665,17 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <f t="shared" ref="C47:D47" si="35">C37+5</f>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <f t="shared" si="35"/>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>60</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G47">
@@ -2655,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2664,16 +2700,17 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <f t="shared" ref="C48:D48" si="36">C38+5</f>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>70</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G48">
@@ -2689,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2698,16 +2735,17 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f t="shared" ref="C49:D49" si="37">C39+5</f>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <f t="shared" si="37"/>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>80</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G49">
@@ -2723,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2732,16 +2770,17 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f t="shared" ref="C50:D50" si="38">C40+5</f>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <f t="shared" si="38"/>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>90</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G50">
@@ -2757,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2766,16 +2805,17 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <f t="shared" ref="C51:D51" si="39">C41+5</f>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <f t="shared" si="39"/>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G51">
@@ -2791,26 +2831,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>MM010060</v>
+        <v>MM010050</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <f t="shared" ref="C52:D52" si="40">C42+5</f>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <f t="shared" si="40"/>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>0.02</v>
@@ -2825,26 +2866,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>MM020060</v>
+        <v>MM020050</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <f t="shared" ref="C53:D53" si="41">C43+5</f>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <f t="shared" si="41"/>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>20</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>0.02</v>
@@ -2859,26 +2901,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>MM030060</v>
+        <v>MM030050</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <f t="shared" ref="C54:D54" si="42">C44+5</f>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>30</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G54">
         <v>0.02</v>
@@ -2893,26 +2936,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>MM040060</v>
+        <v>MM040050</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <f t="shared" ref="C55:D55" si="43">C45+5</f>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <f t="shared" si="43"/>
+        <v>30</v>
       </c>
       <c r="E55">
         <v>40</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G55">
         <v>0.02</v>
@@ -2927,26 +2971,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>MM050060</v>
+        <v>MM050050</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <f t="shared" ref="C56:D56" si="44">C46+5</f>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G56">
         <v>0.02</v>
@@ -2961,26 +3006,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>MM060060</v>
+        <v>MM060050</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <f t="shared" ref="C57:D57" si="45">C47+5</f>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <f t="shared" si="45"/>
+        <v>30</v>
       </c>
       <c r="E57">
         <v>60</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>0.02</v>
@@ -2995,26 +3041,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>MM070060</v>
+        <v>MM070050</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <f t="shared" ref="C58:D58" si="46">C48+5</f>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>70</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>0.02</v>
@@ -3029,26 +3076,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>MM080060</v>
+        <v>MM080050</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <f t="shared" ref="C59:D59" si="47">C49+5</f>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>30</v>
       </c>
       <c r="E59">
         <v>80</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>0.02</v>
@@ -3063,26 +3111,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>MM090060</v>
+        <v>MM090050</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <f t="shared" ref="C60:D60" si="48">C50+5</f>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>90</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G60">
         <v>0.02</v>
@@ -3097,26 +3146,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>MM100060</v>
+        <v>MM100050</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <f t="shared" ref="C61:D61" si="49">C51+5</f>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <f t="shared" si="49"/>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0.02</v>
@@ -3131,26 +3181,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>MM010070</v>
+        <v>MM010050</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <f t="shared" ref="C62:D62" si="50">C52+5</f>
+        <v>31</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <f t="shared" si="50"/>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <v>0.02</v>
@@ -3165,26 +3216,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>MM020070</v>
+        <v>MM020050</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <f t="shared" ref="C63:D63" si="51">C53+5</f>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>20</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>0.02</v>
@@ -3199,26 +3251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>MM030070</v>
+        <v>MM030050</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <f t="shared" ref="C64:D64" si="52">C54+5</f>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <f t="shared" si="52"/>
+        <v>35</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>0.02</v>
@@ -3233,26 +3286,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>MM040070</v>
+        <v>MM040050</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <f t="shared" ref="C65:D65" si="53">C55+5</f>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>35</v>
       </c>
       <c r="E65">
         <v>40</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G65">
         <v>0.02</v>
@@ -3267,26 +3321,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="2">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
-        <v>MM050070</v>
+        <f t="shared" ref="B66:B129" si="54">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
+        <v>MM050050</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <f t="shared" ref="C66:D66" si="55">C56+5</f>
+        <v>31</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <f t="shared" si="55"/>
+        <v>35</v>
       </c>
       <c r="E66">
         <v>50</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G66">
         <v>0.02</v>
@@ -3301,26 +3356,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060070</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <f t="shared" ref="C67:D67" si="56">C57+5</f>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <f t="shared" si="56"/>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>60</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G67">
         <v>0.02</v>
@@ -3335,26 +3391,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070070</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <f t="shared" ref="C68:D68" si="57">C58+5</f>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <f t="shared" si="57"/>
+        <v>35</v>
       </c>
       <c r="E68">
         <v>70</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <v>0.02</v>
@@ -3369,26 +3426,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080070</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <f t="shared" ref="C69:D69" si="58">C59+5</f>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <f t="shared" si="58"/>
+        <v>35</v>
       </c>
       <c r="E69">
         <v>80</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>0.02</v>
@@ -3403,26 +3461,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090070</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <f t="shared" ref="C70:D70" si="59">C60+5</f>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <f t="shared" si="59"/>
+        <v>35</v>
       </c>
       <c r="E70">
         <v>90</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G70">
         <v>0.02</v>
@@ -3437,26 +3496,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100070</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <f t="shared" ref="C71:D71" si="60">C61+5</f>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <f t="shared" si="60"/>
+        <v>35</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G71">
         <v>0.02</v>
@@ -3471,26 +3531,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010080</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <f t="shared" ref="C72:D72" si="61">C62+5</f>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <f t="shared" si="61"/>
+        <v>40</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G72">
         <v>0.02</v>
@@ -3505,26 +3566,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020080</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <f t="shared" ref="C73:D73" si="62">C63+5</f>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <f t="shared" si="62"/>
+        <v>40</v>
       </c>
       <c r="E73">
         <v>20</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>0.02</v>
@@ -3539,26 +3601,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030080</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <f t="shared" ref="C74:D74" si="63">C64+5</f>
+        <v>36</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <f t="shared" si="63"/>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>30</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G74">
         <v>0.02</v>
@@ -3573,26 +3636,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040080</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <f t="shared" ref="C75:D75" si="64">C65+5</f>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <f t="shared" si="64"/>
+        <v>40</v>
       </c>
       <c r="E75">
         <v>40</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>0.02</v>
@@ -3607,26 +3671,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050080</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <f t="shared" ref="C76:D76" si="65">C66+5</f>
+        <v>36</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <f t="shared" si="65"/>
+        <v>40</v>
       </c>
       <c r="E76">
         <v>50</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <v>0.02</v>
@@ -3641,26 +3706,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060080</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <f t="shared" ref="C77:D77" si="66">C67+5</f>
+        <v>36</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <f t="shared" si="66"/>
+        <v>40</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F101" si="3">F67+10</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G77">
         <v>0.02</v>
@@ -3675,26 +3741,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070080</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <f t="shared" ref="C78:D78" si="67">C68+5</f>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <f t="shared" si="67"/>
+        <v>40</v>
       </c>
       <c r="E78">
         <v>70</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -3709,26 +3776,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080080</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <f t="shared" ref="C79:D79" si="68">C69+5</f>
+        <v>36</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <f t="shared" si="68"/>
+        <v>40</v>
       </c>
       <c r="E79">
         <v>80</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G79">
         <v>0.02</v>
@@ -3743,26 +3811,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090080</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <f t="shared" ref="C80:D80" si="69">C70+5</f>
+        <v>36</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <f t="shared" si="69"/>
+        <v>40</v>
       </c>
       <c r="E80">
         <v>90</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G80">
         <v>0.02</v>
@@ -3777,26 +3846,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100080</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <f t="shared" ref="C81:D81" si="70">C71+5</f>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <f t="shared" si="70"/>
+        <v>40</v>
       </c>
       <c r="E81">
         <v>100</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>0.02</v>
@@ -3811,26 +3881,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010090</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <f t="shared" ref="C82:D82" si="71">C72+5</f>
+        <v>41</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <f t="shared" si="71"/>
+        <v>45</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>0.02</v>
@@ -3845,26 +3916,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020090</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <f t="shared" ref="C83:D83" si="72">C73+5</f>
+        <v>41</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <f t="shared" si="72"/>
+        <v>45</v>
       </c>
       <c r="E83">
         <v>20</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G83">
         <v>0.02</v>
@@ -3879,26 +3951,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030090</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <f t="shared" ref="C84:D84" si="73">C74+5</f>
+        <v>41</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <f t="shared" si="73"/>
+        <v>45</v>
       </c>
       <c r="E84">
         <v>30</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G84">
         <v>0.02</v>
@@ -3913,26 +3986,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040090</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <f t="shared" ref="C85:D85" si="74">C75+5</f>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <f t="shared" si="74"/>
+        <v>45</v>
       </c>
       <c r="E85">
         <v>40</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G85">
         <v>0.02</v>
@@ -3947,26 +4021,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050090</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <f t="shared" ref="C86:D86" si="75">C76+5</f>
+        <v>41</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <f t="shared" si="75"/>
+        <v>45</v>
       </c>
       <c r="E86">
         <v>50</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>0.02</v>
@@ -3981,26 +4056,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060090</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <f t="shared" ref="C87:D87" si="76">C77+5</f>
+        <v>41</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <f t="shared" si="76"/>
+        <v>45</v>
       </c>
       <c r="E87">
         <v>60</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G87">
         <v>0.02</v>
@@ -4015,26 +4091,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070090</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <f t="shared" ref="C88:D88" si="77">C78+5</f>
+        <v>41</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <f t="shared" si="77"/>
+        <v>45</v>
       </c>
       <c r="E88">
         <v>70</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>0.02</v>
@@ -4049,26 +4126,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080090</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <f t="shared" ref="C89:D89" si="78">C79+5</f>
+        <v>41</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <f t="shared" si="78"/>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>80</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>0.02</v>
@@ -4083,26 +4161,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090090</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <f t="shared" ref="C90:D90" si="79">C80+5</f>
+        <v>41</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <f t="shared" si="79"/>
+        <v>45</v>
       </c>
       <c r="E90">
         <v>90</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G90">
         <v>0.02</v>
@@ -4117,26 +4196,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100090</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <f t="shared" ref="C91:D91" si="80">C81+5</f>
+        <v>41</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <f t="shared" si="80"/>
+        <v>45</v>
       </c>
       <c r="E91">
         <v>100</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>0.02</v>
@@ -4151,26 +4231,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010100</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <f t="shared" ref="C92:D92" si="81">C82+5</f>
+        <v>46</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <f t="shared" si="81"/>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G92">
         <v>0.02</v>
@@ -4185,26 +4266,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020100</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <f t="shared" ref="C93:D93" si="82">C83+5</f>
+        <v>46</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <f t="shared" si="82"/>
+        <v>50</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G93">
         <v>0.02</v>
@@ -4219,26 +4301,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030100</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <f t="shared" ref="C94:D94" si="83">C84+5</f>
+        <v>46</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <f t="shared" si="83"/>
+        <v>50</v>
       </c>
       <c r="E94">
         <v>30</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G94">
         <v>0.02</v>
@@ -4253,26 +4336,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040100</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <f t="shared" ref="C95:D95" si="84">C85+5</f>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <f t="shared" si="84"/>
+        <v>50</v>
       </c>
       <c r="E95">
         <v>40</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G95">
         <v>0.02</v>
@@ -4287,26 +4371,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050100</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <f t="shared" ref="C96:D96" si="85">C86+5</f>
+        <v>46</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <f t="shared" si="85"/>
+        <v>50</v>
       </c>
       <c r="E96">
         <v>50</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G96">
         <v>0.02</v>
@@ -4321,26 +4406,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060100</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <f t="shared" ref="C97:D97" si="86">C87+5</f>
+        <v>46</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <f t="shared" si="86"/>
+        <v>50</v>
       </c>
       <c r="E97">
         <v>60</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -4355,26 +4441,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070100</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <f t="shared" ref="C98:D98" si="87">C88+5</f>
+        <v>46</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <f t="shared" si="87"/>
+        <v>50</v>
       </c>
       <c r="E98">
         <v>70</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>0.02</v>
@@ -4389,26 +4476,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080100</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <f t="shared" ref="C99:D99" si="88">C89+5</f>
+        <v>46</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <f t="shared" si="88"/>
+        <v>50</v>
       </c>
       <c r="E99">
         <v>80</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99">
         <v>0.02</v>
@@ -4423,26 +4511,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090100</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <f t="shared" ref="C100:D100" si="89">C90+5</f>
+        <v>46</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <f t="shared" si="89"/>
+        <v>50</v>
       </c>
       <c r="E100">
         <v>90</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G100">
         <v>0.02</v>
@@ -4457,26 +4546,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100100</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <f t="shared" ref="C101:D101" si="90">C91+5</f>
+        <v>46</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <f t="shared" si="90"/>
+        <v>50</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>0.02</v>
@@ -4494,25 +4584,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010010</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <f t="shared" ref="C102:D102" si="91">C92+5</f>
+        <v>51</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <f t="shared" si="91"/>
+        <v>55</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G102">
         <v>0.02</v>
@@ -4527,25 +4619,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020010</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <f t="shared" ref="C103:D103" si="92">C93+5</f>
+        <v>51</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <f t="shared" si="92"/>
+        <v>55</v>
       </c>
       <c r="E103">
         <v>20</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4560,25 +4654,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030010</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <f t="shared" ref="C104:D104" si="93">C94+5</f>
+        <v>51</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <f t="shared" si="93"/>
+        <v>55</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>0.02</v>
@@ -4593,25 +4689,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040010</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <f t="shared" ref="C105:D105" si="94">C95+5</f>
+        <v>51</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <f t="shared" si="94"/>
+        <v>55</v>
       </c>
       <c r="E105">
         <v>40</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0.02</v>
@@ -4626,25 +4724,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050010</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <f t="shared" ref="C106:D106" si="95">C96+5</f>
+        <v>51</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <f t="shared" si="95"/>
+        <v>55</v>
       </c>
       <c r="E106">
         <v>50</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G106">
         <v>0.02</v>
@@ -4659,25 +4759,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060010</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <f t="shared" ref="C107:D107" si="96">C97+5</f>
+        <v>51</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <f t="shared" si="96"/>
+        <v>55</v>
       </c>
       <c r="E107">
         <v>60</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>0.02</v>
@@ -4692,25 +4794,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070010</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <f t="shared" ref="C108:D108" si="97">C98+5</f>
+        <v>51</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <f t="shared" si="97"/>
+        <v>55</v>
       </c>
       <c r="E108">
         <v>70</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G108">
         <v>0.02</v>
@@ -4725,25 +4829,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080010</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <f t="shared" ref="C109:D109" si="98">C99+5</f>
+        <v>51</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <f t="shared" si="98"/>
+        <v>55</v>
       </c>
       <c r="E109">
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G109">
         <v>0.02</v>
@@ -4758,25 +4864,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090010</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <f t="shared" ref="C110:D110" si="99">C100+5</f>
+        <v>51</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <f t="shared" si="99"/>
+        <v>55</v>
       </c>
       <c r="E110">
         <v>90</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G110">
         <v>0.02</v>
@@ -4791,25 +4899,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100010</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <f t="shared" ref="C111:D111" si="100">C101+5</f>
+        <v>51</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <f t="shared" si="100"/>
+        <v>55</v>
       </c>
       <c r="E111">
         <v>100</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>0.02</v>
@@ -4824,26 +4934,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010020</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <f t="shared" ref="C112:D112" si="101">C102+5</f>
+        <v>56</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <f t="shared" si="101"/>
+        <v>60</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112">
-        <f>F102+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>0.02</v>
@@ -4858,26 +4969,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020020</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <f t="shared" ref="C113:D113" si="102">C103+5</f>
+        <v>56</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <f t="shared" si="102"/>
+        <v>60</v>
       </c>
       <c r="E113">
         <v>20</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113:F176" si="4">F103+10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>0.02</v>
@@ -4892,26 +5004,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030020</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <f t="shared" ref="C114:D114" si="103">C104+5</f>
+        <v>56</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <f t="shared" si="103"/>
+        <v>60</v>
       </c>
       <c r="E114">
         <v>30</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G114">
         <v>0.02</v>
@@ -4926,26 +5039,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040020</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <f t="shared" ref="C115:D115" si="104">C105+5</f>
+        <v>56</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <f t="shared" si="104"/>
+        <v>60</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G115">
         <v>0.02</v>
@@ -4960,26 +5074,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050020</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <f t="shared" ref="C116:D116" si="105">C106+5</f>
+        <v>56</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <f t="shared" si="105"/>
+        <v>60</v>
       </c>
       <c r="E116">
         <v>50</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>0.02</v>
@@ -4994,26 +5109,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060020</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <f t="shared" ref="C117:D117" si="106">C107+5</f>
+        <v>56</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <f t="shared" si="106"/>
+        <v>60</v>
       </c>
       <c r="E117">
         <v>60</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G117">
         <v>0.02</v>
@@ -5028,26 +5144,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070020</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <f t="shared" ref="C118:D118" si="107">C108+5</f>
+        <v>56</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <f t="shared" si="107"/>
+        <v>60</v>
       </c>
       <c r="E118">
         <v>70</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>0.02</v>
@@ -5062,26 +5179,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080020</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <f t="shared" ref="C119:D119" si="108">C109+5</f>
+        <v>56</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <f t="shared" si="108"/>
+        <v>60</v>
       </c>
       <c r="E119">
         <v>80</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>0.02</v>
@@ -5096,26 +5214,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="2"/>
-        <v>MM090020</v>
+        <f t="shared" si="54"/>
+        <v>MM090050</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <f t="shared" ref="C120:D120" si="109">C110+5</f>
+        <v>56</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <f t="shared" si="109"/>
+        <v>60</v>
       </c>
       <c r="E120">
         <v>90</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G120">
         <v>0.02</v>
@@ -5130,26 +5249,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="2"/>
-        <v>MM100020</v>
+        <f t="shared" si="54"/>
+        <v>MM100050</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <f t="shared" ref="C121:D121" si="110">C111+5</f>
+        <v>56</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <f t="shared" si="110"/>
+        <v>60</v>
       </c>
       <c r="E121">
         <v>100</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5164,26 +5284,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="2"/>
-        <v>MM010030</v>
+        <f t="shared" si="54"/>
+        <v>MM010050</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <f t="shared" ref="C122:D122" si="111">C112+5</f>
+        <v>61</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <f t="shared" si="111"/>
+        <v>65</v>
       </c>
       <c r="E122">
         <v>10</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G122">
         <v>0.02</v>
@@ -5198,26 +5319,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="2"/>
-        <v>MM020030</v>
+        <f t="shared" si="54"/>
+        <v>MM020050</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <f t="shared" ref="C123:D123" si="112">C113+5</f>
+        <v>61</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <f t="shared" si="112"/>
+        <v>65</v>
       </c>
       <c r="E123">
         <v>20</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G123">
         <v>0.02</v>
@@ -5232,26 +5354,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="2"/>
-        <v>MM030030</v>
+        <f t="shared" si="54"/>
+        <v>MM030050</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <f t="shared" ref="C124:D124" si="113">C114+5</f>
+        <v>61</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <f t="shared" si="113"/>
+        <v>65</v>
       </c>
       <c r="E124">
         <v>30</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G124">
         <v>0.02</v>
@@ -5266,26 +5389,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="2"/>
-        <v>MM040030</v>
+        <f t="shared" si="54"/>
+        <v>MM040050</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <f t="shared" ref="C125:D125" si="114">C115+5</f>
+        <v>61</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <f t="shared" si="114"/>
+        <v>65</v>
       </c>
       <c r="E125">
         <v>40</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G125">
         <v>0.02</v>
@@ -5300,26 +5424,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v>MM050030</v>
+        <f t="shared" si="54"/>
+        <v>MM050050</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <f t="shared" ref="C126:D126" si="115">C116+5</f>
+        <v>61</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <f t="shared" si="115"/>
+        <v>65</v>
       </c>
       <c r="E126">
         <v>50</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G126">
         <v>0.02</v>
@@ -5334,26 +5459,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v>MM060030</v>
+        <f t="shared" si="54"/>
+        <v>MM060050</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <f t="shared" ref="C127:D127" si="116">C117+5</f>
+        <v>61</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <f t="shared" si="116"/>
+        <v>65</v>
       </c>
       <c r="E127">
         <v>60</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G127">
         <v>0.02</v>
@@ -5368,26 +5494,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="2"/>
-        <v>MM070030</v>
+        <f t="shared" si="54"/>
+        <v>MM070050</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <f t="shared" ref="C128:D128" si="117">C118+5</f>
+        <v>61</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <f t="shared" si="117"/>
+        <v>65</v>
       </c>
       <c r="E128">
         <v>70</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>0.02</v>
@@ -5402,26 +5529,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="2"/>
-        <v>MM080030</v>
+        <f t="shared" si="54"/>
+        <v>MM080050</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <f t="shared" ref="C129:D129" si="118">C119+5</f>
+        <v>61</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <f t="shared" si="118"/>
+        <v>65</v>
       </c>
       <c r="E129">
         <v>80</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G129">
         <v>0.02</v>
@@ -5436,26 +5564,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="5">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
-        <v>MM090030</v>
+        <f t="shared" ref="B130:B193" si="119">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
+        <v>MM090050</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <f t="shared" ref="C130:D130" si="120">C120+5</f>
+        <v>61</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <f t="shared" si="120"/>
+        <v>65</v>
       </c>
       <c r="E130">
         <v>90</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G130">
         <v>0.02</v>
@@ -5470,26 +5599,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100030</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <f t="shared" ref="C131:D131" si="121">C121+5</f>
+        <v>61</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <f t="shared" si="121"/>
+        <v>65</v>
       </c>
       <c r="E131">
         <v>100</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <v>0.02</v>
@@ -5504,26 +5634,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010040</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <f t="shared" ref="C132:D132" si="122">C122+5</f>
+        <v>66</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <f t="shared" si="122"/>
+        <v>70</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>0.02</v>
@@ -5538,26 +5669,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020040</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <f t="shared" ref="C133:D133" si="123">C123+5</f>
+        <v>66</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <f t="shared" si="123"/>
+        <v>70</v>
       </c>
       <c r="E133">
         <v>20</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>0.02</v>
@@ -5572,26 +5704,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030040</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <f t="shared" ref="C134:D134" si="124">C124+5</f>
+        <v>66</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <f t="shared" si="124"/>
+        <v>70</v>
       </c>
       <c r="E134">
         <v>30</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>0.02</v>
@@ -5606,26 +5739,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040040</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <f t="shared" ref="C135:D135" si="125">C125+5</f>
+        <v>66</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <f t="shared" si="125"/>
+        <v>70</v>
       </c>
       <c r="E135">
         <v>40</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G135">
         <v>0.02</v>
@@ -5640,26 +5774,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050040</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <f t="shared" ref="C136:D136" si="126">C126+5</f>
+        <v>66</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <f t="shared" si="126"/>
+        <v>70</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>0.02</v>
@@ -5674,26 +5809,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060040</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <f t="shared" ref="C137:D137" si="127">C127+5</f>
+        <v>66</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <f t="shared" si="127"/>
+        <v>70</v>
       </c>
       <c r="E137">
         <v>60</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G137">
         <v>0.02</v>
@@ -5708,26 +5844,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070040</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <f t="shared" ref="C138:D138" si="128">C128+5</f>
+        <v>66</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <f t="shared" si="128"/>
+        <v>70</v>
       </c>
       <c r="E138">
         <v>70</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G138">
         <v>0.02</v>
@@ -5742,26 +5879,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080040</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <f t="shared" ref="C139:D139" si="129">C129+5</f>
+        <v>66</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <f t="shared" si="129"/>
+        <v>70</v>
       </c>
       <c r="E139">
         <v>80</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G139">
         <v>0.02</v>
@@ -5776,26 +5914,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090040</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <f t="shared" ref="C140:D140" si="130">C130+5</f>
+        <v>66</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <f t="shared" si="130"/>
+        <v>70</v>
       </c>
       <c r="E140">
         <v>90</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G140">
         <v>0.02</v>
@@ -5810,26 +5949,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100040</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <f t="shared" ref="C141:D141" si="131">C131+5</f>
+        <v>66</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <f t="shared" si="131"/>
+        <v>70</v>
       </c>
       <c r="E141">
         <v>100</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G141">
         <v>0.02</v>
@@ -5844,25 +5984,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <f t="shared" ref="C142:D142" si="132">C132+5</f>
+        <v>71</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <f t="shared" si="132"/>
+        <v>75</v>
       </c>
       <c r="E142">
         <v>10</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G142">
@@ -5878,25 +6019,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <f t="shared" ref="C143:D143" si="133">C133+5</f>
+        <v>71</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <f t="shared" si="133"/>
+        <v>75</v>
       </c>
       <c r="E143">
         <v>20</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G143">
@@ -5912,25 +6054,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <f t="shared" ref="C144:D144" si="134">C134+5</f>
+        <v>71</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <f t="shared" si="134"/>
+        <v>75</v>
       </c>
       <c r="E144">
         <v>30</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G144">
@@ -5946,25 +6089,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <f t="shared" ref="C145:D145" si="135">C135+5</f>
+        <v>71</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <f t="shared" si="135"/>
+        <v>75</v>
       </c>
       <c r="E145">
         <v>40</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G145">
@@ -5980,25 +6124,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <f t="shared" ref="C146:D146" si="136">C136+5</f>
+        <v>71</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <f t="shared" si="136"/>
+        <v>75</v>
       </c>
       <c r="E146">
         <v>50</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G146">
@@ -6014,25 +6159,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <f t="shared" ref="C147:D147" si="137">C137+5</f>
+        <v>71</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <f t="shared" si="137"/>
+        <v>75</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G147">
@@ -6048,25 +6194,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <f t="shared" ref="C148:D148" si="138">C138+5</f>
+        <v>71</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <f t="shared" si="138"/>
+        <v>75</v>
       </c>
       <c r="E148">
         <v>70</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G148">
@@ -6082,25 +6229,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <f t="shared" ref="C149:D149" si="139">C139+5</f>
+        <v>71</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <f t="shared" si="139"/>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>80</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G149">
@@ -6116,25 +6264,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <f t="shared" ref="C150:D150" si="140">C140+5</f>
+        <v>71</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <f t="shared" si="140"/>
+        <v>75</v>
       </c>
       <c r="E150">
         <v>90</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G150">
@@ -6150,25 +6299,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="119"/>
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <f t="shared" ref="C151:D151" si="141">C141+5</f>
+        <v>71</v>
       </c>
       <c r="D151">
-        <v>20</v>
+        <f t="shared" si="141"/>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>100</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G151">
@@ -6184,26 +6334,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010060</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <f t="shared" ref="C152:D152" si="142">C142+5</f>
+        <v>76</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <f t="shared" si="142"/>
+        <v>80</v>
       </c>
       <c r="E152">
         <v>10</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>0.02</v>
@@ -6218,26 +6369,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020060</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <f t="shared" ref="C153:D153" si="143">C143+5</f>
+        <v>76</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <f t="shared" si="143"/>
+        <v>80</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G153">
         <v>0.02</v>
@@ -6252,26 +6404,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030060</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <f t="shared" ref="C154:D154" si="144">C144+5</f>
+        <v>76</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <f t="shared" si="144"/>
+        <v>80</v>
       </c>
       <c r="E154">
         <v>30</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G154">
         <v>0.02</v>
@@ -6286,26 +6439,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040060</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <f t="shared" ref="C155:D155" si="145">C145+5</f>
+        <v>76</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <f t="shared" si="145"/>
+        <v>80</v>
       </c>
       <c r="E155">
         <v>40</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>0.02</v>
@@ -6320,26 +6474,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050060</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <f t="shared" ref="C156:D156" si="146">C146+5</f>
+        <v>76</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <f t="shared" si="146"/>
+        <v>80</v>
       </c>
       <c r="E156">
         <v>50</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G156">
         <v>0.02</v>
@@ -6354,26 +6509,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060060</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <f t="shared" ref="C157:D157" si="147">C147+5</f>
+        <v>76</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <f t="shared" si="147"/>
+        <v>80</v>
       </c>
       <c r="E157">
         <v>60</v>
       </c>
       <c r="F157">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G157">
         <v>0.02</v>
@@ -6388,26 +6544,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070060</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <f t="shared" ref="C158:D158" si="148">C148+5</f>
+        <v>76</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <f t="shared" si="148"/>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>70</v>
       </c>
       <c r="F158">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G158">
         <v>0.02</v>
@@ -6422,26 +6579,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080060</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <f t="shared" ref="C159:D159" si="149">C149+5</f>
+        <v>76</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <f t="shared" si="149"/>
+        <v>80</v>
       </c>
       <c r="E159">
         <v>80</v>
       </c>
       <c r="F159">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>0.02</v>
@@ -6456,26 +6614,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090060</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <f t="shared" ref="C160:D160" si="150">C150+5</f>
+        <v>76</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <f t="shared" si="150"/>
+        <v>80</v>
       </c>
       <c r="E160">
         <v>90</v>
       </c>
       <c r="F160">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>0.02</v>
@@ -6490,26 +6649,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100060</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <f t="shared" ref="C161:D161" si="151">C151+5</f>
+        <v>76</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <f t="shared" si="151"/>
+        <v>80</v>
       </c>
       <c r="E161">
         <v>100</v>
       </c>
       <c r="F161">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G161">
         <v>0.02</v>
@@ -6524,26 +6684,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010070</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <f t="shared" ref="C162:D162" si="152">C152+5</f>
+        <v>81</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <f t="shared" si="152"/>
+        <v>85</v>
       </c>
       <c r="E162">
         <v>10</v>
       </c>
       <c r="F162">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>0.02</v>
@@ -6558,26 +6719,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020070</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <f t="shared" ref="C163:D163" si="153">C153+5</f>
+        <v>81</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <f t="shared" si="153"/>
+        <v>85</v>
       </c>
       <c r="E163">
         <v>20</v>
       </c>
       <c r="F163">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>0.02</v>
@@ -6592,26 +6754,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030070</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <f t="shared" ref="C164:D164" si="154">C154+5</f>
+        <v>81</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <f t="shared" si="154"/>
+        <v>85</v>
       </c>
       <c r="E164">
         <v>30</v>
       </c>
       <c r="F164">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>0.02</v>
@@ -6626,26 +6789,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040070</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <f t="shared" ref="C165:D165" si="155">C155+5</f>
+        <v>81</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <f t="shared" si="155"/>
+        <v>85</v>
       </c>
       <c r="E165">
         <v>40</v>
       </c>
       <c r="F165">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>0.02</v>
@@ -6660,26 +6824,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050070</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <f t="shared" ref="C166:D166" si="156">C156+5</f>
+        <v>81</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <f t="shared" si="156"/>
+        <v>85</v>
       </c>
       <c r="E166">
         <v>50</v>
       </c>
       <c r="F166">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G166">
         <v>0.02</v>
@@ -6694,26 +6859,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060070</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <f t="shared" ref="C167:D167" si="157">C157+5</f>
+        <v>81</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <f t="shared" si="157"/>
+        <v>85</v>
       </c>
       <c r="E167">
         <v>60</v>
       </c>
       <c r="F167">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>0.02</v>
@@ -6728,26 +6894,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070070</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <f t="shared" ref="C168:D168" si="158">C158+5</f>
+        <v>81</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <f t="shared" si="158"/>
+        <v>85</v>
       </c>
       <c r="E168">
         <v>70</v>
       </c>
       <c r="F168">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G168">
         <v>0.02</v>
@@ -6762,26 +6929,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080070</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <f t="shared" ref="C169:D169" si="159">C159+5</f>
+        <v>81</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <f t="shared" si="159"/>
+        <v>85</v>
       </c>
       <c r="E169">
         <v>80</v>
       </c>
       <c r="F169">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>0.02</v>
@@ -6796,26 +6964,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090070</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <f t="shared" ref="C170:D170" si="160">C160+5</f>
+        <v>81</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <f t="shared" si="160"/>
+        <v>85</v>
       </c>
       <c r="E170">
         <v>90</v>
       </c>
       <c r="F170">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G170">
         <v>0.02</v>
@@ -6830,26 +6999,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100070</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <f t="shared" ref="C171:D171" si="161">C161+5</f>
+        <v>81</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <f t="shared" si="161"/>
+        <v>85</v>
       </c>
       <c r="E171">
         <v>100</v>
       </c>
       <c r="F171">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G171">
         <v>0.02</v>
@@ -6864,26 +7034,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010080</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <f t="shared" ref="C172:D172" si="162">C162+5</f>
+        <v>86</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <f t="shared" si="162"/>
+        <v>90</v>
       </c>
       <c r="E172">
         <v>10</v>
       </c>
       <c r="F172">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>0.02</v>
@@ -6898,26 +7069,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020080</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <f t="shared" ref="C173:D173" si="163">C163+5</f>
+        <v>86</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <f t="shared" si="163"/>
+        <v>90</v>
       </c>
       <c r="E173">
         <v>20</v>
       </c>
       <c r="F173">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>0.02</v>
@@ -6932,26 +7104,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030080</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <f t="shared" ref="C174:D174" si="164">C164+5</f>
+        <v>86</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <f t="shared" si="164"/>
+        <v>90</v>
       </c>
       <c r="E174">
         <v>30</v>
       </c>
       <c r="F174">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>0.02</v>
@@ -6966,26 +7139,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040080</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <f t="shared" ref="C175:D175" si="165">C165+5</f>
+        <v>86</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <f t="shared" si="165"/>
+        <v>90</v>
       </c>
       <c r="E175">
         <v>40</v>
       </c>
       <c r="F175">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G175">
         <v>0.02</v>
@@ -7000,26 +7174,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050080</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <f t="shared" ref="C176:D176" si="166">C166+5</f>
+        <v>86</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <f t="shared" si="166"/>
+        <v>90</v>
       </c>
       <c r="E176">
         <v>50</v>
       </c>
       <c r="F176">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G176">
         <v>0.02</v>
@@ -7034,26 +7209,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060080</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <f t="shared" ref="C177:D177" si="167">C167+5</f>
+        <v>86</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <f t="shared" si="167"/>
+        <v>90</v>
       </c>
       <c r="E177">
         <v>60</v>
       </c>
       <c r="F177">
-        <f t="shared" ref="F177:F201" si="6">F167+10</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G177">
         <v>0.02</v>
@@ -7068,26 +7244,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070080</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <f t="shared" ref="C178:D178" si="168">C168+5</f>
+        <v>86</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <f t="shared" si="168"/>
+        <v>90</v>
       </c>
       <c r="E178">
         <v>70</v>
       </c>
       <c r="F178">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G178">
         <v>0.02</v>
@@ -7102,26 +7279,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080080</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <f t="shared" ref="C179:D179" si="169">C169+5</f>
+        <v>86</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <f t="shared" si="169"/>
+        <v>90</v>
       </c>
       <c r="E179">
         <v>80</v>
       </c>
       <c r="F179">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>0.02</v>
@@ -7136,26 +7314,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090080</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <f t="shared" ref="C180:D180" si="170">C170+5</f>
+        <v>86</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <f t="shared" si="170"/>
+        <v>90</v>
       </c>
       <c r="E180">
         <v>90</v>
       </c>
       <c r="F180">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G180">
         <v>0.02</v>
@@ -7170,26 +7349,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100080</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <f t="shared" ref="C181:D181" si="171">C171+5</f>
+        <v>86</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <f t="shared" si="171"/>
+        <v>90</v>
       </c>
       <c r="E181">
         <v>100</v>
       </c>
       <c r="F181">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G181">
         <v>0.02</v>
@@ -7204,26 +7384,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010090</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <f t="shared" ref="C182:D182" si="172">C172+5</f>
+        <v>91</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <f t="shared" si="172"/>
+        <v>95</v>
       </c>
       <c r="E182">
         <v>10</v>
       </c>
       <c r="F182">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G182">
         <v>0.02</v>
@@ -7238,26 +7419,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020090</v>
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <f t="shared" ref="C183:D183" si="173">C173+5</f>
+        <v>91</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <f t="shared" si="173"/>
+        <v>95</v>
       </c>
       <c r="E183">
         <v>20</v>
       </c>
       <c r="F183">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G183">
         <v>0.02</v>
@@ -7272,26 +7454,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="5"/>
-        <v>MM030090</v>
+        <f t="shared" si="119"/>
+        <v>MM030050</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <f t="shared" ref="C184:D184" si="174">C174+5</f>
+        <v>91</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <f t="shared" si="174"/>
+        <v>95</v>
       </c>
       <c r="E184">
         <v>30</v>
       </c>
       <c r="F184">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G184">
         <v>0.02</v>
@@ -7306,26 +7489,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="5"/>
-        <v>MM040090</v>
+        <f t="shared" si="119"/>
+        <v>MM040050</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <f t="shared" ref="C185:D185" si="175">C175+5</f>
+        <v>91</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <f t="shared" si="175"/>
+        <v>95</v>
       </c>
       <c r="E185">
         <v>40</v>
       </c>
       <c r="F185">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G185">
         <v>0.02</v>
@@ -7340,26 +7524,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="5"/>
-        <v>MM050090</v>
+        <f t="shared" si="119"/>
+        <v>MM050050</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <f t="shared" ref="C186:D186" si="176">C176+5</f>
+        <v>91</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <f t="shared" si="176"/>
+        <v>95</v>
       </c>
       <c r="E186">
         <v>50</v>
       </c>
       <c r="F186">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G186">
         <v>0.02</v>
@@ -7374,26 +7559,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="5"/>
-        <v>MM060090</v>
+        <f t="shared" si="119"/>
+        <v>MM060050</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <f t="shared" ref="C187:D187" si="177">C177+5</f>
+        <v>91</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <f t="shared" si="177"/>
+        <v>95</v>
       </c>
       <c r="E187">
         <v>60</v>
       </c>
       <c r="F187">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G187">
         <v>0.02</v>
@@ -7408,26 +7594,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="5"/>
-        <v>MM070090</v>
+        <f t="shared" si="119"/>
+        <v>MM070050</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <f t="shared" ref="C188:D188" si="178">C178+5</f>
+        <v>91</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <f t="shared" si="178"/>
+        <v>95</v>
       </c>
       <c r="E188">
         <v>70</v>
       </c>
       <c r="F188">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G188">
         <v>0.02</v>
@@ -7442,26 +7629,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="5"/>
-        <v>MM080090</v>
+        <f t="shared" si="119"/>
+        <v>MM080050</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <f t="shared" ref="C189:D189" si="179">C179+5</f>
+        <v>91</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <f t="shared" si="179"/>
+        <v>95</v>
       </c>
       <c r="E189">
         <v>80</v>
       </c>
       <c r="F189">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>0.02</v>
@@ -7476,26 +7664,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="5"/>
-        <v>MM090090</v>
+        <f t="shared" si="119"/>
+        <v>MM090050</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <f t="shared" ref="C190:D190" si="180">C180+5</f>
+        <v>91</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <f t="shared" si="180"/>
+        <v>95</v>
       </c>
       <c r="E190">
         <v>90</v>
       </c>
       <c r="F190">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G190">
         <v>0.02</v>
@@ -7510,26 +7699,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="5"/>
-        <v>MM100090</v>
+        <f t="shared" si="119"/>
+        <v>MM100050</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <f t="shared" ref="C191:D191" si="181">C181+5</f>
+        <v>91</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <f t="shared" si="181"/>
+        <v>95</v>
       </c>
       <c r="E191">
         <v>100</v>
       </c>
       <c r="F191">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G191">
         <v>0.02</v>
@@ -7544,332 +7734,342 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="5"/>
-        <v>MM010100</v>
+        <f t="shared" si="119"/>
+        <v>MM010050</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <f t="shared" ref="C192:D192" si="182">C182+5</f>
+        <v>96</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <f t="shared" si="182"/>
+        <v>100</v>
       </c>
       <c r="E192">
         <v>10</v>
       </c>
       <c r="F192">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G192">
+        <v>0.02</v>
+      </c>
+      <c r="H192">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>13</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="119"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193:D193" si="183">C183+5</f>
+        <v>96</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="183"/>
         <v>100</v>
-      </c>
-      <c r="G192">
-        <v>0.02</v>
-      </c>
-      <c r="H192">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I192" t="s">
-        <v>13</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A193" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B193" t="str">
-        <f t="shared" si="5"/>
-        <v>MM020100</v>
-      </c>
-      <c r="C193">
-        <v>11</v>
-      </c>
-      <c r="D193">
-        <v>20</v>
       </c>
       <c r="E193">
         <v>20</v>
       </c>
       <c r="F193">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G193">
+        <v>0.02</v>
+      </c>
+      <c r="H193">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>13</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" ref="B194:B211" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <v>MM030050</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194:D194" si="185">C184+5</f>
+        <v>96</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="185"/>
         <v>100</v>
-      </c>
-      <c r="G193">
-        <v>0.02</v>
-      </c>
-      <c r="H193">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I193" t="s">
-        <v>13</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A194" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B194" t="str">
-        <f t="shared" ref="B194:B211" si="7">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
-        <v>MM030100</v>
-      </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-      <c r="D194">
-        <v>20</v>
       </c>
       <c r="E194">
         <v>30</v>
       </c>
       <c r="F194">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G194">
+        <v>0.02</v>
+      </c>
+      <c r="H194">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="184"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:D195" si="186">C185+5</f>
+        <v>96</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="186"/>
         <v>100</v>
-      </c>
-      <c r="G194">
-        <v>0.02</v>
-      </c>
-      <c r="H194">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I194" t="s">
-        <v>13</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A195" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B195" t="str">
-        <f t="shared" si="7"/>
-        <v>MM040100</v>
-      </c>
-      <c r="C195">
-        <v>11</v>
-      </c>
-      <c r="D195">
-        <v>20</v>
       </c>
       <c r="E195">
         <v>40</v>
       </c>
       <c r="F195">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G195">
+        <v>0.02</v>
+      </c>
+      <c r="H195">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="184"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:D196" si="187">C186+5</f>
+        <v>96</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="187"/>
         <v>100</v>
       </c>
-      <c r="G195">
-        <v>0.02</v>
-      </c>
-      <c r="H195">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I195" t="s">
-        <v>13</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A196" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B196" t="str">
-        <f t="shared" si="7"/>
-        <v>MM050100</v>
-      </c>
-      <c r="C196">
-        <v>11</v>
-      </c>
-      <c r="D196">
-        <v>20</v>
-      </c>
       <c r="E196">
         <v>50</v>
       </c>
       <c r="F196">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G196">
+        <v>0.02</v>
+      </c>
+      <c r="H196">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="184"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ref="C197:D197" si="188">C187+5</f>
+        <v>96</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="188"/>
         <v>100</v>
-      </c>
-      <c r="G196">
-        <v>0.02</v>
-      </c>
-      <c r="H196">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I196" t="s">
-        <v>13</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A197" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B197" t="str">
-        <f t="shared" si="7"/>
-        <v>MM060100</v>
-      </c>
-      <c r="C197">
-        <v>11</v>
-      </c>
-      <c r="D197">
-        <v>20</v>
       </c>
       <c r="E197">
         <v>60</v>
       </c>
       <c r="F197">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G197">
+        <v>0.02</v>
+      </c>
+      <c r="H197">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="184"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:D198" si="189">C188+5</f>
+        <v>96</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="189"/>
         <v>100</v>
-      </c>
-      <c r="G197">
-        <v>0.02</v>
-      </c>
-      <c r="H197">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I197" t="s">
-        <v>13</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A198" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B198" t="str">
-        <f t="shared" si="7"/>
-        <v>MM070100</v>
-      </c>
-      <c r="C198">
-        <v>11</v>
-      </c>
-      <c r="D198">
-        <v>20</v>
       </c>
       <c r="E198">
         <v>70</v>
       </c>
       <c r="F198">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G198">
+        <v>0.02</v>
+      </c>
+      <c r="H198">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="184"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ref="C199:D199" si="190">C189+5</f>
+        <v>96</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="190"/>
         <v>100</v>
-      </c>
-      <c r="G198">
-        <v>0.02</v>
-      </c>
-      <c r="H198">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I198" t="s">
-        <v>13</v>
-      </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A199" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B199" t="str">
-        <f t="shared" si="7"/>
-        <v>MM080100</v>
-      </c>
-      <c r="C199">
-        <v>11</v>
-      </c>
-      <c r="D199">
-        <v>20</v>
       </c>
       <c r="E199">
         <v>80</v>
       </c>
       <c r="F199">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G199">
+        <v>0.02</v>
+      </c>
+      <c r="H199">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I199" t="s">
+        <v>13</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="184"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ref="C200:D201" si="191">C190+5</f>
+        <v>96</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="191"/>
         <v>100</v>
-      </c>
-      <c r="G199">
-        <v>0.02</v>
-      </c>
-      <c r="H199">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I199" t="s">
-        <v>13</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A200" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B200" t="str">
-        <f t="shared" si="7"/>
-        <v>MM090100</v>
-      </c>
-      <c r="C200">
-        <v>11</v>
-      </c>
-      <c r="D200">
-        <v>20</v>
       </c>
       <c r="E200">
         <v>90</v>
       </c>
       <c r="F200">
-        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G200">
+        <v>0.02</v>
+      </c>
+      <c r="H200">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="184"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="191"/>
+        <v>96</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="191"/>
         <v>100</v>
-      </c>
-      <c r="G200">
-        <v>0.02</v>
-      </c>
-      <c r="H200">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I200" t="s">
-        <v>13</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A201" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B201" t="str">
-        <f t="shared" si="7"/>
-        <v>MM100100</v>
-      </c>
-      <c r="C201">
-        <v>11</v>
-      </c>
-      <c r="D201">
-        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>
       </c>
       <c r="F201">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G201">
         <v>0.02</v>
@@ -7887,26 +8087,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D222" si="8">C202+9</f>
+        <f t="shared" ref="D202:D222" si="192">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G202">
         <v>0.02</v>
@@ -7921,27 +8121,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C203">
         <f>C202+10</f>
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>20</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G203">
         <v>0.02</v>
@@ -7956,27 +8156,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C221" si="9">C203+10</f>
+        <f t="shared" ref="C204:C210" si="193">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>30</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G204">
         <v>0.02</v>
@@ -7991,27 +8191,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>31</v>
       </c>
       <c r="D205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>40</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G205">
         <v>0.02</v>
@@ -8026,27 +8226,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44768</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>41</v>
       </c>
       <c r="D206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>50</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G206">
         <v>0.02</v>
@@ -8061,27 +8261,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44768</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>51</v>
       </c>
       <c r="D207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>60</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>0.02</v>
@@ -8096,27 +8296,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>61</v>
       </c>
       <c r="D208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>70</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G208">
         <v>0.02</v>
@@ -8131,27 +8331,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44768</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>71</v>
       </c>
       <c r="D209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>80</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G209">
         <v>0.02</v>
@@ -8166,27 +8366,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44768</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="193"/>
         <v>81</v>
       </c>
       <c r="D210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>90</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G210">
         <v>0.02</v>
@@ -8201,16 +8401,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44768</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="7"/>
-        <v>MM000000</v>
+        <f t="shared" si="184"/>
+        <v>MM000050</v>
       </c>
       <c r="C211">
-        <f>C10+10</f>
+        <f t="shared" ref="C211:C220" si="194">C10+10</f>
         <v>11</v>
       </c>
       <c r="D211">
@@ -8221,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G211">
         <v>0.02</v>
@@ -8236,27 +8436,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44768</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B221" si="10">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
-        <v>MM000000</v>
+        <f t="shared" ref="B212:B221" si="195">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
+        <v>MM000050</v>
       </c>
       <c r="C212">
-        <f>C11+10</f>
+        <f t="shared" si="194"/>
         <v>11</v>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>20</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G212">
         <v>0.02</v>
@@ -8271,27 +8471,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44768</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C213">
-        <f>C12+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G213">
         <v>0.02</v>
@@ -8306,27 +8506,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44768</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C214">
-        <f>C13+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G214">
         <v>0.02</v>
@@ -8341,27 +8541,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44768</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C215">
-        <f>C14+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G215">
         <v>0.02</v>
@@ -8376,27 +8576,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44768</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C216">
-        <f>C15+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G216">
         <v>0.02</v>
@@ -8411,27 +8611,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44768</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C217">
-        <f>C16+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G217">
         <v>0.02</v>
@@ -8446,27 +8646,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44768</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C218">
-        <f>C17+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G218">
         <v>0.02</v>
@@ -8481,27 +8681,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44768</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C219">
-        <f>C18+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G219">
         <v>0.02</v>
@@ -8516,27 +8716,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44768</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C220">
-        <f>C19+10</f>
-        <v>11</v>
+        <f t="shared" si="194"/>
+        <v>16</v>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="192"/>
+        <v>25</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G220">
         <v>0.02</v>
@@ -8551,26 +8751,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44768</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="10"/>
-        <v>MM000000</v>
+        <f t="shared" si="195"/>
+        <v>MM000050</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>10</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G221">
         <v>0.02</v>
@@ -8588,7 +8788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44768</v>
       </c>
@@ -8599,7 +8799,7 @@
         <v>11</v>
       </c>
       <c r="D222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="192"/>
         <v>20</v>
       </c>
       <c r="E222">
@@ -8621,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44768</v>
       </c>
@@ -8632,7 +8832,7 @@
         <v>21</v>
       </c>
       <c r="D223">
-        <f t="shared" ref="D223:D226" si="11">C223+9</f>
+        <f t="shared" ref="D223:D226" si="196">C223+9</f>
         <v>30</v>
       </c>
       <c r="E223">
@@ -8654,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44768</v>
       </c>
@@ -8665,7 +8865,7 @@
         <v>31</v>
       </c>
       <c r="D224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="196"/>
         <v>40</v>
       </c>
       <c r="E224">
@@ -8687,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44768</v>
       </c>
@@ -8698,7 +8898,7 @@
         <v>41</v>
       </c>
       <c r="D225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="196"/>
         <v>50</v>
       </c>
       <c r="E225">
@@ -8720,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44768</v>
       </c>
@@ -8731,7 +8931,7 @@
         <v>51</v>
       </c>
       <c r="D226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="196"/>
         <v>60</v>
       </c>
       <c r="E226">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1046" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D44AA5-8C2F-4136-9E3C-0929056D5E6D}"/>
+  <xr:revisionPtr revIDLastSave="1047" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF05A12-A824-46A9-B005-A443A77CA293}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
   <si>
     <t>date</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>blockade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sickright</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1054,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1092,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1128,7 +1124,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1161,7 +1157,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1194,7 +1190,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1227,7 +1223,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1260,7 +1256,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1293,7 +1289,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1326,7 +1322,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1359,7 +1355,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1392,7 +1388,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1425,7 +1421,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1460,7 +1456,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1495,7 +1491,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1530,7 +1526,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1565,7 +1561,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1600,7 +1596,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1635,7 +1631,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1670,7 +1666,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1705,7 +1701,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1740,7 +1736,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1775,7 +1771,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1810,7 +1806,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1845,7 +1841,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1880,7 +1876,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1915,7 +1911,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1950,7 +1946,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1985,7 +1981,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2020,7 +2016,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2055,7 +2051,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2090,7 +2086,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2125,7 +2121,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2160,7 +2156,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2195,7 +2191,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2230,7 +2226,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2265,7 +2261,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2300,7 +2296,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2335,7 +2331,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2370,7 +2366,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2405,7 +2401,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2440,7 +2436,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2475,7 +2471,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2510,7 +2506,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2545,7 +2541,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2580,7 +2576,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2615,7 +2611,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2650,7 +2646,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2685,7 +2681,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2720,7 +2716,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2755,7 +2751,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2790,7 +2786,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2825,7 +2821,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2860,7 +2856,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2895,7 +2891,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2930,7 +2926,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2965,7 +2961,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3000,7 +2996,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3035,7 +3031,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3070,7 +3066,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3105,7 +3101,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3140,7 +3136,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3175,7 +3171,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3210,7 +3206,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3245,7 +3241,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3280,7 +3276,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3315,7 +3311,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3350,7 +3346,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3385,7 +3381,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3420,7 +3416,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3455,7 +3451,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3490,7 +3486,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3525,7 +3521,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3560,7 +3556,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3595,7 +3591,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3630,7 +3626,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3665,7 +3661,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3700,7 +3696,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3735,7 +3731,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3770,7 +3766,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3805,7 +3801,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3840,7 +3836,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -3875,7 +3871,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -3910,7 +3906,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3945,7 +3941,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3980,7 +3976,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4015,7 +4011,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4050,7 +4046,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4085,7 +4081,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4120,7 +4116,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4155,7 +4151,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4190,7 +4186,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4225,7 +4221,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4260,7 +4256,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4295,7 +4291,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4330,7 +4326,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4365,7 +4361,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4400,7 +4396,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4435,7 +4431,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4470,7 +4466,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4505,7 +4501,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -4540,7 +4536,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4575,13 +4571,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4613,7 +4609,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4648,7 +4644,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4683,7 +4679,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -4718,7 +4714,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -4753,7 +4749,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -4788,7 +4784,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -4823,7 +4819,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -4858,7 +4854,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -4893,7 +4889,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4928,7 +4924,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -4963,7 +4959,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -4998,7 +4994,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5033,7 +5029,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5068,7 +5064,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5103,7 +5099,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5138,7 +5134,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5173,7 +5169,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -5208,7 +5204,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5243,7 +5239,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5278,7 +5274,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -5313,7 +5309,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5348,7 +5344,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5383,7 +5379,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5418,7 +5414,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5453,7 +5449,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -5488,7 +5484,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5523,7 +5519,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -5558,7 +5554,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5593,7 +5589,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -5628,7 +5624,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -5663,7 +5659,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5698,7 +5694,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -5733,7 +5729,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -5768,7 +5764,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -5803,7 +5799,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -5838,7 +5834,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -5873,7 +5869,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -5908,7 +5904,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -5943,7 +5939,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -5978,7 +5974,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6013,7 +6009,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -6048,7 +6044,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6083,7 +6079,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -6118,7 +6114,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6153,7 +6149,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6188,7 +6184,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6223,7 +6219,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6258,7 +6254,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6293,7 +6289,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -6328,7 +6324,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6363,7 +6359,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6398,7 +6394,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6433,7 +6429,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6468,7 +6464,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -6503,7 +6499,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -6538,7 +6534,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -6573,7 +6569,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6608,7 +6604,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -6643,7 +6639,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6678,7 +6674,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -6713,7 +6709,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6748,7 +6744,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -6783,7 +6779,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -6818,7 +6814,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -6853,7 +6849,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -6888,7 +6884,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -6923,7 +6919,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -6958,7 +6954,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -6993,7 +6989,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7028,7 +7024,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7063,7 +7059,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7098,7 +7094,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7133,7 +7129,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7168,7 +7164,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -7203,7 +7199,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7238,7 +7234,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -7273,7 +7269,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7308,7 +7304,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7343,7 +7339,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -7378,7 +7374,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7413,7 +7409,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -7448,7 +7444,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7483,7 +7479,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -7518,7 +7514,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -7553,7 +7549,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -7588,7 +7584,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -7623,7 +7619,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -7658,7 +7654,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -7693,7 +7689,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -7728,7 +7724,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -7763,7 +7759,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -7798,7 +7794,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -7809,7 +7805,7 @@
         <v>44768</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B211" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <f t="shared" ref="B194:B206" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
         <v>MM030050</v>
       </c>
       <c r="C194">
@@ -7833,7 +7829,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -7868,7 +7864,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -7903,7 +7899,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -7938,7 +7934,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -7973,7 +7969,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -8008,7 +8004,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -8043,7 +8039,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -8078,13 +8074,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -8099,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D222" si="192">C202+9</f>
+        <f t="shared" ref="D202:D206" si="192">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -8115,7 +8111,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -8150,7 +8146,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -8165,7 +8161,7 @@
         <v>MM000050</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C210" si="193">C203+10</f>
+        <f t="shared" ref="C204:C206" si="193">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
@@ -8185,7 +8181,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8220,7 +8216,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -8255,701 +8251,9 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B207" t="str">
-        <f t="shared" si="184"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="193"/>
-        <v>51</v>
-      </c>
-      <c r="D207">
-        <f t="shared" si="192"/>
-        <v>60</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>50</v>
-      </c>
-      <c r="G207">
-        <v>0.02</v>
-      </c>
-      <c r="H207">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I207" t="s">
-        <v>13</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B208" t="str">
-        <f t="shared" si="184"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="193"/>
-        <v>61</v>
-      </c>
-      <c r="D208">
-        <f t="shared" si="192"/>
-        <v>70</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>50</v>
-      </c>
-      <c r="G208">
-        <v>0.02</v>
-      </c>
-      <c r="H208">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I208" t="s">
-        <v>13</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B209" t="str">
-        <f t="shared" si="184"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="193"/>
-        <v>71</v>
-      </c>
-      <c r="D209">
-        <f t="shared" si="192"/>
-        <v>80</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>50</v>
-      </c>
-      <c r="G209">
-        <v>0.02</v>
-      </c>
-      <c r="H209">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I209" t="s">
-        <v>13</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B210" t="str">
-        <f t="shared" si="184"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="193"/>
-        <v>81</v>
-      </c>
-      <c r="D210">
-        <f t="shared" si="192"/>
-        <v>90</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>50</v>
-      </c>
-      <c r="G210">
-        <v>0.02</v>
-      </c>
-      <c r="H210">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I210" t="s">
-        <v>13</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B211" t="str">
-        <f t="shared" si="184"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C211">
-        <f t="shared" ref="C211:C220" si="194">C10+10</f>
-        <v>11</v>
-      </c>
-      <c r="D211">
-        <f>C210+9</f>
-        <v>90</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>50</v>
-      </c>
-      <c r="G211">
-        <v>0.02</v>
-      </c>
-      <c r="H211">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I211" t="s">
-        <v>13</v>
-      </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B212" t="str">
-        <f t="shared" ref="B212:B221" si="195">I212&amp;TEXT(E212,"000")&amp;TEXT(F212,"000")</f>
-        <v>MM000050</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="194"/>
-        <v>11</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="192"/>
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>50</v>
-      </c>
-      <c r="G212">
-        <v>0.02</v>
-      </c>
-      <c r="H212">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I212" t="s">
-        <v>13</v>
-      </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B213" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>50</v>
-      </c>
-      <c r="G213">
-        <v>0.02</v>
-      </c>
-      <c r="H213">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I213" t="s">
-        <v>13</v>
-      </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B214" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214">
-        <v>50</v>
-      </c>
-      <c r="G214">
-        <v>0.02</v>
-      </c>
-      <c r="H214">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I214" t="s">
-        <v>13</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B215" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215">
-        <v>50</v>
-      </c>
-      <c r="G215">
-        <v>0.02</v>
-      </c>
-      <c r="H215">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I215" t="s">
-        <v>13</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B216" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>50</v>
-      </c>
-      <c r="G216">
-        <v>0.02</v>
-      </c>
-      <c r="H216">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I216" t="s">
-        <v>13</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B217" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <v>50</v>
-      </c>
-      <c r="G217">
-        <v>0.02</v>
-      </c>
-      <c r="H217">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I217" t="s">
-        <v>13</v>
-      </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B218" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>50</v>
-      </c>
-      <c r="G218">
-        <v>0.02</v>
-      </c>
-      <c r="H218">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I218" t="s">
-        <v>13</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B219" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>50</v>
-      </c>
-      <c r="G219">
-        <v>0.02</v>
-      </c>
-      <c r="H219">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I219" t="s">
-        <v>13</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B220" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="194"/>
-        <v>16</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="192"/>
-        <v>25</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <v>50</v>
-      </c>
-      <c r="G220">
-        <v>0.02</v>
-      </c>
-      <c r="H220">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I220" t="s">
-        <v>13</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B221" t="str">
-        <f t="shared" si="195"/>
-        <v>MM000050</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="192"/>
-        <v>10</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>50</v>
-      </c>
-      <c r="G221">
-        <v>0.02</v>
-      </c>
-      <c r="H221">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I221" t="s">
-        <v>13</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B222">
-        <v>0.09</v>
-      </c>
-      <c r="C222">
-        <v>11</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="192"/>
-        <v>20</v>
-      </c>
-      <c r="E222">
-        <v>50</v>
-      </c>
-      <c r="F222">
-        <v>50</v>
-      </c>
-      <c r="G222">
-        <v>0.02</v>
-      </c>
-      <c r="H222">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I222" t="s">
-        <v>13</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B223">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C223">
-        <v>21</v>
-      </c>
-      <c r="D223">
-        <f t="shared" ref="D223:D226" si="196">C223+9</f>
-        <v>30</v>
-      </c>
-      <c r="E223">
-        <v>50</v>
-      </c>
-      <c r="F223">
-        <v>50</v>
-      </c>
-      <c r="G223">
-        <v>0.02</v>
-      </c>
-      <c r="H223">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I223" t="s">
-        <v>13</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B224">
-        <v>0.1</v>
-      </c>
-      <c r="C224">
-        <v>31</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="196"/>
-        <v>40</v>
-      </c>
-      <c r="E224">
-        <v>50</v>
-      </c>
-      <c r="F224">
-        <v>50</v>
-      </c>
-      <c r="G224">
-        <v>0.02</v>
-      </c>
-      <c r="H224">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I224" t="s">
-        <v>13</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B225">
-        <v>0.105</v>
-      </c>
-      <c r="C225">
-        <v>41</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="196"/>
-        <v>50</v>
-      </c>
-      <c r="E225">
-        <v>50</v>
-      </c>
-      <c r="F225">
-        <v>50</v>
-      </c>
-      <c r="G225">
-        <v>0.02</v>
-      </c>
-      <c r="H225">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I225" t="s">
-        <v>13</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B226">
-        <v>0.11</v>
-      </c>
-      <c r="C226">
-        <v>51</v>
-      </c>
-      <c r="D226">
-        <f t="shared" si="196"/>
-        <v>60</v>
-      </c>
-      <c r="E226">
-        <v>50</v>
-      </c>
-      <c r="F226">
-        <v>50</v>
-      </c>
-      <c r="G226">
-        <v>0.02</v>
-      </c>
-      <c r="H226">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I226" t="s">
-        <v>13</v>
-      </c>
-      <c r="J226">
         <v>0</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1047" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF05A12-A824-46A9-B005-A443A77CA293}"/>
+  <xr:revisionPtr revIDLastSave="1057" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260046A2-E0F1-496E-8E60-03157D114A7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102:H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1121,7 +1121,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1154,7 +1154,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1187,7 +1187,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1220,7 +1220,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1253,7 +1253,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1286,7 +1286,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1319,7 +1319,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1352,7 +1352,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1385,7 +1385,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1418,7 +1418,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1436,12 +1436,12 @@
         <v>MM010050</v>
       </c>
       <c r="C12">
-        <f>C2+5</f>
-        <v>6</v>
+        <f>C2+10</f>
+        <v>11</v>
       </c>
       <c r="D12">
-        <f>D2+5</f>
-        <v>10</v>
+        <f>D2+10</f>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1453,7 +1453,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1471,12 +1471,12 @@
         <v>MM020050</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="1">C3+5</f>
-        <v>6</v>
+        <f t="shared" ref="C13:D13" si="1">C3+10</f>
+        <v>11</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1488,7 +1488,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1506,12 +1506,12 @@
         <v>MM030050</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="2">C4+5</f>
-        <v>6</v>
+        <f t="shared" ref="C14:D14" si="2">C4+10</f>
+        <v>11</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1523,7 +1523,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1541,12 +1541,12 @@
         <v>MM040050</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D15" si="3">C5+5</f>
-        <v>6</v>
+        <f t="shared" ref="C15:D15" si="3">C5+10</f>
+        <v>11</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1576,12 +1576,12 @@
         <v>MM050050</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:D16" si="4">C6+5</f>
-        <v>6</v>
+        <f t="shared" ref="C16:D16" si="4">C6+10</f>
+        <v>11</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1593,7 +1593,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1611,12 +1611,12 @@
         <v>MM060050</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D17" si="5">C7+5</f>
-        <v>6</v>
+        <f t="shared" ref="C17:D17" si="5">C7+10</f>
+        <v>11</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1628,7 +1628,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1646,12 +1646,12 @@
         <v>MM070050</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="6">C8+5</f>
-        <v>6</v>
+        <f t="shared" ref="C18:D18" si="6">C8+10</f>
+        <v>11</v>
       </c>
       <c r="D18">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1663,7 +1663,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1681,12 +1681,12 @@
         <v>MM080050</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="7">C9+5</f>
-        <v>6</v>
+        <f t="shared" ref="C19:D19" si="7">C9+10</f>
+        <v>11</v>
       </c>
       <c r="D19">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1698,7 +1698,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1716,12 +1716,12 @@
         <v>MM090050</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="8">C10+5</f>
-        <v>6</v>
+        <f t="shared" ref="C20:D20" si="8">C10+10</f>
+        <v>11</v>
       </c>
       <c r="D20">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1733,7 +1733,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1751,12 +1751,12 @@
         <v>MM100050</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="9">C11+5</f>
-        <v>6</v>
+        <f t="shared" ref="C21:D21" si="9">C11+10</f>
+        <v>11</v>
       </c>
       <c r="D21">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1768,7 +1768,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1786,12 +1786,12 @@
         <v>MM010050</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:D22" si="10">C12+5</f>
-        <v>11</v>
+        <f t="shared" ref="C22:D22" si="10">C12+10</f>
+        <v>21</v>
       </c>
       <c r="D22">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1803,7 +1803,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1821,12 +1821,12 @@
         <v>MM020050</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="11">C13+5</f>
-        <v>11</v>
+        <f t="shared" ref="C23:D23" si="11">C13+10</f>
+        <v>21</v>
       </c>
       <c r="D23">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1838,7 +1838,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1856,12 +1856,12 @@
         <v>MM030050</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="12">C14+5</f>
-        <v>11</v>
+        <f t="shared" ref="C24:D24" si="12">C14+10</f>
+        <v>21</v>
       </c>
       <c r="D24">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1873,7 +1873,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1891,12 +1891,12 @@
         <v>MM040050</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="13">C15+5</f>
-        <v>11</v>
+        <f t="shared" ref="C25:D25" si="13">C15+10</f>
+        <v>21</v>
       </c>
       <c r="D25">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1908,7 +1908,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1926,12 +1926,12 @@
         <v>MM050050</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:D26" si="14">C16+5</f>
-        <v>11</v>
+        <f t="shared" ref="C26:D26" si="14">C16+10</f>
+        <v>21</v>
       </c>
       <c r="D26">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1943,7 +1943,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1961,12 +1961,12 @@
         <v>MM060050</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="15">C17+5</f>
-        <v>11</v>
+        <f t="shared" ref="C27:D27" si="15">C17+10</f>
+        <v>21</v>
       </c>
       <c r="D27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1978,7 +1978,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -1996,12 +1996,12 @@
         <v>MM070050</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="16">C18+5</f>
-        <v>11</v>
+        <f t="shared" ref="C28:D28" si="16">C18+10</f>
+        <v>21</v>
       </c>
       <c r="D28">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2013,7 +2013,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2031,12 +2031,12 @@
         <v>MM080050</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="17">C19+5</f>
-        <v>11</v>
+        <f t="shared" ref="C29:D29" si="17">C19+10</f>
+        <v>21</v>
       </c>
       <c r="D29">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2048,7 +2048,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2066,12 +2066,12 @@
         <v>MM090050</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="18">C20+5</f>
-        <v>11</v>
+        <f t="shared" ref="C30:D30" si="18">C20+10</f>
+        <v>21</v>
       </c>
       <c r="D30">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2083,7 +2083,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2101,12 +2101,12 @@
         <v>MM100050</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="19">C21+5</f>
-        <v>11</v>
+        <f t="shared" ref="C31:D31" si="19">C21+10</f>
+        <v>21</v>
       </c>
       <c r="D31">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2118,7 +2118,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2136,12 +2136,12 @@
         <v>MM010050</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="20">C22+5</f>
-        <v>16</v>
+        <f t="shared" ref="C32:D32" si="20">C22+10</f>
+        <v>31</v>
       </c>
       <c r="D32">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2153,7 +2153,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2171,12 +2171,12 @@
         <v>MM020050</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="21">C23+5</f>
-        <v>16</v>
+        <f t="shared" ref="C33:D33" si="21">C23+10</f>
+        <v>31</v>
       </c>
       <c r="D33">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2188,7 +2188,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2206,12 +2206,12 @@
         <v>MM030050</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="22">C24+5</f>
-        <v>16</v>
+        <f t="shared" ref="C34:D34" si="22">C24+10</f>
+        <v>31</v>
       </c>
       <c r="D34">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2223,7 +2223,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2241,12 +2241,12 @@
         <v>MM040050</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="23">C25+5</f>
-        <v>16</v>
+        <f t="shared" ref="C35:D35" si="23">C25+10</f>
+        <v>31</v>
       </c>
       <c r="D35">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2258,7 +2258,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2276,12 +2276,12 @@
         <v>MM050050</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="24">C26+5</f>
-        <v>16</v>
+        <f t="shared" ref="C36:D36" si="24">C26+10</f>
+        <v>31</v>
       </c>
       <c r="D36">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2293,7 +2293,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2311,12 +2311,12 @@
         <v>MM060050</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="25">C27+5</f>
-        <v>16</v>
+        <f t="shared" ref="C37:D37" si="25">C27+10</f>
+        <v>31</v>
       </c>
       <c r="D37">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2328,7 +2328,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2346,12 +2346,12 @@
         <v>MM070050</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="26">C28+5</f>
-        <v>16</v>
+        <f t="shared" ref="C38:D38" si="26">C28+10</f>
+        <v>31</v>
       </c>
       <c r="D38">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2363,7 +2363,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2381,12 +2381,12 @@
         <v>MM080050</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="27">C29+5</f>
-        <v>16</v>
+        <f t="shared" ref="C39:D39" si="27">C29+10</f>
+        <v>31</v>
       </c>
       <c r="D39">
         <f t="shared" si="27"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2398,7 +2398,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2416,12 +2416,12 @@
         <v>MM090050</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="28">C30+5</f>
-        <v>16</v>
+        <f t="shared" ref="C40:D40" si="28">C30+10</f>
+        <v>31</v>
       </c>
       <c r="D40">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2433,7 +2433,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2451,12 +2451,12 @@
         <v>MM100050</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="29">C31+5</f>
-        <v>16</v>
+        <f t="shared" ref="C41:D41" si="29">C31+10</f>
+        <v>31</v>
       </c>
       <c r="D41">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2468,7 +2468,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2486,12 +2486,12 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="30">C32+5</f>
-        <v>21</v>
+        <f t="shared" ref="C42:D42" si="30">C32+10</f>
+        <v>41</v>
       </c>
       <c r="D42">
         <f t="shared" si="30"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2503,7 +2503,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2521,12 +2521,12 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:D43" si="31">C33+5</f>
-        <v>21</v>
+        <f t="shared" ref="C43:D43" si="31">C33+10</f>
+        <v>41</v>
       </c>
       <c r="D43">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2538,7 +2538,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2556,12 +2556,12 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="32">C34+5</f>
-        <v>21</v>
+        <f t="shared" ref="C44:D44" si="32">C34+10</f>
+        <v>41</v>
       </c>
       <c r="D44">
         <f t="shared" si="32"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2573,7 +2573,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2591,12 +2591,12 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="33">C35+5</f>
-        <v>21</v>
+        <f t="shared" ref="C45:D45" si="33">C35+10</f>
+        <v>41</v>
       </c>
       <c r="D45">
         <f t="shared" si="33"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2608,7 +2608,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2626,12 +2626,12 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="34">C36+5</f>
-        <v>21</v>
+        <f t="shared" ref="C46:D46" si="34">C36+10</f>
+        <v>41</v>
       </c>
       <c r="D46">
         <f t="shared" si="34"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2643,7 +2643,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2661,12 +2661,12 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="35">C37+5</f>
-        <v>21</v>
+        <f t="shared" ref="C47:D47" si="35">C37+10</f>
+        <v>41</v>
       </c>
       <c r="D47">
         <f t="shared" si="35"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2678,7 +2678,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2696,12 +2696,12 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="36">C38+5</f>
-        <v>21</v>
+        <f t="shared" ref="C48:D48" si="36">C38+10</f>
+        <v>41</v>
       </c>
       <c r="D48">
         <f t="shared" si="36"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2713,7 +2713,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2731,12 +2731,12 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="37">C39+5</f>
-        <v>21</v>
+        <f t="shared" ref="C49:D49" si="37">C39+10</f>
+        <v>41</v>
       </c>
       <c r="D49">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2766,12 +2766,12 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:D50" si="38">C40+5</f>
-        <v>21</v>
+        <f t="shared" ref="C50:D50" si="38">C40+10</f>
+        <v>41</v>
       </c>
       <c r="D50">
         <f t="shared" si="38"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2783,7 +2783,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2801,12 +2801,12 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:D51" si="39">C41+5</f>
-        <v>21</v>
+        <f t="shared" ref="C51:D51" si="39">C41+10</f>
+        <v>41</v>
       </c>
       <c r="D51">
         <f t="shared" si="39"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2818,7 +2818,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2836,12 +2836,12 @@
         <v>MM010050</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="40">C42+5</f>
-        <v>26</v>
+        <f t="shared" ref="C52:D52" si="40">C42+10</f>
+        <v>51</v>
       </c>
       <c r="D52">
         <f t="shared" si="40"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2871,12 +2871,12 @@
         <v>MM020050</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="41">C43+5</f>
-        <v>26</v>
+        <f t="shared" ref="C53:D53" si="41">C43+10</f>
+        <v>51</v>
       </c>
       <c r="D53">
         <f t="shared" si="41"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2888,7 +2888,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2906,12 +2906,12 @@
         <v>MM030050</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="42">C44+5</f>
-        <v>26</v>
+        <f t="shared" ref="C54:D54" si="42">C44+10</f>
+        <v>51</v>
       </c>
       <c r="D54">
         <f t="shared" si="42"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2923,7 +2923,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2941,12 +2941,12 @@
         <v>MM040050</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:D55" si="43">C45+5</f>
-        <v>26</v>
+        <f t="shared" ref="C55:D55" si="43">C45+10</f>
+        <v>51</v>
       </c>
       <c r="D55">
         <f t="shared" si="43"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2958,7 +2958,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2976,12 +2976,12 @@
         <v>MM050050</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:D56" si="44">C46+5</f>
-        <v>26</v>
+        <f t="shared" ref="C56:D56" si="44">C46+10</f>
+        <v>51</v>
       </c>
       <c r="D56">
         <f t="shared" si="44"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -2993,7 +2993,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -3011,12 +3011,12 @@
         <v>MM060050</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:D57" si="45">C47+5</f>
-        <v>26</v>
+        <f t="shared" ref="C57:D57" si="45">C47+10</f>
+        <v>51</v>
       </c>
       <c r="D57">
         <f t="shared" si="45"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3028,7 +3028,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -3046,12 +3046,12 @@
         <v>MM070050</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:D58" si="46">C48+5</f>
-        <v>26</v>
+        <f t="shared" ref="C58:D58" si="46">C48+10</f>
+        <v>51</v>
       </c>
       <c r="D58">
         <f t="shared" si="46"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3063,7 +3063,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -3081,12 +3081,12 @@
         <v>MM080050</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:D59" si="47">C49+5</f>
-        <v>26</v>
+        <f t="shared" ref="C59:D59" si="47">C49+10</f>
+        <v>51</v>
       </c>
       <c r="D59">
         <f t="shared" si="47"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3098,7 +3098,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -3116,12 +3116,12 @@
         <v>MM090050</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:D60" si="48">C50+5</f>
-        <v>26</v>
+        <f t="shared" ref="C60:D60" si="48">C50+10</f>
+        <v>51</v>
       </c>
       <c r="D60">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3133,7 +3133,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -3151,12 +3151,12 @@
         <v>MM100050</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:D61" si="49">C51+5</f>
-        <v>26</v>
+        <f t="shared" ref="C61:D61" si="49">C51+10</f>
+        <v>51</v>
       </c>
       <c r="D61">
         <f t="shared" si="49"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3168,7 +3168,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -3186,12 +3186,12 @@
         <v>MM010050</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:D62" si="50">C52+5</f>
-        <v>31</v>
+        <f t="shared" ref="C62:D62" si="50">C52+10</f>
+        <v>61</v>
       </c>
       <c r="D62">
         <f t="shared" si="50"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3203,7 +3203,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -3221,12 +3221,12 @@
         <v>MM020050</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:D63" si="51">C53+5</f>
-        <v>31</v>
+        <f t="shared" ref="C63:D63" si="51">C53+10</f>
+        <v>61</v>
       </c>
       <c r="D63">
         <f t="shared" si="51"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3238,7 +3238,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -3256,12 +3256,12 @@
         <v>MM030050</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:D64" si="52">C54+5</f>
-        <v>31</v>
+        <f t="shared" ref="C64:D64" si="52">C54+10</f>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" si="52"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3273,7 +3273,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -3291,12 +3291,12 @@
         <v>MM040050</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:D65" si="53">C55+5</f>
-        <v>31</v>
+        <f t="shared" ref="C65:D65" si="53">C55+10</f>
+        <v>61</v>
       </c>
       <c r="D65">
         <f t="shared" si="53"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3308,7 +3308,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -3326,12 +3326,12 @@
         <v>MM050050</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:D66" si="55">C56+5</f>
-        <v>31</v>
+        <f t="shared" ref="C66:D66" si="55">C56+10</f>
+        <v>61</v>
       </c>
       <c r="D66">
         <f t="shared" si="55"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3343,7 +3343,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -3361,12 +3361,12 @@
         <v>MM060050</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D67" si="56">C57+5</f>
-        <v>31</v>
+        <f t="shared" ref="C67:D67" si="56">C57+10</f>
+        <v>61</v>
       </c>
       <c r="D67">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3378,7 +3378,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -3396,12 +3396,12 @@
         <v>MM070050</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:D68" si="57">C58+5</f>
-        <v>31</v>
+        <f t="shared" ref="C68:D68" si="57">C58+10</f>
+        <v>61</v>
       </c>
       <c r="D68">
         <f t="shared" si="57"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3413,7 +3413,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3431,12 +3431,12 @@
         <v>MM080050</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:D69" si="58">C59+5</f>
-        <v>31</v>
+        <f t="shared" ref="C69:D69" si="58">C59+10</f>
+        <v>61</v>
       </c>
       <c r="D69">
         <f t="shared" si="58"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3448,7 +3448,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3466,12 +3466,12 @@
         <v>MM090050</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:D70" si="59">C60+5</f>
-        <v>31</v>
+        <f t="shared" ref="C70:D70" si="59">C60+10</f>
+        <v>61</v>
       </c>
       <c r="D70">
         <f t="shared" si="59"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3483,7 +3483,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3501,12 +3501,12 @@
         <v>MM100050</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:D71" si="60">C61+5</f>
-        <v>31</v>
+        <f t="shared" ref="C71:D71" si="60">C61+10</f>
+        <v>61</v>
       </c>
       <c r="D71">
         <f t="shared" si="60"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3518,7 +3518,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3536,12 +3536,12 @@
         <v>MM010050</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:D72" si="61">C62+5</f>
-        <v>36</v>
+        <f t="shared" ref="C72:D72" si="61">C62+10</f>
+        <v>71</v>
       </c>
       <c r="D72">
         <f t="shared" si="61"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3553,7 +3553,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3571,12 +3571,12 @@
         <v>MM020050</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:D73" si="62">C63+5</f>
-        <v>36</v>
+        <f t="shared" ref="C73:D73" si="62">C63+10</f>
+        <v>71</v>
       </c>
       <c r="D73">
         <f t="shared" si="62"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3588,7 +3588,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3606,12 +3606,12 @@
         <v>MM030050</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:D74" si="63">C64+5</f>
-        <v>36</v>
+        <f t="shared" ref="C74:D74" si="63">C64+10</f>
+        <v>71</v>
       </c>
       <c r="D74">
         <f t="shared" si="63"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3623,7 +3623,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3641,12 +3641,12 @@
         <v>MM040050</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:D75" si="64">C65+5</f>
-        <v>36</v>
+        <f t="shared" ref="C75:D75" si="64">C65+10</f>
+        <v>71</v>
       </c>
       <c r="D75">
         <f t="shared" si="64"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3658,7 +3658,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3676,12 +3676,12 @@
         <v>MM050050</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:D76" si="65">C66+5</f>
-        <v>36</v>
+        <f t="shared" ref="C76:D76" si="65">C66+10</f>
+        <v>71</v>
       </c>
       <c r="D76">
         <f t="shared" si="65"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3693,7 +3693,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3711,12 +3711,12 @@
         <v>MM060050</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:D77" si="66">C67+5</f>
-        <v>36</v>
+        <f t="shared" ref="C77:D77" si="66">C67+10</f>
+        <v>71</v>
       </c>
       <c r="D77">
         <f t="shared" si="66"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3728,7 +3728,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3746,12 +3746,12 @@
         <v>MM070050</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:D78" si="67">C68+5</f>
-        <v>36</v>
+        <f t="shared" ref="C78:D78" si="67">C68+10</f>
+        <v>71</v>
       </c>
       <c r="D78">
         <f t="shared" si="67"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3763,7 +3763,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3781,12 +3781,12 @@
         <v>MM080050</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:D79" si="68">C69+5</f>
-        <v>36</v>
+        <f t="shared" ref="C79:D79" si="68">C69+10</f>
+        <v>71</v>
       </c>
       <c r="D79">
         <f t="shared" si="68"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3798,7 +3798,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3816,12 +3816,12 @@
         <v>MM090050</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:D80" si="69">C70+5</f>
-        <v>36</v>
+        <f t="shared" ref="C80:D80" si="69">C70+10</f>
+        <v>71</v>
       </c>
       <c r="D80">
         <f t="shared" si="69"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3833,7 +3833,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3851,12 +3851,12 @@
         <v>MM100050</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:D81" si="70">C71+5</f>
-        <v>36</v>
+        <f t="shared" ref="C81:D81" si="70">C71+10</f>
+        <v>71</v>
       </c>
       <c r="D81">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3868,7 +3868,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3886,12 +3886,12 @@
         <v>MM010050</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:D82" si="71">C72+5</f>
-        <v>41</v>
+        <f t="shared" ref="C82:D82" si="71">C72+10</f>
+        <v>81</v>
       </c>
       <c r="D82">
         <f t="shared" si="71"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3903,7 +3903,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3921,12 +3921,12 @@
         <v>MM020050</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:D83" si="72">C73+5</f>
-        <v>41</v>
+        <f t="shared" ref="C83:D83" si="72">C73+10</f>
+        <v>81</v>
       </c>
       <c r="D83">
         <f t="shared" si="72"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3956,12 +3956,12 @@
         <v>MM030050</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:D84" si="73">C74+5</f>
-        <v>41</v>
+        <f t="shared" ref="C84:D84" si="73">C74+10</f>
+        <v>81</v>
       </c>
       <c r="D84">
         <f t="shared" si="73"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3973,7 +3973,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3991,12 +3991,12 @@
         <v>MM040050</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:D85" si="74">C75+5</f>
-        <v>41</v>
+        <f t="shared" ref="C85:D85" si="74">C75+10</f>
+        <v>81</v>
       </c>
       <c r="D85">
         <f t="shared" si="74"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4008,7 +4008,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -4026,12 +4026,12 @@
         <v>MM050050</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:D86" si="75">C76+5</f>
-        <v>41</v>
+        <f t="shared" ref="C86:D86" si="75">C76+10</f>
+        <v>81</v>
       </c>
       <c r="D86">
         <f t="shared" si="75"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4043,7 +4043,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -4061,12 +4061,12 @@
         <v>MM060050</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:D87" si="76">C77+5</f>
-        <v>41</v>
+        <f t="shared" ref="C87:D87" si="76">C77+10</f>
+        <v>81</v>
       </c>
       <c r="D87">
         <f t="shared" si="76"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4078,7 +4078,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -4096,12 +4096,12 @@
         <v>MM070050</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:D88" si="77">C78+5</f>
-        <v>41</v>
+        <f t="shared" ref="C88:D88" si="77">C78+10</f>
+        <v>81</v>
       </c>
       <c r="D88">
         <f t="shared" si="77"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4113,7 +4113,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -4131,12 +4131,12 @@
         <v>MM080050</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89:D89" si="78">C79+5</f>
-        <v>41</v>
+        <f t="shared" ref="C89:D89" si="78">C79+10</f>
+        <v>81</v>
       </c>
       <c r="D89">
         <f t="shared" si="78"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4148,7 +4148,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -4166,12 +4166,12 @@
         <v>MM090050</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:D90" si="79">C80+5</f>
-        <v>41</v>
+        <f t="shared" ref="C90:D90" si="79">C80+10</f>
+        <v>81</v>
       </c>
       <c r="D90">
         <f t="shared" si="79"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4183,7 +4183,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -4201,12 +4201,12 @@
         <v>MM100050</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:D91" si="80">C81+5</f>
-        <v>41</v>
+        <f t="shared" ref="C91:D91" si="80">C81+10</f>
+        <v>81</v>
       </c>
       <c r="D91">
         <f t="shared" si="80"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4218,7 +4218,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -4236,12 +4236,12 @@
         <v>MM010050</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:D92" si="81">C82+5</f>
-        <v>46</v>
+        <f t="shared" ref="C92:D92" si="81">C82+10</f>
+        <v>91</v>
       </c>
       <c r="D92">
         <f t="shared" si="81"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4253,7 +4253,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -4271,12 +4271,12 @@
         <v>MM020050</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:D93" si="82">C83+5</f>
-        <v>46</v>
+        <f t="shared" ref="C93:D93" si="82">C83+10</f>
+        <v>91</v>
       </c>
       <c r="D93">
         <f t="shared" si="82"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4288,7 +4288,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -4306,12 +4306,12 @@
         <v>MM030050</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:D94" si="83">C84+5</f>
-        <v>46</v>
+        <f t="shared" ref="C94:D94" si="83">C84+10</f>
+        <v>91</v>
       </c>
       <c r="D94">
         <f t="shared" si="83"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4323,7 +4323,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -4341,12 +4341,12 @@
         <v>MM040050</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:D95" si="84">C85+5</f>
-        <v>46</v>
+        <f t="shared" ref="C95:D95" si="84">C85+10</f>
+        <v>91</v>
       </c>
       <c r="D95">
         <f t="shared" si="84"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4358,7 +4358,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -4376,12 +4376,12 @@
         <v>MM050050</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:D96" si="85">C86+5</f>
-        <v>46</v>
+        <f t="shared" ref="C96:D96" si="85">C86+10</f>
+        <v>91</v>
       </c>
       <c r="D96">
         <f t="shared" si="85"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4393,7 +4393,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4411,12 +4411,12 @@
         <v>MM060050</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:D97" si="86">C87+5</f>
-        <v>46</v>
+        <f t="shared" ref="C97:D97" si="86">C87+10</f>
+        <v>91</v>
       </c>
       <c r="D97">
         <f t="shared" si="86"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4428,7 +4428,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -4446,12 +4446,12 @@
         <v>MM070050</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:D98" si="87">C88+5</f>
-        <v>46</v>
+        <f t="shared" ref="C98:D98" si="87">C88+10</f>
+        <v>91</v>
       </c>
       <c r="D98">
         <f t="shared" si="87"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4463,7 +4463,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -4481,12 +4481,12 @@
         <v>MM080050</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:D99" si="88">C89+5</f>
-        <v>46</v>
+        <f t="shared" ref="C99:D99" si="88">C89+10</f>
+        <v>91</v>
       </c>
       <c r="D99">
         <f t="shared" si="88"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4498,7 +4498,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4516,12 +4516,12 @@
         <v>MM090050</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:D100" si="89">C90+5</f>
-        <v>46</v>
+        <f t="shared" ref="C100:D100" si="89">C90+10</f>
+        <v>91</v>
       </c>
       <c r="D100">
         <f t="shared" si="89"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4533,7 +4533,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4551,12 +4551,12 @@
         <v>MM100050</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:D101" si="90">C91+5</f>
-        <v>46</v>
+        <f t="shared" ref="C101:D101" si="90">C91+10</f>
+        <v>91</v>
       </c>
       <c r="D101">
         <f t="shared" si="90"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4568,7 +4568,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -4589,12 +4589,10 @@
         <v>MM010050</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:D102" si="91">C92+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" si="91"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4606,7 +4604,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4624,12 +4622,10 @@
         <v>MM020050</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:D103" si="92">C93+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="92"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4641,7 +4637,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4659,12 +4655,10 @@
         <v>MM030050</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:D104" si="93">C94+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="93"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4676,7 +4670,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4694,12 +4688,10 @@
         <v>MM040050</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:D105" si="94">C95+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <f t="shared" si="94"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4711,7 +4703,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4729,12 +4721,10 @@
         <v>MM050050</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:D106" si="95">C96+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <f t="shared" si="95"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4746,7 +4736,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4764,12 +4754,10 @@
         <v>MM060050</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:D107" si="96">C97+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <f t="shared" si="96"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4781,7 +4769,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -4799,12 +4787,10 @@
         <v>MM070050</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:D108" si="97">C98+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <f t="shared" si="97"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4816,7 +4802,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4834,12 +4820,10 @@
         <v>MM080050</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:D109" si="98">C99+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <f t="shared" si="98"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4851,7 +4835,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4869,12 +4853,10 @@
         <v>MM090050</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:D110" si="99">C100+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <f t="shared" si="99"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4886,7 +4868,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4904,12 +4886,10 @@
         <v>MM100050</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:D111" si="100">C101+5</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <f t="shared" si="100"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4921,7 +4901,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4939,12 +4919,12 @@
         <v>MM010050</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:D112" si="101">C102+5</f>
-        <v>56</v>
+        <f>C102+10</f>
+        <v>11</v>
       </c>
       <c r="D112">
-        <f t="shared" si="101"/>
-        <v>60</v>
+        <f>D102+10</f>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4956,7 +4936,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4974,12 +4954,12 @@
         <v>MM020050</v>
       </c>
       <c r="C113">
-        <f t="shared" ref="C113:D113" si="102">C103+5</f>
-        <v>56</v>
+        <f t="shared" ref="C113:D113" si="91">C103+10</f>
+        <v>11</v>
       </c>
       <c r="D113">
-        <f t="shared" si="102"/>
-        <v>60</v>
+        <f t="shared" si="91"/>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4991,7 +4971,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5009,12 +4989,12 @@
         <v>MM030050</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:D114" si="103">C104+5</f>
-        <v>56</v>
+        <f t="shared" ref="C114:D114" si="92">C104+10</f>
+        <v>11</v>
       </c>
       <c r="D114">
-        <f t="shared" si="103"/>
-        <v>60</v>
+        <f t="shared" si="92"/>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5026,7 +5006,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -5044,12 +5024,12 @@
         <v>MM040050</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:D115" si="104">C105+5</f>
-        <v>56</v>
+        <f t="shared" ref="C115:D115" si="93">C105+10</f>
+        <v>11</v>
       </c>
       <c r="D115">
-        <f t="shared" si="104"/>
-        <v>60</v>
+        <f t="shared" si="93"/>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5061,7 +5041,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -5079,12 +5059,12 @@
         <v>MM050050</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:D116" si="105">C106+5</f>
-        <v>56</v>
+        <f t="shared" ref="C116:D116" si="94">C106+10</f>
+        <v>11</v>
       </c>
       <c r="D116">
-        <f t="shared" si="105"/>
-        <v>60</v>
+        <f t="shared" si="94"/>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5096,7 +5076,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -5114,12 +5094,12 @@
         <v>MM060050</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:D117" si="106">C107+5</f>
-        <v>56</v>
+        <f t="shared" ref="C117:D117" si="95">C107+10</f>
+        <v>11</v>
       </c>
       <c r="D117">
-        <f t="shared" si="106"/>
-        <v>60</v>
+        <f t="shared" si="95"/>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5131,7 +5111,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -5149,12 +5129,12 @@
         <v>MM070050</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:D118" si="107">C108+5</f>
-        <v>56</v>
+        <f t="shared" ref="C118:D118" si="96">C108+10</f>
+        <v>11</v>
       </c>
       <c r="D118">
-        <f t="shared" si="107"/>
-        <v>60</v>
+        <f t="shared" si="96"/>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5166,7 +5146,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -5184,12 +5164,12 @@
         <v>MM080050</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:D119" si="108">C109+5</f>
-        <v>56</v>
+        <f t="shared" ref="C119:D119" si="97">C109+10</f>
+        <v>11</v>
       </c>
       <c r="D119">
-        <f t="shared" si="108"/>
-        <v>60</v>
+        <f t="shared" si="97"/>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5201,7 +5181,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -5219,12 +5199,12 @@
         <v>MM090050</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:D120" si="109">C110+5</f>
-        <v>56</v>
+        <f t="shared" ref="C120:D120" si="98">C110+10</f>
+        <v>11</v>
       </c>
       <c r="D120">
-        <f t="shared" si="109"/>
-        <v>60</v>
+        <f t="shared" si="98"/>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5236,7 +5216,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -5254,12 +5234,12 @@
         <v>MM100050</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:D121" si="110">C111+5</f>
-        <v>56</v>
+        <f t="shared" ref="C121:D121" si="99">C111+10</f>
+        <v>11</v>
       </c>
       <c r="D121">
-        <f t="shared" si="110"/>
-        <v>60</v>
+        <f t="shared" si="99"/>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5271,7 +5251,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -5289,12 +5269,12 @@
         <v>MM010050</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:D122" si="111">C112+5</f>
-        <v>61</v>
+        <f t="shared" ref="C122:D122" si="100">C112+10</f>
+        <v>21</v>
       </c>
       <c r="D122">
-        <f t="shared" si="111"/>
-        <v>65</v>
+        <f t="shared" si="100"/>
+        <v>30</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5306,7 +5286,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -5324,12 +5304,12 @@
         <v>MM020050</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:D123" si="112">C113+5</f>
-        <v>61</v>
+        <f t="shared" ref="C123:D123" si="101">C113+10</f>
+        <v>21</v>
       </c>
       <c r="D123">
-        <f t="shared" si="112"/>
-        <v>65</v>
+        <f t="shared" si="101"/>
+        <v>30</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5341,7 +5321,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -5359,12 +5339,12 @@
         <v>MM030050</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:D124" si="113">C114+5</f>
-        <v>61</v>
+        <f t="shared" ref="C124:D124" si="102">C114+10</f>
+        <v>21</v>
       </c>
       <c r="D124">
-        <f t="shared" si="113"/>
-        <v>65</v>
+        <f t="shared" si="102"/>
+        <v>30</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5376,7 +5356,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -5394,12 +5374,12 @@
         <v>MM040050</v>
       </c>
       <c r="C125">
-        <f t="shared" ref="C125:D125" si="114">C115+5</f>
-        <v>61</v>
+        <f t="shared" ref="C125:D125" si="103">C115+10</f>
+        <v>21</v>
       </c>
       <c r="D125">
-        <f t="shared" si="114"/>
-        <v>65</v>
+        <f t="shared" si="103"/>
+        <v>30</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5411,7 +5391,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -5429,12 +5409,12 @@
         <v>MM050050</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:D126" si="115">C116+5</f>
-        <v>61</v>
+        <f t="shared" ref="C126:D126" si="104">C116+10</f>
+        <v>21</v>
       </c>
       <c r="D126">
-        <f t="shared" si="115"/>
-        <v>65</v>
+        <f t="shared" si="104"/>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5446,7 +5426,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -5464,12 +5444,12 @@
         <v>MM060050</v>
       </c>
       <c r="C127">
-        <f t="shared" ref="C127:D127" si="116">C117+5</f>
-        <v>61</v>
+        <f t="shared" ref="C127:D127" si="105">C117+10</f>
+        <v>21</v>
       </c>
       <c r="D127">
-        <f t="shared" si="116"/>
-        <v>65</v>
+        <f t="shared" si="105"/>
+        <v>30</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5481,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -5499,12 +5479,12 @@
         <v>MM070050</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:D128" si="117">C118+5</f>
-        <v>61</v>
+        <f t="shared" ref="C128:D128" si="106">C118+10</f>
+        <v>21</v>
       </c>
       <c r="D128">
-        <f t="shared" si="117"/>
-        <v>65</v>
+        <f t="shared" si="106"/>
+        <v>30</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5516,7 +5496,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I128" t="s">
         <v>12</v>
@@ -5534,12 +5514,12 @@
         <v>MM080050</v>
       </c>
       <c r="C129">
-        <f t="shared" ref="C129:D129" si="118">C119+5</f>
-        <v>61</v>
+        <f t="shared" ref="C129:D129" si="107">C119+10</f>
+        <v>21</v>
       </c>
       <c r="D129">
-        <f t="shared" si="118"/>
-        <v>65</v>
+        <f t="shared" si="107"/>
+        <v>30</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5551,7 +5531,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I129" t="s">
         <v>12</v>
@@ -5565,16 +5545,16 @@
         <v>44768</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="119">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
+        <f t="shared" ref="B130:B193" si="108">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
         <v>MM090050</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:D130" si="120">C120+5</f>
-        <v>61</v>
+        <f t="shared" ref="C130:D130" si="109">C120+10</f>
+        <v>21</v>
       </c>
       <c r="D130">
-        <f t="shared" si="120"/>
-        <v>65</v>
+        <f t="shared" si="109"/>
+        <v>30</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5586,7 +5566,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I130" t="s">
         <v>12</v>
@@ -5600,16 +5580,16 @@
         <v>44768</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM100050</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:D131" si="121">C121+5</f>
-        <v>61</v>
+        <f t="shared" ref="C131:D131" si="110">C121+10</f>
+        <v>21</v>
       </c>
       <c r="D131">
-        <f t="shared" si="121"/>
-        <v>65</v>
+        <f t="shared" si="110"/>
+        <v>30</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5621,7 +5601,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I131" t="s">
         <v>12</v>
@@ -5635,16 +5615,16 @@
         <v>44768</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM010050</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:D132" si="122">C122+5</f>
-        <v>66</v>
+        <f t="shared" ref="C132:D132" si="111">C122+10</f>
+        <v>31</v>
       </c>
       <c r="D132">
-        <f t="shared" si="122"/>
-        <v>70</v>
+        <f t="shared" si="111"/>
+        <v>40</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5656,7 +5636,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
@@ -5670,16 +5650,16 @@
         <v>44768</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM020050</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:D133" si="123">C123+5</f>
-        <v>66</v>
+        <f t="shared" ref="C133:D133" si="112">C123+10</f>
+        <v>31</v>
       </c>
       <c r="D133">
-        <f t="shared" si="123"/>
-        <v>70</v>
+        <f t="shared" si="112"/>
+        <v>40</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5691,7 +5671,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -5705,16 +5685,16 @@
         <v>44768</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM030050</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:D134" si="124">C124+5</f>
-        <v>66</v>
+        <f t="shared" ref="C134:D134" si="113">C124+10</f>
+        <v>31</v>
       </c>
       <c r="D134">
-        <f t="shared" si="124"/>
-        <v>70</v>
+        <f t="shared" si="113"/>
+        <v>40</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5726,7 +5706,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -5740,16 +5720,16 @@
         <v>44768</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM040050</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:D135" si="125">C125+5</f>
-        <v>66</v>
+        <f t="shared" ref="C135:D135" si="114">C125+10</f>
+        <v>31</v>
       </c>
       <c r="D135">
-        <f t="shared" si="125"/>
-        <v>70</v>
+        <f t="shared" si="114"/>
+        <v>40</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5761,7 +5741,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I135" t="s">
         <v>12</v>
@@ -5775,16 +5755,16 @@
         <v>44768</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM050050</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:D136" si="126">C126+5</f>
-        <v>66</v>
+        <f t="shared" ref="C136:D136" si="115">C126+10</f>
+        <v>31</v>
       </c>
       <c r="D136">
-        <f t="shared" si="126"/>
-        <v>70</v>
+        <f t="shared" si="115"/>
+        <v>40</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5796,7 +5776,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -5810,16 +5790,16 @@
         <v>44768</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM060050</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:D137" si="127">C127+5</f>
-        <v>66</v>
+        <f t="shared" ref="C137:D137" si="116">C127+10</f>
+        <v>31</v>
       </c>
       <c r="D137">
-        <f t="shared" si="127"/>
-        <v>70</v>
+        <f t="shared" si="116"/>
+        <v>40</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5831,7 +5811,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I137" t="s">
         <v>12</v>
@@ -5845,16 +5825,16 @@
         <v>44768</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM070050</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:D138" si="128">C128+5</f>
-        <v>66</v>
+        <f t="shared" ref="C138:D138" si="117">C128+10</f>
+        <v>31</v>
       </c>
       <c r="D138">
-        <f t="shared" si="128"/>
-        <v>70</v>
+        <f t="shared" si="117"/>
+        <v>40</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5866,7 +5846,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I138" t="s">
         <v>12</v>
@@ -5880,16 +5860,16 @@
         <v>44768</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM080050</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:D139" si="129">C129+5</f>
-        <v>66</v>
+        <f t="shared" ref="C139:D139" si="118">C129+10</f>
+        <v>31</v>
       </c>
       <c r="D139">
-        <f t="shared" si="129"/>
-        <v>70</v>
+        <f t="shared" si="118"/>
+        <v>40</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5901,7 +5881,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I139" t="s">
         <v>12</v>
@@ -5915,16 +5895,16 @@
         <v>44768</v>
       </c>
       <c r="B140" t="str">
+        <f t="shared" si="108"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ref="C140:D140" si="119">C130+10</f>
+        <v>31</v>
+      </c>
+      <c r="D140">
         <f t="shared" si="119"/>
-        <v>MM090050</v>
-      </c>
-      <c r="C140">
-        <f t="shared" ref="C140:D140" si="130">C130+5</f>
-        <v>66</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="130"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5936,7 +5916,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -5950,16 +5930,16 @@
         <v>44768</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM100050</v>
       </c>
       <c r="C141">
-        <f t="shared" ref="C141:D141" si="131">C131+5</f>
-        <v>66</v>
+        <f t="shared" ref="C141:D141" si="120">C131+10</f>
+        <v>31</v>
       </c>
       <c r="D141">
-        <f t="shared" si="131"/>
-        <v>70</v>
+        <f t="shared" si="120"/>
+        <v>40</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5971,7 +5951,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I141" t="s">
         <v>12</v>
@@ -5985,16 +5965,16 @@
         <v>44768</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142:D142" si="132">C132+5</f>
-        <v>71</v>
+        <f t="shared" ref="C142:D142" si="121">C132+10</f>
+        <v>41</v>
       </c>
       <c r="D142">
-        <f t="shared" si="132"/>
-        <v>75</v>
+        <f t="shared" si="121"/>
+        <v>50</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -6006,7 +5986,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I142" t="s">
         <v>12</v>
@@ -6020,16 +6000,16 @@
         <v>44768</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <f t="shared" ref="C143:D143" si="133">C133+5</f>
-        <v>71</v>
+        <f t="shared" ref="C143:D143" si="122">C133+10</f>
+        <v>41</v>
       </c>
       <c r="D143">
-        <f t="shared" si="133"/>
-        <v>75</v>
+        <f t="shared" si="122"/>
+        <v>50</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6041,7 +6021,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -6055,16 +6035,16 @@
         <v>44768</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:D144" si="134">C134+5</f>
-        <v>71</v>
+        <f t="shared" ref="C144:D144" si="123">C134+10</f>
+        <v>41</v>
       </c>
       <c r="D144">
-        <f t="shared" si="134"/>
-        <v>75</v>
+        <f t="shared" si="123"/>
+        <v>50</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6076,7 +6056,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6090,16 +6070,16 @@
         <v>44768</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <f t="shared" ref="C145:D145" si="135">C135+5</f>
-        <v>71</v>
+        <f t="shared" ref="C145:D145" si="124">C135+10</f>
+        <v>41</v>
       </c>
       <c r="D145">
-        <f t="shared" si="135"/>
-        <v>75</v>
+        <f t="shared" si="124"/>
+        <v>50</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6111,7 +6091,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -6125,16 +6105,16 @@
         <v>44768</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:D146" si="136">C136+5</f>
-        <v>71</v>
+        <f t="shared" ref="C146:D146" si="125">C136+10</f>
+        <v>41</v>
       </c>
       <c r="D146">
-        <f t="shared" si="136"/>
-        <v>75</v>
+        <f t="shared" si="125"/>
+        <v>50</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6146,7 +6126,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I146" t="s">
         <v>12</v>
@@ -6160,16 +6140,16 @@
         <v>44768</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <f t="shared" ref="C147:D147" si="137">C137+5</f>
-        <v>71</v>
+        <f t="shared" ref="C147:D147" si="126">C137+10</f>
+        <v>41</v>
       </c>
       <c r="D147">
-        <f t="shared" si="137"/>
-        <v>75</v>
+        <f t="shared" si="126"/>
+        <v>50</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6181,7 +6161,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I147" t="s">
         <v>12</v>
@@ -6195,16 +6175,16 @@
         <v>44768</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <f t="shared" ref="C148:D148" si="138">C138+5</f>
-        <v>71</v>
+        <f t="shared" ref="C148:D148" si="127">C138+10</f>
+        <v>41</v>
       </c>
       <c r="D148">
-        <f t="shared" si="138"/>
-        <v>75</v>
+        <f t="shared" si="127"/>
+        <v>50</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6216,7 +6196,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -6230,16 +6210,16 @@
         <v>44768</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <f t="shared" ref="C149:D149" si="139">C139+5</f>
-        <v>71</v>
+        <f t="shared" ref="C149:D149" si="128">C139+10</f>
+        <v>41</v>
       </c>
       <c r="D149">
-        <f t="shared" si="139"/>
-        <v>75</v>
+        <f t="shared" si="128"/>
+        <v>50</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6251,7 +6231,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I149" t="s">
         <v>12</v>
@@ -6265,16 +6245,16 @@
         <v>44768</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:D150" si="140">C140+5</f>
-        <v>71</v>
+        <f t="shared" ref="C150:D150" si="129">C140+10</f>
+        <v>41</v>
       </c>
       <c r="D150">
-        <f t="shared" si="140"/>
-        <v>75</v>
+        <f t="shared" si="129"/>
+        <v>50</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6286,7 +6266,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I150" t="s">
         <v>12</v>
@@ -6300,16 +6280,16 @@
         <v>44768</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <f t="shared" ref="C151:D151" si="141">C141+5</f>
-        <v>71</v>
+        <f t="shared" ref="C151:D151" si="130">C141+10</f>
+        <v>41</v>
       </c>
       <c r="D151">
-        <f t="shared" si="141"/>
-        <v>75</v>
+        <f t="shared" si="130"/>
+        <v>50</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6321,7 +6301,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I151" t="s">
         <v>12</v>
@@ -6335,16 +6315,16 @@
         <v>44768</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM010050</v>
       </c>
       <c r="C152">
-        <f t="shared" ref="C152:D152" si="142">C142+5</f>
-        <v>76</v>
+        <f t="shared" ref="C152:D152" si="131">C142+10</f>
+        <v>51</v>
       </c>
       <c r="D152">
-        <f t="shared" si="142"/>
-        <v>80</v>
+        <f t="shared" si="131"/>
+        <v>60</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6356,7 +6336,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6370,16 +6350,16 @@
         <v>44768</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM020050</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C153:D153" si="143">C143+5</f>
-        <v>76</v>
+        <f t="shared" ref="C153:D153" si="132">C143+10</f>
+        <v>51</v>
       </c>
       <c r="D153">
-        <f t="shared" si="143"/>
-        <v>80</v>
+        <f t="shared" si="132"/>
+        <v>60</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6391,7 +6371,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I153" t="s">
         <v>12</v>
@@ -6405,16 +6385,16 @@
         <v>44768</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM030050</v>
       </c>
       <c r="C154">
-        <f t="shared" ref="C154:D154" si="144">C144+5</f>
-        <v>76</v>
+        <f t="shared" ref="C154:D154" si="133">C144+10</f>
+        <v>51</v>
       </c>
       <c r="D154">
-        <f t="shared" si="144"/>
-        <v>80</v>
+        <f t="shared" si="133"/>
+        <v>60</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6426,7 +6406,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I154" t="s">
         <v>12</v>
@@ -6440,16 +6420,16 @@
         <v>44768</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM040050</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155:D155" si="145">C145+5</f>
-        <v>76</v>
+        <f t="shared" ref="C155:D155" si="134">C145+10</f>
+        <v>51</v>
       </c>
       <c r="D155">
-        <f t="shared" si="145"/>
-        <v>80</v>
+        <f t="shared" si="134"/>
+        <v>60</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6461,7 +6441,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -6475,16 +6455,16 @@
         <v>44768</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM050050</v>
       </c>
       <c r="C156">
-        <f t="shared" ref="C156:D156" si="146">C146+5</f>
-        <v>76</v>
+        <f t="shared" ref="C156:D156" si="135">C146+10</f>
+        <v>51</v>
       </c>
       <c r="D156">
-        <f t="shared" si="146"/>
-        <v>80</v>
+        <f t="shared" si="135"/>
+        <v>60</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6496,7 +6476,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6510,16 +6490,16 @@
         <v>44768</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM060050</v>
       </c>
       <c r="C157">
-        <f t="shared" ref="C157:D157" si="147">C147+5</f>
-        <v>76</v>
+        <f t="shared" ref="C157:D157" si="136">C147+10</f>
+        <v>51</v>
       </c>
       <c r="D157">
-        <f t="shared" si="147"/>
-        <v>80</v>
+        <f t="shared" si="136"/>
+        <v>60</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6531,7 +6511,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I157" t="s">
         <v>12</v>
@@ -6545,16 +6525,16 @@
         <v>44768</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM070050</v>
       </c>
       <c r="C158">
-        <f t="shared" ref="C158:D158" si="148">C148+5</f>
-        <v>76</v>
+        <f t="shared" ref="C158:D158" si="137">C148+10</f>
+        <v>51</v>
       </c>
       <c r="D158">
-        <f t="shared" si="148"/>
-        <v>80</v>
+        <f t="shared" si="137"/>
+        <v>60</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6566,7 +6546,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I158" t="s">
         <v>12</v>
@@ -6580,16 +6560,16 @@
         <v>44768</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM080050</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:D159" si="149">C149+5</f>
-        <v>76</v>
+        <f t="shared" ref="C159:D159" si="138">C149+10</f>
+        <v>51</v>
       </c>
       <c r="D159">
-        <f t="shared" si="149"/>
-        <v>80</v>
+        <f t="shared" si="138"/>
+        <v>60</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6601,7 +6581,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I159" t="s">
         <v>12</v>
@@ -6615,16 +6595,16 @@
         <v>44768</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM090050</v>
       </c>
       <c r="C160">
-        <f t="shared" ref="C160:D160" si="150">C150+5</f>
-        <v>76</v>
+        <f t="shared" ref="C160:D160" si="139">C150+10</f>
+        <v>51</v>
       </c>
       <c r="D160">
-        <f t="shared" si="150"/>
-        <v>80</v>
+        <f t="shared" si="139"/>
+        <v>60</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6636,7 +6616,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I160" t="s">
         <v>12</v>
@@ -6650,1067 +6630,1067 @@
         <v>44768</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM100050</v>
       </c>
       <c r="C161">
-        <f t="shared" ref="C161:D161" si="151">C151+5</f>
-        <v>76</v>
+        <f t="shared" ref="C161:D161" si="140">C151+10</f>
+        <v>51</v>
       </c>
       <c r="D161">
+        <f t="shared" si="140"/>
+        <v>60</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
+      </c>
+      <c r="F161">
+        <v>50</v>
+      </c>
+      <c r="G161">
+        <v>0.02</v>
+      </c>
+      <c r="H161">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="108"/>
+        <v>MM010050</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ref="C162:D162" si="141">C152+10</f>
+        <v>61</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="141"/>
+        <v>70</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>50</v>
+      </c>
+      <c r="G162">
+        <v>0.02</v>
+      </c>
+      <c r="H162">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="108"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ref="C163:D163" si="142">C153+10</f>
+        <v>61</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="142"/>
+        <v>70</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>50</v>
+      </c>
+      <c r="G163">
+        <v>0.02</v>
+      </c>
+      <c r="H163">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="108"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ref="C164:D164" si="143">C154+10</f>
+        <v>61</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="143"/>
+        <v>70</v>
+      </c>
+      <c r="E164">
+        <v>30</v>
+      </c>
+      <c r="F164">
+        <v>50</v>
+      </c>
+      <c r="G164">
+        <v>0.02</v>
+      </c>
+      <c r="H164">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="108"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ref="C165:D165" si="144">C155+10</f>
+        <v>61</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="144"/>
+        <v>70</v>
+      </c>
+      <c r="E165">
+        <v>40</v>
+      </c>
+      <c r="F165">
+        <v>50</v>
+      </c>
+      <c r="G165">
+        <v>0.02</v>
+      </c>
+      <c r="H165">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="108"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ref="C166:D166" si="145">C156+10</f>
+        <v>61</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="145"/>
+        <v>70</v>
+      </c>
+      <c r="E166">
+        <v>50</v>
+      </c>
+      <c r="F166">
+        <v>50</v>
+      </c>
+      <c r="G166">
+        <v>0.02</v>
+      </c>
+      <c r="H166">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="108"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:D167" si="146">C157+10</f>
+        <v>61</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="146"/>
+        <v>70</v>
+      </c>
+      <c r="E167">
+        <v>60</v>
+      </c>
+      <c r="F167">
+        <v>50</v>
+      </c>
+      <c r="G167">
+        <v>0.02</v>
+      </c>
+      <c r="H167">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="108"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ref="C168:D168" si="147">C158+10</f>
+        <v>61</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="147"/>
+        <v>70</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="F168">
+        <v>50</v>
+      </c>
+      <c r="G168">
+        <v>0.02</v>
+      </c>
+      <c r="H168">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="108"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ref="C169:D169" si="148">C159+10</f>
+        <v>61</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="148"/>
+        <v>70</v>
+      </c>
+      <c r="E169">
+        <v>80</v>
+      </c>
+      <c r="F169">
+        <v>50</v>
+      </c>
+      <c r="G169">
+        <v>0.02</v>
+      </c>
+      <c r="H169">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="108"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ref="C170:D170" si="149">C160+10</f>
+        <v>61</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="149"/>
+        <v>70</v>
+      </c>
+      <c r="E170">
+        <v>90</v>
+      </c>
+      <c r="F170">
+        <v>50</v>
+      </c>
+      <c r="G170">
+        <v>0.02</v>
+      </c>
+      <c r="H170">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="108"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ref="C171:D171" si="150">C161+10</f>
+        <v>61</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="150"/>
+        <v>70</v>
+      </c>
+      <c r="E171">
+        <v>100</v>
+      </c>
+      <c r="F171">
+        <v>50</v>
+      </c>
+      <c r="G171">
+        <v>0.02</v>
+      </c>
+      <c r="H171">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="108"/>
+        <v>MM010050</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ref="C172:D172" si="151">C162+10</f>
+        <v>71</v>
+      </c>
+      <c r="D172">
         <f t="shared" si="151"/>
         <v>80</v>
       </c>
-      <c r="E161">
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>50</v>
+      </c>
+      <c r="G172">
+        <v>0.02</v>
+      </c>
+      <c r="H172">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="108"/>
+        <v>MM020050</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:D173" si="152">C163+10</f>
+        <v>71</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="152"/>
+        <v>80</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
+      </c>
+      <c r="F173">
+        <v>50</v>
+      </c>
+      <c r="G173">
+        <v>0.02</v>
+      </c>
+      <c r="H173">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="108"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:D174" si="153">C164+10</f>
+        <v>71</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="153"/>
+        <v>80</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <v>50</v>
+      </c>
+      <c r="G174">
+        <v>0.02</v>
+      </c>
+      <c r="H174">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="108"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175:D175" si="154">C165+10</f>
+        <v>71</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="154"/>
+        <v>80</v>
+      </c>
+      <c r="E175">
+        <v>40</v>
+      </c>
+      <c r="F175">
+        <v>50</v>
+      </c>
+      <c r="G175">
+        <v>0.02</v>
+      </c>
+      <c r="H175">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="108"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176:D176" si="155">C166+10</f>
+        <v>71</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="155"/>
+        <v>80</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176">
+        <v>50</v>
+      </c>
+      <c r="G176">
+        <v>0.02</v>
+      </c>
+      <c r="H176">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="108"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ref="C177:D177" si="156">C167+10</f>
+        <v>71</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="156"/>
+        <v>80</v>
+      </c>
+      <c r="E177">
+        <v>60</v>
+      </c>
+      <c r="F177">
+        <v>50</v>
+      </c>
+      <c r="G177">
+        <v>0.02</v>
+      </c>
+      <c r="H177">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>12</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="108"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ref="C178:D178" si="157">C168+10</f>
+        <v>71</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="157"/>
+        <v>80</v>
+      </c>
+      <c r="E178">
+        <v>70</v>
+      </c>
+      <c r="F178">
+        <v>50</v>
+      </c>
+      <c r="G178">
+        <v>0.02</v>
+      </c>
+      <c r="H178">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="108"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ref="C179:D179" si="158">C169+10</f>
+        <v>71</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="158"/>
+        <v>80</v>
+      </c>
+      <c r="E179">
+        <v>80</v>
+      </c>
+      <c r="F179">
+        <v>50</v>
+      </c>
+      <c r="G179">
+        <v>0.02</v>
+      </c>
+      <c r="H179">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="108"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ref="C180:D180" si="159">C170+10</f>
+        <v>71</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="159"/>
+        <v>80</v>
+      </c>
+      <c r="E180">
+        <v>90</v>
+      </c>
+      <c r="F180">
+        <v>50</v>
+      </c>
+      <c r="G180">
+        <v>0.02</v>
+      </c>
+      <c r="H180">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="108"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181:D181" si="160">C171+10</f>
+        <v>71</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="160"/>
+        <v>80</v>
+      </c>
+      <c r="E181">
         <v>100</v>
       </c>
-      <c r="F161">
-        <v>50</v>
-      </c>
-      <c r="G161">
-        <v>0.02</v>
-      </c>
-      <c r="H161">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I161" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B162" t="str">
-        <f t="shared" si="119"/>
+      <c r="F181">
+        <v>50</v>
+      </c>
+      <c r="G181">
+        <v>0.02</v>
+      </c>
+      <c r="H181">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="108"/>
         <v>MM010050</v>
       </c>
-      <c r="C162">
-        <f t="shared" ref="C162:D162" si="152">C152+5</f>
+      <c r="C182">
+        <f t="shared" ref="C182:D182" si="161">C172+10</f>
         <v>81</v>
       </c>
-      <c r="D162">
-        <f t="shared" si="152"/>
-        <v>85</v>
-      </c>
-      <c r="E162">
+      <c r="D182">
+        <f t="shared" si="161"/>
+        <v>90</v>
+      </c>
+      <c r="E182">
         <v>10</v>
       </c>
-      <c r="F162">
-        <v>50</v>
-      </c>
-      <c r="G162">
-        <v>0.02</v>
-      </c>
-      <c r="H162">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I162" t="s">
-        <v>12</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B163" t="str">
-        <f t="shared" si="119"/>
+      <c r="F182">
+        <v>50</v>
+      </c>
+      <c r="G182">
+        <v>0.02</v>
+      </c>
+      <c r="H182">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="108"/>
         <v>MM020050</v>
       </c>
-      <c r="C163">
-        <f t="shared" ref="C163:D163" si="153">C153+5</f>
+      <c r="C183">
+        <f t="shared" ref="C183:D183" si="162">C173+10</f>
         <v>81</v>
       </c>
-      <c r="D163">
-        <f t="shared" si="153"/>
-        <v>85</v>
-      </c>
-      <c r="E163">
-        <v>20</v>
-      </c>
-      <c r="F163">
-        <v>50</v>
-      </c>
-      <c r="G163">
-        <v>0.02</v>
-      </c>
-      <c r="H163">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I163" t="s">
-        <v>12</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B164" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
-      </c>
-      <c r="C164">
-        <f t="shared" ref="C164:D164" si="154">C154+5</f>
-        <v>81</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="154"/>
-        <v>85</v>
-      </c>
-      <c r="E164">
-        <v>30</v>
-      </c>
-      <c r="F164">
-        <v>50</v>
-      </c>
-      <c r="G164">
-        <v>0.02</v>
-      </c>
-      <c r="H164">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I164" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B165" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
-      </c>
-      <c r="C165">
-        <f t="shared" ref="C165:D165" si="155">C155+5</f>
-        <v>81</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="155"/>
-        <v>85</v>
-      </c>
-      <c r="E165">
-        <v>40</v>
-      </c>
-      <c r="F165">
-        <v>50</v>
-      </c>
-      <c r="G165">
-        <v>0.02</v>
-      </c>
-      <c r="H165">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I165" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B166" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
-      </c>
-      <c r="C166">
-        <f t="shared" ref="C166:D166" si="156">C156+5</f>
-        <v>81</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="156"/>
-        <v>85</v>
-      </c>
-      <c r="E166">
-        <v>50</v>
-      </c>
-      <c r="F166">
-        <v>50</v>
-      </c>
-      <c r="G166">
-        <v>0.02</v>
-      </c>
-      <c r="H166">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I166" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B167" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
-      </c>
-      <c r="C167">
-        <f t="shared" ref="C167:D167" si="157">C157+5</f>
-        <v>81</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="157"/>
-        <v>85</v>
-      </c>
-      <c r="E167">
-        <v>60</v>
-      </c>
-      <c r="F167">
-        <v>50</v>
-      </c>
-      <c r="G167">
-        <v>0.02</v>
-      </c>
-      <c r="H167">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I167" t="s">
-        <v>12</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
-      </c>
-      <c r="C168">
-        <f t="shared" ref="C168:D168" si="158">C158+5</f>
-        <v>81</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="158"/>
-        <v>85</v>
-      </c>
-      <c r="E168">
-        <v>70</v>
-      </c>
-      <c r="F168">
-        <v>50</v>
-      </c>
-      <c r="G168">
-        <v>0.02</v>
-      </c>
-      <c r="H168">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I168" t="s">
-        <v>12</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B169" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
-      </c>
-      <c r="C169">
-        <f t="shared" ref="C169:D169" si="159">C159+5</f>
-        <v>81</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="159"/>
-        <v>85</v>
-      </c>
-      <c r="E169">
-        <v>80</v>
-      </c>
-      <c r="F169">
-        <v>50</v>
-      </c>
-      <c r="G169">
-        <v>0.02</v>
-      </c>
-      <c r="H169">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I169" t="s">
-        <v>12</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B170" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
-      </c>
-      <c r="C170">
-        <f t="shared" ref="C170:D170" si="160">C160+5</f>
-        <v>81</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="160"/>
-        <v>85</v>
-      </c>
-      <c r="E170">
-        <v>90</v>
-      </c>
-      <c r="F170">
-        <v>50</v>
-      </c>
-      <c r="G170">
-        <v>0.02</v>
-      </c>
-      <c r="H170">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I170" t="s">
-        <v>12</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B171" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
-      </c>
-      <c r="C171">
-        <f t="shared" ref="C171:D171" si="161">C161+5</f>
-        <v>81</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="161"/>
-        <v>85</v>
-      </c>
-      <c r="E171">
-        <v>100</v>
-      </c>
-      <c r="F171">
-        <v>50</v>
-      </c>
-      <c r="G171">
-        <v>0.02</v>
-      </c>
-      <c r="H171">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I171" t="s">
-        <v>12</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B172" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
-      </c>
-      <c r="C172">
-        <f t="shared" ref="C172:D172" si="162">C162+5</f>
-        <v>86</v>
-      </c>
-      <c r="D172">
+      <c r="D183">
         <f t="shared" si="162"/>
         <v>90</v>
       </c>
-      <c r="E172">
-        <v>10</v>
-      </c>
-      <c r="F172">
-        <v>50</v>
-      </c>
-      <c r="G172">
-        <v>0.02</v>
-      </c>
-      <c r="H172">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I172" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
-      </c>
-      <c r="C173">
-        <f t="shared" ref="C173:D173" si="163">C163+5</f>
-        <v>86</v>
-      </c>
-      <c r="D173">
+      <c r="E183">
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <v>50</v>
+      </c>
+      <c r="G183">
+        <v>0.02</v>
+      </c>
+      <c r="H183">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>12</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="108"/>
+        <v>MM030050</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:D184" si="163">C174+10</f>
+        <v>81</v>
+      </c>
+      <c r="D184">
         <f t="shared" si="163"/>
         <v>90</v>
       </c>
-      <c r="E173">
-        <v>20</v>
-      </c>
-      <c r="F173">
-        <v>50</v>
-      </c>
-      <c r="G173">
-        <v>0.02</v>
-      </c>
-      <c r="H173">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I173" t="s">
-        <v>12</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
-      </c>
-      <c r="C174">
-        <f t="shared" ref="C174:D174" si="164">C164+5</f>
-        <v>86</v>
-      </c>
-      <c r="D174">
+      <c r="E184">
+        <v>30</v>
+      </c>
+      <c r="F184">
+        <v>50</v>
+      </c>
+      <c r="G184">
+        <v>0.02</v>
+      </c>
+      <c r="H184">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="108"/>
+        <v>MM040050</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ref="C185:D185" si="164">C175+10</f>
+        <v>81</v>
+      </c>
+      <c r="D185">
         <f t="shared" si="164"/>
         <v>90</v>
       </c>
-      <c r="E174">
-        <v>30</v>
-      </c>
-      <c r="F174">
-        <v>50</v>
-      </c>
-      <c r="G174">
-        <v>0.02</v>
-      </c>
-      <c r="H174">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I174" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
-      </c>
-      <c r="C175">
-        <f t="shared" ref="C175:D175" si="165">C165+5</f>
-        <v>86</v>
-      </c>
-      <c r="D175">
+      <c r="E185">
+        <v>40</v>
+      </c>
+      <c r="F185">
+        <v>50</v>
+      </c>
+      <c r="G185">
+        <v>0.02</v>
+      </c>
+      <c r="H185">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="108"/>
+        <v>MM050050</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ref="C186:D186" si="165">C176+10</f>
+        <v>81</v>
+      </c>
+      <c r="D186">
         <f t="shared" si="165"/>
         <v>90</v>
       </c>
-      <c r="E175">
-        <v>40</v>
-      </c>
-      <c r="F175">
-        <v>50</v>
-      </c>
-      <c r="G175">
-        <v>0.02</v>
-      </c>
-      <c r="H175">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I175" t="s">
-        <v>12</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
-      </c>
-      <c r="C176">
-        <f t="shared" ref="C176:D176" si="166">C166+5</f>
-        <v>86</v>
-      </c>
-      <c r="D176">
+      <c r="E186">
+        <v>50</v>
+      </c>
+      <c r="F186">
+        <v>50</v>
+      </c>
+      <c r="G186">
+        <v>0.02</v>
+      </c>
+      <c r="H186">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="108"/>
+        <v>MM060050</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ref="C187:D187" si="166">C177+10</f>
+        <v>81</v>
+      </c>
+      <c r="D187">
         <f t="shared" si="166"/>
         <v>90</v>
       </c>
-      <c r="E176">
-        <v>50</v>
-      </c>
-      <c r="F176">
-        <v>50</v>
-      </c>
-      <c r="G176">
-        <v>0.02</v>
-      </c>
-      <c r="H176">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I176" t="s">
-        <v>12</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B177" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
-      </c>
-      <c r="C177">
-        <f t="shared" ref="C177:D177" si="167">C167+5</f>
-        <v>86</v>
-      </c>
-      <c r="D177">
+      <c r="E187">
+        <v>60</v>
+      </c>
+      <c r="F187">
+        <v>50</v>
+      </c>
+      <c r="G187">
+        <v>0.02</v>
+      </c>
+      <c r="H187">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="108"/>
+        <v>MM070050</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ref="C188:D188" si="167">C178+10</f>
+        <v>81</v>
+      </c>
+      <c r="D188">
         <f t="shared" si="167"/>
         <v>90</v>
       </c>
-      <c r="E177">
-        <v>60</v>
-      </c>
-      <c r="F177">
-        <v>50</v>
-      </c>
-      <c r="G177">
-        <v>0.02</v>
-      </c>
-      <c r="H177">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I177" t="s">
-        <v>12</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B178" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
-      </c>
-      <c r="C178">
-        <f t="shared" ref="C178:D178" si="168">C168+5</f>
-        <v>86</v>
-      </c>
-      <c r="D178">
+      <c r="E188">
+        <v>70</v>
+      </c>
+      <c r="F188">
+        <v>50</v>
+      </c>
+      <c r="G188">
+        <v>0.02</v>
+      </c>
+      <c r="H188">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="108"/>
+        <v>MM080050</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ref="C189:D189" si="168">C179+10</f>
+        <v>81</v>
+      </c>
+      <c r="D189">
         <f t="shared" si="168"/>
         <v>90</v>
       </c>
-      <c r="E178">
-        <v>70</v>
-      </c>
-      <c r="F178">
-        <v>50</v>
-      </c>
-      <c r="G178">
-        <v>0.02</v>
-      </c>
-      <c r="H178">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I178" t="s">
-        <v>12</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B179" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
-      </c>
-      <c r="C179">
-        <f t="shared" ref="C179:D179" si="169">C169+5</f>
-        <v>86</v>
-      </c>
-      <c r="D179">
+      <c r="E189">
+        <v>80</v>
+      </c>
+      <c r="F189">
+        <v>50</v>
+      </c>
+      <c r="G189">
+        <v>0.02</v>
+      </c>
+      <c r="H189">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I189" t="s">
+        <v>12</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="108"/>
+        <v>MM090050</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ref="C190:D190" si="169">C180+10</f>
+        <v>81</v>
+      </c>
+      <c r="D190">
         <f t="shared" si="169"/>
         <v>90</v>
       </c>
-      <c r="E179">
-        <v>80</v>
-      </c>
-      <c r="F179">
-        <v>50</v>
-      </c>
-      <c r="G179">
-        <v>0.02</v>
-      </c>
-      <c r="H179">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I179" t="s">
-        <v>12</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
-      </c>
-      <c r="C180">
-        <f t="shared" ref="C180:D180" si="170">C170+5</f>
-        <v>86</v>
-      </c>
-      <c r="D180">
+      <c r="E190">
+        <v>90</v>
+      </c>
+      <c r="F190">
+        <v>50</v>
+      </c>
+      <c r="G190">
+        <v>0.02</v>
+      </c>
+      <c r="H190">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="108"/>
+        <v>MM100050</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ref="C191:D191" si="170">C181+10</f>
+        <v>81</v>
+      </c>
+      <c r="D191">
         <f t="shared" si="170"/>
         <v>90</v>
       </c>
-      <c r="E180">
-        <v>90</v>
-      </c>
-      <c r="F180">
-        <v>50</v>
-      </c>
-      <c r="G180">
-        <v>0.02</v>
-      </c>
-      <c r="H180">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I180" t="s">
-        <v>12</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
-      </c>
-      <c r="C181">
-        <f t="shared" ref="C181:D181" si="171">C171+5</f>
-        <v>86</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="171"/>
-        <v>90</v>
-      </c>
-      <c r="E181">
-        <v>100</v>
-      </c>
-      <c r="F181">
-        <v>50</v>
-      </c>
-      <c r="G181">
-        <v>0.02</v>
-      </c>
-      <c r="H181">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I181" t="s">
-        <v>12</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" si="119"/>
-        <v>MM010050</v>
-      </c>
-      <c r="C182">
-        <f t="shared" ref="C182:D182" si="172">C172+5</f>
-        <v>91</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="172"/>
-        <v>95</v>
-      </c>
-      <c r="E182">
-        <v>10</v>
-      </c>
-      <c r="F182">
-        <v>50</v>
-      </c>
-      <c r="G182">
-        <v>0.02</v>
-      </c>
-      <c r="H182">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I182" t="s">
-        <v>12</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B183" t="str">
-        <f t="shared" si="119"/>
-        <v>MM020050</v>
-      </c>
-      <c r="C183">
-        <f t="shared" ref="C183:D183" si="173">C173+5</f>
-        <v>91</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="173"/>
-        <v>95</v>
-      </c>
-      <c r="E183">
-        <v>20</v>
-      </c>
-      <c r="F183">
-        <v>50</v>
-      </c>
-      <c r="G183">
-        <v>0.02</v>
-      </c>
-      <c r="H183">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I183" t="s">
-        <v>12</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B184" t="str">
-        <f t="shared" si="119"/>
-        <v>MM030050</v>
-      </c>
-      <c r="C184">
-        <f t="shared" ref="C184:D184" si="174">C174+5</f>
-        <v>91</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="174"/>
-        <v>95</v>
-      </c>
-      <c r="E184">
-        <v>30</v>
-      </c>
-      <c r="F184">
-        <v>50</v>
-      </c>
-      <c r="G184">
-        <v>0.02</v>
-      </c>
-      <c r="H184">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I184" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B185" t="str">
-        <f t="shared" si="119"/>
-        <v>MM040050</v>
-      </c>
-      <c r="C185">
-        <f t="shared" ref="C185:D185" si="175">C175+5</f>
-        <v>91</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="175"/>
-        <v>95</v>
-      </c>
-      <c r="E185">
-        <v>40</v>
-      </c>
-      <c r="F185">
-        <v>50</v>
-      </c>
-      <c r="G185">
-        <v>0.02</v>
-      </c>
-      <c r="H185">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I185" t="s">
-        <v>12</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B186" t="str">
-        <f t="shared" si="119"/>
-        <v>MM050050</v>
-      </c>
-      <c r="C186">
-        <f t="shared" ref="C186:D186" si="176">C176+5</f>
-        <v>91</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="176"/>
-        <v>95</v>
-      </c>
-      <c r="E186">
-        <v>50</v>
-      </c>
-      <c r="F186">
-        <v>50</v>
-      </c>
-      <c r="G186">
-        <v>0.02</v>
-      </c>
-      <c r="H186">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I186" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B187" t="str">
-        <f t="shared" si="119"/>
-        <v>MM060050</v>
-      </c>
-      <c r="C187">
-        <f t="shared" ref="C187:D187" si="177">C177+5</f>
-        <v>91</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="177"/>
-        <v>95</v>
-      </c>
-      <c r="E187">
-        <v>60</v>
-      </c>
-      <c r="F187">
-        <v>50</v>
-      </c>
-      <c r="G187">
-        <v>0.02</v>
-      </c>
-      <c r="H187">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I187" t="s">
-        <v>12</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B188" t="str">
-        <f t="shared" si="119"/>
-        <v>MM070050</v>
-      </c>
-      <c r="C188">
-        <f t="shared" ref="C188:D188" si="178">C178+5</f>
-        <v>91</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="178"/>
-        <v>95</v>
-      </c>
-      <c r="E188">
-        <v>70</v>
-      </c>
-      <c r="F188">
-        <v>50</v>
-      </c>
-      <c r="G188">
-        <v>0.02</v>
-      </c>
-      <c r="H188">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I188" t="s">
-        <v>12</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B189" t="str">
-        <f t="shared" si="119"/>
-        <v>MM080050</v>
-      </c>
-      <c r="C189">
-        <f t="shared" ref="C189:D189" si="179">C179+5</f>
-        <v>91</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="179"/>
-        <v>95</v>
-      </c>
-      <c r="E189">
-        <v>80</v>
-      </c>
-      <c r="F189">
-        <v>50</v>
-      </c>
-      <c r="G189">
-        <v>0.02</v>
-      </c>
-      <c r="H189">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I189" t="s">
-        <v>12</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B190" t="str">
-        <f t="shared" si="119"/>
-        <v>MM090050</v>
-      </c>
-      <c r="C190">
-        <f t="shared" ref="C190:D190" si="180">C180+5</f>
-        <v>91</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="180"/>
-        <v>95</v>
-      </c>
-      <c r="E190">
-        <v>90</v>
-      </c>
-      <c r="F190">
-        <v>50</v>
-      </c>
-      <c r="G190">
-        <v>0.02</v>
-      </c>
-      <c r="H190">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I190" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B191" t="str">
-        <f t="shared" si="119"/>
-        <v>MM100050</v>
-      </c>
-      <c r="C191">
-        <f t="shared" ref="C191:D191" si="181">C181+5</f>
-        <v>91</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="181"/>
-        <v>95</v>
-      </c>
       <c r="E191">
         <v>100</v>
       </c>
@@ -7721,7 +7701,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I191" t="s">
         <v>12</v>
@@ -7735,15 +7715,15 @@
         <v>44768</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM010050</v>
       </c>
       <c r="C192">
-        <f t="shared" ref="C192:D192" si="182">C182+5</f>
-        <v>96</v>
+        <f t="shared" ref="C192:D192" si="171">C182+10</f>
+        <v>91</v>
       </c>
       <c r="D192">
-        <f t="shared" si="182"/>
+        <f t="shared" si="171"/>
         <v>100</v>
       </c>
       <c r="E192">
@@ -7756,7 +7736,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I192" t="s">
         <v>12</v>
@@ -7770,15 +7750,15 @@
         <v>44768</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="108"/>
         <v>MM020050</v>
       </c>
       <c r="C193">
-        <f t="shared" ref="C193:D193" si="183">C183+5</f>
-        <v>96</v>
+        <f t="shared" ref="C193:D193" si="172">C183+10</f>
+        <v>91</v>
       </c>
       <c r="D193">
-        <f t="shared" si="183"/>
+        <f t="shared" si="172"/>
         <v>100</v>
       </c>
       <c r="E193">
@@ -7791,7 +7771,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I193" t="s">
         <v>12</v>
@@ -7805,15 +7785,15 @@
         <v>44768</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B206" si="184">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <f t="shared" ref="B194:B206" si="173">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
         <v>MM030050</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:D194" si="185">C184+5</f>
-        <v>96</v>
+        <f t="shared" ref="C194:D194" si="174">C184+10</f>
+        <v>91</v>
       </c>
       <c r="D194">
-        <f t="shared" si="185"/>
+        <f t="shared" si="174"/>
         <v>100</v>
       </c>
       <c r="E194">
@@ -7826,7 +7806,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I194" t="s">
         <v>12</v>
@@ -7840,15 +7820,15 @@
         <v>44768</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM040050</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:D195" si="186">C185+5</f>
-        <v>96</v>
+        <f t="shared" ref="C195:D195" si="175">C185+10</f>
+        <v>91</v>
       </c>
       <c r="D195">
-        <f t="shared" si="186"/>
+        <f t="shared" si="175"/>
         <v>100</v>
       </c>
       <c r="E195">
@@ -7861,7 +7841,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I195" t="s">
         <v>12</v>
@@ -7875,15 +7855,15 @@
         <v>44768</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM050050</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:D196" si="187">C186+5</f>
-        <v>96</v>
+        <f t="shared" ref="C196:D196" si="176">C186+10</f>
+        <v>91</v>
       </c>
       <c r="D196">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>100</v>
       </c>
       <c r="E196">
@@ -7896,7 +7876,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I196" t="s">
         <v>12</v>
@@ -7910,15 +7890,15 @@
         <v>44768</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM060050</v>
       </c>
       <c r="C197">
-        <f t="shared" ref="C197:D197" si="188">C187+5</f>
-        <v>96</v>
+        <f t="shared" ref="C197:D197" si="177">C187+10</f>
+        <v>91</v>
       </c>
       <c r="D197">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>100</v>
       </c>
       <c r="E197">
@@ -7931,7 +7911,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I197" t="s">
         <v>12</v>
@@ -7945,15 +7925,15 @@
         <v>44768</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM070050</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:D198" si="189">C188+5</f>
-        <v>96</v>
+        <f t="shared" ref="C198:D198" si="178">C188+10</f>
+        <v>91</v>
       </c>
       <c r="D198">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>100</v>
       </c>
       <c r="E198">
@@ -7966,7 +7946,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I198" t="s">
         <v>12</v>
@@ -7980,15 +7960,15 @@
         <v>44768</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM080050</v>
       </c>
       <c r="C199">
-        <f t="shared" ref="C199:D199" si="190">C189+5</f>
-        <v>96</v>
+        <f t="shared" ref="C199:D199" si="179">C189+10</f>
+        <v>91</v>
       </c>
       <c r="D199">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>100</v>
       </c>
       <c r="E199">
@@ -8001,7 +7981,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I199" t="s">
         <v>12</v>
@@ -8015,15 +7995,15 @@
         <v>44768</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM090050</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:D201" si="191">C190+5</f>
-        <v>96</v>
+        <f t="shared" ref="C200:D200" si="180">C190+10</f>
+        <v>91</v>
       </c>
       <c r="D200">
-        <f t="shared" si="191"/>
+        <f t="shared" si="180"/>
         <v>100</v>
       </c>
       <c r="E200">
@@ -8036,7 +8016,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -8050,15 +8030,15 @@
         <v>44768</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM100050</v>
       </c>
       <c r="C201">
-        <f t="shared" si="191"/>
-        <v>96</v>
+        <f t="shared" ref="C201:D201" si="181">C191+10</f>
+        <v>91</v>
       </c>
       <c r="D201">
-        <f t="shared" si="191"/>
+        <f t="shared" si="181"/>
         <v>100</v>
       </c>
       <c r="E201">
@@ -8071,7 +8051,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I201" t="s">
         <v>12</v>
@@ -8088,14 +8068,14 @@
         <v>44768</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM000050</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D206" si="192">C202+9</f>
+        <f t="shared" ref="D202:D206" si="182">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -8122,7 +8102,7 @@
         <v>44768</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM000050</v>
       </c>
       <c r="C203">
@@ -8130,7 +8110,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" si="192"/>
+        <f t="shared" si="182"/>
         <v>20</v>
       </c>
       <c r="E203">
@@ -8157,15 +8137,15 @@
         <v>44768</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM000050</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C206" si="193">C203+10</f>
+        <f t="shared" ref="C204:C206" si="183">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
-        <f t="shared" si="192"/>
+        <f t="shared" si="182"/>
         <v>30</v>
       </c>
       <c r="E204">
@@ -8192,15 +8172,15 @@
         <v>44768</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM000050</v>
       </c>
       <c r="C205">
-        <f t="shared" si="193"/>
+        <f t="shared" si="183"/>
         <v>31</v>
       </c>
       <c r="D205">
-        <f t="shared" si="192"/>
+        <f t="shared" si="182"/>
         <v>40</v>
       </c>
       <c r="E205">
@@ -8227,15 +8207,15 @@
         <v>44768</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="173"/>
         <v>MM000050</v>
       </c>
       <c r="C206">
-        <f t="shared" si="193"/>
+        <f t="shared" si="183"/>
         <v>41</v>
       </c>
       <c r="D206">
-        <f t="shared" si="192"/>
+        <f t="shared" si="182"/>
         <v>50</v>
       </c>
       <c r="E206">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1057" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260046A2-E0F1-496E-8E60-03157D114A7F}"/>
+  <xr:revisionPtr revIDLastSave="1059" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0546D359-63F6-4222-B74B-CB67195B9E04}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102:H201"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1121,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1154,7 +1154,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1187,7 +1187,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1220,7 +1220,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1253,7 +1253,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1286,7 +1286,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1319,7 +1319,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1352,7 +1352,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1385,7 +1385,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1418,7 +1418,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1453,7 +1453,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1488,7 +1488,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1523,7 +1523,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1593,7 +1593,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1628,7 +1628,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1663,7 +1663,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1698,7 +1698,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1733,7 +1733,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1768,7 +1768,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1838,7 +1838,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1873,7 +1873,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1978,7 +1978,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2013,7 +2013,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2048,7 +2048,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2118,7 +2118,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2153,7 +2153,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2188,7 +2188,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2223,7 +2223,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2258,7 +2258,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2293,7 +2293,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2328,7 +2328,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2363,7 +2363,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2433,7 +2433,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2468,7 +2468,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2503,7 +2503,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2538,7 +2538,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2573,7 +2573,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2608,7 +2608,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2643,7 +2643,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2678,7 +2678,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2713,7 +2713,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2783,7 +2783,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2818,7 +2818,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2853,7 +2853,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2888,7 +2888,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2923,7 +2923,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2958,7 +2958,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2993,7 +2993,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -3028,7 +3028,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -3063,7 +3063,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -3098,7 +3098,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -3133,7 +3133,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -3168,7 +3168,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -3238,7 +3238,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -3273,7 +3273,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -3308,7 +3308,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -3343,7 +3343,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -3378,7 +3378,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -3413,7 +3413,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3483,7 +3483,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3518,7 +3518,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3553,7 +3553,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3588,7 +3588,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3623,7 +3623,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3658,7 +3658,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3693,7 +3693,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3728,7 +3728,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3763,7 +3763,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3833,7 +3833,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3868,7 +3868,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3903,7 +3903,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3973,7 +3973,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -4008,7 +4008,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -4043,7 +4043,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -4218,7 +4218,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -4253,7 +4253,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -4288,7 +4288,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -4323,7 +4323,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -4358,7 +4358,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -4393,7 +4393,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4428,7 +4428,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -4463,7 +4463,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -4498,7 +4498,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4533,7 +4533,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4568,7 +4568,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -4604,7 +4604,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4637,7 +4637,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4670,7 +4670,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4703,7 +4703,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4736,7 +4736,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4769,7 +4769,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -4802,7 +4802,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4835,7 +4835,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4868,7 +4868,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4901,7 +4901,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4936,7 +4936,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4971,7 +4971,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5006,7 +5006,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -5041,7 +5041,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -5076,7 +5076,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -5111,7 +5111,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -5146,7 +5146,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -5181,7 +5181,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -5216,7 +5216,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -5251,7 +5251,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -5286,7 +5286,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -5321,7 +5321,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -5356,7 +5356,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -5391,7 +5391,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -5426,7 +5426,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -5461,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -5496,7 +5496,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I128" t="s">
         <v>12</v>
@@ -5531,7 +5531,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I129" t="s">
         <v>12</v>
@@ -5566,7 +5566,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I130" t="s">
         <v>12</v>
@@ -5601,7 +5601,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I131" t="s">
         <v>12</v>
@@ -5636,7 +5636,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
@@ -5671,7 +5671,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -5706,7 +5706,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -5741,7 +5741,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I135" t="s">
         <v>12</v>
@@ -5776,7 +5776,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -5811,7 +5811,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I137" t="s">
         <v>12</v>
@@ -5846,7 +5846,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I138" t="s">
         <v>12</v>
@@ -5881,7 +5881,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I139" t="s">
         <v>12</v>
@@ -5916,7 +5916,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -5951,7 +5951,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I141" t="s">
         <v>12</v>
@@ -5986,7 +5986,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I142" t="s">
         <v>12</v>
@@ -6021,7 +6021,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -6056,7 +6056,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6091,7 +6091,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -6126,7 +6126,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I146" t="s">
         <v>12</v>
@@ -6161,7 +6161,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I147" t="s">
         <v>12</v>
@@ -6196,7 +6196,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -6231,7 +6231,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I149" t="s">
         <v>12</v>
@@ -6266,7 +6266,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I150" t="s">
         <v>12</v>
@@ -6301,7 +6301,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I151" t="s">
         <v>12</v>
@@ -6336,7 +6336,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6371,7 +6371,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I153" t="s">
         <v>12</v>
@@ -6406,7 +6406,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I154" t="s">
         <v>12</v>
@@ -6441,7 +6441,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -6476,7 +6476,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6511,7 +6511,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I157" t="s">
         <v>12</v>
@@ -6546,7 +6546,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I158" t="s">
         <v>12</v>
@@ -6581,7 +6581,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I159" t="s">
         <v>12</v>
@@ -6616,7 +6616,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I160" t="s">
         <v>12</v>
@@ -6651,7 +6651,7 @@
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I161" t="s">
         <v>12</v>
@@ -6686,7 +6686,7 @@
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I162" t="s">
         <v>12</v>
@@ -6721,7 +6721,7 @@
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I163" t="s">
         <v>12</v>
@@ -6756,7 +6756,7 @@
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I164" t="s">
         <v>12</v>
@@ -6791,7 +6791,7 @@
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I165" t="s">
         <v>12</v>
@@ -6826,7 +6826,7 @@
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I166" t="s">
         <v>12</v>
@@ -6861,7 +6861,7 @@
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I167" t="s">
         <v>12</v>
@@ -6896,7 +6896,7 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I168" t="s">
         <v>12</v>
@@ -6931,7 +6931,7 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -6966,7 +6966,7 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I170" t="s">
         <v>12</v>
@@ -7001,7 +7001,7 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I171" t="s">
         <v>12</v>
@@ -7036,7 +7036,7 @@
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I172" t="s">
         <v>12</v>
@@ -7071,7 +7071,7 @@
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I173" t="s">
         <v>12</v>
@@ -7106,7 +7106,7 @@
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I174" t="s">
         <v>12</v>
@@ -7141,7 +7141,7 @@
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I175" t="s">
         <v>12</v>
@@ -7176,7 +7176,7 @@
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I176" t="s">
         <v>12</v>
@@ -7211,7 +7211,7 @@
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I177" t="s">
         <v>12</v>
@@ -7246,7 +7246,7 @@
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I178" t="s">
         <v>12</v>
@@ -7281,7 +7281,7 @@
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I179" t="s">
         <v>12</v>
@@ -7316,7 +7316,7 @@
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I180" t="s">
         <v>12</v>
@@ -7351,7 +7351,7 @@
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I181" t="s">
         <v>12</v>
@@ -7386,7 +7386,7 @@
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I182" t="s">
         <v>12</v>
@@ -7421,7 +7421,7 @@
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I183" t="s">
         <v>12</v>
@@ -7456,7 +7456,7 @@
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I184" t="s">
         <v>12</v>
@@ -7491,7 +7491,7 @@
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I185" t="s">
         <v>12</v>
@@ -7526,7 +7526,7 @@
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I186" t="s">
         <v>12</v>
@@ -7561,7 +7561,7 @@
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I187" t="s">
         <v>12</v>
@@ -7596,7 +7596,7 @@
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I188" t="s">
         <v>12</v>
@@ -7631,7 +7631,7 @@
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I189" t="s">
         <v>12</v>
@@ -7666,7 +7666,7 @@
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I190" t="s">
         <v>12</v>
@@ -7701,7 +7701,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I191" t="s">
         <v>12</v>
@@ -7736,7 +7736,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I192" t="s">
         <v>12</v>
@@ -7771,7 +7771,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I193" t="s">
         <v>12</v>
@@ -7806,7 +7806,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I194" t="s">
         <v>12</v>
@@ -7841,7 +7841,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I195" t="s">
         <v>12</v>
@@ -7876,7 +7876,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I196" t="s">
         <v>12</v>
@@ -7911,7 +7911,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I197" t="s">
         <v>12</v>
@@ -7946,7 +7946,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I198" t="s">
         <v>12</v>
@@ -7981,7 +7981,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I199" t="s">
         <v>12</v>
@@ -8016,7 +8016,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -8051,7 +8051,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I201" t="s">
         <v>12</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1059" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0546D359-63F6-4222-B74B-CB67195B9E04}"/>
+  <xr:revisionPtr revIDLastSave="1061" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D96BE2F-7CBD-4C71-A74C-7A031AACCE35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1053,16 +1053,16 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -4580,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I128" t="s">
         <v>12</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="s">
         <v>12</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I130" t="s">
         <v>12</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I131" t="s">
         <v>12</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I135" t="s">
         <v>12</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="s">
         <v>12</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I138" t="s">
         <v>12</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I139" t="s">
         <v>12</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I141" t="s">
         <v>12</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I142" t="s">
         <v>12</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="s">
         <v>12</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I147" t="s">
         <v>12</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="s">
         <v>12</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I150" t="s">
         <v>12</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I151" t="s">
         <v>12</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I153" t="s">
         <v>12</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I154" t="s">
         <v>12</v>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I157" t="s">
         <v>12</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I158" t="s">
         <v>12</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I159" t="s">
         <v>12</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I160" t="s">
         <v>12</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I161" t="s">
         <v>12</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I162" t="s">
         <v>12</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I163" t="s">
         <v>12</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I164" t="s">
         <v>12</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I165" t="s">
         <v>12</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I166" t="s">
         <v>12</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I167" t="s">
         <v>12</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I168" t="s">
         <v>12</v>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I170" t="s">
         <v>12</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I171" t="s">
         <v>12</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I172" t="s">
         <v>12</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I173" t="s">
         <v>12</v>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I174" t="s">
         <v>12</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I175" t="s">
         <v>12</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I176" t="s">
         <v>12</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I177" t="s">
         <v>12</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I178" t="s">
         <v>12</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I179" t="s">
         <v>12</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I180" t="s">
         <v>12</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I181" t="s">
         <v>12</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I182" t="s">
         <v>12</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I183" t="s">
         <v>12</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I184" t="s">
         <v>12</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I185" t="s">
         <v>12</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I186" t="s">
         <v>12</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I187" t="s">
         <v>12</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I188" t="s">
         <v>12</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I189" t="s">
         <v>12</v>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I190" t="s">
         <v>12</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I191" t="s">
         <v>12</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="s">
         <v>12</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I193" t="s">
         <v>12</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I194" t="s">
         <v>12</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I195" t="s">
         <v>12</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I196" t="s">
         <v>12</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I197" t="s">
         <v>12</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I198" t="s">
         <v>12</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I199" t="s">
         <v>12</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I201" t="s">
         <v>12</v>
@@ -8063,7 +8063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A206" s="1">
         <v>44768</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D96BE2F-7CBD-4C71-A74C-7A031AACCE35}"/>
+  <xr:revisionPtr revIDLastSave="1064" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C39D195-8407-42DB-8C63-94D4603753E4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1121,7 +1121,7 @@
         <v>0.02</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1154,7 +1154,7 @@
         <v>0.02</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1187,7 +1187,7 @@
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1220,7 +1220,7 @@
         <v>0.02</v>
       </c>
       <c r="H5">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1253,7 +1253,7 @@
         <v>0.02</v>
       </c>
       <c r="H6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1286,7 +1286,7 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1319,7 +1319,7 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1352,7 +1352,7 @@
         <v>0.02</v>
       </c>
       <c r="H9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1385,7 +1385,7 @@
         <v>0.02</v>
       </c>
       <c r="H10">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1418,7 +1418,7 @@
         <v>0.02</v>
       </c>
       <c r="H11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1453,7 +1453,7 @@
         <v>0.02</v>
       </c>
       <c r="H12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1488,7 +1488,7 @@
         <v>0.02</v>
       </c>
       <c r="H13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1523,7 +1523,7 @@
         <v>0.02</v>
       </c>
       <c r="H14">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1558,7 +1558,7 @@
         <v>0.02</v>
       </c>
       <c r="H15">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1593,7 +1593,7 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1628,7 +1628,7 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1663,7 +1663,7 @@
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1698,7 +1698,7 @@
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1733,7 +1733,7 @@
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1768,7 +1768,7 @@
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1838,7 +1838,7 @@
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1873,7 +1873,7 @@
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1978,7 +1978,7 @@
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2013,7 +2013,7 @@
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2048,7 +2048,7 @@
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2118,7 +2118,7 @@
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2153,7 +2153,7 @@
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2188,7 +2188,7 @@
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2223,7 +2223,7 @@
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2258,7 +2258,7 @@
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2293,7 +2293,7 @@
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2328,7 +2328,7 @@
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2363,7 +2363,7 @@
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2433,7 +2433,7 @@
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2468,7 +2468,7 @@
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2503,7 +2503,7 @@
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2538,7 +2538,7 @@
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2573,7 +2573,7 @@
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2608,7 +2608,7 @@
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2643,7 +2643,7 @@
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2678,7 +2678,7 @@
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2713,7 +2713,7 @@
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2748,7 +2748,7 @@
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2783,7 +2783,7 @@
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2818,7 +2818,7 @@
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2853,7 +2853,7 @@
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2888,7 +2888,7 @@
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2923,7 +2923,7 @@
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2958,7 +2958,7 @@
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2993,7 +2993,7 @@
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -3028,7 +3028,7 @@
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -3063,7 +3063,7 @@
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -3098,7 +3098,7 @@
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -3133,7 +3133,7 @@
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -3168,7 +3168,7 @@
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -3238,7 +3238,7 @@
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -3273,7 +3273,7 @@
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -3308,7 +3308,7 @@
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -3343,7 +3343,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -3378,7 +3378,7 @@
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -3413,7 +3413,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3483,7 +3483,7 @@
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3518,7 +3518,7 @@
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3553,7 +3553,7 @@
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3588,7 +3588,7 @@
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3623,7 +3623,7 @@
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3658,7 +3658,7 @@
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3693,7 +3693,7 @@
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3728,7 +3728,7 @@
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3763,7 +3763,7 @@
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3833,7 +3833,7 @@
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3868,7 +3868,7 @@
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3903,7 +3903,7 @@
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3938,7 +3938,7 @@
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3973,7 +3973,7 @@
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -4008,7 +4008,7 @@
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -4043,7 +4043,7 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -4218,7 +4218,7 @@
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -4253,7 +4253,7 @@
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -4288,7 +4288,7 @@
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -4323,7 +4323,7 @@
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -4358,7 +4358,7 @@
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -4393,7 +4393,7 @@
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4428,7 +4428,7 @@
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -4463,7 +4463,7 @@
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -4498,7 +4498,7 @@
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4533,7 +4533,7 @@
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4568,7 +4568,7 @@
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1064" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C39D195-8407-42DB-8C63-94D4603753E4}"/>
+  <xr:revisionPtr revIDLastSave="1082" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AFEE5B-3A55-4212-B4C9-DF79E552E62A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1053,16 +1053,16 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1109,7 +1109,8 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <f>C2+$K$2-1</f>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1129,8 +1130,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1142,7 +1146,8 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <f t="shared" ref="D3:D11" si="1">C3+$K$2-1</f>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1163,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1175,7 +1180,8 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1208,7 +1214,8 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1229,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1241,7 +1248,8 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1262,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1274,7 +1282,8 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1295,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1307,7 +1316,8 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1328,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1340,7 +1350,8 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1361,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1373,7 +1384,8 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1394,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1406,7 +1418,8 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1427,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1436,12 +1449,12 @@
         <v>MM010050</v>
       </c>
       <c r="C12">
-        <f>C2+10</f>
-        <v>11</v>
+        <f>C2+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D12">
-        <f>D2+10</f>
-        <v>20</v>
+        <f>D2+$K$2</f>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1462,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1471,12 +1484,12 @@
         <v>MM020050</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="1">C3+10</f>
-        <v>11</v>
+        <f t="shared" ref="C13:D13" si="2">C3+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1497,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1506,12 +1519,12 @@
         <v>MM030050</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="2">C4+10</f>
-        <v>11</v>
+        <f t="shared" ref="C14:D14" si="3">C4+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1532,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1541,12 +1554,12 @@
         <v>MM040050</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D15" si="3">C5+10</f>
-        <v>11</v>
+        <f t="shared" ref="C15:D15" si="4">C5+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1567,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1576,12 +1589,12 @@
         <v>MM050050</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:D16" si="4">C6+10</f>
-        <v>11</v>
+        <f t="shared" ref="C16:D16" si="5">C6+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1602,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1611,12 +1624,12 @@
         <v>MM060050</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D17" si="5">C7+10</f>
-        <v>11</v>
+        <f t="shared" ref="C17:D17" si="6">C7+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1637,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1646,12 +1659,12 @@
         <v>MM070050</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="6">C8+10</f>
-        <v>11</v>
+        <f t="shared" ref="C18:D18" si="7">C8+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1672,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -1681,12 +1694,12 @@
         <v>MM080050</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="7">C9+10</f>
-        <v>11</v>
+        <f t="shared" ref="C19:D19" si="8">C9+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D19">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1707,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -1716,12 +1729,12 @@
         <v>MM090050</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="8">C10+10</f>
-        <v>11</v>
+        <f t="shared" ref="C20:D20" si="9">C10+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1742,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -1751,12 +1764,12 @@
         <v>MM100050</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="9">C11+10</f>
-        <v>11</v>
+        <f t="shared" ref="C21:D21" si="10">C11+$K$2</f>
+        <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1777,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -1786,12 +1799,12 @@
         <v>MM010050</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:D22" si="10">C12+10</f>
-        <v>21</v>
+        <f t="shared" ref="C22:D22" si="11">C12+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1812,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -1821,12 +1834,12 @@
         <v>MM020050</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="11">C13+10</f>
-        <v>21</v>
+        <f t="shared" ref="C23:D23" si="12">C13+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D23">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1847,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -1856,12 +1869,12 @@
         <v>MM030050</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="12">C14+10</f>
-        <v>21</v>
+        <f t="shared" ref="C24:D24" si="13">C14+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1882,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -1891,12 +1904,12 @@
         <v>MM040050</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="13">C15+10</f>
-        <v>21</v>
+        <f t="shared" ref="C25:D25" si="14">C15+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="13"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1917,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -1926,12 +1939,12 @@
         <v>MM050050</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:D26" si="14">C16+10</f>
-        <v>21</v>
+        <f t="shared" ref="C26:D26" si="15">C16+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1952,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -1961,12 +1974,12 @@
         <v>MM060050</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="15">C17+10</f>
-        <v>21</v>
+        <f t="shared" ref="C27:D27" si="16">C17+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -1987,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -1996,12 +2009,12 @@
         <v>MM070050</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="16">C18+10</f>
-        <v>21</v>
+        <f t="shared" ref="C28:D28" si="17">C18+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2022,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2031,12 +2044,12 @@
         <v>MM080050</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="17">C19+10</f>
-        <v>21</v>
+        <f t="shared" ref="C29:D29" si="18">C19+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D29">
-        <f t="shared" si="17"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2057,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2066,12 +2079,12 @@
         <v>MM090050</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="18">C20+10</f>
-        <v>21</v>
+        <f t="shared" ref="C30:D30" si="19">C20+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2092,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2101,12 +2114,12 @@
         <v>MM100050</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="19">C21+10</f>
-        <v>21</v>
+        <f t="shared" ref="C31:D31" si="20">C21+$K$2</f>
+        <v>5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2127,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2136,12 +2149,12 @@
         <v>MM010050</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="20">C22+10</f>
-        <v>31</v>
+        <f t="shared" ref="C32:D32" si="21">C22+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D32">
-        <f t="shared" si="20"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2162,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2171,12 +2184,12 @@
         <v>MM020050</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="21">C23+10</f>
-        <v>31</v>
+        <f t="shared" ref="C33:D33" si="22">C23+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D33">
-        <f t="shared" si="21"/>
-        <v>40</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2197,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2206,12 +2219,12 @@
         <v>MM030050</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="22">C24+10</f>
-        <v>31</v>
+        <f t="shared" ref="C34:D34" si="23">C24+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D34">
-        <f t="shared" si="22"/>
-        <v>40</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2232,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2241,12 +2254,12 @@
         <v>MM040050</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="23">C25+10</f>
-        <v>31</v>
+        <f t="shared" ref="C35:D35" si="24">C25+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <f t="shared" si="24"/>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2267,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2276,12 +2289,12 @@
         <v>MM050050</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="24">C26+10</f>
-        <v>31</v>
+        <f t="shared" ref="C36:D36" si="25">C26+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D36">
-        <f t="shared" si="24"/>
-        <v>40</v>
+        <f t="shared" si="25"/>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2302,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2311,12 +2324,12 @@
         <v>MM060050</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="25">C27+10</f>
-        <v>31</v>
+        <f t="shared" ref="C37:D37" si="26">C27+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" si="25"/>
-        <v>40</v>
+        <f t="shared" si="26"/>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2337,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2346,12 +2359,12 @@
         <v>MM070050</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="26">C28+10</f>
-        <v>31</v>
+        <f t="shared" ref="C38:D38" si="27">C28+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="26"/>
-        <v>40</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2372,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2381,12 +2394,12 @@
         <v>MM080050</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="27">C29+10</f>
-        <v>31</v>
+        <f t="shared" ref="C39:D39" si="28">C29+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D39">
-        <f t="shared" si="27"/>
-        <v>40</v>
+        <f t="shared" si="28"/>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2407,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2416,12 +2429,12 @@
         <v>MM090050</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="28">C30+10</f>
-        <v>31</v>
+        <f t="shared" ref="C40:D40" si="29">C30+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D40">
-        <f t="shared" si="28"/>
-        <v>40</v>
+        <f t="shared" si="29"/>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2442,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2451,12 +2464,12 @@
         <v>MM100050</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="29">C31+10</f>
-        <v>31</v>
+        <f t="shared" ref="C41:D41" si="30">C31+$K$2</f>
+        <v>7</v>
       </c>
       <c r="D41">
-        <f t="shared" si="29"/>
-        <v>40</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2477,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2486,12 +2499,12 @@
         <v>MM010050</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="30">C32+10</f>
-        <v>41</v>
+        <f t="shared" ref="C42:D42" si="31">C32+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D42">
-        <f t="shared" si="30"/>
-        <v>50</v>
+        <f t="shared" si="31"/>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2512,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2521,12 +2534,12 @@
         <v>MM020050</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:D43" si="31">C33+10</f>
-        <v>41</v>
+        <f t="shared" ref="C43:D43" si="32">C33+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D43">
-        <f t="shared" si="31"/>
-        <v>50</v>
+        <f t="shared" si="32"/>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2547,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2556,12 +2569,12 @@
         <v>MM030050</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="32">C34+10</f>
-        <v>41</v>
+        <f t="shared" ref="C44:D44" si="33">C34+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D44">
-        <f t="shared" si="32"/>
-        <v>50</v>
+        <f t="shared" si="33"/>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2582,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2591,12 +2604,12 @@
         <v>MM040050</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="33">C35+10</f>
-        <v>41</v>
+        <f t="shared" ref="C45:D45" si="34">C35+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D45">
-        <f t="shared" si="33"/>
-        <v>50</v>
+        <f t="shared" si="34"/>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2617,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2626,12 +2639,12 @@
         <v>MM050050</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="34">C36+10</f>
-        <v>41</v>
+        <f t="shared" ref="C46:D46" si="35">C36+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D46">
-        <f t="shared" si="34"/>
-        <v>50</v>
+        <f t="shared" si="35"/>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2652,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2661,12 +2674,12 @@
         <v>MM060050</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="35">C37+10</f>
-        <v>41</v>
+        <f t="shared" ref="C47:D47" si="36">C37+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D47">
-        <f t="shared" si="35"/>
-        <v>50</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2687,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2696,12 +2709,12 @@
         <v>MM070050</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="36">C38+10</f>
-        <v>41</v>
+        <f t="shared" ref="C48:D48" si="37">C38+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D48">
-        <f t="shared" si="36"/>
-        <v>50</v>
+        <f t="shared" si="37"/>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2722,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2731,12 +2744,12 @@
         <v>MM080050</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="37">C39+10</f>
-        <v>41</v>
+        <f t="shared" ref="C49:D49" si="38">C39+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D49">
-        <f t="shared" si="37"/>
-        <v>50</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2757,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2766,12 +2779,12 @@
         <v>MM090050</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:D50" si="38">C40+10</f>
-        <v>41</v>
+        <f t="shared" ref="C50:D50" si="39">C40+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="38"/>
-        <v>50</v>
+        <f t="shared" si="39"/>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2792,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2801,12 +2814,12 @@
         <v>MM100050</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:D51" si="39">C41+10</f>
-        <v>41</v>
+        <f t="shared" ref="C51:D51" si="40">C41+$K$2</f>
+        <v>9</v>
       </c>
       <c r="D51">
-        <f t="shared" si="39"/>
-        <v>50</v>
+        <f t="shared" si="40"/>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2827,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -2836,12 +2849,12 @@
         <v>MM010050</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="40">C42+10</f>
-        <v>51</v>
+        <f t="shared" ref="C52:D52" si="41">C42+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D52">
-        <f t="shared" si="40"/>
-        <v>60</v>
+        <f t="shared" si="41"/>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2862,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -2871,12 +2884,12 @@
         <v>MM020050</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="41">C43+10</f>
-        <v>51</v>
+        <f t="shared" ref="C53:D53" si="42">C43+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D53">
-        <f t="shared" si="41"/>
-        <v>60</v>
+        <f t="shared" si="42"/>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2897,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -2906,12 +2919,12 @@
         <v>MM030050</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="42">C44+10</f>
-        <v>51</v>
+        <f t="shared" ref="C54:D54" si="43">C44+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D54">
-        <f t="shared" si="42"/>
-        <v>60</v>
+        <f t="shared" si="43"/>
+        <v>12</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2932,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -2941,12 +2954,12 @@
         <v>MM040050</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:D55" si="43">C45+10</f>
-        <v>51</v>
+        <f t="shared" ref="C55:D55" si="44">C45+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D55">
-        <f t="shared" si="43"/>
-        <v>60</v>
+        <f t="shared" si="44"/>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2967,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -2976,12 +2989,12 @@
         <v>MM050050</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:D56" si="44">C46+10</f>
-        <v>51</v>
+        <f t="shared" ref="C56:D56" si="45">C46+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D56">
-        <f t="shared" si="44"/>
-        <v>60</v>
+        <f t="shared" si="45"/>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -3002,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -3011,12 +3024,12 @@
         <v>MM060050</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:D57" si="45">C47+10</f>
-        <v>51</v>
+        <f t="shared" ref="C57:D57" si="46">C47+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D57">
-        <f t="shared" si="45"/>
-        <v>60</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3037,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3046,12 +3059,12 @@
         <v>MM070050</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:D58" si="46">C48+10</f>
-        <v>51</v>
+        <f t="shared" ref="C58:D58" si="47">C48+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D58">
-        <f t="shared" si="46"/>
-        <v>60</v>
+        <f t="shared" si="47"/>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3072,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3081,12 +3094,12 @@
         <v>MM080050</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:D59" si="47">C49+10</f>
-        <v>51</v>
+        <f t="shared" ref="C59:D59" si="48">C49+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D59">
-        <f t="shared" si="47"/>
-        <v>60</v>
+        <f t="shared" si="48"/>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3107,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3116,12 +3129,12 @@
         <v>MM090050</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:D60" si="48">C50+10</f>
-        <v>51</v>
+        <f t="shared" ref="C60:D60" si="49">C50+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D60">
-        <f t="shared" si="48"/>
-        <v>60</v>
+        <f t="shared" si="49"/>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3142,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3151,12 +3164,12 @@
         <v>MM100050</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:D61" si="49">C51+10</f>
-        <v>51</v>
+        <f t="shared" ref="C61:D61" si="50">C51+$K$2</f>
+        <v>11</v>
       </c>
       <c r="D61">
-        <f t="shared" si="49"/>
-        <v>60</v>
+        <f t="shared" si="50"/>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3177,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3186,12 +3199,12 @@
         <v>MM010050</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:D62" si="50">C52+10</f>
-        <v>61</v>
+        <f t="shared" ref="C62:D62" si="51">C52+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D62">
-        <f t="shared" si="50"/>
-        <v>70</v>
+        <f t="shared" si="51"/>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3212,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3221,12 +3234,12 @@
         <v>MM020050</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:D63" si="51">C53+10</f>
-        <v>61</v>
+        <f t="shared" ref="C63:D63" si="52">C53+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D63">
-        <f t="shared" si="51"/>
-        <v>70</v>
+        <f t="shared" si="52"/>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3247,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3256,12 +3269,12 @@
         <v>MM030050</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:D64" si="52">C54+10</f>
-        <v>61</v>
+        <f t="shared" ref="C64:D64" si="53">C54+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D64">
-        <f t="shared" si="52"/>
-        <v>70</v>
+        <f t="shared" si="53"/>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3282,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3291,12 +3304,12 @@
         <v>MM040050</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:D65" si="53">C55+10</f>
-        <v>61</v>
+        <f t="shared" ref="C65:D65" si="54">C55+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D65">
-        <f t="shared" si="53"/>
-        <v>70</v>
+        <f t="shared" si="54"/>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3317,56 +3330,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="54">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
+        <f t="shared" ref="B66:B129" si="55">I66&amp;TEXT(E66,"000")&amp;TEXT(F66,"000")</f>
         <v>MM050050</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:D66" si="55">C56+10</f>
-        <v>61</v>
+        <f t="shared" ref="C66:D66" si="56">C56+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D66">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>0.02</v>
+      </c>
+      <c r="H66">
+        <v>0.02</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B67" t="str">
         <f t="shared" si="55"/>
-        <v>70</v>
-      </c>
-      <c r="E66">
-        <v>50</v>
-      </c>
-      <c r="F66">
-        <v>50</v>
-      </c>
-      <c r="G66">
-        <v>0.02</v>
-      </c>
-      <c r="H66">
-        <v>0.02</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A67" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="54"/>
         <v>MM060050</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D67" si="56">C57+10</f>
-        <v>61</v>
+        <f t="shared" ref="C67:D67" si="57">C57+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D67">
-        <f t="shared" si="56"/>
-        <v>70</v>
+        <f t="shared" si="57"/>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3387,21 +3400,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:D68" si="57">C58+10</f>
-        <v>61</v>
+        <f t="shared" ref="C68:D68" si="58">C58+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D68">
-        <f t="shared" si="57"/>
-        <v>70</v>
+        <f t="shared" si="58"/>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3422,21 +3435,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:D69" si="58">C59+10</f>
-        <v>61</v>
+        <f t="shared" ref="C69:D69" si="59">C59+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D69">
-        <f t="shared" si="58"/>
-        <v>70</v>
+        <f t="shared" si="59"/>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3457,21 +3470,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:D70" si="59">C60+10</f>
-        <v>61</v>
+        <f t="shared" ref="C70:D70" si="60">C60+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D70">
-        <f t="shared" si="59"/>
-        <v>70</v>
+        <f t="shared" si="60"/>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3492,21 +3505,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:D71" si="60">C61+10</f>
-        <v>61</v>
+        <f t="shared" ref="C71:D71" si="61">C61+$K$2</f>
+        <v>13</v>
       </c>
       <c r="D71">
-        <f t="shared" si="60"/>
-        <v>70</v>
+        <f t="shared" si="61"/>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3527,21 +3540,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:D72" si="61">C62+10</f>
-        <v>71</v>
+        <f t="shared" ref="C72:D72" si="62">C62+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D72">
-        <f t="shared" si="61"/>
-        <v>80</v>
+        <f t="shared" si="62"/>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3562,21 +3575,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:D73" si="62">C63+10</f>
-        <v>71</v>
+        <f t="shared" ref="C73:D73" si="63">C63+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D73">
-        <f t="shared" si="62"/>
-        <v>80</v>
+        <f t="shared" si="63"/>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3597,21 +3610,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:D74" si="63">C64+10</f>
-        <v>71</v>
+        <f t="shared" ref="C74:D74" si="64">C64+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D74">
-        <f t="shared" si="63"/>
-        <v>80</v>
+        <f t="shared" si="64"/>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3632,21 +3645,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:D75" si="64">C65+10</f>
-        <v>71</v>
+        <f t="shared" ref="C75:D75" si="65">C65+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D75">
-        <f t="shared" si="64"/>
-        <v>80</v>
+        <f t="shared" si="65"/>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3667,21 +3680,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:D76" si="65">C66+10</f>
-        <v>71</v>
+        <f t="shared" ref="C76:D76" si="66">C66+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D76">
-        <f t="shared" si="65"/>
-        <v>80</v>
+        <f t="shared" si="66"/>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3702,21 +3715,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:D77" si="66">C67+10</f>
-        <v>71</v>
+        <f t="shared" ref="C77:D77" si="67">C67+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D77">
-        <f t="shared" si="66"/>
-        <v>80</v>
+        <f t="shared" si="67"/>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3737,21 +3750,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:D78" si="67">C68+10</f>
-        <v>71</v>
+        <f t="shared" ref="C78:D78" si="68">C68+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D78">
-        <f t="shared" si="67"/>
-        <v>80</v>
+        <f t="shared" si="68"/>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3772,21 +3785,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:D79" si="68">C69+10</f>
-        <v>71</v>
+        <f t="shared" ref="C79:D79" si="69">C69+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D79">
-        <f t="shared" si="68"/>
-        <v>80</v>
+        <f t="shared" si="69"/>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3807,21 +3820,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:D80" si="69">C70+10</f>
-        <v>71</v>
+        <f t="shared" ref="C80:D80" si="70">C70+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D80">
-        <f t="shared" si="69"/>
-        <v>80</v>
+        <f t="shared" si="70"/>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3842,21 +3855,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:D81" si="70">C71+10</f>
-        <v>71</v>
+        <f t="shared" ref="C81:D81" si="71">C71+$K$2</f>
+        <v>15</v>
       </c>
       <c r="D81">
-        <f t="shared" si="70"/>
-        <v>80</v>
+        <f t="shared" si="71"/>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3877,21 +3890,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:D82" si="71">C72+10</f>
-        <v>81</v>
+        <f t="shared" ref="C82:D82" si="72">C72+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D82">
-        <f t="shared" si="71"/>
-        <v>90</v>
+        <f t="shared" si="72"/>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3912,21 +3925,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:D83" si="72">C73+10</f>
-        <v>81</v>
+        <f t="shared" ref="C83:D83" si="73">C73+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D83">
-        <f t="shared" si="72"/>
-        <v>90</v>
+        <f t="shared" si="73"/>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3947,21 +3960,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:D84" si="73">C74+10</f>
-        <v>81</v>
+        <f t="shared" ref="C84:D84" si="74">C74+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D84">
-        <f t="shared" si="73"/>
-        <v>90</v>
+        <f t="shared" si="74"/>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3982,21 +3995,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:D85" si="74">C75+10</f>
-        <v>81</v>
+        <f t="shared" ref="C85:D85" si="75">C75+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D85">
-        <f t="shared" si="74"/>
-        <v>90</v>
+        <f t="shared" si="75"/>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4017,21 +4030,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:D86" si="75">C76+10</f>
-        <v>81</v>
+        <f t="shared" ref="C86:D86" si="76">C76+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D86">
-        <f t="shared" si="75"/>
-        <v>90</v>
+        <f t="shared" si="76"/>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4052,21 +4065,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:D87" si="76">C77+10</f>
-        <v>81</v>
+        <f t="shared" ref="C87:D87" si="77">C77+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D87">
-        <f t="shared" si="76"/>
-        <v>90</v>
+        <f t="shared" si="77"/>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4087,21 +4100,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:D88" si="77">C78+10</f>
-        <v>81</v>
+        <f t="shared" ref="C88:D88" si="78">C78+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D88">
-        <f t="shared" si="77"/>
-        <v>90</v>
+        <f t="shared" si="78"/>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4122,21 +4135,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89:D89" si="78">C79+10</f>
-        <v>81</v>
+        <f t="shared" ref="C89:D89" si="79">C79+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D89">
-        <f t="shared" si="78"/>
-        <v>90</v>
+        <f t="shared" si="79"/>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4157,21 +4170,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:D90" si="79">C80+10</f>
-        <v>81</v>
+        <f t="shared" ref="C90:D90" si="80">C80+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D90">
-        <f t="shared" si="79"/>
-        <v>90</v>
+        <f t="shared" si="80"/>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4192,21 +4205,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:D91" si="80">C81+10</f>
-        <v>81</v>
+        <f t="shared" ref="C91:D91" si="81">C81+$K$2</f>
+        <v>17</v>
       </c>
       <c r="D91">
-        <f t="shared" si="80"/>
-        <v>90</v>
+        <f t="shared" si="81"/>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4227,21 +4240,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:D92" si="81">C82+10</f>
-        <v>91</v>
+        <f t="shared" ref="C92:D92" si="82">C82+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D92">
-        <f t="shared" si="81"/>
-        <v>100</v>
+        <f t="shared" si="82"/>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4262,21 +4275,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:D93" si="82">C83+10</f>
-        <v>91</v>
+        <f t="shared" ref="C93:D93" si="83">C83+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D93">
-        <f t="shared" si="82"/>
-        <v>100</v>
+        <f t="shared" si="83"/>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4297,21 +4310,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:D94" si="83">C84+10</f>
-        <v>91</v>
+        <f t="shared" ref="C94:D94" si="84">C84+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D94">
-        <f t="shared" si="83"/>
-        <v>100</v>
+        <f t="shared" si="84"/>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4332,21 +4345,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:D95" si="84">C85+10</f>
-        <v>91</v>
+        <f t="shared" ref="C95:D95" si="85">C85+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D95">
-        <f t="shared" si="84"/>
-        <v>100</v>
+        <f t="shared" si="85"/>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4367,21 +4380,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:D96" si="85">C86+10</f>
-        <v>91</v>
+        <f t="shared" ref="C96:D96" si="86">C86+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D96">
-        <f t="shared" si="85"/>
-        <v>100</v>
+        <f t="shared" si="86"/>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4402,21 +4415,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:D97" si="86">C87+10</f>
-        <v>91</v>
+        <f t="shared" ref="C97:D97" si="87">C87+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D97">
-        <f t="shared" si="86"/>
-        <v>100</v>
+        <f t="shared" si="87"/>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4437,21 +4450,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:D98" si="87">C88+10</f>
-        <v>91</v>
+        <f t="shared" ref="C98:D98" si="88">C88+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D98">
-        <f t="shared" si="87"/>
-        <v>100</v>
+        <f t="shared" si="88"/>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4472,21 +4485,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:D99" si="88">C89+10</f>
-        <v>91</v>
+        <f t="shared" ref="C99:D99" si="89">C89+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D99">
-        <f t="shared" si="88"/>
-        <v>100</v>
+        <f t="shared" si="89"/>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4507,21 +4520,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:D100" si="89">C90+10</f>
-        <v>91</v>
+        <f t="shared" ref="C100:D100" si="90">C90+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D100">
-        <f t="shared" si="89"/>
-        <v>100</v>
+        <f t="shared" si="90"/>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4542,21 +4555,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:D101" si="90">C91+10</f>
-        <v>91</v>
+        <f t="shared" ref="C101:D101" si="91">C91+$K$2</f>
+        <v>19</v>
       </c>
       <c r="D101">
-        <f t="shared" si="90"/>
-        <v>100</v>
+        <f t="shared" si="91"/>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4580,19 +4593,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <f t="shared" ref="C102:D102" si="92">C92+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <f t="shared" si="92"/>
+        <v>22</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4604,7 +4619,7 @@
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4613,19 +4628,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <f t="shared" ref="C103:D103" si="93">C93+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <f t="shared" si="93"/>
+        <v>22</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4637,7 +4654,7 @@
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4646,19 +4663,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <f t="shared" ref="C104:D104" si="94">C94+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <f t="shared" si="94"/>
+        <v>22</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4670,7 +4689,7 @@
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4679,19 +4698,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <f t="shared" ref="C105:D105" si="95">C95+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <f t="shared" si="95"/>
+        <v>22</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4703,7 +4724,7 @@
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4712,19 +4733,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <f t="shared" ref="C106:D106" si="96">C96+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <f t="shared" si="96"/>
+        <v>22</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4736,7 +4759,7 @@
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4745,19 +4768,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <f t="shared" ref="C107:D107" si="97">C97+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <f t="shared" si="97"/>
+        <v>22</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4769,7 +4794,7 @@
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -4778,19 +4803,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <f t="shared" ref="C108:D108" si="98">C98+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <f t="shared" si="98"/>
+        <v>22</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4802,7 +4829,7 @@
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4811,19 +4838,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <f t="shared" ref="C109:D109" si="99">C99+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <f t="shared" si="99"/>
+        <v>22</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4835,7 +4864,7 @@
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4844,19 +4873,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <f t="shared" ref="C110:D110" si="100">C100+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <f t="shared" si="100"/>
+        <v>22</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4868,7 +4899,7 @@
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4877,19 +4908,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <f t="shared" ref="C111:D111" si="101">C101+$K$2</f>
+        <v>21</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <f t="shared" si="101"/>
+        <v>22</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4901,7 +4934,7 @@
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4910,21 +4943,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C112">
-        <f>C102+10</f>
-        <v>11</v>
+        <f t="shared" ref="C112:D112" si="102">C102+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D112">
-        <f>D102+10</f>
-        <v>20</v>
+        <f t="shared" si="102"/>
+        <v>24</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4936,7 +4969,7 @@
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4945,21 +4978,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C113">
-        <f t="shared" ref="C113:D113" si="91">C103+10</f>
-        <v>11</v>
+        <f t="shared" ref="C113:D113" si="103">C103+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D113">
-        <f t="shared" si="91"/>
-        <v>20</v>
+        <f t="shared" si="103"/>
+        <v>24</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -4971,7 +5004,7 @@
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -4980,21 +5013,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:D114" si="92">C104+10</f>
-        <v>11</v>
+        <f t="shared" ref="C114:D114" si="104">C104+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D114">
-        <f t="shared" si="92"/>
-        <v>20</v>
+        <f t="shared" si="104"/>
+        <v>24</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5006,7 +5039,7 @@
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -5015,21 +5048,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:D115" si="93">C105+10</f>
-        <v>11</v>
+        <f t="shared" ref="C115:D115" si="105">C105+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D115">
-        <f t="shared" si="93"/>
-        <v>20</v>
+        <f t="shared" si="105"/>
+        <v>24</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5041,7 +5074,7 @@
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -5050,21 +5083,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:D116" si="94">C106+10</f>
-        <v>11</v>
+        <f t="shared" ref="C116:D116" si="106">C106+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D116">
-        <f t="shared" si="94"/>
-        <v>20</v>
+        <f t="shared" si="106"/>
+        <v>24</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5076,7 +5109,7 @@
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -5085,21 +5118,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:D117" si="95">C107+10</f>
-        <v>11</v>
+        <f t="shared" ref="C117:D117" si="107">C107+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D117">
-        <f t="shared" si="95"/>
-        <v>20</v>
+        <f t="shared" si="107"/>
+        <v>24</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5111,7 +5144,7 @@
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -5120,21 +5153,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:D118" si="96">C108+10</f>
-        <v>11</v>
+        <f t="shared" ref="C118:D118" si="108">C108+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D118">
-        <f t="shared" si="96"/>
-        <v>20</v>
+        <f t="shared" si="108"/>
+        <v>24</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5146,7 +5179,7 @@
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -5155,21 +5188,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:D119" si="97">C109+10</f>
-        <v>11</v>
+        <f t="shared" ref="C119:D119" si="109">C109+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D119">
-        <f t="shared" si="97"/>
-        <v>20</v>
+        <f t="shared" si="109"/>
+        <v>24</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5181,7 +5214,7 @@
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -5190,21 +5223,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM090050</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:D120" si="98">C110+10</f>
-        <v>11</v>
+        <f t="shared" ref="C120:D120" si="110">C110+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D120">
-        <f t="shared" si="98"/>
-        <v>20</v>
+        <f t="shared" si="110"/>
+        <v>24</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5216,7 +5249,7 @@
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -5225,21 +5258,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM100050</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:D121" si="99">C111+10</f>
-        <v>11</v>
+        <f t="shared" ref="C121:D121" si="111">C111+$K$2</f>
+        <v>23</v>
       </c>
       <c r="D121">
-        <f t="shared" si="99"/>
-        <v>20</v>
+        <f t="shared" si="111"/>
+        <v>24</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5251,7 +5284,7 @@
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -5260,21 +5293,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM010050</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:D122" si="100">C112+10</f>
-        <v>21</v>
+        <f t="shared" ref="C122:D122" si="112">C112+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D122">
-        <f t="shared" si="100"/>
-        <v>30</v>
+        <f t="shared" si="112"/>
+        <v>26</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5286,7 +5319,7 @@
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -5295,21 +5328,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM020050</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:D123" si="101">C113+10</f>
-        <v>21</v>
+        <f t="shared" ref="C123:D123" si="113">C113+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D123">
-        <f t="shared" si="101"/>
-        <v>30</v>
+        <f t="shared" si="113"/>
+        <v>26</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5321,7 +5354,7 @@
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -5330,21 +5363,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM030050</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:D124" si="102">C114+10</f>
-        <v>21</v>
+        <f t="shared" ref="C124:D124" si="114">C114+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D124">
-        <f t="shared" si="102"/>
-        <v>30</v>
+        <f t="shared" si="114"/>
+        <v>26</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5356,7 +5389,7 @@
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -5365,21 +5398,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM040050</v>
       </c>
       <c r="C125">
-        <f t="shared" ref="C125:D125" si="103">C115+10</f>
-        <v>21</v>
+        <f t="shared" ref="C125:D125" si="115">C115+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D125">
-        <f t="shared" si="103"/>
-        <v>30</v>
+        <f t="shared" si="115"/>
+        <v>26</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5391,7 +5424,7 @@
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -5400,21 +5433,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM050050</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:D126" si="104">C116+10</f>
-        <v>21</v>
+        <f t="shared" ref="C126:D126" si="116">C116+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D126">
-        <f t="shared" si="104"/>
-        <v>30</v>
+        <f t="shared" si="116"/>
+        <v>26</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5426,7 +5459,7 @@
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -5435,21 +5468,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM060050</v>
       </c>
       <c r="C127">
-        <f t="shared" ref="C127:D127" si="105">C117+10</f>
-        <v>21</v>
+        <f t="shared" ref="C127:D127" si="117">C117+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D127">
-        <f t="shared" si="105"/>
-        <v>30</v>
+        <f t="shared" si="117"/>
+        <v>26</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5461,7 +5494,7 @@
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -5470,21 +5503,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM070050</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:D128" si="106">C118+10</f>
-        <v>21</v>
+        <f t="shared" ref="C128:D128" si="118">C118+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D128">
-        <f t="shared" si="106"/>
-        <v>30</v>
+        <f t="shared" si="118"/>
+        <v>26</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5496,7 +5529,7 @@
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I128" t="s">
         <v>12</v>
@@ -5505,21 +5538,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MM080050</v>
       </c>
       <c r="C129">
-        <f t="shared" ref="C129:D129" si="107">C119+10</f>
-        <v>21</v>
+        <f t="shared" ref="C129:D129" si="119">C119+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D129">
-        <f t="shared" si="107"/>
-        <v>30</v>
+        <f t="shared" si="119"/>
+        <v>26</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5531,7 +5564,7 @@
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I129" t="s">
         <v>12</v>
@@ -5540,21 +5573,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="108">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
+        <f t="shared" ref="B130:B193" si="120">I130&amp;TEXT(E130,"000")&amp;TEXT(F130,"000")</f>
         <v>MM090050</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:D130" si="109">C120+10</f>
-        <v>21</v>
+        <f t="shared" ref="C130:D130" si="121">C120+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D130">
-        <f t="shared" si="109"/>
-        <v>30</v>
+        <f t="shared" si="121"/>
+        <v>26</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5566,7 +5599,7 @@
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I130" t="s">
         <v>12</v>
@@ -5575,21 +5608,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:D131" si="110">C121+10</f>
-        <v>21</v>
+        <f t="shared" ref="C131:D131" si="122">C121+$K$2</f>
+        <v>25</v>
       </c>
       <c r="D131">
-        <f t="shared" si="110"/>
-        <v>30</v>
+        <f t="shared" si="122"/>
+        <v>26</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5601,7 +5634,7 @@
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I131" t="s">
         <v>12</v>
@@ -5610,21 +5643,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:D132" si="111">C122+10</f>
-        <v>31</v>
+        <f t="shared" ref="C132:D132" si="123">C122+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D132">
-        <f t="shared" si="111"/>
-        <v>40</v>
+        <f t="shared" si="123"/>
+        <v>28</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5636,7 +5669,7 @@
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
@@ -5645,21 +5678,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:D133" si="112">C123+10</f>
-        <v>31</v>
+        <f t="shared" ref="C133:D133" si="124">C123+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D133">
-        <f t="shared" si="112"/>
-        <v>40</v>
+        <f t="shared" si="124"/>
+        <v>28</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5671,7 +5704,7 @@
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -5680,21 +5713,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:D134" si="113">C124+10</f>
-        <v>31</v>
+        <f t="shared" ref="C134:D134" si="125">C124+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D134">
-        <f t="shared" si="113"/>
-        <v>40</v>
+        <f t="shared" si="125"/>
+        <v>28</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5706,7 +5739,7 @@
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -5715,21 +5748,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:D135" si="114">C125+10</f>
-        <v>31</v>
+        <f t="shared" ref="C135:D135" si="126">C125+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D135">
-        <f t="shared" si="114"/>
-        <v>40</v>
+        <f t="shared" si="126"/>
+        <v>28</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5741,7 +5774,7 @@
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I135" t="s">
         <v>12</v>
@@ -5750,21 +5783,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:D136" si="115">C126+10</f>
-        <v>31</v>
+        <f t="shared" ref="C136:D136" si="127">C126+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D136">
-        <f t="shared" si="115"/>
-        <v>40</v>
+        <f t="shared" si="127"/>
+        <v>28</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5776,7 +5809,7 @@
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -5785,21 +5818,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:D137" si="116">C127+10</f>
-        <v>31</v>
+        <f t="shared" ref="C137:D137" si="128">C127+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D137">
-        <f t="shared" si="116"/>
-        <v>40</v>
+        <f t="shared" si="128"/>
+        <v>28</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5811,7 +5844,7 @@
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I137" t="s">
         <v>12</v>
@@ -5820,21 +5853,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:D138" si="117">C128+10</f>
-        <v>31</v>
+        <f t="shared" ref="C138:D138" si="129">C128+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D138">
-        <f t="shared" si="117"/>
-        <v>40</v>
+        <f t="shared" si="129"/>
+        <v>28</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5846,7 +5879,7 @@
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I138" t="s">
         <v>12</v>
@@ -5855,21 +5888,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:D139" si="118">C129+10</f>
-        <v>31</v>
+        <f t="shared" ref="C139:D139" si="130">C129+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D139">
-        <f t="shared" si="118"/>
-        <v>40</v>
+        <f t="shared" si="130"/>
+        <v>28</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5881,7 +5914,7 @@
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I139" t="s">
         <v>12</v>
@@ -5890,21 +5923,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C140">
-        <f t="shared" ref="C140:D140" si="119">C130+10</f>
-        <v>31</v>
+        <f t="shared" ref="C140:D140" si="131">C130+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D140">
-        <f t="shared" si="119"/>
-        <v>40</v>
+        <f t="shared" si="131"/>
+        <v>28</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5916,7 +5949,7 @@
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -5925,21 +5958,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C141">
-        <f t="shared" ref="C141:D141" si="120">C131+10</f>
-        <v>31</v>
+        <f t="shared" ref="C141:D141" si="132">C131+$K$2</f>
+        <v>27</v>
       </c>
       <c r="D141">
-        <f t="shared" si="120"/>
-        <v>40</v>
+        <f t="shared" si="132"/>
+        <v>28</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5951,7 +5984,7 @@
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I141" t="s">
         <v>12</v>
@@ -5960,21 +5993,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142:D142" si="121">C132+10</f>
-        <v>41</v>
+        <f t="shared" ref="C142:D142" si="133">C132+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D142">
-        <f t="shared" si="121"/>
-        <v>50</v>
+        <f t="shared" si="133"/>
+        <v>30</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5986,7 +6019,7 @@
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I142" t="s">
         <v>12</v>
@@ -5995,21 +6028,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C143">
-        <f t="shared" ref="C143:D143" si="122">C133+10</f>
-        <v>41</v>
+        <f t="shared" ref="C143:D143" si="134">C133+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D143">
-        <f t="shared" si="122"/>
-        <v>50</v>
+        <f t="shared" si="134"/>
+        <v>30</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6021,7 +6054,7 @@
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -6030,21 +6063,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:D144" si="123">C134+10</f>
-        <v>41</v>
+        <f t="shared" ref="C144:D144" si="135">C134+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D144">
-        <f t="shared" si="123"/>
-        <v>50</v>
+        <f t="shared" si="135"/>
+        <v>30</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6056,7 +6089,7 @@
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6065,21 +6098,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C145">
-        <f t="shared" ref="C145:D145" si="124">C135+10</f>
-        <v>41</v>
+        <f t="shared" ref="C145:D145" si="136">C135+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D145">
-        <f t="shared" si="124"/>
-        <v>50</v>
+        <f t="shared" si="136"/>
+        <v>30</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6091,7 +6124,7 @@
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -6100,21 +6133,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:D146" si="125">C136+10</f>
-        <v>41</v>
+        <f t="shared" ref="C146:D146" si="137">C136+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D146">
-        <f t="shared" si="125"/>
-        <v>50</v>
+        <f t="shared" si="137"/>
+        <v>30</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6126,7 +6159,7 @@
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="s">
         <v>12</v>
@@ -6135,21 +6168,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C147">
-        <f t="shared" ref="C147:D147" si="126">C137+10</f>
-        <v>41</v>
+        <f t="shared" ref="C147:D147" si="138">C137+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D147">
-        <f t="shared" si="126"/>
-        <v>50</v>
+        <f t="shared" si="138"/>
+        <v>30</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6161,7 +6194,7 @@
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I147" t="s">
         <v>12</v>
@@ -6170,21 +6203,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C148">
-        <f t="shared" ref="C148:D148" si="127">C138+10</f>
-        <v>41</v>
+        <f t="shared" ref="C148:D148" si="139">C138+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D148">
-        <f t="shared" si="127"/>
-        <v>50</v>
+        <f t="shared" si="139"/>
+        <v>30</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6196,7 +6229,7 @@
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -6205,21 +6238,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C149">
-        <f t="shared" ref="C149:D149" si="128">C139+10</f>
-        <v>41</v>
+        <f t="shared" ref="C149:D149" si="140">C139+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D149">
-        <f t="shared" si="128"/>
-        <v>50</v>
+        <f t="shared" si="140"/>
+        <v>30</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6231,7 +6264,7 @@
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="s">
         <v>12</v>
@@ -6240,21 +6273,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:D150" si="129">C140+10</f>
-        <v>41</v>
+        <f t="shared" ref="C150:D150" si="141">C140+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D150">
-        <f t="shared" si="129"/>
-        <v>50</v>
+        <f t="shared" si="141"/>
+        <v>30</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6266,7 +6299,7 @@
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I150" t="s">
         <v>12</v>
@@ -6275,21 +6308,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C151">
-        <f t="shared" ref="C151:D151" si="130">C141+10</f>
-        <v>41</v>
+        <f t="shared" ref="C151:D151" si="142">C141+$K$2</f>
+        <v>29</v>
       </c>
       <c r="D151">
-        <f t="shared" si="130"/>
-        <v>50</v>
+        <f t="shared" si="142"/>
+        <v>30</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6301,7 +6334,7 @@
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I151" t="s">
         <v>12</v>
@@ -6310,21 +6343,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C152">
-        <f t="shared" ref="C152:D152" si="131">C142+10</f>
-        <v>51</v>
+        <f t="shared" ref="C152:D152" si="143">C142+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D152">
-        <f t="shared" si="131"/>
-        <v>60</v>
+        <f t="shared" si="143"/>
+        <v>32</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6336,7 +6369,7 @@
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6345,21 +6378,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C153:D153" si="132">C143+10</f>
-        <v>51</v>
+        <f t="shared" ref="C153:D153" si="144">C143+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D153">
-        <f t="shared" si="132"/>
-        <v>60</v>
+        <f t="shared" si="144"/>
+        <v>32</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6371,7 +6404,7 @@
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I153" t="s">
         <v>12</v>
@@ -6380,21 +6413,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C154">
-        <f t="shared" ref="C154:D154" si="133">C144+10</f>
-        <v>51</v>
+        <f t="shared" ref="C154:D154" si="145">C144+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D154">
-        <f t="shared" si="133"/>
-        <v>60</v>
+        <f t="shared" si="145"/>
+        <v>32</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6406,7 +6439,7 @@
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I154" t="s">
         <v>12</v>
@@ -6415,21 +6448,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155:D155" si="134">C145+10</f>
-        <v>51</v>
+        <f t="shared" ref="C155:D155" si="146">C145+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D155">
-        <f t="shared" si="134"/>
-        <v>60</v>
+        <f t="shared" si="146"/>
+        <v>32</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6441,7 +6474,7 @@
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -6450,21 +6483,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C156">
-        <f t="shared" ref="C156:D156" si="135">C146+10</f>
-        <v>51</v>
+        <f t="shared" ref="C156:D156" si="147">C146+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D156">
-        <f t="shared" si="135"/>
-        <v>60</v>
+        <f t="shared" si="147"/>
+        <v>32</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6476,7 +6509,7 @@
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6485,21 +6518,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C157">
-        <f t="shared" ref="C157:D157" si="136">C147+10</f>
-        <v>51</v>
+        <f t="shared" ref="C157:D157" si="148">C147+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D157">
-        <f t="shared" si="136"/>
-        <v>60</v>
+        <f t="shared" si="148"/>
+        <v>32</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6511,7 +6544,7 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I157" t="s">
         <v>12</v>
@@ -6520,21 +6553,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C158">
-        <f t="shared" ref="C158:D158" si="137">C148+10</f>
-        <v>51</v>
+        <f t="shared" ref="C158:D158" si="149">C148+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D158">
-        <f t="shared" si="137"/>
-        <v>60</v>
+        <f t="shared" si="149"/>
+        <v>32</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6546,7 +6579,7 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I158" t="s">
         <v>12</v>
@@ -6555,21 +6588,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:D159" si="138">C149+10</f>
-        <v>51</v>
+        <f t="shared" ref="C159:D159" si="150">C149+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D159">
-        <f t="shared" si="138"/>
-        <v>60</v>
+        <f t="shared" si="150"/>
+        <v>32</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6581,7 +6614,7 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I159" t="s">
         <v>12</v>
@@ -6590,21 +6623,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C160">
-        <f t="shared" ref="C160:D160" si="139">C150+10</f>
-        <v>51</v>
+        <f t="shared" ref="C160:D160" si="151">C150+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D160">
-        <f t="shared" si="139"/>
-        <v>60</v>
+        <f t="shared" si="151"/>
+        <v>32</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6616,7 +6649,7 @@
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I160" t="s">
         <v>12</v>
@@ -6625,21 +6658,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C161">
-        <f t="shared" ref="C161:D161" si="140">C151+10</f>
-        <v>51</v>
+        <f t="shared" ref="C161:D161" si="152">C151+$K$2</f>
+        <v>31</v>
       </c>
       <c r="D161">
-        <f t="shared" si="140"/>
-        <v>60</v>
+        <f t="shared" si="152"/>
+        <v>32</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6651,7 +6684,7 @@
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I161" t="s">
         <v>12</v>
@@ -6660,21 +6693,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C162">
-        <f t="shared" ref="C162:D162" si="141">C152+10</f>
-        <v>61</v>
+        <f t="shared" ref="C162:D162" si="153">C152+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D162">
-        <f t="shared" si="141"/>
-        <v>70</v>
+        <f t="shared" si="153"/>
+        <v>34</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6686,7 +6719,7 @@
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I162" t="s">
         <v>12</v>
@@ -6695,21 +6728,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:D163" si="142">C153+10</f>
-        <v>61</v>
+        <f t="shared" ref="C163:D163" si="154">C153+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D163">
-        <f t="shared" si="142"/>
-        <v>70</v>
+        <f t="shared" si="154"/>
+        <v>34</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6721,7 +6754,7 @@
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I163" t="s">
         <v>12</v>
@@ -6730,21 +6763,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C164">
-        <f t="shared" ref="C164:D164" si="143">C154+10</f>
-        <v>61</v>
+        <f t="shared" ref="C164:D164" si="155">C154+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D164">
-        <f t="shared" si="143"/>
-        <v>70</v>
+        <f t="shared" si="155"/>
+        <v>34</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6756,7 +6789,7 @@
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I164" t="s">
         <v>12</v>
@@ -6765,21 +6798,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:D165" si="144">C155+10</f>
-        <v>61</v>
+        <f t="shared" ref="C165:D165" si="156">C155+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D165">
-        <f t="shared" si="144"/>
-        <v>70</v>
+        <f t="shared" si="156"/>
+        <v>34</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6791,7 +6824,7 @@
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I165" t="s">
         <v>12</v>
@@ -6800,21 +6833,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:D166" si="145">C156+10</f>
-        <v>61</v>
+        <f t="shared" ref="C166:D166" si="157">C156+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D166">
-        <f t="shared" si="145"/>
-        <v>70</v>
+        <f t="shared" si="157"/>
+        <v>34</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6826,7 +6859,7 @@
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I166" t="s">
         <v>12</v>
@@ -6835,21 +6868,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C167">
-        <f t="shared" ref="C167:D167" si="146">C157+10</f>
-        <v>61</v>
+        <f t="shared" ref="C167:D167" si="158">C157+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D167">
-        <f t="shared" si="146"/>
-        <v>70</v>
+        <f t="shared" si="158"/>
+        <v>34</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6861,7 +6894,7 @@
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I167" t="s">
         <v>12</v>
@@ -6870,21 +6903,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C168">
-        <f t="shared" ref="C168:D168" si="147">C158+10</f>
-        <v>61</v>
+        <f t="shared" ref="C168:D168" si="159">C158+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D168">
-        <f t="shared" si="147"/>
-        <v>70</v>
+        <f t="shared" si="159"/>
+        <v>34</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6896,7 +6929,7 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I168" t="s">
         <v>12</v>
@@ -6905,21 +6938,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:D169" si="148">C159+10</f>
-        <v>61</v>
+        <f t="shared" ref="C169:D169" si="160">C159+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D169">
-        <f t="shared" si="148"/>
-        <v>70</v>
+        <f t="shared" si="160"/>
+        <v>34</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6931,7 +6964,7 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -6940,21 +6973,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C170">
-        <f t="shared" ref="C170:D170" si="149">C160+10</f>
-        <v>61</v>
+        <f t="shared" ref="C170:D170" si="161">C160+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D170">
-        <f t="shared" si="149"/>
-        <v>70</v>
+        <f t="shared" si="161"/>
+        <v>34</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -6966,7 +6999,7 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I170" t="s">
         <v>12</v>
@@ -6975,21 +7008,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C171">
-        <f t="shared" ref="C171:D171" si="150">C161+10</f>
-        <v>61</v>
+        <f t="shared" ref="C171:D171" si="162">C161+$K$2</f>
+        <v>33</v>
       </c>
       <c r="D171">
-        <f t="shared" si="150"/>
-        <v>70</v>
+        <f t="shared" si="162"/>
+        <v>34</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -7001,7 +7034,7 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="s">
         <v>12</v>
@@ -7010,21 +7043,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C172">
-        <f t="shared" ref="C172:D172" si="151">C162+10</f>
-        <v>71</v>
+        <f t="shared" ref="C172:D172" si="163">C162+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D172">
-        <f t="shared" si="151"/>
-        <v>80</v>
+        <f t="shared" si="163"/>
+        <v>36</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -7036,7 +7069,7 @@
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I172" t="s">
         <v>12</v>
@@ -7045,21 +7078,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C173">
-        <f t="shared" ref="C173:D173" si="152">C163+10</f>
-        <v>71</v>
+        <f t="shared" ref="C173:D173" si="164">C163+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D173">
-        <f t="shared" si="152"/>
-        <v>80</v>
+        <f t="shared" si="164"/>
+        <v>36</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -7071,7 +7104,7 @@
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I173" t="s">
         <v>12</v>
@@ -7080,21 +7113,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:D174" si="153">C164+10</f>
-        <v>71</v>
+        <f t="shared" ref="C174:D174" si="165">C164+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D174">
-        <f t="shared" si="153"/>
-        <v>80</v>
+        <f t="shared" si="165"/>
+        <v>36</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -7106,7 +7139,7 @@
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I174" t="s">
         <v>12</v>
@@ -7115,21 +7148,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C175">
-        <f t="shared" ref="C175:D175" si="154">C165+10</f>
-        <v>71</v>
+        <f t="shared" ref="C175:D175" si="166">C165+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D175">
-        <f t="shared" si="154"/>
-        <v>80</v>
+        <f t="shared" si="166"/>
+        <v>36</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7141,7 +7174,7 @@
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I175" t="s">
         <v>12</v>
@@ -7150,21 +7183,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C176">
-        <f t="shared" ref="C176:D176" si="155">C166+10</f>
-        <v>71</v>
+        <f t="shared" ref="C176:D176" si="167">C166+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D176">
-        <f t="shared" si="155"/>
-        <v>80</v>
+        <f t="shared" si="167"/>
+        <v>36</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7176,7 +7209,7 @@
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I176" t="s">
         <v>12</v>
@@ -7185,21 +7218,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C177">
-        <f t="shared" ref="C177:D177" si="156">C167+10</f>
-        <v>71</v>
+        <f t="shared" ref="C177:D177" si="168">C167+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D177">
-        <f t="shared" si="156"/>
-        <v>80</v>
+        <f t="shared" si="168"/>
+        <v>36</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7211,7 +7244,7 @@
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I177" t="s">
         <v>12</v>
@@ -7220,21 +7253,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C178">
-        <f t="shared" ref="C178:D178" si="157">C168+10</f>
-        <v>71</v>
+        <f t="shared" ref="C178:D178" si="169">C168+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D178">
-        <f t="shared" si="157"/>
-        <v>80</v>
+        <f t="shared" si="169"/>
+        <v>36</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7246,7 +7279,7 @@
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I178" t="s">
         <v>12</v>
@@ -7255,21 +7288,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C179">
-        <f t="shared" ref="C179:D179" si="158">C169+10</f>
-        <v>71</v>
+        <f t="shared" ref="C179:D179" si="170">C169+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D179">
-        <f t="shared" si="158"/>
-        <v>80</v>
+        <f t="shared" si="170"/>
+        <v>36</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7281,7 +7314,7 @@
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I179" t="s">
         <v>12</v>
@@ -7290,21 +7323,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:D180" si="159">C170+10</f>
-        <v>71</v>
+        <f t="shared" ref="C180:D180" si="171">C170+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D180">
-        <f t="shared" si="159"/>
-        <v>80</v>
+        <f t="shared" si="171"/>
+        <v>36</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7316,7 +7349,7 @@
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I180" t="s">
         <v>12</v>
@@ -7325,21 +7358,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C181">
-        <f t="shared" ref="C181:D181" si="160">C171+10</f>
-        <v>71</v>
+        <f t="shared" ref="C181:D181" si="172">C171+$K$2</f>
+        <v>35</v>
       </c>
       <c r="D181">
-        <f t="shared" si="160"/>
-        <v>80</v>
+        <f t="shared" si="172"/>
+        <v>36</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7351,7 +7384,7 @@
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I181" t="s">
         <v>12</v>
@@ -7360,21 +7393,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C182">
-        <f t="shared" ref="C182:D182" si="161">C172+10</f>
-        <v>81</v>
+        <f t="shared" ref="C182:D182" si="173">C172+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D182">
-        <f t="shared" si="161"/>
-        <v>90</v>
+        <f t="shared" si="173"/>
+        <v>38</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7386,7 +7419,7 @@
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I182" t="s">
         <v>12</v>
@@ -7395,21 +7428,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C183">
-        <f t="shared" ref="C183:D183" si="162">C173+10</f>
-        <v>81</v>
+        <f t="shared" ref="C183:D183" si="174">C173+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D183">
-        <f t="shared" si="162"/>
-        <v>90</v>
+        <f t="shared" si="174"/>
+        <v>38</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7421,7 +7454,7 @@
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I183" t="s">
         <v>12</v>
@@ -7430,21 +7463,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM030050</v>
       </c>
       <c r="C184">
-        <f t="shared" ref="C184:D184" si="163">C174+10</f>
-        <v>81</v>
+        <f t="shared" ref="C184:D184" si="175">C174+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D184">
-        <f t="shared" si="163"/>
-        <v>90</v>
+        <f t="shared" si="175"/>
+        <v>38</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7456,7 +7489,7 @@
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I184" t="s">
         <v>12</v>
@@ -7465,21 +7498,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM040050</v>
       </c>
       <c r="C185">
-        <f t="shared" ref="C185:D185" si="164">C175+10</f>
-        <v>81</v>
+        <f t="shared" ref="C185:D185" si="176">C175+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D185">
-        <f t="shared" si="164"/>
-        <v>90</v>
+        <f t="shared" si="176"/>
+        <v>38</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7491,7 +7524,7 @@
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I185" t="s">
         <v>12</v>
@@ -7500,21 +7533,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM050050</v>
       </c>
       <c r="C186">
-        <f t="shared" ref="C186:D186" si="165">C176+10</f>
-        <v>81</v>
+        <f t="shared" ref="C186:D186" si="177">C176+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D186">
-        <f t="shared" si="165"/>
-        <v>90</v>
+        <f t="shared" si="177"/>
+        <v>38</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7526,7 +7559,7 @@
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I186" t="s">
         <v>12</v>
@@ -7535,21 +7568,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM060050</v>
       </c>
       <c r="C187">
-        <f t="shared" ref="C187:D187" si="166">C177+10</f>
-        <v>81</v>
+        <f t="shared" ref="C187:D187" si="178">C177+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D187">
-        <f t="shared" si="166"/>
-        <v>90</v>
+        <f t="shared" si="178"/>
+        <v>38</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7561,7 +7594,7 @@
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I187" t="s">
         <v>12</v>
@@ -7570,21 +7603,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM070050</v>
       </c>
       <c r="C188">
-        <f t="shared" ref="C188:D188" si="167">C178+10</f>
-        <v>81</v>
+        <f t="shared" ref="C188:D188" si="179">C178+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D188">
-        <f t="shared" si="167"/>
-        <v>90</v>
+        <f t="shared" si="179"/>
+        <v>38</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7596,7 +7629,7 @@
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I188" t="s">
         <v>12</v>
@@ -7605,21 +7638,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM080050</v>
       </c>
       <c r="C189">
-        <f t="shared" ref="C189:D189" si="168">C179+10</f>
-        <v>81</v>
+        <f t="shared" ref="C189:D189" si="180">C179+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D189">
-        <f t="shared" si="168"/>
-        <v>90</v>
+        <f t="shared" si="180"/>
+        <v>38</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7631,7 +7664,7 @@
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I189" t="s">
         <v>12</v>
@@ -7640,21 +7673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM090050</v>
       </c>
       <c r="C190">
-        <f t="shared" ref="C190:D190" si="169">C180+10</f>
-        <v>81</v>
+        <f t="shared" ref="C190:D190" si="181">C180+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D190">
-        <f t="shared" si="169"/>
-        <v>90</v>
+        <f t="shared" si="181"/>
+        <v>38</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7666,7 +7699,7 @@
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I190" t="s">
         <v>12</v>
@@ -7675,21 +7708,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM100050</v>
       </c>
       <c r="C191">
-        <f t="shared" ref="C191:D191" si="170">C181+10</f>
-        <v>81</v>
+        <f t="shared" ref="C191:D191" si="182">C181+$K$2</f>
+        <v>37</v>
       </c>
       <c r="D191">
-        <f t="shared" si="170"/>
-        <v>90</v>
+        <f t="shared" si="182"/>
+        <v>38</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7701,7 +7734,7 @@
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I191" t="s">
         <v>12</v>
@@ -7710,21 +7743,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM010050</v>
       </c>
       <c r="C192">
-        <f t="shared" ref="C192:D192" si="171">C182+10</f>
-        <v>91</v>
+        <f t="shared" ref="C192:D192" si="183">C182+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D192">
-        <f t="shared" si="171"/>
-        <v>100</v>
+        <f t="shared" si="183"/>
+        <v>40</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7736,7 +7769,7 @@
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I192" t="s">
         <v>12</v>
@@ -7745,21 +7778,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>MM020050</v>
       </c>
       <c r="C193">
-        <f t="shared" ref="C193:D193" si="172">C183+10</f>
-        <v>91</v>
+        <f t="shared" ref="C193:D193" si="184">C183+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D193">
-        <f t="shared" si="172"/>
-        <v>100</v>
+        <f t="shared" si="184"/>
+        <v>40</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7771,7 +7804,7 @@
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I193" t="s">
         <v>12</v>
@@ -7780,21 +7813,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B206" si="173">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
+        <f t="shared" ref="B194:B206" si="185">I194&amp;TEXT(E194,"000")&amp;TEXT(F194,"000")</f>
         <v>MM030050</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:D194" si="174">C184+10</f>
-        <v>91</v>
+        <f t="shared" ref="C194:D194" si="186">C184+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D194">
-        <f t="shared" si="174"/>
-        <v>100</v>
+        <f t="shared" si="186"/>
+        <v>40</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7806,7 +7839,7 @@
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I194" t="s">
         <v>12</v>
@@ -7815,21 +7848,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM040050</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:D195" si="175">C185+10</f>
-        <v>91</v>
+        <f t="shared" ref="C195:D195" si="187">C185+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D195">
-        <f t="shared" si="175"/>
-        <v>100</v>
+        <f t="shared" si="187"/>
+        <v>40</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7841,7 +7874,7 @@
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I195" t="s">
         <v>12</v>
@@ -7850,21 +7883,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM050050</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:D196" si="176">C186+10</f>
-        <v>91</v>
+        <f t="shared" ref="C196:D196" si="188">C186+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D196">
-        <f t="shared" si="176"/>
-        <v>100</v>
+        <f t="shared" si="188"/>
+        <v>40</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7876,7 +7909,7 @@
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I196" t="s">
         <v>12</v>
@@ -7885,21 +7918,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM060050</v>
       </c>
       <c r="C197">
-        <f t="shared" ref="C197:D197" si="177">C187+10</f>
-        <v>91</v>
+        <f t="shared" ref="C197:D197" si="189">C187+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D197">
-        <f t="shared" si="177"/>
-        <v>100</v>
+        <f t="shared" si="189"/>
+        <v>40</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7911,7 +7944,7 @@
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I197" t="s">
         <v>12</v>
@@ -7920,21 +7953,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM070050</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:D198" si="178">C188+10</f>
-        <v>91</v>
+        <f t="shared" ref="C198:D198" si="190">C188+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D198">
-        <f t="shared" si="178"/>
-        <v>100</v>
+        <f t="shared" si="190"/>
+        <v>40</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7946,7 +7979,7 @@
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I198" t="s">
         <v>12</v>
@@ -7955,21 +7988,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM080050</v>
       </c>
       <c r="C199">
-        <f t="shared" ref="C199:D199" si="179">C189+10</f>
-        <v>91</v>
+        <f t="shared" ref="C199:D199" si="191">C189+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D199">
-        <f t="shared" si="179"/>
-        <v>100</v>
+        <f t="shared" si="191"/>
+        <v>40</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -7981,7 +8014,7 @@
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I199" t="s">
         <v>12</v>
@@ -7990,21 +8023,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM090050</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:D200" si="180">C190+10</f>
-        <v>91</v>
+        <f t="shared" ref="C200:D200" si="192">C190+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D200">
-        <f t="shared" si="180"/>
-        <v>100</v>
+        <f t="shared" si="192"/>
+        <v>40</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -8016,7 +8049,7 @@
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -8025,21 +8058,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM100050</v>
       </c>
       <c r="C201">
-        <f t="shared" ref="C201:D201" si="181">C191+10</f>
-        <v>91</v>
+        <f t="shared" ref="C201:D201" si="193">C191+$K$2</f>
+        <v>39</v>
       </c>
       <c r="D201">
-        <f t="shared" si="181"/>
-        <v>100</v>
+        <f t="shared" si="193"/>
+        <v>40</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -8051,7 +8084,7 @@
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I201" t="s">
         <v>12</v>
@@ -8063,19 +8096,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM000050</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D206" si="182">C202+9</f>
+        <f t="shared" ref="D202:D206" si="194">C202+9</f>
         <v>10</v>
       </c>
       <c r="E202">
@@ -8097,12 +8130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM000050</v>
       </c>
       <c r="C203">
@@ -8110,7 +8143,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>20</v>
       </c>
       <c r="E203">
@@ -8132,20 +8165,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM000050</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C206" si="183">C203+10</f>
+        <f t="shared" ref="C204:C206" si="195">C203+10</f>
         <v>21</v>
       </c>
       <c r="D204">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>30</v>
       </c>
       <c r="E204">
@@ -8167,20 +8200,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM000050</v>
       </c>
       <c r="C205">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>31</v>
       </c>
       <c r="D205">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>40</v>
       </c>
       <c r="E205">
@@ -8202,20 +8235,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44768</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>MM000050</v>
       </c>
       <c r="C206">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>41</v>
       </c>
       <c r="D206">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>50</v>
       </c>
       <c r="E206">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1082" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AFEE5B-3A55-4212-B4C9-DF79E552E62A}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701D6F4A-2686-4BF0-9906-30FFAD8D94B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1053,16 +1053,16 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>44768</v>
       </c>
@@ -1106,11 +1106,11 @@
         <v>MM010050</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <f>C2+$K$2-1</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>44768</v>
       </c>
@@ -1143,11 +1143,11 @@
         <v>MM020050</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="1">C3+$K$2-1</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -1177,11 +1177,11 @@
         <v>MM030050</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>44768</v>
       </c>
@@ -1211,11 +1211,11 @@
         <v>MM040050</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>44768</v>
       </c>
@@ -1245,11 +1245,11 @@
         <v>MM050050</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44768</v>
       </c>
@@ -1279,11 +1279,11 @@
         <v>MM060050</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>44768</v>
       </c>
@@ -1313,11 +1313,11 @@
         <v>MM070050</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>44768</v>
       </c>
@@ -1347,11 +1347,11 @@
         <v>MM080050</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1381,11 +1381,11 @@
         <v>MM090050</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>44768</v>
       </c>
@@ -1415,11 +1415,11 @@
         <v>MM100050</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>44768</v>
       </c>
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C12">
         <f>C2+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <f>D2+$K$2</f>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="2">C3+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>44768</v>
       </c>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="3">C4+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44768</v>
       </c>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:D15" si="4">C5+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>44768</v>
       </c>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:D16" si="5">C6+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>44768</v>
       </c>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:D17" si="6">C7+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>44768</v>
       </c>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:D18" si="7">C8+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>44768</v>
       </c>
@@ -1695,11 +1695,11 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D19" si="8">C9+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>44768</v>
       </c>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D20" si="9">C10+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>44768</v>
       </c>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:D21" si="10">C11+$K$2</f>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>44768</v>
       </c>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:D22" si="11">C12+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>44768</v>
       </c>
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:D23" si="12">C13+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>44768</v>
       </c>
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D24" si="13">C14+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>44768</v>
       </c>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25:D25" si="14">C15+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>44768</v>
       </c>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:D26" si="15">C16+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>44768</v>
       </c>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="16">C17+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>44768</v>
       </c>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="17">C18+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>44768</v>
       </c>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:D29" si="18">C19+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <f t="shared" si="18"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>44768</v>
       </c>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:D30" si="19">C20+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>44768</v>
       </c>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="20">C21+$K$2</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>44768</v>
       </c>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:D32" si="21">C22+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>44768</v>
       </c>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:D33" si="22">C23+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:D34" si="23">C24+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>44768</v>
       </c>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:D35" si="24">C25+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>44768</v>
       </c>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:D36" si="25">C26+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>44768</v>
       </c>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:D37" si="26">C27+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>44768</v>
       </c>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:D38" si="27">C28+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D38">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>44768</v>
       </c>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:D39" si="28">C29+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>44768</v>
       </c>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:D40" si="29">C30+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D40">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>44768</v>
       </c>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:D41" si="30">C31+$K$2</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>44768</v>
       </c>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:D42" si="31">C32+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D42">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>44768</v>
       </c>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="C43">
         <f t="shared" ref="C43:D43" si="32">C33+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>44768</v>
       </c>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:D44" si="33">C34+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>44768</v>
       </c>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:D45" si="34">C35+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>44768</v>
       </c>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:D46" si="35">C36+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D46">
         <f t="shared" si="35"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>44768</v>
       </c>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="C47">
         <f t="shared" ref="C47:D47" si="36">C37+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44768</v>
       </c>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:D48" si="37">C38+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>44768</v>
       </c>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="C49">
         <f t="shared" ref="C49:D49" si="38">C39+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>44768</v>
       </c>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:D50" si="39">C40+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D50">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>44768</v>
       </c>
@@ -2815,11 +2815,11 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:D51" si="40">C41+$K$2</f>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D51">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>44768</v>
       </c>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="C52">
         <f t="shared" ref="C52:D52" si="41">C42+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D52">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>44768</v>
       </c>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:D53" si="42">C43+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <f t="shared" si="42"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>44768</v>
       </c>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D54" si="43">C44+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <f t="shared" si="43"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>44768</v>
       </c>
@@ -2955,11 +2955,11 @@
       </c>
       <c r="C55">
         <f t="shared" ref="C55:D55" si="44">C45+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D55">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>44768</v>
       </c>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D56" si="45">C46+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <f t="shared" si="45"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>44768</v>
       </c>
@@ -3025,11 +3025,11 @@
       </c>
       <c r="C57">
         <f t="shared" ref="C57:D57" si="46">C47+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D57">
         <f t="shared" si="46"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>44768</v>
       </c>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="C58">
         <f t="shared" ref="C58:D58" si="47">C48+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>44768</v>
       </c>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:D59" si="48">C49+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <f t="shared" si="48"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>44768</v>
       </c>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="C60">
         <f t="shared" ref="C60:D60" si="49">C50+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D60">
         <f t="shared" si="49"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>44768</v>
       </c>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:D61" si="50">C51+$K$2</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D61">
         <f t="shared" si="50"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>44768</v>
       </c>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="C62">
         <f t="shared" ref="C62:D62" si="51">C52+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D62">
         <f t="shared" si="51"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>44768</v>
       </c>
@@ -3235,11 +3235,11 @@
       </c>
       <c r="C63">
         <f t="shared" ref="C63:D63" si="52">C53+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D63">
         <f t="shared" si="52"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="C64">
         <f t="shared" ref="C64:D64" si="53">C54+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D64">
         <f t="shared" si="53"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>44768</v>
       </c>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="C65">
         <f t="shared" ref="C65:D65" si="54">C55+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>44768</v>
       </c>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="C66">
         <f t="shared" ref="C66:D66" si="56">C56+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <f t="shared" si="56"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>44768</v>
       </c>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:D67" si="57">C57+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D67">
         <f t="shared" si="57"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>44768</v>
       </c>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:D68" si="58">C58+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D68">
         <f t="shared" si="58"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>44768</v>
       </c>
@@ -3445,11 +3445,11 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:D69" si="59">C59+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <f t="shared" si="59"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>44768</v>
       </c>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="C70">
         <f t="shared" ref="C70:D70" si="60">C60+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <f t="shared" si="60"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>44768</v>
       </c>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="C71">
         <f t="shared" ref="C71:D71" si="61">C61+$K$2</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <f t="shared" si="61"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>44768</v>
       </c>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:D72" si="62">C62+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D72">
         <f t="shared" si="62"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>44768</v>
       </c>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="63">C63+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D73">
         <f t="shared" si="63"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>44768</v>
       </c>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C74">
         <f t="shared" ref="C74:D74" si="64">C64+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <f t="shared" si="64"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>44768</v>
       </c>
@@ -3655,11 +3655,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:D75" si="65">C65+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <f t="shared" si="65"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>44768</v>
       </c>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76:D76" si="66">C66+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D76">
         <f t="shared" si="66"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>44768</v>
       </c>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="C77">
         <f t="shared" ref="C77:D77" si="67">C67+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <f t="shared" si="67"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>44768</v>
       </c>
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C78">
         <f t="shared" ref="C78:D78" si="68">C68+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <f t="shared" si="68"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>44768</v>
       </c>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="C79">
         <f t="shared" ref="C79:D79" si="69">C69+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D79">
         <f t="shared" si="69"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>44768</v>
       </c>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="C80">
         <f t="shared" ref="C80:D80" si="70">C70+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D80">
         <f t="shared" si="70"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>44768</v>
       </c>
@@ -3865,11 +3865,11 @@
       </c>
       <c r="C81">
         <f t="shared" ref="C81:D81" si="71">C71+$K$2</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>44768</v>
       </c>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="72">C72+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D82">
         <f t="shared" si="72"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>44768</v>
       </c>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="C83">
         <f t="shared" ref="C83:D83" si="73">C73+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <f t="shared" si="73"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>44768</v>
       </c>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="C84">
         <f t="shared" ref="C84:D84" si="74">C74+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D84">
         <f t="shared" si="74"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>44768</v>
       </c>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="C85">
         <f t="shared" ref="C85:D85" si="75">C75+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D85">
         <f t="shared" si="75"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>44768</v>
       </c>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="C86">
         <f t="shared" ref="C86:D86" si="76">C76+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D86">
         <f t="shared" si="76"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>44768</v>
       </c>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="C87">
         <f t="shared" ref="C87:D87" si="77">C77+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D87">
         <f t="shared" si="77"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>44768</v>
       </c>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:D88" si="78">C78+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D88">
         <f t="shared" si="78"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>44768</v>
       </c>
@@ -4145,11 +4145,11 @@
       </c>
       <c r="C89">
         <f t="shared" ref="C89:D89" si="79">C79+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D89">
         <f t="shared" si="79"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>44768</v>
       </c>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="C90">
         <f t="shared" ref="C90:D90" si="80">C80+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D90">
         <f t="shared" si="80"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>44768</v>
       </c>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="C91">
         <f t="shared" ref="C91:D91" si="81">C81+$K$2</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D91">
         <f t="shared" si="81"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>44768</v>
       </c>
@@ -4250,11 +4250,11 @@
       </c>
       <c r="C92">
         <f t="shared" ref="C92:D92" si="82">C82+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <f t="shared" si="82"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>44768</v>
       </c>
@@ -4285,11 +4285,11 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:D93" si="83">C83+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D93">
         <f t="shared" si="83"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>44768</v>
       </c>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="C94">
         <f t="shared" ref="C94:D94" si="84">C84+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D94">
         <f t="shared" si="84"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>44768</v>
       </c>
@@ -4355,11 +4355,11 @@
       </c>
       <c r="C95">
         <f t="shared" ref="C95:D95" si="85">C85+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D95">
         <f t="shared" si="85"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>44768</v>
       </c>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="C96">
         <f t="shared" ref="C96:D96" si="86">C86+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D96">
         <f t="shared" si="86"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>44768</v>
       </c>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="C97">
         <f t="shared" ref="C97:D97" si="87">C87+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D97">
         <f t="shared" si="87"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>44768</v>
       </c>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="C98">
         <f t="shared" ref="C98:D98" si="88">C88+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>44768</v>
       </c>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="C99">
         <f t="shared" ref="C99:D99" si="89">C89+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D99">
         <f t="shared" si="89"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>44768</v>
       </c>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="C100">
         <f t="shared" ref="C100:D100" si="90">C90+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D100">
         <f t="shared" si="90"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>44768</v>
       </c>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="C101">
         <f t="shared" ref="C101:D101" si="91">C91+$K$2</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D101">
         <f t="shared" si="91"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4593,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>44768</v>
       </c>
@@ -4603,11 +4603,11 @@
       </c>
       <c r="C102">
         <f t="shared" ref="C102:D102" si="92">C92+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D102">
         <f t="shared" si="92"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>44768</v>
       </c>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="C103">
         <f t="shared" ref="C103:D103" si="93">C93+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D103">
         <f t="shared" si="93"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>44768</v>
       </c>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="C104">
         <f t="shared" ref="C104:D104" si="94">C94+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D104">
         <f t="shared" si="94"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>44768</v>
       </c>
@@ -4708,11 +4708,11 @@
       </c>
       <c r="C105">
         <f t="shared" ref="C105:D105" si="95">C95+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D105">
         <f t="shared" si="95"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>44768</v>
       </c>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D106" si="96">C96+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D106">
         <f t="shared" si="96"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>44768</v>
       </c>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="C107">
         <f t="shared" ref="C107:D107" si="97">C97+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D107">
         <f t="shared" si="97"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>44768</v>
       </c>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="C108">
         <f t="shared" ref="C108:D108" si="98">C98+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D108">
         <f t="shared" si="98"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>44768</v>
       </c>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C109">
         <f t="shared" ref="C109:D109" si="99">C99+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D109">
         <f t="shared" si="99"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>44768</v>
       </c>
@@ -4883,11 +4883,11 @@
       </c>
       <c r="C110">
         <f t="shared" ref="C110:D110" si="100">C100+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D110">
         <f t="shared" si="100"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>44768</v>
       </c>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="C111">
         <f t="shared" ref="C111:D111" si="101">C101+$K$2</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D111">
         <f t="shared" si="101"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>44768</v>
       </c>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="C112">
         <f t="shared" ref="C112:D112" si="102">C102+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D112">
         <f t="shared" si="102"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>44768</v>
       </c>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="C113">
         <f t="shared" ref="C113:D113" si="103">C103+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D113">
         <f t="shared" si="103"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>44768</v>
       </c>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C114">
         <f t="shared" ref="C114:D114" si="104">C104+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D114">
         <f t="shared" si="104"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>44768</v>
       </c>
@@ -5058,11 +5058,11 @@
       </c>
       <c r="C115">
         <f t="shared" ref="C115:D115" si="105">C105+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D115">
         <f t="shared" si="105"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>44768</v>
       </c>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C116">
         <f t="shared" ref="C116:D116" si="106">C106+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D116">
         <f t="shared" si="106"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A117" s="1">
         <v>44768</v>
       </c>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="C117">
         <f t="shared" ref="C117:D117" si="107">C107+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D117">
         <f t="shared" si="107"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A118" s="1">
         <v>44768</v>
       </c>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="C118">
         <f t="shared" ref="C118:D118" si="108">C108+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D118">
         <f t="shared" si="108"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A119" s="1">
         <v>44768</v>
       </c>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="C119">
         <f t="shared" ref="C119:D119" si="109">C109+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D119">
         <f t="shared" si="109"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A120" s="1">
         <v>44768</v>
       </c>
@@ -5233,11 +5233,11 @@
       </c>
       <c r="C120">
         <f t="shared" ref="C120:D120" si="110">C110+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D120">
         <f t="shared" si="110"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A121" s="1">
         <v>44768</v>
       </c>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="C121">
         <f t="shared" ref="C121:D121" si="111">C111+$K$2</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D121">
         <f t="shared" si="111"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A122" s="1">
         <v>44768</v>
       </c>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="C122">
         <f t="shared" ref="C122:D122" si="112">C112+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D122">
         <f t="shared" si="112"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A123" s="1">
         <v>44768</v>
       </c>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="C123">
         <f t="shared" ref="C123:D123" si="113">C113+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D123">
         <f t="shared" si="113"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A124" s="1">
         <v>44768</v>
       </c>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="C124">
         <f t="shared" ref="C124:D124" si="114">C114+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D124">
         <f t="shared" si="114"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A125" s="1">
         <v>44768</v>
       </c>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="C125">
         <f t="shared" ref="C125:D125" si="115">C115+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D125">
         <f t="shared" si="115"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A126" s="1">
         <v>44768</v>
       </c>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C126">
         <f t="shared" ref="C126:D126" si="116">C116+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D126">
         <f t="shared" si="116"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A127" s="1">
         <v>44768</v>
       </c>
@@ -5478,11 +5478,11 @@
       </c>
       <c r="C127">
         <f t="shared" ref="C127:D127" si="117">C117+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D127">
         <f t="shared" si="117"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A128" s="1">
         <v>44768</v>
       </c>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="C128">
         <f t="shared" ref="C128:D128" si="118">C118+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D128">
         <f t="shared" si="118"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="C129">
         <f t="shared" ref="C129:D129" si="119">C119+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D129">
         <f t="shared" si="119"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>44768</v>
       </c>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="C130">
         <f t="shared" ref="C130:D130" si="121">C120+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D130">
         <f t="shared" si="121"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A131" s="1">
         <v>44768</v>
       </c>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:D131" si="122">C121+$K$2</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D131">
         <f t="shared" si="122"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A132" s="1">
         <v>44768</v>
       </c>
@@ -5653,11 +5653,11 @@
       </c>
       <c r="C132">
         <f t="shared" ref="C132:D132" si="123">C122+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D132">
         <f t="shared" si="123"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A133" s="1">
         <v>44768</v>
       </c>
@@ -5688,11 +5688,11 @@
       </c>
       <c r="C133">
         <f t="shared" ref="C133:D133" si="124">C123+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D133">
         <f t="shared" si="124"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A134" s="1">
         <v>44768</v>
       </c>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="C134">
         <f t="shared" ref="C134:D134" si="125">C124+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D134">
         <f t="shared" si="125"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A135" s="1">
         <v>44768</v>
       </c>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C135">
         <f t="shared" ref="C135:D135" si="126">C125+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D135">
         <f t="shared" si="126"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A136" s="1">
         <v>44768</v>
       </c>
@@ -5793,11 +5793,11 @@
       </c>
       <c r="C136">
         <f t="shared" ref="C136:D136" si="127">C126+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D136">
         <f t="shared" si="127"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A137" s="1">
         <v>44768</v>
       </c>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C137">
         <f t="shared" ref="C137:D137" si="128">C127+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D137">
         <f t="shared" si="128"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A138" s="1">
         <v>44768</v>
       </c>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="C138">
         <f t="shared" ref="C138:D138" si="129">C128+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D138">
         <f t="shared" si="129"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A139" s="1">
         <v>44768</v>
       </c>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="C139">
         <f t="shared" ref="C139:D139" si="130">C129+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D139">
         <f t="shared" si="130"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A140" s="1">
         <v>44768</v>
       </c>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="C140">
         <f t="shared" ref="C140:D140" si="131">C130+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D140">
         <f t="shared" si="131"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A141" s="1">
         <v>44768</v>
       </c>
@@ -5968,11 +5968,11 @@
       </c>
       <c r="C141">
         <f t="shared" ref="C141:D141" si="132">C131+$K$2</f>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D141">
         <f t="shared" si="132"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A142" s="1">
         <v>44768</v>
       </c>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:D142" si="133">C132+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D142">
         <f t="shared" si="133"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A143" s="1">
         <v>44768</v>
       </c>
@@ -6038,11 +6038,11 @@
       </c>
       <c r="C143">
         <f t="shared" ref="C143:D143" si="134">C133+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D143">
         <f t="shared" si="134"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A144" s="1">
         <v>44768</v>
       </c>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="C144">
         <f t="shared" ref="C144:D144" si="135">C134+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D144">
         <f t="shared" si="135"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A145" s="1">
         <v>44768</v>
       </c>
@@ -6108,11 +6108,11 @@
       </c>
       <c r="C145">
         <f t="shared" ref="C145:D145" si="136">C135+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D145">
         <f t="shared" si="136"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>44768</v>
       </c>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="C146">
         <f t="shared" ref="C146:D146" si="137">C136+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D146">
         <f t="shared" si="137"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A147" s="1">
         <v>44768</v>
       </c>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="C147">
         <f t="shared" ref="C147:D147" si="138">C137+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D147">
         <f t="shared" si="138"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A148" s="1">
         <v>44768</v>
       </c>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="C148">
         <f t="shared" ref="C148:D148" si="139">C138+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D148">
         <f t="shared" si="139"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="C149">
         <f t="shared" ref="C149:D149" si="140">C139+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D149">
         <f t="shared" si="140"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A150" s="1">
         <v>44768</v>
       </c>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="C150">
         <f t="shared" ref="C150:D150" si="141">C140+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D150">
         <f t="shared" si="141"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A151" s="1">
         <v>44768</v>
       </c>
@@ -6318,11 +6318,11 @@
       </c>
       <c r="C151">
         <f t="shared" ref="C151:D151" si="142">C141+$K$2</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D151">
         <f t="shared" si="142"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A152" s="1">
         <v>44768</v>
       </c>
@@ -6353,11 +6353,11 @@
       </c>
       <c r="C152">
         <f t="shared" ref="C152:D152" si="143">C142+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D152">
         <f t="shared" si="143"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A153" s="1">
         <v>44768</v>
       </c>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="C153">
         <f t="shared" ref="C153:D153" si="144">C143+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D153">
         <f t="shared" si="144"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A154" s="1">
         <v>44768</v>
       </c>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="C154">
         <f t="shared" ref="C154:D154" si="145">C144+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D154">
         <f t="shared" si="145"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A155" s="1">
         <v>44768</v>
       </c>
@@ -6458,11 +6458,11 @@
       </c>
       <c r="C155">
         <f t="shared" ref="C155:D155" si="146">C145+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D155">
         <f t="shared" si="146"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A156" s="1">
         <v>44768</v>
       </c>
@@ -6493,11 +6493,11 @@
       </c>
       <c r="C156">
         <f t="shared" ref="C156:D156" si="147">C146+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D156">
         <f t="shared" si="147"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A157" s="1">
         <v>44768</v>
       </c>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="C157">
         <f t="shared" ref="C157:D157" si="148">C147+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D157">
         <f t="shared" si="148"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A158" s="1">
         <v>44768</v>
       </c>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="C158">
         <f t="shared" ref="C158:D158" si="149">C148+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D158">
         <f t="shared" si="149"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A159" s="1">
         <v>44768</v>
       </c>
@@ -6598,11 +6598,11 @@
       </c>
       <c r="C159">
         <f t="shared" ref="C159:D159" si="150">C149+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D159">
         <f t="shared" si="150"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="C160">
         <f t="shared" ref="C160:D160" si="151">C150+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D160">
         <f t="shared" si="151"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A161" s="1">
         <v>44768</v>
       </c>
@@ -6668,11 +6668,11 @@
       </c>
       <c r="C161">
         <f t="shared" ref="C161:D161" si="152">C151+$K$2</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D161">
         <f t="shared" si="152"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>44768</v>
       </c>
@@ -6703,11 +6703,11 @@
       </c>
       <c r="C162">
         <f t="shared" ref="C162:D162" si="153">C152+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D162">
         <f t="shared" si="153"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A163" s="1">
         <v>44768</v>
       </c>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="C163">
         <f t="shared" ref="C163:D163" si="154">C153+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D163">
         <f t="shared" si="154"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A164" s="1">
         <v>44768</v>
       </c>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C164">
         <f t="shared" ref="C164:D164" si="155">C154+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D164">
         <f t="shared" si="155"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A165" s="1">
         <v>44768</v>
       </c>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="C165">
         <f t="shared" ref="C165:D165" si="156">C155+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D165">
         <f t="shared" si="156"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A166" s="1">
         <v>44768</v>
       </c>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="C166">
         <f t="shared" ref="C166:D166" si="157">C156+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D166">
         <f t="shared" si="157"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A167" s="1">
         <v>44768</v>
       </c>
@@ -6878,11 +6878,11 @@
       </c>
       <c r="C167">
         <f t="shared" ref="C167:D167" si="158">C157+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D167">
         <f t="shared" si="158"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A168" s="1">
         <v>44768</v>
       </c>
@@ -6913,11 +6913,11 @@
       </c>
       <c r="C168">
         <f t="shared" ref="C168:D168" si="159">C158+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D168">
         <f t="shared" si="159"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A169" s="1">
         <v>44768</v>
       </c>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="C169">
         <f t="shared" ref="C169:D169" si="160">C159+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D169">
         <f t="shared" si="160"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A170" s="1">
         <v>44768</v>
       </c>
@@ -6983,11 +6983,11 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:D170" si="161">C160+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D170">
         <f t="shared" si="161"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A171" s="1">
         <v>44768</v>
       </c>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="C171">
         <f t="shared" ref="C171:D171" si="162">C161+$K$2</f>
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D171">
         <f t="shared" si="162"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A172" s="1">
         <v>44768</v>
       </c>
@@ -7053,11 +7053,11 @@
       </c>
       <c r="C172">
         <f t="shared" ref="C172:D172" si="163">C162+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D172">
         <f t="shared" si="163"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A173" s="1">
         <v>44768</v>
       </c>
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C173">
         <f t="shared" ref="C173:D173" si="164">C163+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D173">
         <f t="shared" si="164"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A174" s="1">
         <v>44768</v>
       </c>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="C174">
         <f t="shared" ref="C174:D174" si="165">C164+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D174">
         <f t="shared" si="165"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A175" s="1">
         <v>44768</v>
       </c>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="C175">
         <f t="shared" ref="C175:D175" si="166">C165+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D175">
         <f t="shared" si="166"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A176" s="1">
         <v>44768</v>
       </c>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="C176">
         <f t="shared" ref="C176:D176" si="167">C166+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D176">
         <f t="shared" si="167"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A177" s="1">
         <v>44768</v>
       </c>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C177">
         <f t="shared" ref="C177:D177" si="168">C167+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D177">
         <f t="shared" si="168"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>44768</v>
       </c>
@@ -7263,11 +7263,11 @@
       </c>
       <c r="C178">
         <f t="shared" ref="C178:D178" si="169">C168+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D178">
         <f t="shared" si="169"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A179" s="1">
         <v>44768</v>
       </c>
@@ -7298,11 +7298,11 @@
       </c>
       <c r="C179">
         <f t="shared" ref="C179:D179" si="170">C169+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D179">
         <f t="shared" si="170"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A180" s="1">
         <v>44768</v>
       </c>
@@ -7333,11 +7333,11 @@
       </c>
       <c r="C180">
         <f t="shared" ref="C180:D180" si="171">C170+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D180">
         <f t="shared" si="171"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A181" s="1">
         <v>44768</v>
       </c>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="C181">
         <f t="shared" ref="C181:D181" si="172">C171+$K$2</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D181">
         <f t="shared" si="172"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A182" s="1">
         <v>44768</v>
       </c>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="C182">
         <f t="shared" ref="C182:D182" si="173">C172+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D182">
         <f t="shared" si="173"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A183" s="1">
         <v>44768</v>
       </c>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="C183">
         <f t="shared" ref="C183:D183" si="174">C173+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D183">
         <f t="shared" si="174"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A184" s="1">
         <v>44768</v>
       </c>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="C184">
         <f t="shared" ref="C184:D184" si="175">C174+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D184">
         <f t="shared" si="175"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A185" s="1">
         <v>44768</v>
       </c>
@@ -7508,11 +7508,11 @@
       </c>
       <c r="C185">
         <f t="shared" ref="C185:D185" si="176">C175+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D185">
         <f t="shared" si="176"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A186" s="1">
         <v>44768</v>
       </c>
@@ -7543,11 +7543,11 @@
       </c>
       <c r="C186">
         <f t="shared" ref="C186:D186" si="177">C176+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D186">
         <f t="shared" si="177"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A187" s="1">
         <v>44768</v>
       </c>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="C187">
         <f t="shared" ref="C187:D187" si="178">C177+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D187">
         <f t="shared" si="178"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A188" s="1">
         <v>44768</v>
       </c>
@@ -7613,11 +7613,11 @@
       </c>
       <c r="C188">
         <f t="shared" ref="C188:D188" si="179">C178+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D188">
         <f t="shared" si="179"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A189" s="1">
         <v>44768</v>
       </c>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C189">
         <f t="shared" ref="C189:D189" si="180">C179+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D189">
         <f t="shared" si="180"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A190" s="1">
         <v>44768</v>
       </c>
@@ -7683,11 +7683,11 @@
       </c>
       <c r="C190">
         <f t="shared" ref="C190:D190" si="181">C180+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D190">
         <f t="shared" si="181"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A191" s="1">
         <v>44768</v>
       </c>
@@ -7718,11 +7718,11 @@
       </c>
       <c r="C191">
         <f t="shared" ref="C191:D191" si="182">C181+$K$2</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D191">
         <f t="shared" si="182"/>
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A192" s="1">
         <v>44768</v>
       </c>
@@ -7753,11 +7753,11 @@
       </c>
       <c r="C192">
         <f t="shared" ref="C192:D192" si="183">C182+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D192">
         <f t="shared" si="183"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A193" s="1">
         <v>44768</v>
       </c>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="C193">
         <f t="shared" ref="C193:D193" si="184">C183+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D193">
         <f t="shared" si="184"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>44768</v>
       </c>
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C194">
         <f t="shared" ref="C194:D194" si="186">C184+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D194">
         <f t="shared" si="186"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A195" s="1">
         <v>44768</v>
       </c>
@@ -7858,11 +7858,11 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:D195" si="187">C185+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D195">
         <f t="shared" si="187"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A196" s="1">
         <v>44768</v>
       </c>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="C196">
         <f t="shared" ref="C196:D196" si="188">C186+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D196">
         <f t="shared" si="188"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A197" s="1">
         <v>44768</v>
       </c>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="C197">
         <f t="shared" ref="C197:D197" si="189">C187+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D197">
         <f t="shared" si="189"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A198" s="1">
         <v>44768</v>
       </c>
@@ -7963,11 +7963,11 @@
       </c>
       <c r="C198">
         <f t="shared" ref="C198:D198" si="190">C188+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D198">
         <f t="shared" si="190"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A199" s="1">
         <v>44768</v>
       </c>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D199" si="191">C189+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D199">
         <f t="shared" si="191"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A200" s="1">
         <v>44768</v>
       </c>
@@ -8033,11 +8033,11 @@
       </c>
       <c r="C200">
         <f t="shared" ref="C200:D200" si="192">C190+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D200">
         <f t="shared" si="192"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A201" s="1">
         <v>44768</v>
       </c>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="C201">
         <f t="shared" ref="C201:D201" si="193">C191+$K$2</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D201">
         <f t="shared" si="193"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -8096,7 +8096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A202" s="1">
         <v>44768</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A203" s="1">
         <v>44768</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A204" s="1">
         <v>44768</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A205" s="1">
         <v>44768</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A206" s="1">
         <v>44768</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701D6F4A-2686-4BF0-9906-30FFAD8D94B0}"/>
+  <xr:revisionPtr revIDLastSave="1086" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402E35D6-B842-4501-B434-10DE00E9D4D9}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1106,11 +1106,11 @@
         <v>MM010050</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <f>C2+$K$2-1</f>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1143,11 +1143,11 @@
         <v>MM020050</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="1">C3+$K$2-1</f>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1177,11 +1177,11 @@
         <v>MM030050</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1211,11 +1211,11 @@
         <v>MM040050</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1245,11 +1245,11 @@
         <v>MM050050</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1279,11 +1279,11 @@
         <v>MM060050</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1313,11 +1313,11 @@
         <v>MM070050</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1347,11 +1347,11 @@
         <v>MM080050</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1381,11 +1381,11 @@
         <v>MM090050</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1415,11 +1415,11 @@
         <v>MM100050</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C12">
         <f>C2+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <f>D2+$K$2</f>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="2">C3+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="3">C4+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:D15" si="4">C5+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:D16" si="5">C6+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:D17" si="6">C7+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:D18" si="7">C8+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1695,11 +1695,11 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D19" si="8">C9+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D20" si="9">C10+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:D21" si="10">C11+$K$2</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:D22" si="11">C12+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:D23" si="12">C13+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D24" si="13">C14+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <f t="shared" si="13"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25:D25" si="14">C15+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:D26" si="15">C16+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <f t="shared" si="15"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="16">C17+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <f t="shared" si="16"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="17">C18+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:D29" si="18">C19+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <f t="shared" si="18"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:D30" si="19">C20+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <f t="shared" si="19"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="20">C21+$K$2</f>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:D32" si="21">C22+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <f t="shared" si="21"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:D33" si="22">C23+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <f t="shared" si="22"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:D34" si="23">C24+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:D35" si="24">C25+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <f t="shared" si="24"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:D36" si="25">C26+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <f t="shared" si="25"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:D37" si="26">C27+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <f t="shared" si="26"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:D38" si="27">C28+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <f t="shared" si="27"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:D39" si="28">C29+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <f t="shared" si="28"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:D40" si="29">C30+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <f t="shared" si="29"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:D41" si="30">C31+$K$2</f>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <f t="shared" si="30"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:D42" si="31">C32+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="C43">
         <f t="shared" ref="C43:D43" si="32">C33+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <f t="shared" si="32"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:D44" si="33">C34+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <f t="shared" si="33"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:D45" si="34">C35+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <f t="shared" si="34"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:D46" si="35">C36+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <f t="shared" si="35"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="C47">
         <f t="shared" ref="C47:D47" si="36">C37+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:D48" si="37">C38+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="C49">
         <f t="shared" ref="C49:D49" si="38">C39+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:D50" si="39">C40+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2815,11 +2815,11 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:D51" si="40">C41+$K$2</f>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="C52">
         <f t="shared" ref="C52:D52" si="41">C42+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D52">
         <f t="shared" si="41"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:D53" si="42">C43+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <f t="shared" si="42"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D54" si="43">C44+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D54">
         <f t="shared" si="43"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2955,11 +2955,11 @@
       </c>
       <c r="C55">
         <f t="shared" ref="C55:D55" si="44">C45+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D55">
         <f t="shared" si="44"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D56" si="45">C46+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D56">
         <f t="shared" si="45"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -3025,11 +3025,11 @@
       </c>
       <c r="C57">
         <f t="shared" ref="C57:D57" si="46">C47+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D57">
         <f t="shared" si="46"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="C58">
         <f t="shared" ref="C58:D58" si="47">C48+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <f t="shared" si="47"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:D59" si="48">C49+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D59">
         <f t="shared" si="48"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="C60">
         <f t="shared" ref="C60:D60" si="49">C50+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D60">
         <f t="shared" si="49"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:D61" si="50">C51+$K$2</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <f t="shared" si="50"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="C62">
         <f t="shared" ref="C62:D62" si="51">C52+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D62">
         <f t="shared" si="51"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3235,11 +3235,11 @@
       </c>
       <c r="C63">
         <f t="shared" ref="C63:D63" si="52">C53+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <f t="shared" si="52"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="C64">
         <f t="shared" ref="C64:D64" si="53">C54+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <f t="shared" si="53"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="C65">
         <f t="shared" ref="C65:D65" si="54">C55+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="C66">
         <f t="shared" ref="C66:D66" si="56">C56+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <f t="shared" si="56"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:D67" si="57">C57+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D67">
         <f t="shared" si="57"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:D68" si="58">C58+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <f t="shared" si="58"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3445,11 +3445,11 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:D69" si="59">C59+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D69">
         <f t="shared" si="59"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="C70">
         <f t="shared" ref="C70:D70" si="60">C60+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D70">
         <f t="shared" si="60"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="C71">
         <f t="shared" ref="C71:D71" si="61">C61+$K$2</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <f t="shared" si="61"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:D72" si="62">C62+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <f t="shared" si="62"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="63">C63+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D73">
         <f t="shared" si="63"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C74">
         <f t="shared" ref="C74:D74" si="64">C64+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D74">
         <f t="shared" si="64"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3655,11 +3655,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:D75" si="65">C65+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <f t="shared" si="65"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76:D76" si="66">C66+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D76">
         <f t="shared" si="66"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="C77">
         <f t="shared" ref="C77:D77" si="67">C67+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D77">
         <f t="shared" si="67"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C78">
         <f t="shared" ref="C78:D78" si="68">C68+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D78">
         <f t="shared" si="68"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="C79">
         <f t="shared" ref="C79:D79" si="69">C69+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <f t="shared" si="69"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="C80">
         <f t="shared" ref="C80:D80" si="70">C70+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D80">
         <f t="shared" si="70"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3865,11 +3865,11 @@
       </c>
       <c r="C81">
         <f t="shared" ref="C81:D81" si="71">C71+$K$2</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="72">C72+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D82">
         <f t="shared" si="72"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="C83">
         <f t="shared" ref="C83:D83" si="73">C73+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <f t="shared" si="73"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="C84">
         <f t="shared" ref="C84:D84" si="74">C74+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <f t="shared" si="74"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="C85">
         <f t="shared" ref="C85:D85" si="75">C75+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D85">
         <f t="shared" si="75"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="C86">
         <f t="shared" ref="C86:D86" si="76">C76+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D86">
         <f t="shared" si="76"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="C87">
         <f t="shared" ref="C87:D87" si="77">C77+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D87">
         <f t="shared" si="77"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:D88" si="78">C78+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <f t="shared" si="78"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4145,11 +4145,11 @@
       </c>
       <c r="C89">
         <f t="shared" ref="C89:D89" si="79">C79+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D89">
         <f t="shared" si="79"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="C90">
         <f t="shared" ref="C90:D90" si="80">C80+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D90">
         <f t="shared" si="80"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="C91">
         <f t="shared" ref="C91:D91" si="81">C81+$K$2</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D91">
         <f t="shared" si="81"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4250,11 +4250,11 @@
       </c>
       <c r="C92">
         <f t="shared" ref="C92:D92" si="82">C82+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D92">
         <f t="shared" si="82"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4285,11 +4285,11 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:D93" si="83">C83+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D93">
         <f t="shared" si="83"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="C94">
         <f t="shared" ref="C94:D94" si="84">C84+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D94">
         <f t="shared" si="84"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4355,11 +4355,11 @@
       </c>
       <c r="C95">
         <f t="shared" ref="C95:D95" si="85">C85+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D95">
         <f t="shared" si="85"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="C96">
         <f t="shared" ref="C96:D96" si="86">C86+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D96">
         <f t="shared" si="86"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="C97">
         <f t="shared" ref="C97:D97" si="87">C87+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D97">
         <f t="shared" si="87"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="C98">
         <f t="shared" ref="C98:D98" si="88">C88+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="C99">
         <f t="shared" ref="C99:D99" si="89">C89+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D99">
         <f t="shared" si="89"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="C100">
         <f t="shared" ref="C100:D100" si="90">C90+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <f t="shared" si="90"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="C101">
         <f t="shared" ref="C101:D101" si="91">C91+$K$2</f>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D101">
         <f t="shared" si="91"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4603,11 +4603,11 @@
       </c>
       <c r="C102">
         <f t="shared" ref="C102:D102" si="92">C92+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D102">
         <f t="shared" si="92"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="C103">
         <f t="shared" ref="C103:D103" si="93">C93+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D103">
         <f t="shared" si="93"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="C104">
         <f t="shared" ref="C104:D104" si="94">C94+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D104">
         <f t="shared" si="94"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4708,11 +4708,11 @@
       </c>
       <c r="C105">
         <f t="shared" ref="C105:D105" si="95">C95+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D105">
         <f t="shared" si="95"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D106" si="96">C96+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D106">
         <f t="shared" si="96"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="C107">
         <f t="shared" ref="C107:D107" si="97">C97+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D107">
         <f t="shared" si="97"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="C108">
         <f t="shared" ref="C108:D108" si="98">C98+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D108">
         <f t="shared" si="98"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C109">
         <f t="shared" ref="C109:D109" si="99">C99+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D109">
         <f t="shared" si="99"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4883,11 +4883,11 @@
       </c>
       <c r="C110">
         <f t="shared" ref="C110:D110" si="100">C100+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D110">
         <f t="shared" si="100"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="C111">
         <f t="shared" ref="C111:D111" si="101">C101+$K$2</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D111">
         <f t="shared" si="101"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="C112">
         <f t="shared" ref="C112:D112" si="102">C102+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D112">
         <f t="shared" si="102"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="C113">
         <f t="shared" ref="C113:D113" si="103">C103+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D113">
         <f t="shared" si="103"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C114">
         <f t="shared" ref="C114:D114" si="104">C104+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D114">
         <f t="shared" si="104"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5058,11 +5058,11 @@
       </c>
       <c r="C115">
         <f t="shared" ref="C115:D115" si="105">C105+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D115">
         <f t="shared" si="105"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C116">
         <f t="shared" ref="C116:D116" si="106">C106+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D116">
         <f t="shared" si="106"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="C117">
         <f t="shared" ref="C117:D117" si="107">C107+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D117">
         <f t="shared" si="107"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="C118">
         <f t="shared" ref="C118:D118" si="108">C108+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D118">
         <f t="shared" si="108"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="C119">
         <f t="shared" ref="C119:D119" si="109">C109+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D119">
         <f t="shared" si="109"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5233,11 +5233,11 @@
       </c>
       <c r="C120">
         <f t="shared" ref="C120:D120" si="110">C110+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D120">
         <f t="shared" si="110"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="C121">
         <f t="shared" ref="C121:D121" si="111">C111+$K$2</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D121">
         <f t="shared" si="111"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="C122">
         <f t="shared" ref="C122:D122" si="112">C112+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D122">
         <f t="shared" si="112"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="C123">
         <f t="shared" ref="C123:D123" si="113">C113+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D123">
         <f t="shared" si="113"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="C124">
         <f t="shared" ref="C124:D124" si="114">C114+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D124">
         <f t="shared" si="114"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="C125">
         <f t="shared" ref="C125:D125" si="115">C115+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D125">
         <f t="shared" si="115"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C126">
         <f t="shared" ref="C126:D126" si="116">C116+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D126">
         <f t="shared" si="116"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5478,11 +5478,11 @@
       </c>
       <c r="C127">
         <f t="shared" ref="C127:D127" si="117">C117+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D127">
         <f t="shared" si="117"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="C128">
         <f t="shared" ref="C128:D128" si="118">C118+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D128">
         <f t="shared" si="118"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="C129">
         <f t="shared" ref="C129:D129" si="119">C119+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D129">
         <f t="shared" si="119"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="C130">
         <f t="shared" ref="C130:D130" si="121">C120+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D130">
         <f t="shared" si="121"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:D131" si="122">C121+$K$2</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D131">
         <f t="shared" si="122"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5653,11 +5653,11 @@
       </c>
       <c r="C132">
         <f t="shared" ref="C132:D132" si="123">C122+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D132">
         <f t="shared" si="123"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5688,11 +5688,11 @@
       </c>
       <c r="C133">
         <f t="shared" ref="C133:D133" si="124">C123+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D133">
         <f t="shared" si="124"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="C134">
         <f t="shared" ref="C134:D134" si="125">C124+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D134">
         <f t="shared" si="125"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C135">
         <f t="shared" ref="C135:D135" si="126">C125+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D135">
         <f t="shared" si="126"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5793,11 +5793,11 @@
       </c>
       <c r="C136">
         <f t="shared" ref="C136:D136" si="127">C126+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D136">
         <f t="shared" si="127"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C137">
         <f t="shared" ref="C137:D137" si="128">C127+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D137">
         <f t="shared" si="128"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="C138">
         <f t="shared" ref="C138:D138" si="129">C128+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D138">
         <f t="shared" si="129"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="C139">
         <f t="shared" ref="C139:D139" si="130">C129+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D139">
         <f t="shared" si="130"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="C140">
         <f t="shared" ref="C140:D140" si="131">C130+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D140">
         <f t="shared" si="131"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5968,11 +5968,11 @@
       </c>
       <c r="C141">
         <f t="shared" ref="C141:D141" si="132">C131+$K$2</f>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D141">
         <f t="shared" si="132"/>
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:D142" si="133">C132+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D142">
         <f t="shared" si="133"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -6038,11 +6038,11 @@
       </c>
       <c r="C143">
         <f t="shared" ref="C143:D143" si="134">C133+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D143">
         <f t="shared" si="134"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="C144">
         <f t="shared" ref="C144:D144" si="135">C134+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D144">
         <f t="shared" si="135"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6108,11 +6108,11 @@
       </c>
       <c r="C145">
         <f t="shared" ref="C145:D145" si="136">C135+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D145">
         <f t="shared" si="136"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="C146">
         <f t="shared" ref="C146:D146" si="137">C136+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D146">
         <f t="shared" si="137"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="C147">
         <f t="shared" ref="C147:D147" si="138">C137+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D147">
         <f t="shared" si="138"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="C148">
         <f t="shared" ref="C148:D148" si="139">C138+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D148">
         <f t="shared" si="139"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="C149">
         <f t="shared" ref="C149:D149" si="140">C139+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D149">
         <f t="shared" si="140"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="C150">
         <f t="shared" ref="C150:D150" si="141">C140+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D150">
         <f t="shared" si="141"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6318,11 +6318,11 @@
       </c>
       <c r="C151">
         <f t="shared" ref="C151:D151" si="142">C141+$K$2</f>
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D151">
         <f t="shared" si="142"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6353,11 +6353,11 @@
       </c>
       <c r="C152">
         <f t="shared" ref="C152:D152" si="143">C142+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D152">
         <f t="shared" si="143"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="C153">
         <f t="shared" ref="C153:D153" si="144">C143+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D153">
         <f t="shared" si="144"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="C154">
         <f t="shared" ref="C154:D154" si="145">C144+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D154">
         <f t="shared" si="145"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6458,11 +6458,11 @@
       </c>
       <c r="C155">
         <f t="shared" ref="C155:D155" si="146">C145+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D155">
         <f t="shared" si="146"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6493,11 +6493,11 @@
       </c>
       <c r="C156">
         <f t="shared" ref="C156:D156" si="147">C146+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D156">
         <f t="shared" si="147"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="C157">
         <f t="shared" ref="C157:D157" si="148">C147+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D157">
         <f t="shared" si="148"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="C158">
         <f t="shared" ref="C158:D158" si="149">C148+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D158">
         <f t="shared" si="149"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6598,11 +6598,11 @@
       </c>
       <c r="C159">
         <f t="shared" ref="C159:D159" si="150">C149+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D159">
         <f t="shared" si="150"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="C160">
         <f t="shared" ref="C160:D160" si="151">C150+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D160">
         <f t="shared" si="151"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6668,11 +6668,11 @@
       </c>
       <c r="C161">
         <f t="shared" ref="C161:D161" si="152">C151+$K$2</f>
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D161">
         <f t="shared" si="152"/>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6703,11 +6703,11 @@
       </c>
       <c r="C162">
         <f t="shared" ref="C162:D162" si="153">C152+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D162">
         <f t="shared" si="153"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="C163">
         <f t="shared" ref="C163:D163" si="154">C153+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D163">
         <f t="shared" si="154"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C164">
         <f t="shared" ref="C164:D164" si="155">C154+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D164">
         <f t="shared" si="155"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="C165">
         <f t="shared" ref="C165:D165" si="156">C155+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D165">
         <f t="shared" si="156"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="C166">
         <f t="shared" ref="C166:D166" si="157">C156+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D166">
         <f t="shared" si="157"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6878,11 +6878,11 @@
       </c>
       <c r="C167">
         <f t="shared" ref="C167:D167" si="158">C157+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D167">
         <f t="shared" si="158"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6913,11 +6913,11 @@
       </c>
       <c r="C168">
         <f t="shared" ref="C168:D168" si="159">C158+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D168">
         <f t="shared" si="159"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="C169">
         <f t="shared" ref="C169:D169" si="160">C159+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D169">
         <f t="shared" si="160"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6983,11 +6983,11 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:D170" si="161">C160+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D170">
         <f t="shared" si="161"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="C171">
         <f t="shared" ref="C171:D171" si="162">C161+$K$2</f>
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D171">
         <f t="shared" si="162"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -7053,11 +7053,11 @@
       </c>
       <c r="C172">
         <f t="shared" ref="C172:D172" si="163">C162+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D172">
         <f t="shared" si="163"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C173">
         <f t="shared" ref="C173:D173" si="164">C163+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D173">
         <f t="shared" si="164"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="C174">
         <f t="shared" ref="C174:D174" si="165">C164+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D174">
         <f t="shared" si="165"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="C175">
         <f t="shared" ref="C175:D175" si="166">C165+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D175">
         <f t="shared" si="166"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="C176">
         <f t="shared" ref="C176:D176" si="167">C166+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D176">
         <f t="shared" si="167"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C177">
         <f t="shared" ref="C177:D177" si="168">C167+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D177">
         <f t="shared" si="168"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7263,11 +7263,11 @@
       </c>
       <c r="C178">
         <f t="shared" ref="C178:D178" si="169">C168+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D178">
         <f t="shared" si="169"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7298,11 +7298,11 @@
       </c>
       <c r="C179">
         <f t="shared" ref="C179:D179" si="170">C169+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D179">
         <f t="shared" si="170"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7333,11 +7333,11 @@
       </c>
       <c r="C180">
         <f t="shared" ref="C180:D180" si="171">C170+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D180">
         <f t="shared" si="171"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="C181">
         <f t="shared" ref="C181:D181" si="172">C171+$K$2</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D181">
         <f t="shared" si="172"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="C182">
         <f t="shared" ref="C182:D182" si="173">C172+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D182">
         <f t="shared" si="173"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="C183">
         <f t="shared" ref="C183:D183" si="174">C173+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D183">
         <f t="shared" si="174"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="C184">
         <f t="shared" ref="C184:D184" si="175">C174+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D184">
         <f t="shared" si="175"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7508,11 +7508,11 @@
       </c>
       <c r="C185">
         <f t="shared" ref="C185:D185" si="176">C175+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D185">
         <f t="shared" si="176"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7543,11 +7543,11 @@
       </c>
       <c r="C186">
         <f t="shared" ref="C186:D186" si="177">C176+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D186">
         <f t="shared" si="177"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="C187">
         <f t="shared" ref="C187:D187" si="178">C177+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D187">
         <f t="shared" si="178"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7613,11 +7613,11 @@
       </c>
       <c r="C188">
         <f t="shared" ref="C188:D188" si="179">C178+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D188">
         <f t="shared" si="179"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C189">
         <f t="shared" ref="C189:D189" si="180">C179+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D189">
         <f t="shared" si="180"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7683,11 +7683,11 @@
       </c>
       <c r="C190">
         <f t="shared" ref="C190:D190" si="181">C180+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D190">
         <f t="shared" si="181"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7718,11 +7718,11 @@
       </c>
       <c r="C191">
         <f t="shared" ref="C191:D191" si="182">C181+$K$2</f>
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D191">
         <f t="shared" si="182"/>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7753,11 +7753,11 @@
       </c>
       <c r="C192">
         <f t="shared" ref="C192:D192" si="183">C182+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D192">
         <f t="shared" si="183"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="C193">
         <f t="shared" ref="C193:D193" si="184">C183+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D193">
         <f t="shared" si="184"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C194">
         <f t="shared" ref="C194:D194" si="186">C184+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D194">
         <f t="shared" si="186"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7858,11 +7858,11 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:D195" si="187">C185+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D195">
         <f t="shared" si="187"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="C196">
         <f t="shared" ref="C196:D196" si="188">C186+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D196">
         <f t="shared" si="188"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="C197">
         <f t="shared" ref="C197:D197" si="189">C187+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D197">
         <f t="shared" si="189"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7963,11 +7963,11 @@
       </c>
       <c r="C198">
         <f t="shared" ref="C198:D198" si="190">C188+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D198">
         <f t="shared" si="190"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D199" si="191">C189+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D199">
         <f t="shared" si="191"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -8033,11 +8033,11 @@
       </c>
       <c r="C200">
         <f t="shared" ref="C200:D200" si="192">C190+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D200">
         <f t="shared" si="192"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="C201">
         <f t="shared" ref="C201:D201" si="193">C191+$K$2</f>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D201">
         <f t="shared" si="193"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E201">
         <v>100</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1086" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402E35D6-B842-4501-B434-10DE00E9D4D9}"/>
+  <xr:revisionPtr revIDLastSave="1089" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B1C8BA-E249-41C3-AF19-6235645706CE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1106,11 +1106,11 @@
         <v>MM010050</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>C2+$K$2-1</f>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -1143,11 +1143,11 @@
         <v>MM020050</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="1">C3+$K$2-1</f>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1177,11 +1177,11 @@
         <v>MM030050</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1211,11 +1211,11 @@
         <v>MM040050</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1245,11 +1245,11 @@
         <v>MM050050</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1279,11 +1279,11 @@
         <v>MM060050</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1313,11 +1313,11 @@
         <v>MM070050</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1347,11 +1347,11 @@
         <v>MM080050</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1381,11 +1381,11 @@
         <v>MM090050</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1415,11 +1415,11 @@
         <v>MM100050</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C12">
         <f>C2+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <f>D2+$K$2</f>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="2">C3+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="3">C4+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:D15" si="4">C5+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:D16" si="5">C6+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:D17" si="6">C7+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:D18" si="7">C8+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1695,11 +1695,11 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D19" si="8">C9+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D20" si="9">C10+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:D21" si="10">C11+$K$2</f>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:D22" si="11">C12+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:D23" si="12">C13+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <f t="shared" si="12"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D24" si="13">C14+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <f t="shared" si="13"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25:D25" si="14">C15+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <f t="shared" si="14"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:D26" si="15">C16+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <f t="shared" si="15"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="16">C17+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <f t="shared" si="16"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="17">C18+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <f t="shared" si="17"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:D29" si="18">C19+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <f t="shared" si="18"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:D30" si="19">C20+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <f t="shared" si="19"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="20">C21+$K$2</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:D32" si="21">C22+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <f t="shared" si="21"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:D33" si="22">C23+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <f t="shared" si="22"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:D34" si="23">C24+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <f t="shared" si="23"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:D35" si="24">C25+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <f t="shared" si="24"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:D36" si="25">C26+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <f t="shared" si="25"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:D37" si="26">C27+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <f t="shared" si="26"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:D38" si="27">C28+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <f t="shared" si="27"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:D39" si="28">C29+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <f t="shared" si="28"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:D40" si="29">C30+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <f t="shared" si="29"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:D41" si="30">C31+$K$2</f>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <f t="shared" si="30"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:D42" si="31">C32+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <f t="shared" si="31"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="C43">
         <f t="shared" ref="C43:D43" si="32">C33+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <f t="shared" si="32"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:D44" si="33">C34+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <f t="shared" si="33"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:D45" si="34">C35+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <f t="shared" si="34"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:D46" si="35">C36+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <f t="shared" si="35"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="C47">
         <f t="shared" ref="C47:D47" si="36">C37+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <f t="shared" si="36"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:D48" si="37">C38+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="C49">
         <f t="shared" ref="C49:D49" si="38">C39+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D49">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:D50" si="39">C40+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <f t="shared" si="39"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2815,11 +2815,11 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:D51" si="40">C41+$K$2</f>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="C52">
         <f t="shared" ref="C52:D52" si="41">C42+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D52">
         <f t="shared" si="41"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:D53" si="42">C43+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <f t="shared" si="42"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D54" si="43">C44+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <f t="shared" si="43"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2955,11 +2955,11 @@
       </c>
       <c r="C55">
         <f t="shared" ref="C55:D55" si="44">C45+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D55">
         <f t="shared" si="44"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D56" si="45">C46+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <f t="shared" si="45"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -3025,11 +3025,11 @@
       </c>
       <c r="C57">
         <f t="shared" ref="C57:D57" si="46">C47+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D57">
         <f t="shared" si="46"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="C58">
         <f t="shared" ref="C58:D58" si="47">C48+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <f t="shared" si="47"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:D59" si="48">C49+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <f t="shared" si="48"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="C60">
         <f t="shared" ref="C60:D60" si="49">C50+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D60">
         <f t="shared" si="49"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:D61" si="50">C51+$K$2</f>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D61">
         <f t="shared" si="50"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="C62">
         <f t="shared" ref="C62:D62" si="51">C52+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <f t="shared" si="51"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3235,11 +3235,11 @@
       </c>
       <c r="C63">
         <f t="shared" ref="C63:D63" si="52">C53+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <f t="shared" si="52"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="C64">
         <f t="shared" ref="C64:D64" si="53">C54+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" si="53"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="C65">
         <f t="shared" ref="C65:D65" si="54">C55+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="C66">
         <f t="shared" ref="C66:D66" si="56">C56+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D66">
         <f t="shared" si="56"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:D67" si="57">C57+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <f t="shared" si="57"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:D68" si="58">C58+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D68">
         <f t="shared" si="58"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3445,11 +3445,11 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:D69" si="59">C59+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D69">
         <f t="shared" si="59"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="C70">
         <f t="shared" ref="C70:D70" si="60">C60+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <f t="shared" si="60"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="C71">
         <f t="shared" ref="C71:D71" si="61">C61+$K$2</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <f t="shared" si="61"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:D72" si="62">C62+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <f t="shared" si="62"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="63">C63+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <f t="shared" si="63"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C74">
         <f t="shared" ref="C74:D74" si="64">C64+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D74">
         <f t="shared" si="64"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3655,11 +3655,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:D75" si="65">C65+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D75">
         <f t="shared" si="65"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76:D76" si="66">C66+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D76">
         <f t="shared" si="66"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="C77">
         <f t="shared" ref="C77:D77" si="67">C67+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D77">
         <f t="shared" si="67"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C78">
         <f t="shared" ref="C78:D78" si="68">C68+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D78">
         <f t="shared" si="68"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="C79">
         <f t="shared" ref="C79:D79" si="69">C69+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D79">
         <f t="shared" si="69"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="C80">
         <f t="shared" ref="C80:D80" si="70">C70+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D80">
         <f t="shared" si="70"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3865,11 +3865,11 @@
       </c>
       <c r="C81">
         <f t="shared" ref="C81:D81" si="71">C71+$K$2</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="72">C72+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D82">
         <f t="shared" si="72"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="C83">
         <f t="shared" ref="C83:D83" si="73">C73+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D83">
         <f t="shared" si="73"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="C84">
         <f t="shared" ref="C84:D84" si="74">C74+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D84">
         <f t="shared" si="74"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="C85">
         <f t="shared" ref="C85:D85" si="75">C75+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D85">
         <f t="shared" si="75"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="C86">
         <f t="shared" ref="C86:D86" si="76">C76+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D86">
         <f t="shared" si="76"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="C87">
         <f t="shared" ref="C87:D87" si="77">C77+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D87">
         <f t="shared" si="77"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:D88" si="78">C78+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D88">
         <f t="shared" si="78"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4145,11 +4145,11 @@
       </c>
       <c r="C89">
         <f t="shared" ref="C89:D89" si="79">C79+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D89">
         <f t="shared" si="79"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="C90">
         <f t="shared" ref="C90:D90" si="80">C80+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D90">
         <f t="shared" si="80"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="C91">
         <f t="shared" ref="C91:D91" si="81">C81+$K$2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D91">
         <f t="shared" si="81"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C92">
         <f t="shared" ref="C92:D92" si="82">C82+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D92">
         <f t="shared" si="82"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:D93" si="83">C83+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D93">
         <f t="shared" si="83"/>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="C94">
         <f t="shared" ref="C94:D94" si="84">C84+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D94">
         <f t="shared" si="84"/>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C95">
         <f t="shared" ref="C95:D95" si="85">C85+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D95">
         <f t="shared" si="85"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C96">
         <f t="shared" ref="C96:D96" si="86">C86+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D96">
         <f t="shared" si="86"/>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C97">
         <f t="shared" ref="C97:D97" si="87">C87+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D97">
         <f t="shared" si="87"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C98">
         <f t="shared" ref="C98:D98" si="88">C88+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C99">
         <f t="shared" ref="C99:D99" si="89">C89+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D99">
         <f t="shared" si="89"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C100">
         <f t="shared" ref="C100:D100" si="90">C90+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D100">
         <f t="shared" si="90"/>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C101">
         <f t="shared" ref="C101:D101" si="91">C91+$K$2</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D101">
         <f t="shared" si="91"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="92"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="93"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="94"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="95"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="96"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="97"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="98"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="99"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="100"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="101"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="C112">
         <f t="shared" ref="C112:D112" si="102">C102+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D112">
         <f t="shared" si="102"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="C113">
         <f t="shared" ref="C113:D113" si="103">C103+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D113">
         <f t="shared" si="103"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C114">
         <f t="shared" ref="C114:D114" si="104">C104+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D114">
         <f t="shared" si="104"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5058,11 +5058,11 @@
       </c>
       <c r="C115">
         <f t="shared" ref="C115:D115" si="105">C105+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D115">
         <f t="shared" si="105"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C116">
         <f t="shared" ref="C116:D116" si="106">C106+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <f t="shared" si="106"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="C117">
         <f t="shared" ref="C117:D117" si="107">C107+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D117">
         <f t="shared" si="107"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="C118">
         <f t="shared" ref="C118:D118" si="108">C108+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D118">
         <f t="shared" si="108"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="C119">
         <f t="shared" ref="C119:D119" si="109">C109+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D119">
         <f t="shared" si="109"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5233,11 +5233,11 @@
       </c>
       <c r="C120">
         <f t="shared" ref="C120:D120" si="110">C110+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D120">
         <f t="shared" si="110"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="C121">
         <f t="shared" ref="C121:D121" si="111">C111+$K$2</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D121">
         <f t="shared" si="111"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="C122">
         <f t="shared" ref="C122:D122" si="112">C112+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <f t="shared" si="112"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="C123">
         <f t="shared" ref="C123:D123" si="113">C113+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D123">
         <f t="shared" si="113"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="C124">
         <f t="shared" ref="C124:D124" si="114">C114+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D124">
         <f t="shared" si="114"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="C125">
         <f t="shared" ref="C125:D125" si="115">C115+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D125">
         <f t="shared" si="115"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C126">
         <f t="shared" ref="C126:D126" si="116">C116+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D126">
         <f t="shared" si="116"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5478,11 +5478,11 @@
       </c>
       <c r="C127">
         <f t="shared" ref="C127:D127" si="117">C117+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D127">
         <f t="shared" si="117"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="C128">
         <f t="shared" ref="C128:D128" si="118">C118+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D128">
         <f t="shared" si="118"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="C129">
         <f t="shared" ref="C129:D129" si="119">C119+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D129">
         <f t="shared" si="119"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="C130">
         <f t="shared" ref="C130:D130" si="121">C120+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D130">
         <f t="shared" si="121"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:D131" si="122">C121+$K$2</f>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D131">
         <f t="shared" si="122"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5653,11 +5653,11 @@
       </c>
       <c r="C132">
         <f t="shared" ref="C132:D132" si="123">C122+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D132">
         <f t="shared" si="123"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5688,11 +5688,11 @@
       </c>
       <c r="C133">
         <f t="shared" ref="C133:D133" si="124">C123+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D133">
         <f t="shared" si="124"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="C134">
         <f t="shared" ref="C134:D134" si="125">C124+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D134">
         <f t="shared" si="125"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C135">
         <f t="shared" ref="C135:D135" si="126">C125+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D135">
         <f t="shared" si="126"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5793,11 +5793,11 @@
       </c>
       <c r="C136">
         <f t="shared" ref="C136:D136" si="127">C126+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D136">
         <f t="shared" si="127"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C137">
         <f t="shared" ref="C137:D137" si="128">C127+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D137">
         <f t="shared" si="128"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="C138">
         <f t="shared" ref="C138:D138" si="129">C128+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D138">
         <f t="shared" si="129"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="C139">
         <f t="shared" ref="C139:D139" si="130">C129+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D139">
         <f t="shared" si="130"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="C140">
         <f t="shared" ref="C140:D140" si="131">C130+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D140">
         <f t="shared" si="131"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5968,11 +5968,11 @@
       </c>
       <c r="C141">
         <f t="shared" ref="C141:D141" si="132">C131+$K$2</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D141">
         <f t="shared" si="132"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:D142" si="133">C132+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D142">
         <f t="shared" si="133"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -6038,11 +6038,11 @@
       </c>
       <c r="C143">
         <f t="shared" ref="C143:D143" si="134">C133+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D143">
         <f t="shared" si="134"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="C144">
         <f t="shared" ref="C144:D144" si="135">C134+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D144">
         <f t="shared" si="135"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6108,11 +6108,11 @@
       </c>
       <c r="C145">
         <f t="shared" ref="C145:D145" si="136">C135+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D145">
         <f t="shared" si="136"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="C146">
         <f t="shared" ref="C146:D146" si="137">C136+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D146">
         <f t="shared" si="137"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="C147">
         <f t="shared" ref="C147:D147" si="138">C137+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D147">
         <f t="shared" si="138"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="C148">
         <f t="shared" ref="C148:D148" si="139">C138+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D148">
         <f t="shared" si="139"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="C149">
         <f t="shared" ref="C149:D149" si="140">C139+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D149">
         <f t="shared" si="140"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="C150">
         <f t="shared" ref="C150:D150" si="141">C140+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D150">
         <f t="shared" si="141"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6318,11 +6318,11 @@
       </c>
       <c r="C151">
         <f t="shared" ref="C151:D151" si="142">C141+$K$2</f>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D151">
         <f t="shared" si="142"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6353,11 +6353,11 @@
       </c>
       <c r="C152">
         <f t="shared" ref="C152:D152" si="143">C142+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D152">
         <f t="shared" si="143"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="C153">
         <f t="shared" ref="C153:D153" si="144">C143+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D153">
         <f t="shared" si="144"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="C154">
         <f t="shared" ref="C154:D154" si="145">C144+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D154">
         <f t="shared" si="145"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6458,11 +6458,11 @@
       </c>
       <c r="C155">
         <f t="shared" ref="C155:D155" si="146">C145+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D155">
         <f t="shared" si="146"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6493,11 +6493,11 @@
       </c>
       <c r="C156">
         <f t="shared" ref="C156:D156" si="147">C146+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D156">
         <f t="shared" si="147"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="C157">
         <f t="shared" ref="C157:D157" si="148">C147+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D157">
         <f t="shared" si="148"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="C158">
         <f t="shared" ref="C158:D158" si="149">C148+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D158">
         <f t="shared" si="149"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6598,11 +6598,11 @@
       </c>
       <c r="C159">
         <f t="shared" ref="C159:D159" si="150">C149+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D159">
         <f t="shared" si="150"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="C160">
         <f t="shared" ref="C160:D160" si="151">C150+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D160">
         <f t="shared" si="151"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6668,11 +6668,11 @@
       </c>
       <c r="C161">
         <f t="shared" ref="C161:D161" si="152">C151+$K$2</f>
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D161">
         <f t="shared" si="152"/>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6703,11 +6703,11 @@
       </c>
       <c r="C162">
         <f t="shared" ref="C162:D162" si="153">C152+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D162">
         <f t="shared" si="153"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="C163">
         <f t="shared" ref="C163:D163" si="154">C153+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D163">
         <f t="shared" si="154"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C164">
         <f t="shared" ref="C164:D164" si="155">C154+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D164">
         <f t="shared" si="155"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="C165">
         <f t="shared" ref="C165:D165" si="156">C155+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D165">
         <f t="shared" si="156"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="C166">
         <f t="shared" ref="C166:D166" si="157">C156+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D166">
         <f t="shared" si="157"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6878,11 +6878,11 @@
       </c>
       <c r="C167">
         <f t="shared" ref="C167:D167" si="158">C157+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D167">
         <f t="shared" si="158"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6913,11 +6913,11 @@
       </c>
       <c r="C168">
         <f t="shared" ref="C168:D168" si="159">C158+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D168">
         <f t="shared" si="159"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="C169">
         <f t="shared" ref="C169:D169" si="160">C159+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D169">
         <f t="shared" si="160"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6983,11 +6983,11 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:D170" si="161">C160+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D170">
         <f t="shared" si="161"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="C171">
         <f t="shared" ref="C171:D171" si="162">C161+$K$2</f>
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D171">
         <f t="shared" si="162"/>
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -7053,11 +7053,11 @@
       </c>
       <c r="C172">
         <f t="shared" ref="C172:D172" si="163">C162+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D172">
         <f t="shared" si="163"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C173">
         <f t="shared" ref="C173:D173" si="164">C163+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D173">
         <f t="shared" si="164"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="C174">
         <f t="shared" ref="C174:D174" si="165">C164+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D174">
         <f t="shared" si="165"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="C175">
         <f t="shared" ref="C175:D175" si="166">C165+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D175">
         <f t="shared" si="166"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="C176">
         <f t="shared" ref="C176:D176" si="167">C166+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D176">
         <f t="shared" si="167"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C177">
         <f t="shared" ref="C177:D177" si="168">C167+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D177">
         <f t="shared" si="168"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7263,11 +7263,11 @@
       </c>
       <c r="C178">
         <f t="shared" ref="C178:D178" si="169">C168+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D178">
         <f t="shared" si="169"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7298,11 +7298,11 @@
       </c>
       <c r="C179">
         <f t="shared" ref="C179:D179" si="170">C169+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D179">
         <f t="shared" si="170"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7333,11 +7333,11 @@
       </c>
       <c r="C180">
         <f t="shared" ref="C180:D180" si="171">C170+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D180">
         <f t="shared" si="171"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="C181">
         <f t="shared" ref="C181:D181" si="172">C171+$K$2</f>
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D181">
         <f t="shared" si="172"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="C182">
         <f t="shared" ref="C182:D182" si="173">C172+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D182">
         <f t="shared" si="173"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="C183">
         <f t="shared" ref="C183:D183" si="174">C173+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D183">
         <f t="shared" si="174"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="C184">
         <f t="shared" ref="C184:D184" si="175">C174+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D184">
         <f t="shared" si="175"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7508,11 +7508,11 @@
       </c>
       <c r="C185">
         <f t="shared" ref="C185:D185" si="176">C175+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D185">
         <f t="shared" si="176"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7543,11 +7543,11 @@
       </c>
       <c r="C186">
         <f t="shared" ref="C186:D186" si="177">C176+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D186">
         <f t="shared" si="177"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="C187">
         <f t="shared" ref="C187:D187" si="178">C177+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D187">
         <f t="shared" si="178"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7613,11 +7613,11 @@
       </c>
       <c r="C188">
         <f t="shared" ref="C188:D188" si="179">C178+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D188">
         <f t="shared" si="179"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C189">
         <f t="shared" ref="C189:D189" si="180">C179+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D189">
         <f t="shared" si="180"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7683,11 +7683,11 @@
       </c>
       <c r="C190">
         <f t="shared" ref="C190:D190" si="181">C180+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D190">
         <f t="shared" si="181"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7718,11 +7718,11 @@
       </c>
       <c r="C191">
         <f t="shared" ref="C191:D191" si="182">C181+$K$2</f>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D191">
         <f t="shared" si="182"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7753,11 +7753,11 @@
       </c>
       <c r="C192">
         <f t="shared" ref="C192:D192" si="183">C182+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D192">
         <f t="shared" si="183"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="C193">
         <f t="shared" ref="C193:D193" si="184">C183+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D193">
         <f t="shared" si="184"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C194">
         <f t="shared" ref="C194:D194" si="186">C184+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D194">
         <f t="shared" si="186"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7858,11 +7858,11 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:D195" si="187">C185+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D195">
         <f t="shared" si="187"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="C196">
         <f t="shared" ref="C196:D196" si="188">C186+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D196">
         <f t="shared" si="188"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="C197">
         <f t="shared" ref="C197:D197" si="189">C187+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D197">
         <f t="shared" si="189"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7963,11 +7963,11 @@
       </c>
       <c r="C198">
         <f t="shared" ref="C198:D198" si="190">C188+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D198">
         <f t="shared" si="190"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D199" si="191">C189+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D199">
         <f t="shared" si="191"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -8033,11 +8033,11 @@
       </c>
       <c r="C200">
         <f t="shared" ref="C200:D200" si="192">C190+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D200">
         <f t="shared" si="192"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="C201">
         <f t="shared" ref="C201:D201" si="193">C191+$K$2</f>
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D201">
         <f t="shared" si="193"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E201">
         <v>100</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1089" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B1C8BA-E249-41C3-AF19-6235645706CE}"/>
+  <xr:revisionPtr revIDLastSave="1097" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6D709B-EB13-41AE-B6A7-A109CC2E3491}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D2">
         <f>C2+$K$2-1</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="1">C3+$K$2-1</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C12">
         <f>C2+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f>D2+$K$2</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="2">C3+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="3">C4+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:D15" si="4">C5+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:D16" si="5">C6+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:D17" si="6">C7+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>60</v>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:D18" si="7">C8+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1695,11 +1695,11 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D19" si="8">C9+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D20" si="9">C10+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:D21" si="10">C11+$K$2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:D22" si="11">C12+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:D23" si="12">C13+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D24" si="13">C14+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25:D25" si="14">C15+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:D26" si="15">C16+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="16">C17+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>60</v>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="17">C18+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:D29" si="18">C19+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:D30" si="19">C20+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="20">C21+$K$2</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:D32" si="21">C22+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:D33" si="22">C23+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:D34" si="23">C24+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:D35" si="24">C25+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:D36" si="25">C26+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:D37" si="26">C27+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <f t="shared" si="26"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:D38" si="27">C28+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <f t="shared" si="27"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:D39" si="28">C29+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:D40" si="29">C30+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:D41" si="30">C31+$K$2</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:D42" si="31">C32+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="C43">
         <f t="shared" ref="C43:D43" si="32">C33+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <f t="shared" si="32"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:D44" si="33">C34+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <f t="shared" si="33"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:D45" si="34">C35+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <f t="shared" si="34"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:D46" si="35">C36+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <f t="shared" si="35"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="C47">
         <f t="shared" ref="C47:D47" si="36">C37+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:D48" si="37">C38+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="C49">
         <f t="shared" ref="C49:D49" si="38">C39+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:D50" si="39">C40+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2815,11 +2815,11 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:D51" si="40">C41+$K$2</f>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="C52">
         <f t="shared" ref="C52:D52" si="41">C42+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:D53" si="42">C43+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <f t="shared" si="42"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D54" si="43">C44+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -2955,11 +2955,11 @@
       </c>
       <c r="C55">
         <f t="shared" ref="C55:D55" si="44">C45+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <f t="shared" si="44"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D56" si="45">C46+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <f t="shared" si="45"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -3025,11 +3025,11 @@
       </c>
       <c r="C57">
         <f t="shared" ref="C57:D57" si="46">C47+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <f t="shared" si="46"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="C58">
         <f t="shared" ref="C58:D58" si="47">C48+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <f t="shared" si="47"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:D59" si="48">C49+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <f t="shared" si="48"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="C60">
         <f t="shared" ref="C60:D60" si="49">C50+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <f t="shared" si="49"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:D61" si="50">C51+$K$2</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="C62">
         <f t="shared" ref="C62:D62" si="51">C52+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <f t="shared" si="51"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3235,11 +3235,11 @@
       </c>
       <c r="C63">
         <f t="shared" ref="C63:D63" si="52">C53+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <f t="shared" si="52"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="C64">
         <f t="shared" ref="C64:D64" si="53">C54+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <f t="shared" si="53"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="C65">
         <f t="shared" ref="C65:D65" si="54">C55+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="C66">
         <f t="shared" ref="C66:D66" si="56">C56+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <f t="shared" si="56"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:D67" si="57">C57+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <f t="shared" si="57"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:D68" si="58">C58+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <f t="shared" si="58"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3445,11 +3445,11 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:D69" si="59">C59+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <f t="shared" si="59"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="C70">
         <f t="shared" ref="C70:D70" si="60">C60+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <f t="shared" si="60"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="C71">
         <f t="shared" ref="C71:D71" si="61">C61+$K$2</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <f t="shared" si="61"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:D72" si="62">C62+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D72">
         <f t="shared" si="62"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="63">C63+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <f t="shared" si="63"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C74">
         <f t="shared" ref="C74:D74" si="64">C64+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <f t="shared" si="64"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -3655,11 +3655,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:D75" si="65">C65+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <f t="shared" si="65"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76:D76" si="66">C66+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <f t="shared" si="66"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="C77">
         <f t="shared" ref="C77:D77" si="67">C67+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <f t="shared" si="67"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C78">
         <f t="shared" ref="C78:D78" si="68">C68+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D78">
         <f t="shared" si="68"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="C79">
         <f t="shared" ref="C79:D79" si="69">C69+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D79">
         <f t="shared" si="69"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="C80">
         <f t="shared" ref="C80:D80" si="70">C70+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <f t="shared" si="70"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -3865,11 +3865,11 @@
       </c>
       <c r="C81">
         <f t="shared" ref="C81:D81" si="71">C71+$K$2</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="72">C72+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D82">
         <f t="shared" si="72"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="C83">
         <f t="shared" ref="C83:D83" si="73">C73+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D83">
         <f t="shared" si="73"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="C84">
         <f t="shared" ref="C84:D84" si="74">C74+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <f t="shared" si="74"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="C85">
         <f t="shared" ref="C85:D85" si="75">C75+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D85">
         <f t="shared" si="75"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="C86">
         <f t="shared" ref="C86:D86" si="76">C76+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D86">
         <f t="shared" si="76"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="C87">
         <f t="shared" ref="C87:D87" si="77">C77+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D87">
         <f t="shared" si="77"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:D88" si="78">C78+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D88">
         <f t="shared" si="78"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -4145,11 +4145,11 @@
       </c>
       <c r="C89">
         <f t="shared" ref="C89:D89" si="79">C79+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D89">
         <f t="shared" si="79"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E89">
         <v>80</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="C90">
         <f t="shared" ref="C90:D90" si="80">C80+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D90">
         <f t="shared" si="80"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="C91">
         <f t="shared" ref="C91:D91" si="81">C81+$K$2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D91">
         <f t="shared" si="81"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -4250,11 +4250,11 @@
       </c>
       <c r="C92">
         <f t="shared" ref="C92:D92" si="82">C82+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D92">
         <f t="shared" si="82"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -4285,11 +4285,11 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:D93" si="83">C83+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D93">
         <f t="shared" si="83"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="C94">
         <f t="shared" ref="C94:D94" si="84">C84+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D94">
         <f t="shared" si="84"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4355,11 +4355,11 @@
       </c>
       <c r="C95">
         <f t="shared" ref="C95:D95" si="85">C85+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D95">
         <f t="shared" si="85"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="C96">
         <f t="shared" ref="C96:D96" si="86">C86+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D96">
         <f t="shared" si="86"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="C97">
         <f t="shared" ref="C97:D97" si="87">C87+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D97">
         <f t="shared" si="87"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="C98">
         <f t="shared" ref="C98:D98" si="88">C88+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="C99">
         <f t="shared" ref="C99:D99" si="89">C89+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <f t="shared" si="89"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E99">
         <v>80</v>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="C100">
         <f t="shared" ref="C100:D100" si="90">C90+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D100">
         <f t="shared" si="90"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="C101">
         <f t="shared" ref="C101:D101" si="91">C91+$K$2</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D101">
         <f t="shared" si="91"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -4603,11 +4603,11 @@
       </c>
       <c r="C102">
         <f t="shared" ref="C102:D102" si="92">C92+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <f t="shared" si="92"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="C103">
         <f t="shared" ref="C103:D103" si="93">C93+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D103">
         <f t="shared" si="93"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="C104">
         <f t="shared" ref="C104:D104" si="94">C94+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <f t="shared" si="94"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -4708,11 +4708,11 @@
       </c>
       <c r="C105">
         <f t="shared" ref="C105:D105" si="95">C95+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D105">
         <f t="shared" si="95"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D106" si="96">C96+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D106">
         <f t="shared" si="96"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="C107">
         <f t="shared" ref="C107:D107" si="97">C97+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D107">
         <f t="shared" si="97"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="C108">
         <f t="shared" ref="C108:D108" si="98">C98+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D108">
         <f t="shared" si="98"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C109">
         <f t="shared" ref="C109:D109" si="99">C99+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D109">
         <f t="shared" si="99"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E109">
         <v>80</v>
@@ -4883,11 +4883,11 @@
       </c>
       <c r="C110">
         <f t="shared" ref="C110:D110" si="100">C100+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D110">
         <f t="shared" si="100"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E110">
         <v>90</v>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="C111">
         <f t="shared" ref="C111:D111" si="101">C101+$K$2</f>
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D111">
         <f t="shared" si="101"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="C112">
         <f t="shared" ref="C112:D112" si="102">C102+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D112">
         <f t="shared" si="102"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="C113">
         <f t="shared" ref="C113:D113" si="103">C103+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D113">
         <f t="shared" si="103"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C114">
         <f t="shared" ref="C114:D114" si="104">C104+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D114">
         <f t="shared" si="104"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -5058,11 +5058,11 @@
       </c>
       <c r="C115">
         <f t="shared" ref="C115:D115" si="105">C105+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D115">
         <f t="shared" si="105"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C116">
         <f t="shared" ref="C116:D116" si="106">C106+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D116">
         <f t="shared" si="106"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -5128,11 +5128,11 @@
       </c>
       <c r="C117">
         <f t="shared" ref="C117:D117" si="107">C107+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D117">
         <f t="shared" si="107"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="C118">
         <f t="shared" ref="C118:D118" si="108">C108+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D118">
         <f t="shared" si="108"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="C119">
         <f t="shared" ref="C119:D119" si="109">C109+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D119">
         <f t="shared" si="109"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E119">
         <v>80</v>
@@ -5233,11 +5233,11 @@
       </c>
       <c r="C120">
         <f t="shared" ref="C120:D120" si="110">C110+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D120">
         <f t="shared" si="110"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="C121">
         <f t="shared" ref="C121:D121" si="111">C111+$K$2</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D121">
         <f t="shared" si="111"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="C122">
         <f t="shared" ref="C122:D122" si="112">C112+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D122">
         <f t="shared" si="112"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="C123">
         <f t="shared" ref="C123:D123" si="113">C113+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D123">
         <f t="shared" si="113"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E123">
         <v>20</v>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="C124">
         <f t="shared" ref="C124:D124" si="114">C114+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D124">
         <f t="shared" si="114"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E124">
         <v>30</v>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="C125">
         <f t="shared" ref="C125:D125" si="115">C115+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D125">
         <f t="shared" si="115"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C126">
         <f t="shared" ref="C126:D126" si="116">C116+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D126">
         <f t="shared" si="116"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -5478,11 +5478,11 @@
       </c>
       <c r="C127">
         <f t="shared" ref="C127:D127" si="117">C117+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D127">
         <f t="shared" si="117"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="C128">
         <f t="shared" ref="C128:D128" si="118">C118+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D128">
         <f t="shared" si="118"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E128">
         <v>70</v>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="C129">
         <f t="shared" ref="C129:D129" si="119">C119+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D129">
         <f t="shared" si="119"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="C130">
         <f t="shared" ref="C130:D130" si="121">C120+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D130">
         <f t="shared" si="121"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:D131" si="122">C121+$K$2</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D131">
         <f t="shared" si="122"/>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -5653,11 +5653,11 @@
       </c>
       <c r="C132">
         <f t="shared" ref="C132:D132" si="123">C122+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D132">
         <f t="shared" si="123"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -5688,11 +5688,11 @@
       </c>
       <c r="C133">
         <f t="shared" ref="C133:D133" si="124">C123+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D133">
         <f t="shared" si="124"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E133">
         <v>20</v>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="C134">
         <f t="shared" ref="C134:D134" si="125">C124+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D134">
         <f t="shared" si="125"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E134">
         <v>30</v>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C135">
         <f t="shared" ref="C135:D135" si="126">C125+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D135">
         <f t="shared" si="126"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E135">
         <v>40</v>
@@ -5793,11 +5793,11 @@
       </c>
       <c r="C136">
         <f t="shared" ref="C136:D136" si="127">C126+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D136">
         <f t="shared" si="127"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C137">
         <f t="shared" ref="C137:D137" si="128">C127+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D137">
         <f t="shared" si="128"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="C138">
         <f t="shared" ref="C138:D138" si="129">C128+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D138">
         <f t="shared" si="129"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E138">
         <v>70</v>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="C139">
         <f t="shared" ref="C139:D139" si="130">C129+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D139">
         <f t="shared" si="130"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E139">
         <v>80</v>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="C140">
         <f t="shared" ref="C140:D140" si="131">C130+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D140">
         <f t="shared" si="131"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E140">
         <v>90</v>
@@ -5968,11 +5968,11 @@
       </c>
       <c r="C141">
         <f t="shared" ref="C141:D141" si="132">C131+$K$2</f>
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D141">
         <f t="shared" si="132"/>
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:D142" si="133">C132+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D142">
         <f t="shared" si="133"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -6038,11 +6038,11 @@
       </c>
       <c r="C143">
         <f t="shared" ref="C143:D143" si="134">C133+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D143">
         <f t="shared" si="134"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E143">
         <v>20</v>
@@ -6073,11 +6073,11 @@
       </c>
       <c r="C144">
         <f t="shared" ref="C144:D144" si="135">C134+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D144">
         <f t="shared" si="135"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -6108,11 +6108,11 @@
       </c>
       <c r="C145">
         <f t="shared" ref="C145:D145" si="136">C135+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D145">
         <f t="shared" si="136"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E145">
         <v>40</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="C146">
         <f t="shared" ref="C146:D146" si="137">C136+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D146">
         <f t="shared" si="137"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="C147">
         <f t="shared" ref="C147:D147" si="138">C137+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D147">
         <f t="shared" si="138"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="C148">
         <f t="shared" ref="C148:D148" si="139">C138+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D148">
         <f t="shared" si="139"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E148">
         <v>70</v>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="C149">
         <f t="shared" ref="C149:D149" si="140">C139+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D149">
         <f t="shared" si="140"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <v>80</v>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="C150">
         <f t="shared" ref="C150:D150" si="141">C140+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D150">
         <f t="shared" si="141"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -6318,11 +6318,11 @@
       </c>
       <c r="C151">
         <f t="shared" ref="C151:D151" si="142">C141+$K$2</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D151">
         <f t="shared" si="142"/>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -6353,11 +6353,11 @@
       </c>
       <c r="C152">
         <f t="shared" ref="C152:D152" si="143">C142+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D152">
         <f t="shared" si="143"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E152">
         <v>10</v>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="C153">
         <f t="shared" ref="C153:D153" si="144">C143+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D153">
         <f t="shared" si="144"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E153">
         <v>20</v>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="C154">
         <f t="shared" ref="C154:D154" si="145">C144+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D154">
         <f t="shared" si="145"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6458,11 +6458,11 @@
       </c>
       <c r="C155">
         <f t="shared" ref="C155:D155" si="146">C145+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D155">
         <f t="shared" si="146"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -6493,11 +6493,11 @@
       </c>
       <c r="C156">
         <f t="shared" ref="C156:D156" si="147">C146+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D156">
         <f t="shared" si="147"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="C157">
         <f t="shared" ref="C157:D157" si="148">C147+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D157">
         <f t="shared" si="148"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="C158">
         <f t="shared" ref="C158:D158" si="149">C148+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D158">
         <f t="shared" si="149"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E158">
         <v>70</v>
@@ -6598,11 +6598,11 @@
       </c>
       <c r="C159">
         <f t="shared" ref="C159:D159" si="150">C149+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D159">
         <f t="shared" si="150"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E159">
         <v>80</v>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="C160">
         <f t="shared" ref="C160:D160" si="151">C150+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D160">
         <f t="shared" si="151"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E160">
         <v>90</v>
@@ -6668,11 +6668,11 @@
       </c>
       <c r="C161">
         <f t="shared" ref="C161:D161" si="152">C151+$K$2</f>
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D161">
         <f t="shared" si="152"/>
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -6703,11 +6703,11 @@
       </c>
       <c r="C162">
         <f t="shared" ref="C162:D162" si="153">C152+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D162">
         <f t="shared" si="153"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E162">
         <v>10</v>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="C163">
         <f t="shared" ref="C163:D163" si="154">C153+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D163">
         <f t="shared" si="154"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E163">
         <v>20</v>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C164">
         <f t="shared" ref="C164:D164" si="155">C154+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D164">
         <f t="shared" si="155"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E164">
         <v>30</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="C165">
         <f t="shared" ref="C165:D165" si="156">C155+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D165">
         <f t="shared" si="156"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E165">
         <v>40</v>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="C166">
         <f t="shared" ref="C166:D166" si="157">C156+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D166">
         <f t="shared" si="157"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -6878,11 +6878,11 @@
       </c>
       <c r="C167">
         <f t="shared" ref="C167:D167" si="158">C157+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D167">
         <f t="shared" si="158"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E167">
         <v>60</v>
@@ -6913,11 +6913,11 @@
       </c>
       <c r="C168">
         <f t="shared" ref="C168:D168" si="159">C158+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D168">
         <f t="shared" si="159"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="C169">
         <f t="shared" ref="C169:D169" si="160">C159+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D169">
         <f t="shared" si="160"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E169">
         <v>80</v>
@@ -6983,11 +6983,11 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:D170" si="161">C160+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D170">
         <f t="shared" si="161"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E170">
         <v>90</v>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="C171">
         <f t="shared" ref="C171:D171" si="162">C161+$K$2</f>
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D171">
         <f t="shared" si="162"/>
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -7053,11 +7053,11 @@
       </c>
       <c r="C172">
         <f t="shared" ref="C172:D172" si="163">C162+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D172">
         <f t="shared" si="163"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C173">
         <f t="shared" ref="C173:D173" si="164">C163+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D173">
         <f t="shared" si="164"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E173">
         <v>20</v>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="C174">
         <f t="shared" ref="C174:D174" si="165">C164+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D174">
         <f t="shared" si="165"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E174">
         <v>30</v>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="C175">
         <f t="shared" ref="C175:D175" si="166">C165+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D175">
         <f t="shared" si="166"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E175">
         <v>40</v>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="C176">
         <f t="shared" ref="C176:D176" si="167">C166+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D176">
         <f t="shared" si="167"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C177">
         <f t="shared" ref="C177:D177" si="168">C167+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D177">
         <f t="shared" si="168"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -7263,11 +7263,11 @@
       </c>
       <c r="C178">
         <f t="shared" ref="C178:D178" si="169">C168+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D178">
         <f t="shared" si="169"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E178">
         <v>70</v>
@@ -7298,11 +7298,11 @@
       </c>
       <c r="C179">
         <f t="shared" ref="C179:D179" si="170">C169+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D179">
         <f t="shared" si="170"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E179">
         <v>80</v>
@@ -7333,11 +7333,11 @@
       </c>
       <c r="C180">
         <f t="shared" ref="C180:D180" si="171">C170+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D180">
         <f t="shared" si="171"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E180">
         <v>90</v>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="C181">
         <f t="shared" ref="C181:D181" si="172">C171+$K$2</f>
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D181">
         <f t="shared" si="172"/>
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="C182">
         <f t="shared" ref="C182:D182" si="173">C172+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D182">
         <f t="shared" si="173"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="C183">
         <f t="shared" ref="C183:D183" si="174">C173+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D183">
         <f t="shared" si="174"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E183">
         <v>20</v>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="C184">
         <f t="shared" ref="C184:D184" si="175">C174+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D184">
         <f t="shared" si="175"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -7508,11 +7508,11 @@
       </c>
       <c r="C185">
         <f t="shared" ref="C185:D185" si="176">C175+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D185">
         <f t="shared" si="176"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -7543,11 +7543,11 @@
       </c>
       <c r="C186">
         <f t="shared" ref="C186:D186" si="177">C176+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D186">
         <f t="shared" si="177"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="C187">
         <f t="shared" ref="C187:D187" si="178">C177+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D187">
         <f t="shared" si="178"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -7613,11 +7613,11 @@
       </c>
       <c r="C188">
         <f t="shared" ref="C188:D188" si="179">C178+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D188">
         <f t="shared" si="179"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C189">
         <f t="shared" ref="C189:D189" si="180">C179+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D189">
         <f t="shared" si="180"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E189">
         <v>80</v>
@@ -7683,11 +7683,11 @@
       </c>
       <c r="C190">
         <f t="shared" ref="C190:D190" si="181">C180+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D190">
         <f t="shared" si="181"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E190">
         <v>90</v>
@@ -7718,11 +7718,11 @@
       </c>
       <c r="C191">
         <f t="shared" ref="C191:D191" si="182">C181+$K$2</f>
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D191">
         <f t="shared" si="182"/>
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -7753,11 +7753,11 @@
       </c>
       <c r="C192">
         <f t="shared" ref="C192:D192" si="183">C182+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D192">
         <f t="shared" si="183"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E192">
         <v>10</v>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="C193">
         <f t="shared" ref="C193:D193" si="184">C183+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D193">
         <f t="shared" si="184"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E193">
         <v>20</v>
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C194">
         <f t="shared" ref="C194:D194" si="186">C184+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D194">
         <f t="shared" si="186"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -7858,11 +7858,11 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:D195" si="187">C185+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D195">
         <f t="shared" si="187"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E195">
         <v>40</v>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="C196">
         <f t="shared" ref="C196:D196" si="188">C186+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D196">
         <f t="shared" si="188"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="C197">
         <f t="shared" ref="C197:D197" si="189">C187+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D197">
         <f t="shared" si="189"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -7963,11 +7963,11 @@
       </c>
       <c r="C198">
         <f t="shared" ref="C198:D198" si="190">C188+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D198">
         <f t="shared" si="190"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D199" si="191">C189+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D199">
         <f t="shared" si="191"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E199">
         <v>80</v>
@@ -8033,11 +8033,11 @@
       </c>
       <c r="C200">
         <f t="shared" ref="C200:D200" si="192">C190+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D200">
         <f t="shared" si="192"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E200">
         <v>90</v>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="C201">
         <f t="shared" ref="C201:D201" si="193">C191+$K$2</f>
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="D201">
         <f t="shared" si="193"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E201">
         <v>100</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/aespa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1097" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6D709B-EB13-41AE-B6A7-A109CC2E3491}"/>
+  <xr:revisionPtr revIDLastSave="1103" documentId="13_ncr:40009_{B2571C16-CD38-4085-A61D-8240FBC2AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887AAB51-B03C-432A-BA5F-762E5A6ED017}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{0